--- a/alg_schedule_data_2019_4.xlsx
+++ b/alg_schedule_data_2019_4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="112">
   <si>
     <t>Abe</t>
   </si>
@@ -127,54 +127,51 @@
     <t>O</t>
   </si>
   <si>
+    <t>W6</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>N1</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>OB</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>P2</t>
   </si>
   <si>
-    <t>N1</t>
-  </si>
-  <si>
-    <t>P5</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>OB</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>CD</t>
-  </si>
-  <si>
-    <t>W6</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
     <t>A4</t>
   </si>
   <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>P3</t>
-  </si>
-  <si>
     <t>AS</t>
   </si>
   <si>
@@ -268,91 +265,97 @@
     <t>SUM_per_time</t>
   </si>
   <si>
+    <t>['11:30', '12:00']</t>
+  </si>
+  <si>
+    <t>['13:00']</t>
+  </si>
+  <si>
+    <t>['12:00', '12:30']</t>
+  </si>
+  <si>
+    <t>['12:30', '13:30']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:30']</t>
+  </si>
+  <si>
+    <t>['12:30']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:00', '12:30']</t>
+  </si>
+  <si>
+    <t>['11:30', '13:00']</t>
+  </si>
+  <si>
+    <t>['12:30', '13:00']</t>
+  </si>
+  <si>
+    <t>['13:00', '13:30']</t>
+  </si>
+  <si>
+    <t>['11:30', '13:00', '13:30']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:00', '13:30']</t>
+  </si>
+  <si>
+    <t>['12:00']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>['11:30', '13:30']</t>
   </si>
   <si>
-    <t>['12:00']</t>
-  </si>
-  <si>
-    <t>['11:30', '13:00']</t>
+    <t>['12:00', '12:30', '13:00']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:00', '12:30', '13:30']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:30', '13:00']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:00', '12:30', '13:00', '13:30']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:00', '12:30', '13:00']</t>
+  </si>
+  <si>
+    <t>['12:00', '13:00', '13:30']</t>
   </si>
   <si>
     <t>['12:00', '12:30', '13:30']</t>
   </si>
   <si>
-    <t>['11:30', '12:00']</t>
-  </si>
-  <si>
-    <t>['12:00', '12:30']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:30', '13:00']</t>
+    <t>['11:30', '12:00', '13:00', '13:30']</t>
+  </si>
+  <si>
+    <t>['12:00', '12:30', '13:00', '13:30']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:30', '13:30']</t>
+  </si>
+  <si>
+    <t>['12:00', '13:00']</t>
   </si>
   <si>
     <t>['11:30', '12:00', '13:00']</t>
   </si>
   <si>
-    <t>['11:30', '12:30']</t>
+    <t>['12:00', '13:30']</t>
+  </si>
+  <si>
+    <t>['12:30', '13:00', '13:30']</t>
+  </si>
+  <si>
+    <t>['13:30']</t>
   </si>
   <si>
     <t>['11:30']</t>
-  </si>
-  <si>
-    <t>['12:30', '13:00']</t>
-  </si>
-  <si>
-    <t>['12:30']</t>
-  </si>
-  <si>
-    <t>['13:30']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:00', '12:30']</t>
-  </si>
-  <si>
-    <t>['13:00', '13:30']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:00', '12:30', '13:30']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:30', '13:00', '13:30']</t>
-  </si>
-  <si>
-    <t>['11:30', '13:00', '13:30']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:00', '12:30', '13:00', '13:30']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:00', '12:30', '13:00']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:30', '13:30']</t>
-  </si>
-  <si>
-    <t>['12:00', '13:00', '13:30']</t>
-  </si>
-  <si>
-    <t>['12:00', '12:30', '13:00', '13:30']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:00', '13:00', '13:30']</t>
-  </si>
-  <si>
-    <t>['12:30', '13:30']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:00', '13:30']</t>
-  </si>
-  <si>
-    <t>['12:00', '13:00']</t>
-  </si>
-  <si>
-    <t>['12:00', '12:30', '13:00']</t>
-  </si>
-  <si>
-    <t>['13:00']</t>
   </si>
 </sst>
 </file>
@@ -786,61 +789,61 @@
         <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
         <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" t="s">
         <v>36</v>
       </c>
-      <c r="H2" t="s">
-        <v>50</v>
-      </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
         <v>36</v>
       </c>
       <c r="K2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" t="s">
         <v>36</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" t="s">
         <v>48</v>
-      </c>
-      <c r="N2" t="s">
-        <v>50</v>
-      </c>
-      <c r="O2" t="s">
-        <v>38</v>
-      </c>
-      <c r="P2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>50</v>
       </c>
       <c r="R2" t="s">
         <v>36</v>
       </c>
       <c r="S2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -854,46 +857,46 @@
         <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I3" t="s">
         <v>36</v>
       </c>
       <c r="J3" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="K3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" t="s">
         <v>36</v>
       </c>
-      <c r="L3" t="s">
-        <v>50</v>
-      </c>
-      <c r="M3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N3" t="s">
-        <v>42</v>
-      </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P3" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="Q3" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="R3" t="s">
         <v>36</v>
@@ -902,10 +905,10 @@
         <v>38</v>
       </c>
       <c r="T3" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="U3" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -925,49 +928,49 @@
         <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="J4" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="K4" t="s">
         <v>36</v>
       </c>
       <c r="L4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M4" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="N4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="O4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P4" t="s">
         <v>36</v>
       </c>
       <c r="Q4" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="R4" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="S4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="U4" t="s">
         <v>36</v>
@@ -978,64 +981,64 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
         <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
         <v>36</v>
       </c>
       <c r="I5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M5" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="N5" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="P5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="R5" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="S5" t="s">
         <v>35</v>
       </c>
       <c r="T5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -1046,61 +1049,61 @@
         <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
         <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J6" t="s">
         <v>37</v>
       </c>
       <c r="K6" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="L6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O6" t="s">
         <v>35</v>
-      </c>
-      <c r="N6" t="s">
-        <v>45</v>
-      </c>
-      <c r="O6" t="s">
-        <v>49</v>
       </c>
       <c r="P6" t="s">
         <v>36</v>
       </c>
       <c r="Q6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="R6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="S6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="T6" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="U6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -1108,64 +1111,64 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
         <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G7" t="s">
         <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="I7" t="s">
         <v>37</v>
       </c>
       <c r="J7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K7" t="s">
         <v>36</v>
       </c>
       <c r="L7" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="M7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N7" t="s">
         <v>42</v>
       </c>
       <c r="O7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P7" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="Q7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="R7" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="S7" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="T7" t="s">
+        <v>37</v>
+      </c>
+      <c r="U7" t="s">
         <v>47</v>
-      </c>
-      <c r="U7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1173,64 +1176,64 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
         <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
         <v>36</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H8" t="s">
         <v>34</v>
       </c>
       <c r="I8" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="J8" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K8" t="s">
         <v>36</v>
       </c>
       <c r="L8" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8" t="s">
+        <v>37</v>
+      </c>
+      <c r="N8" t="s">
+        <v>47</v>
+      </c>
+      <c r="O8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>35</v>
+      </c>
+      <c r="R8" t="s">
         <v>49</v>
       </c>
-      <c r="M8" t="s">
-        <v>50</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="S8" t="s">
+        <v>42</v>
+      </c>
+      <c r="T8" t="s">
         <v>37</v>
       </c>
-      <c r="O8" t="s">
-        <v>36</v>
-      </c>
-      <c r="P8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>36</v>
-      </c>
-      <c r="R8" t="s">
-        <v>46</v>
-      </c>
-      <c r="S8" t="s">
-        <v>52</v>
-      </c>
-      <c r="T8" t="s">
-        <v>35</v>
-      </c>
       <c r="U8" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1238,58 +1241,58 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
         <v>36</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>37</v>
       </c>
-      <c r="D9" t="s">
-        <v>47</v>
-      </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I9" t="s">
         <v>34</v>
       </c>
       <c r="J9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9" t="s">
         <v>49</v>
       </c>
-      <c r="K9" t="s">
+      <c r="N9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>37</v>
+      </c>
+      <c r="R9" t="s">
         <v>35</v>
       </c>
-      <c r="L9" t="s">
-        <v>45</v>
-      </c>
-      <c r="M9" t="s">
-        <v>46</v>
-      </c>
-      <c r="N9" t="s">
-        <v>36</v>
-      </c>
-      <c r="O9" t="s">
-        <v>48</v>
-      </c>
-      <c r="P9" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>45</v>
-      </c>
-      <c r="R9" t="s">
-        <v>52</v>
-      </c>
       <c r="S9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T9" t="s">
         <v>38</v>
@@ -1303,28 +1306,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" t="s">
         <v>36</v>
       </c>
-      <c r="D10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" t="s">
-        <v>51</v>
-      </c>
       <c r="H10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J10" t="s">
         <v>34</v>
@@ -1333,34 +1336,34 @@
         <v>38</v>
       </c>
       <c r="L10" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="M10" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="N10" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="O10" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="P10" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="Q10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R10" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="S10" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="T10" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="U10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1374,58 +1377,58 @@
         <v>47</v>
       </c>
       <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" t="s">
         <v>48</v>
-      </c>
-      <c r="E11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" t="s">
-        <v>51</v>
       </c>
       <c r="H11" t="s">
         <v>49</v>
       </c>
       <c r="I11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J11" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="K11" t="s">
         <v>34</v>
       </c>
       <c r="L11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N11" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="O11" t="s">
         <v>39</v>
       </c>
       <c r="P11" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q11" t="s">
         <v>36</v>
       </c>
-      <c r="Q11" t="s">
-        <v>35</v>
-      </c>
       <c r="R11" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="S11" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="T11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1436,31 +1439,31 @@
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" t="s">
         <v>44</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>44</v>
       </c>
-      <c r="F12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" t="s">
-        <v>43</v>
-      </c>
       <c r="H12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J12" t="s">
         <v>40</v>
       </c>
       <c r="K12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L12" t="s">
         <v>34</v>
@@ -1469,28 +1472,28 @@
         <v>40</v>
       </c>
       <c r="N12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O12" t="s">
         <v>40</v>
       </c>
       <c r="P12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T12" t="s">
         <v>40</v>
       </c>
       <c r="U12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1563,64 +1566,64 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" t="s">
         <v>38</v>
       </c>
-      <c r="C14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" t="s">
-        <v>49</v>
-      </c>
       <c r="H14" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I14" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K14" t="s">
         <v>42</v>
       </c>
       <c r="L14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M14" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="N14" t="s">
         <v>34</v>
       </c>
       <c r="O14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Q14" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="R14" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="S14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T14" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="U14" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1628,64 +1631,64 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
         <v>42</v>
       </c>
-      <c r="C15" t="s">
-        <v>36</v>
-      </c>
       <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" t="s">
         <v>42</v>
       </c>
-      <c r="E15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" t="s">
-        <v>38</v>
-      </c>
       <c r="G15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I15" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="J15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K15" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="L15" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="M15" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="N15" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="O15" t="s">
         <v>34</v>
       </c>
       <c r="P15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="R15" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="S15" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="T15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="U15" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1693,64 +1696,64 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" t="s">
         <v>36</v>
       </c>
-      <c r="C16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" t="s">
-        <v>52</v>
-      </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F16" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G16" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
         <v>42</v>
       </c>
       <c r="I16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J16" t="s">
+        <v>37</v>
+      </c>
+      <c r="K16" t="s">
         <v>38</v>
       </c>
-      <c r="K16" t="s">
-        <v>36</v>
-      </c>
       <c r="L16" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="M16" t="s">
         <v>42</v>
       </c>
       <c r="N16" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="O16" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="P16" t="s">
         <v>34</v>
       </c>
       <c r="Q16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R16" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="S16" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="T16" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="U16" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1758,64 +1761,64 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" t="s">
         <v>35</v>
       </c>
-      <c r="C17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" t="s">
-        <v>51</v>
-      </c>
-      <c r="G17" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" t="s">
-        <v>46</v>
-      </c>
       <c r="I17" t="s">
+        <v>42</v>
+      </c>
+      <c r="J17" t="s">
+        <v>43</v>
+      </c>
+      <c r="K17" t="s">
+        <v>37</v>
+      </c>
+      <c r="L17" t="s">
+        <v>49</v>
+      </c>
+      <c r="M17" t="s">
         <v>35</v>
       </c>
-      <c r="J17" t="s">
-        <v>48</v>
-      </c>
-      <c r="K17" t="s">
-        <v>46</v>
-      </c>
-      <c r="L17" t="s">
-        <v>38</v>
-      </c>
-      <c r="M17" t="s">
-        <v>36</v>
-      </c>
       <c r="N17" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="O17" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="P17" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="Q17" t="s">
         <v>34</v>
       </c>
       <c r="R17" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="S17" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="T17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1823,49 +1826,49 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" t="s">
         <v>35</v>
       </c>
-      <c r="F18" t="s">
+      <c r="J18" t="s">
         <v>42</v>
       </c>
-      <c r="G18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" t="s">
-        <v>45</v>
-      </c>
-      <c r="I18" t="s">
-        <v>46</v>
-      </c>
-      <c r="J18" t="s">
-        <v>52</v>
-      </c>
       <c r="K18" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="L18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M18" t="s">
+        <v>49</v>
+      </c>
+      <c r="N18" t="s">
         <v>35</v>
       </c>
-      <c r="N18" t="s">
-        <v>36</v>
-      </c>
       <c r="O18" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="P18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q18" t="s">
         <v>46</v>
@@ -1874,13 +1877,13 @@
         <v>34</v>
       </c>
       <c r="S18" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="T18" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="U18" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1888,64 +1891,64 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
         <v>49</v>
       </c>
-      <c r="E19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" t="s">
-        <v>50</v>
-      </c>
       <c r="G19" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H19" t="s">
         <v>42</v>
       </c>
       <c r="I19" t="s">
+        <v>49</v>
+      </c>
+      <c r="J19" t="s">
+        <v>37</v>
+      </c>
+      <c r="K19" t="s">
+        <v>42</v>
+      </c>
+      <c r="L19" t="s">
         <v>38</v>
       </c>
-      <c r="J19" t="s">
-        <v>48</v>
-      </c>
-      <c r="K19" t="s">
-        <v>47</v>
-      </c>
-      <c r="L19" t="s">
-        <v>49</v>
-      </c>
       <c r="M19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N19" t="s">
         <v>49</v>
       </c>
       <c r="O19" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="P19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q19" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="R19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S19" t="s">
         <v>34</v>
       </c>
       <c r="T19" t="s">
+        <v>47</v>
+      </c>
+      <c r="U19" t="s">
         <v>42</v>
-      </c>
-      <c r="U19" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1953,64 +1956,64 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G20" t="s">
         <v>35</v>
       </c>
       <c r="H20" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="I20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K20" t="s">
+        <v>43</v>
+      </c>
+      <c r="L20" t="s">
+        <v>35</v>
+      </c>
+      <c r="M20" t="s">
+        <v>46</v>
+      </c>
+      <c r="N20" t="s">
+        <v>43</v>
+      </c>
+      <c r="O20" t="s">
         <v>37</v>
       </c>
-      <c r="L20" t="s">
-        <v>36</v>
-      </c>
-      <c r="M20" t="s">
-        <v>50</v>
-      </c>
-      <c r="N20" t="s">
-        <v>37</v>
-      </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>42</v>
       </c>
-      <c r="P20" t="s">
-        <v>36</v>
-      </c>
       <c r="Q20" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="R20" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="S20" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="T20" t="s">
         <v>34</v>
       </c>
       <c r="U20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -2018,61 +2021,61 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D21" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E21" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H21" t="s">
         <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J21" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="K21" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="L21" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="M21" t="s">
         <v>38</v>
       </c>
       <c r="N21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O21" t="s">
         <v>38</v>
       </c>
       <c r="P21" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="Q21" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="R21" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="S21" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="T21" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="U21" t="s">
         <v>34</v>
@@ -2086,61 +2089,61 @@
         <v>34</v>
       </c>
       <c r="C22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
         <v>36</v>
       </c>
-      <c r="D22" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" t="s">
-        <v>45</v>
-      </c>
-      <c r="F22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G22" t="s">
-        <v>49</v>
-      </c>
-      <c r="H22" t="s">
-        <v>36</v>
-      </c>
-      <c r="I22" t="s">
-        <v>46</v>
-      </c>
       <c r="J22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K22" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="L22" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N22" t="s">
+        <v>42</v>
+      </c>
+      <c r="O22" t="s">
+        <v>43</v>
+      </c>
+      <c r="P22" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>46</v>
+      </c>
+      <c r="R22" t="s">
         <v>35</v>
       </c>
-      <c r="O22" t="s">
-        <v>48</v>
-      </c>
-      <c r="P22" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>51</v>
-      </c>
-      <c r="R22" t="s">
-        <v>36</v>
-      </c>
       <c r="S22" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="T22" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="U22" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -2148,34 +2151,34 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
         <v>34</v>
       </c>
       <c r="D23" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" t="s">
         <v>47</v>
       </c>
-      <c r="G23" t="s">
-        <v>51</v>
-      </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I23" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J23" t="s">
         <v>39</v>
       </c>
       <c r="K23" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L23" t="s">
         <v>39</v>
@@ -2184,28 +2187,28 @@
         <v>39</v>
       </c>
       <c r="N23" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="O23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q23" t="s">
+        <v>46</v>
+      </c>
+      <c r="R23" t="s">
+        <v>46</v>
+      </c>
+      <c r="S23" t="s">
         <v>42</v>
-      </c>
-      <c r="R23" t="s">
-        <v>36</v>
-      </c>
-      <c r="S23" t="s">
-        <v>38</v>
       </c>
       <c r="T23" t="s">
         <v>39</v>
       </c>
       <c r="U23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -2213,10 +2216,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D24" t="s">
         <v>34</v>
@@ -2225,52 +2228,52 @@
         <v>41</v>
       </c>
       <c r="F24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="T24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -2343,64 +2346,64 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D26" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E26" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F26" t="s">
         <v>34</v>
       </c>
       <c r="G26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I26" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="J26" t="s">
+        <v>43</v>
+      </c>
+      <c r="K26" t="s">
         <v>49</v>
       </c>
-      <c r="K26" t="s">
-        <v>36</v>
-      </c>
       <c r="L26" t="s">
+        <v>46</v>
+      </c>
+      <c r="M26" t="s">
+        <v>46</v>
+      </c>
+      <c r="N26" t="s">
+        <v>35</v>
+      </c>
+      <c r="O26" t="s">
+        <v>42</v>
+      </c>
+      <c r="P26" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q26" t="s">
         <v>50</v>
       </c>
-      <c r="M26" t="s">
-        <v>36</v>
-      </c>
-      <c r="N26" t="s">
-        <v>50</v>
-      </c>
-      <c r="O26" t="s">
-        <v>36</v>
-      </c>
-      <c r="P26" t="s">
+      <c r="R26" t="s">
+        <v>47</v>
+      </c>
+      <c r="S26" t="s">
+        <v>46</v>
+      </c>
+      <c r="T26" t="s">
         <v>42</v>
       </c>
-      <c r="Q26" t="s">
-        <v>36</v>
-      </c>
-      <c r="R26" t="s">
-        <v>48</v>
-      </c>
-      <c r="S26" t="s">
-        <v>48</v>
-      </c>
-      <c r="T26" t="s">
-        <v>46</v>
-      </c>
       <c r="U26" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2408,64 +2411,64 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D27" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E27" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G27" t="s">
         <v>34</v>
       </c>
       <c r="H27" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I27" t="s">
         <v>46</v>
       </c>
       <c r="J27" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K27" t="s">
         <v>46</v>
       </c>
       <c r="L27" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="M27" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="N27" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="O27" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P27" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="Q27" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="R27" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="S27" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="T27" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="U27" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2473,64 +2476,64 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D28" t="s">
         <v>35</v>
       </c>
       <c r="E28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
         <v>34</v>
       </c>
       <c r="I28" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="J28" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="K28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L28" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="M28" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="N28" t="s">
+        <v>46</v>
+      </c>
+      <c r="O28" t="s">
+        <v>43</v>
+      </c>
+      <c r="P28" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>46</v>
+      </c>
+      <c r="R28" t="s">
+        <v>46</v>
+      </c>
+      <c r="S28" t="s">
+        <v>50</v>
+      </c>
+      <c r="T28" t="s">
         <v>37</v>
       </c>
-      <c r="O28" t="s">
-        <v>50</v>
-      </c>
-      <c r="P28" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>52</v>
-      </c>
-      <c r="R28" t="s">
-        <v>37</v>
-      </c>
-      <c r="S28" t="s">
-        <v>46</v>
-      </c>
-      <c r="T28" t="s">
-        <v>46</v>
-      </c>
       <c r="U28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2538,64 +2541,64 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C29" t="s">
         <v>46</v>
       </c>
       <c r="D29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" t="s">
         <v>38</v>
       </c>
-      <c r="E29" t="s">
-        <v>51</v>
-      </c>
       <c r="F29" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H29" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="I29" t="s">
         <v>34</v>
       </c>
       <c r="J29" t="s">
+        <v>38</v>
+      </c>
+      <c r="K29" t="s">
+        <v>46</v>
+      </c>
+      <c r="L29" t="s">
         <v>37</v>
       </c>
-      <c r="K29" t="s">
-        <v>52</v>
-      </c>
-      <c r="L29" t="s">
-        <v>47</v>
-      </c>
       <c r="M29" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="N29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O29" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="P29" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q29" t="s">
         <v>37</v>
       </c>
-      <c r="Q29" t="s">
-        <v>47</v>
-      </c>
       <c r="R29" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="S29" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="T29" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="U29" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2603,64 +2606,64 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D30" t="s">
         <v>46</v>
       </c>
       <c r="E30" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" t="s">
+        <v>50</v>
+      </c>
+      <c r="G30" t="s">
+        <v>43</v>
+      </c>
+      <c r="H30" t="s">
+        <v>50</v>
+      </c>
+      <c r="I30" t="s">
         <v>38</v>
-      </c>
-      <c r="F30" t="s">
-        <v>49</v>
-      </c>
-      <c r="G30" t="s">
-        <v>46</v>
-      </c>
-      <c r="H30" t="s">
-        <v>45</v>
-      </c>
-      <c r="I30" t="s">
-        <v>35</v>
       </c>
       <c r="J30" t="s">
         <v>34</v>
       </c>
       <c r="K30" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L30" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N30" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="O30" t="s">
         <v>46</v>
       </c>
       <c r="P30" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="Q30" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S30" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="T30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U30" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2668,64 +2671,64 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D31" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E31" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F31" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="G31" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H31" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J31" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="K31" t="s">
         <v>34</v>
       </c>
       <c r="L31" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="M31" t="s">
         <v>47</v>
       </c>
       <c r="N31" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="O31" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="P31" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q31" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="R31" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="S31" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="T31" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="U31" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2733,64 +2736,64 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D32" t="s">
         <v>46</v>
       </c>
       <c r="E32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F32" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G32" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H32" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L32" t="s">
         <v>34</v>
       </c>
       <c r="M32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N32" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P32" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="Q32" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="R32" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="S32" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="T32" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="U32" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2801,61 +2804,61 @@
         <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D33" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E33" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F33" t="s">
+        <v>46</v>
+      </c>
+      <c r="G33" t="s">
         <v>42</v>
       </c>
-      <c r="G33" t="s">
-        <v>36</v>
-      </c>
       <c r="H33" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J33" t="s">
         <v>47</v>
       </c>
       <c r="K33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L33" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="M33" t="s">
         <v>34</v>
       </c>
       <c r="N33" t="s">
+        <v>38</v>
+      </c>
+      <c r="O33" t="s">
+        <v>46</v>
+      </c>
+      <c r="P33" t="s">
         <v>50</v>
       </c>
-      <c r="O33" t="s">
-        <v>47</v>
-      </c>
-      <c r="P33" t="s">
+      <c r="Q33" t="s">
+        <v>42</v>
+      </c>
+      <c r="R33" t="s">
         <v>38</v>
       </c>
-      <c r="Q33" t="s">
-        <v>36</v>
-      </c>
-      <c r="R33" t="s">
-        <v>42</v>
-      </c>
       <c r="S33" t="s">
         <v>46</v>
       </c>
       <c r="T33" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U33" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2863,64 +2866,64 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" t="s">
         <v>35</v>
       </c>
-      <c r="C34" t="s">
-        <v>36</v>
-      </c>
       <c r="D34" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E34" t="s">
         <v>39</v>
       </c>
       <c r="F34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G34" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I34" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K34" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="L34" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M34" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="N34" t="s">
         <v>34</v>
       </c>
       <c r="O34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P34" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="Q34" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="R34" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="S34" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="T34" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="U34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2934,10 +2937,10 @@
         <v>39</v>
       </c>
       <c r="D35" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E35" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F35" t="s">
         <v>39</v>
@@ -2952,16 +2955,16 @@
         <v>39</v>
       </c>
       <c r="J35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K35" t="s">
         <v>39</v>
       </c>
       <c r="L35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N35" t="s">
         <v>39</v>
@@ -2982,7 +2985,7 @@
         <v>39</v>
       </c>
       <c r="T35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U35" t="s">
         <v>39</v>
@@ -3003,7 +3006,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3011,7 +3014,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3019,7 +3022,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3027,7 +3030,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3035,7 +3038,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3059,7 +3062,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3075,7 +3078,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3083,7 +3086,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3107,7 +3110,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3115,7 +3118,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3123,7 +3126,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3131,7 +3134,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3139,7 +3142,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3155,7 +3158,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3163,7 +3166,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3171,7 +3174,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3179,7 +3182,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3203,7 +3206,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -3211,7 +3214,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3235,7 +3238,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3251,7 +3254,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -3259,7 +3262,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3267,7 +3270,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3293,12 +3296,12 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2">
         <v>0.06682027649769585</v>
@@ -3306,15 +3309,15 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3">
-        <v>0.01278772378516624</v>
+        <v>0.01023017902813299</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4">
         <v>0.02137767220902613</v>
@@ -3322,71 +3325,71 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5">
-        <v>0.01196172248803828</v>
+        <v>0.009569377990430622</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6">
-        <v>0.0121654501216545</v>
+        <v>0.009732360097323601</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7">
-        <v>0.1889168765743073</v>
+        <v>0.07808564231738035</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8">
-        <v>0.1672862453531599</v>
+        <v>0.01486988847583643</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.08870967741935484</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10">
-        <v>0.007067137809187279</v>
+        <v>0.08833922261484099</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B11">
-        <v>0.05149051490514905</v>
+        <v>0.04878048780487805</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>0.02820512820512821</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -3394,7 +3397,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3402,7 +3405,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3410,7 +3413,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3418,31 +3421,31 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B17">
-        <v>0.1185410334346505</v>
+        <v>0.0911854103343465</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B18">
-        <v>0.02898550724637681</v>
+        <v>0.007246376811594203</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B19">
-        <v>0.03111111111111111</v>
+        <v>0.06222222222222222</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3450,42 +3453,42 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B21">
-        <v>0.006993006993006993</v>
+        <v>0.04895104895104895</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B22">
-        <v>0.01324503311258278</v>
+        <v>0.09933774834437085</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B23">
-        <v>0.006756756756756757</v>
+        <v>0.0945945945945946</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B24">
-        <v>0.0131578947368421</v>
+        <v>0.09868421052631579</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B25">
-        <v>0.007407407407407408</v>
+        <v>0.02222222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -3503,7 +3506,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3511,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.09738717339667459</v>
+        <v>0.09263657957244656</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3519,7 +3522,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.008333333333333333</v>
+        <v>0.01111111111111111</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3527,7 +3530,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.0141643059490085</v>
+        <v>0.0226628895184136</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3535,7 +3538,7 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0.1045130641330166</v>
+        <v>0.08551068883610451</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3543,7 +3546,7 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.008333333333333333</v>
+        <v>0.01111111111111111</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3559,7 +3562,7 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.006211180124223602</v>
+        <v>0.01552795031055901</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3575,7 +3578,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.07838479809976247</v>
+        <v>0.09263657957244656</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3583,7 +3586,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.008333333333333333</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3591,7 +3594,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.0084985835694051</v>
+        <v>0.0311614730878187</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3599,7 +3602,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.003105590062111801</v>
+        <v>0.006211180124223602</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3607,7 +3610,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.009433962264150943</v>
+        <v>0.006289308176100629</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3615,7 +3618,7 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>0.09501187648456057</v>
+        <v>0.09263657957244656</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3623,7 +3626,7 @@
         <v>23</v>
       </c>
       <c r="B16">
-        <v>0.01111111111111111</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3631,7 +3634,7 @@
         <v>24</v>
       </c>
       <c r="B17">
-        <v>0.0056657223796034</v>
+        <v>0.0113314447592068</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3639,7 +3642,7 @@
         <v>25</v>
       </c>
       <c r="B18">
-        <v>0.0124223602484472</v>
+        <v>0.01863354037267081</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3647,7 +3650,7 @@
         <v>26</v>
       </c>
       <c r="B19">
-        <v>0.01257861635220126</v>
+        <v>0.006289308176100629</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3655,7 +3658,7 @@
         <v>29</v>
       </c>
       <c r="B20">
-        <v>0.0498812351543943</v>
+        <v>0.06888361045130641</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3663,7 +3666,7 @@
         <v>30</v>
       </c>
       <c r="B21">
-        <v>0.08055555555555556</v>
+        <v>0.008333333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -3681,7 +3684,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3689,7 +3692,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3697,7 +3700,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3705,7 +3708,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3713,7 +3716,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3721,7 +3724,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3729,7 +3732,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3737,7 +3740,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3753,7 +3756,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3761,7 +3764,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3785,7 +3788,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3793,7 +3796,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3801,7 +3804,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3809,7 +3812,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3817,7 +3820,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3825,7 +3828,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3833,7 +3836,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3841,7 +3844,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3849,7 +3852,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3881,7 +3884,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -3889,7 +3892,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3897,7 +3900,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3905,7 +3908,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -3913,7 +3916,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3921,7 +3924,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -3929,7 +3932,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -3937,7 +3940,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3945,7 +3948,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3971,79 +3974,79 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="Z1" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:26">
@@ -4051,37 +4054,37 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>12</v>
-      </c>
-      <c r="H2">
-        <v>12</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
       <c r="L2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -4096,34 +4099,34 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z2">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -4146,38 +4149,38 @@
         <v>0</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
         <v>2</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
       <c r="R3">
         <v>0</v>
       </c>
@@ -4191,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -4203,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -4226,22 +4229,22 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -4274,16 +4277,16 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -4291,37 +4294,37 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>2</v>
       </c>
-      <c r="D5">
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5">
         <v>3</v>
       </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>10</v>
-      </c>
-      <c r="H5">
-        <v>9</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
       <c r="L5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -4336,13 +4339,13 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4357,13 +4360,13 @@
         <v>0</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -4386,38 +4389,38 @@
         <v>0</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>2</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
       <c r="R6">
         <v>0</v>
       </c>
@@ -4443,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -4466,44 +4469,44 @@
         <v>0</v>
       </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
         <v>2</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>5</v>
-      </c>
       <c r="T7">
         <v>0</v>
       </c>
@@ -4514,10 +4517,10 @@
         <v>0</v>
       </c>
       <c r="W7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -4546,64 +4549,64 @@
         <v>0</v>
       </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
         <v>2</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
       <c r="W8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -4626,13 +4629,13 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -4706,22 +4709,22 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
         <v>3</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
+      <c r="K10">
+        <v>4</v>
+      </c>
+      <c r="L10">
         <v>2</v>
-      </c>
-      <c r="K10">
-        <v>6</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -4742,28 +4745,28 @@
         <v>0</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10">
         <v>0</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z10">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -4786,16 +4789,16 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -4816,34 +4819,34 @@
         <v>0</v>
       </c>
       <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
         <v>2</v>
       </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
       <c r="W11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -4866,44 +4869,44 @@
         <v>0</v>
       </c>
       <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
         <v>3</v>
       </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
       <c r="T12">
         <v>0</v>
       </c>
@@ -4914,16 +4917,16 @@
         <v>0</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -4946,7 +4949,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -4976,7 +4979,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -4991,7 +4994,7 @@
         <v>0</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W13">
         <v>0</v>
@@ -5003,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -5026,7 +5029,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -5038,7 +5041,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -5083,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -5091,37 +5094,37 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
         <v>2</v>
       </c>
-      <c r="D15">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
         <v>3</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-      <c r="G15">
-        <v>8</v>
-      </c>
-      <c r="H15">
-        <v>8</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
       </c>
       <c r="K15">
         <v>4</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -5142,28 +5145,28 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15">
         <v>0</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z15">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -5186,19 +5189,19 @@
         <v>0</v>
       </c>
       <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
         <v>2</v>
       </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
       <c r="J16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -5228,22 +5231,22 @@
         <v>0</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:26">
@@ -5266,7 +5269,7 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -5275,7 +5278,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -5302,7 +5305,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -5314,7 +5317,7 @@
         <v>0</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X17">
         <v>0</v>
@@ -5323,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -5346,64 +5349,64 @@
         <v>0</v>
       </c>
       <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>1</v>
+      </c>
+      <c r="V18">
         <v>2</v>
       </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>2</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
       <c r="W18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:26">
@@ -5432,7 +5435,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -5462,28 +5465,28 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19">
         <v>0</v>
       </c>
       <c r="U19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z19">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:26">
@@ -5506,22 +5509,22 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K20">
         <v>3</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -5536,13 +5539,13 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -5557,13 +5560,13 @@
         <v>0</v>
       </c>
       <c r="X20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -5586,13 +5589,13 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -5616,10 +5619,10 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="R21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S21">
         <v>0</v>
@@ -5631,7 +5634,7 @@
         <v>0</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21">
         <v>0</v>
@@ -5643,87 +5646,87 @@
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:26">
       <c r="A22" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B22">
         <v>29</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22">
         <v>9</v>
       </c>
       <c r="E22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G22">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="H22">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="J22">
+        <v>25</v>
+      </c>
+      <c r="K22">
+        <v>18</v>
+      </c>
+      <c r="L22">
+        <v>11</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>30</v>
+      </c>
+      <c r="R22">
         <v>2</v>
       </c>
-      <c r="K22">
-        <v>19</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>39</v>
-      </c>
-      <c r="R22">
-        <v>8</v>
-      </c>
       <c r="S22">
+        <v>14</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
         <v>7</v>
       </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <v>1</v>
-      </c>
       <c r="V22">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="W22">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="X22">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="Y22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z22">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -5761,19 +5764,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="E2" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5781,19 +5784,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" t="s">
         <v>83</v>
-      </c>
-      <c r="C3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F3" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5801,19 +5804,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="E4" t="s">
         <v>86</v>
       </c>
       <c r="F4" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5821,19 +5824,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" t="s">
         <v>85</v>
-      </c>
-      <c r="C5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F5" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5841,19 +5844,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D6" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E6" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5864,16 +5867,16 @@
         <v>86</v>
       </c>
       <c r="C7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" t="s">
         <v>85</v>
-      </c>
-      <c r="D7" t="s">
-        <v>102</v>
-      </c>
-      <c r="E7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5881,19 +5884,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="E8" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5901,19 +5904,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="D9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5921,19 +5924,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E10" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="F10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5941,19 +5944,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="D11" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="E11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" t="s">
         <v>89</v>
-      </c>
-      <c r="F11" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5961,19 +5964,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5981,19 +5984,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -6001,19 +6004,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C14" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D14" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="E14" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="F14" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -6021,19 +6024,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" t="s">
         <v>105</v>
       </c>
-      <c r="E15" t="s">
-        <v>88</v>
-      </c>
       <c r="F15" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -6041,16 +6044,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D16" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E16" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F16" t="s">
         <v>90</v>
@@ -6061,16 +6064,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C17" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D17" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E17" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="F17" t="s">
         <v>86</v>
@@ -6081,19 +6084,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="D18" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="E18" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="F18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6101,19 +6104,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C19" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D19" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="E19" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="F19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6121,19 +6124,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="D20" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E20" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="F20" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6141,19 +6144,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C21" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D21" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E21" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="F21" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -6161,19 +6164,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C22" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="D22" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E22" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="F22" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6181,19 +6184,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D23" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E23" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="F23" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6201,19 +6204,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" t="s">
         <v>83</v>
       </c>
-      <c r="C24" t="s">
-        <v>87</v>
-      </c>
       <c r="D24" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E24" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F24" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6221,19 +6224,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C25" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D25" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E25" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F25" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6244,16 +6247,16 @@
         <v>86</v>
       </c>
       <c r="C26" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D26" t="s">
         <v>90</v>
       </c>
       <c r="E26" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F26" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6261,19 +6264,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" t="s">
         <v>94</v>
-      </c>
-      <c r="C27" t="s">
-        <v>102</v>
-      </c>
-      <c r="D27" t="s">
-        <v>102</v>
-      </c>
-      <c r="E27" t="s">
-        <v>102</v>
-      </c>
-      <c r="F27" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -6281,19 +6284,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C28" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D28" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="E28" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="F28" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -6301,19 +6304,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C29" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D29" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="E29" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F29" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -6321,19 +6324,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C30" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="D30" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E30" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F30" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -6341,19 +6344,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C31" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D31" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E31" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F31" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -6361,19 +6364,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C32" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D32" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="E32" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F32" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -6381,19 +6384,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C33" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="D33" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E33" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="F33" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -6401,19 +6404,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C34" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D34" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E34" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="F34" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -6424,16 +6427,16 @@
         <v>88</v>
       </c>
       <c r="C35" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="D35" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E35" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="F35" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/alg_schedule_data_2019_4.xlsx
+++ b/alg_schedule_data_2019_4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="109">
   <si>
     <t>Abe</t>
   </si>
@@ -127,57 +127,60 @@
     <t>O</t>
   </si>
   <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>N1</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>OB</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
     <t>W6</t>
   </si>
   <si>
-    <t>P3</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>N1</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>OB</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>CD</t>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>P4</t>
   </si>
   <si>
     <t>MS</t>
   </si>
   <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>P2</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
     <t>AS</t>
   </si>
   <si>
-    <t>P4</t>
-  </si>
-  <si>
     <t>NightWork_count</t>
   </si>
   <si>
@@ -265,97 +268,85 @@
     <t>SUM_per_time</t>
   </si>
   <si>
+    <t>['12:30']</t>
+  </si>
+  <si>
+    <t>['12:00']</t>
+  </si>
+  <si>
+    <t>['12:00', '13:30']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:30']</t>
+  </si>
+  <si>
+    <t>['12:00', '12:30']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:00', '12:30']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:30', '13:00']</t>
+  </si>
+  <si>
+    <t>['11:30', '13:00']</t>
+  </si>
+  <si>
     <t>['11:30', '12:00']</t>
   </si>
   <si>
+    <t>['11:30', '12:30', '13:30']</t>
+  </si>
+  <si>
+    <t>['12:30', '13:00']</t>
+  </si>
+  <si>
+    <t>['13:30']</t>
+  </si>
+  <si>
     <t>['13:00']</t>
   </si>
   <si>
-    <t>['12:00', '12:30']</t>
-  </si>
-  <si>
     <t>['12:30', '13:30']</t>
   </si>
   <si>
-    <t>['11:30', '12:30']</t>
-  </si>
-  <si>
-    <t>['12:30']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:00', '12:30']</t>
-  </si>
-  <si>
-    <t>['11:30', '13:00']</t>
-  </si>
-  <si>
-    <t>['12:30', '13:00']</t>
+    <t>['12:30', '13:00', '13:30']</t>
   </si>
   <si>
     <t>['13:00', '13:30']</t>
   </si>
   <si>
+    <t>['12:00', '13:00']</t>
+  </si>
+  <si>
+    <t>['11:30', '13:30']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:00', '13:00']</t>
+  </si>
+  <si>
+    <t>['12:00', '13:00', '13:30']</t>
+  </si>
+  <si>
     <t>['11:30', '13:00', '13:30']</t>
   </si>
   <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['11:30']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:00', '12:30', '13:30']</t>
+  </si>
+  <si>
+    <t>['12:00', '12:30', '13:30']</t>
+  </si>
+  <si>
+    <t>['12:00', '12:30', '13:00']</t>
+  </si>
+  <si>
     <t>['11:30', '12:00', '13:30']</t>
-  </si>
-  <si>
-    <t>['12:00']</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>['11:30', '13:30']</t>
-  </si>
-  <si>
-    <t>['12:00', '12:30', '13:00']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:00', '12:30', '13:30']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:30', '13:00']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:00', '12:30', '13:00', '13:30']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:00', '12:30', '13:00']</t>
-  </si>
-  <si>
-    <t>['12:00', '13:00', '13:30']</t>
-  </si>
-  <si>
-    <t>['12:00', '12:30', '13:30']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:00', '13:00', '13:30']</t>
-  </si>
-  <si>
-    <t>['12:00', '12:30', '13:00', '13:30']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:30', '13:30']</t>
-  </si>
-  <si>
-    <t>['12:00', '13:00']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:00', '13:00']</t>
-  </si>
-  <si>
-    <t>['12:00', '13:30']</t>
-  </si>
-  <si>
-    <t>['12:30', '13:00', '13:30']</t>
-  </si>
-  <si>
-    <t>['13:30']</t>
-  </si>
-  <si>
-    <t>['11:30']</t>
   </si>
 </sst>
 </file>
@@ -789,61 +780,61 @@
         <v>34</v>
       </c>
       <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
         <v>38</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" t="s">
         <v>48</v>
       </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>38</v>
       </c>
-      <c r="G2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" t="s">
-        <v>36</v>
-      </c>
       <c r="J2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="K2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" t="s">
         <v>38</v>
-      </c>
-      <c r="L2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" t="s">
-        <v>36</v>
       </c>
       <c r="P2" t="s">
         <v>38</v>
       </c>
       <c r="Q2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="S2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="U2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -857,58 +848,58 @@
         <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H3" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="I3" t="s">
         <v>36</v>
       </c>
       <c r="J3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" t="s">
         <v>38</v>
       </c>
-      <c r="K3" t="s">
+      <c r="P3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>51</v>
+      </c>
+      <c r="R3" t="s">
         <v>48</v>
-      </c>
-      <c r="L3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" t="s">
-        <v>36</v>
-      </c>
-      <c r="O3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>49</v>
-      </c>
-      <c r="R3" t="s">
-        <v>36</v>
       </c>
       <c r="S3" t="s">
         <v>38</v>
       </c>
       <c r="T3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="U3" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -919,61 +910,61 @@
         <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
         <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="H4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I4" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="J4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="P4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q4" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="R4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="S4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="T4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="U4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -981,61 +972,61 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
         <v>34</v>
       </c>
       <c r="F5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" t="s">
         <v>48</v>
       </c>
-      <c r="G5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>38</v>
       </c>
-      <c r="J5" t="s">
-        <v>36</v>
-      </c>
       <c r="K5" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="L5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N5" t="s">
         <v>38</v>
       </c>
       <c r="O5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="P5" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="Q5" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="R5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="T5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="U5" t="s">
         <v>38</v>
@@ -1046,64 +1037,64 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
         <v>38</v>
-      </c>
-      <c r="D6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" t="s">
-        <v>37</v>
       </c>
       <c r="F6" t="s">
         <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" t="s">
+        <v>38</v>
+      </c>
+      <c r="O6" t="s">
+        <v>41</v>
+      </c>
+      <c r="P6" t="s">
         <v>35</v>
       </c>
-      <c r="J6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L6" t="s">
-        <v>46</v>
-      </c>
-      <c r="M6" t="s">
-        <v>36</v>
-      </c>
-      <c r="N6" t="s">
-        <v>37</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="Q6" t="s">
+        <v>39</v>
+      </c>
+      <c r="R6" t="s">
+        <v>48</v>
+      </c>
+      <c r="S6" t="s">
+        <v>41</v>
+      </c>
+      <c r="T6" t="s">
+        <v>45</v>
+      </c>
+      <c r="U6" t="s">
         <v>35</v>
-      </c>
-      <c r="P6" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>46</v>
-      </c>
-      <c r="R6" t="s">
-        <v>51</v>
-      </c>
-      <c r="S6" t="s">
-        <v>36</v>
-      </c>
-      <c r="T6" t="s">
-        <v>35</v>
-      </c>
-      <c r="U6" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -1111,16 +1102,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
         <v>38</v>
@@ -1129,46 +1120,46 @@
         <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="I7" t="s">
         <v>37</v>
       </c>
       <c r="J7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q7" t="s">
         <v>38</v>
       </c>
-      <c r="M7" t="s">
-        <v>51</v>
-      </c>
-      <c r="N7" t="s">
-        <v>42</v>
-      </c>
-      <c r="O7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>47</v>
-      </c>
       <c r="R7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="S7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U7" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1176,64 +1167,64 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
         <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H8" t="s">
         <v>34</v>
       </c>
       <c r="I8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="J8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K8" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="L8" t="s">
+        <v>51</v>
+      </c>
+      <c r="M8" t="s">
         <v>48</v>
-      </c>
-      <c r="M8" t="s">
-        <v>37</v>
       </c>
       <c r="N8" t="s">
         <v>47</v>
       </c>
       <c r="O8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="P8" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="Q8" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="R8" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="S8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="T8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="U8" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1241,25 +1232,25 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="I9" t="s">
         <v>34</v>
@@ -1268,37 +1259,37 @@
         <v>37</v>
       </c>
       <c r="K9" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L9" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="M9" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="N9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="O9" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="P9" t="s">
         <v>38</v>
       </c>
       <c r="Q9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="R9" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="S9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="T9" t="s">
+        <v>37</v>
+      </c>
+      <c r="U9" t="s">
         <v>38</v>
-      </c>
-      <c r="U9" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1312,22 +1303,22 @@
         <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H10" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I10" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J10" t="s">
         <v>34</v>
@@ -1336,34 +1327,34 @@
         <v>38</v>
       </c>
       <c r="L10" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="M10" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="N10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O10" t="s">
+        <v>41</v>
+      </c>
+      <c r="P10" t="s">
         <v>43</v>
       </c>
-      <c r="O10" t="s">
-        <v>37</v>
-      </c>
-      <c r="P10" t="s">
-        <v>38</v>
-      </c>
       <c r="Q10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="R10" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="S10" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="T10" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="U10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1371,61 +1362,61 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H11" t="s">
         <v>49</v>
       </c>
       <c r="I11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K11" t="s">
         <v>34</v>
       </c>
       <c r="L11" t="s">
+        <v>37</v>
+      </c>
+      <c r="M11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N11" t="s">
+        <v>36</v>
+      </c>
+      <c r="O11" t="s">
+        <v>36</v>
+      </c>
+      <c r="P11" t="s">
         <v>38</v>
       </c>
-      <c r="M11" t="s">
-        <v>49</v>
-      </c>
-      <c r="N11" t="s">
-        <v>42</v>
-      </c>
-      <c r="O11" t="s">
-        <v>39</v>
-      </c>
-      <c r="P11" t="s">
-        <v>37</v>
-      </c>
       <c r="Q11" t="s">
+        <v>35</v>
+      </c>
+      <c r="R11" t="s">
+        <v>41</v>
+      </c>
+      <c r="S11" t="s">
         <v>36</v>
       </c>
-      <c r="R11" t="s">
-        <v>49</v>
-      </c>
-      <c r="S11" t="s">
-        <v>42</v>
-      </c>
       <c r="T11" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="U11" t="s">
         <v>49</v>
@@ -1436,64 +1427,64 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
         <v>40</v>
       </c>
-      <c r="C12" t="s">
-        <v>44</v>
-      </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H12" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K12" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="L12" t="s">
         <v>34</v>
       </c>
       <c r="M12" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="N12" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="O12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P12" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="Q12" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="R12" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="S12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="T12" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="U12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1501,64 +1492,64 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K13" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="L13" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="M13" t="s">
         <v>34</v>
       </c>
       <c r="N13" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="O13" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="P13" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="Q13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="R13" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="S13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T13" t="s">
         <v>41</v>
       </c>
       <c r="U13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1569,34 +1560,34 @@
         <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G14" t="s">
         <v>38</v>
       </c>
       <c r="H14" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
         <v>42</v>
       </c>
       <c r="J14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K14" t="s">
         <v>42</v>
       </c>
       <c r="L14" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="M14" t="s">
         <v>42</v>
@@ -1605,25 +1596,25 @@
         <v>34</v>
       </c>
       <c r="O14" t="s">
+        <v>46</v>
+      </c>
+      <c r="P14" t="s">
         <v>42</v>
       </c>
-      <c r="P14" t="s">
-        <v>49</v>
-      </c>
       <c r="Q14" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="R14" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="S14" t="s">
         <v>47</v>
       </c>
       <c r="T14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="U14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1631,64 +1622,64 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F15" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G15" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H15" t="s">
         <v>49</v>
       </c>
       <c r="I15" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J15" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="K15" t="s">
         <v>49</v>
       </c>
       <c r="L15" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="M15" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="N15" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="O15" t="s">
         <v>34</v>
       </c>
       <c r="P15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q15" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="R15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="U15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1696,52 +1687,52 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" t="s">
         <v>38</v>
       </c>
-      <c r="D16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>42</v>
-      </c>
-      <c r="I16" t="s">
-        <v>43</v>
-      </c>
       <c r="J16" t="s">
         <v>37</v>
       </c>
       <c r="K16" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="L16" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="M16" t="s">
         <v>42</v>
       </c>
       <c r="N16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O16" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="P16" t="s">
         <v>34</v>
       </c>
       <c r="Q16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="R16" t="s">
         <v>42</v>
@@ -1750,7 +1741,7 @@
         <v>43</v>
       </c>
       <c r="T16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="U16" t="s">
         <v>49</v>
@@ -1761,40 +1752,40 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="I17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17" t="s">
         <v>42</v>
       </c>
-      <c r="J17" t="s">
-        <v>43</v>
-      </c>
-      <c r="K17" t="s">
-        <v>37</v>
-      </c>
       <c r="L17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N17" t="s">
         <v>42</v>
@@ -1803,22 +1794,22 @@
         <v>37</v>
       </c>
       <c r="P17" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="Q17" t="s">
         <v>34</v>
       </c>
       <c r="R17" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="S17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T17" t="s">
         <v>37</v>
       </c>
       <c r="U17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1829,61 +1820,61 @@
         <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I18" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="J18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K18" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="L18" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N18" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="O18" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="P18" t="s">
         <v>49</v>
       </c>
       <c r="Q18" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="R18" t="s">
         <v>34</v>
       </c>
       <c r="S18" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="T18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U18" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1891,64 +1882,64 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F19" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G19" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H19" t="s">
         <v>42</v>
       </c>
       <c r="I19" t="s">
+        <v>40</v>
+      </c>
+      <c r="J19" t="s">
+        <v>45</v>
+      </c>
+      <c r="K19" t="s">
+        <v>41</v>
+      </c>
+      <c r="L19" t="s">
+        <v>39</v>
+      </c>
+      <c r="M19" t="s">
+        <v>36</v>
+      </c>
+      <c r="N19" t="s">
+        <v>36</v>
+      </c>
+      <c r="O19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P19" t="s">
         <v>49</v>
       </c>
-      <c r="J19" t="s">
-        <v>37</v>
-      </c>
-      <c r="K19" t="s">
-        <v>42</v>
-      </c>
-      <c r="L19" t="s">
-        <v>38</v>
-      </c>
-      <c r="M19" t="s">
-        <v>46</v>
-      </c>
-      <c r="N19" t="s">
-        <v>49</v>
-      </c>
-      <c r="O19" t="s">
-        <v>42</v>
-      </c>
-      <c r="P19" t="s">
-        <v>47</v>
-      </c>
       <c r="Q19" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="R19" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="S19" t="s">
         <v>34</v>
       </c>
       <c r="T19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U19" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1956,64 +1947,64 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" t="s">
         <v>42</v>
       </c>
-      <c r="C20" t="s">
-        <v>38</v>
-      </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="H20" t="s">
         <v>49</v>
       </c>
       <c r="I20" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J20" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="K20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M20" t="s">
+        <v>36</v>
+      </c>
+      <c r="N20" t="s">
+        <v>37</v>
+      </c>
+      <c r="O20" t="s">
+        <v>36</v>
+      </c>
+      <c r="P20" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>48</v>
+      </c>
+      <c r="R20" t="s">
+        <v>42</v>
+      </c>
+      <c r="S20" t="s">
         <v>46</v>
-      </c>
-      <c r="N20" t="s">
-        <v>43</v>
-      </c>
-      <c r="O20" t="s">
-        <v>37</v>
-      </c>
-      <c r="P20" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>35</v>
-      </c>
-      <c r="R20" t="s">
-        <v>46</v>
-      </c>
-      <c r="S20" t="s">
-        <v>49</v>
       </c>
       <c r="T20" t="s">
         <v>34</v>
       </c>
       <c r="U20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -2021,61 +2012,61 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" t="s">
         <v>38</v>
       </c>
-      <c r="C21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" t="s">
-        <v>42</v>
-      </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="F21" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G21" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J21" t="s">
         <v>42</v>
       </c>
       <c r="K21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L21" t="s">
+        <v>45</v>
+      </c>
+      <c r="M21" t="s">
+        <v>51</v>
+      </c>
+      <c r="N21" t="s">
+        <v>37</v>
+      </c>
+      <c r="O21" t="s">
         <v>42</v>
       </c>
-      <c r="M21" t="s">
-        <v>38</v>
-      </c>
-      <c r="N21" t="s">
-        <v>46</v>
-      </c>
-      <c r="O21" t="s">
-        <v>38</v>
-      </c>
       <c r="P21" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="Q21" t="s">
         <v>42</v>
       </c>
       <c r="R21" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="S21" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="T21" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="U21" t="s">
         <v>34</v>
@@ -2089,19 +2080,19 @@
         <v>34</v>
       </c>
       <c r="C22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" t="s">
         <v>42</v>
       </c>
-      <c r="D22" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>38</v>
-      </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H22" t="s">
         <v>46</v>
@@ -2113,37 +2104,37 @@
         <v>35</v>
       </c>
       <c r="K22" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="L22" t="s">
         <v>46</v>
       </c>
       <c r="M22" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N22" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="O22" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="P22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q22" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="R22" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="S22" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="T22" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="U22" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -2151,64 +2142,64 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
         <v>34</v>
       </c>
       <c r="D23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" t="s">
         <v>44</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23" t="s">
+        <v>44</v>
+      </c>
+      <c r="J23" t="s">
+        <v>41</v>
+      </c>
+      <c r="K23" t="s">
+        <v>48</v>
+      </c>
+      <c r="L23" t="s">
         <v>47</v>
       </c>
-      <c r="F23" t="s">
-        <v>37</v>
-      </c>
-      <c r="G23" t="s">
-        <v>47</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="M23" t="s">
         <v>43</v>
       </c>
-      <c r="I23" t="s">
+      <c r="N23" t="s">
+        <v>50</v>
+      </c>
+      <c r="O23" t="s">
+        <v>35</v>
+      </c>
+      <c r="P23" t="s">
         <v>42</v>
       </c>
-      <c r="J23" t="s">
-        <v>39</v>
-      </c>
-      <c r="K23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L23" t="s">
-        <v>39</v>
-      </c>
-      <c r="M23" t="s">
-        <v>39</v>
-      </c>
-      <c r="N23" t="s">
-        <v>46</v>
-      </c>
-      <c r="O23" t="s">
-        <v>44</v>
-      </c>
-      <c r="P23" t="s">
-        <v>37</v>
-      </c>
       <c r="Q23" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="R23" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="S23" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="T23" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="U23" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -2216,64 +2207,64 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D24" t="s">
         <v>34</v>
       </c>
       <c r="E24" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F24" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H24" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K24" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="L24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M24" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="N24" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="O24" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="P24" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Q24" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="R24" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="S24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="T24" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="U24" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -2284,10 +2275,10 @@
         <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D25" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E25" t="s">
         <v>34</v>
@@ -2296,49 +2287,49 @@
         <v>41</v>
       </c>
       <c r="G25" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H25" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K25" t="s">
         <v>41</v>
       </c>
       <c r="L25" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="M25" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="N25" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="O25" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="P25" t="s">
         <v>41</v>
       </c>
       <c r="Q25" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="R25" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="S25" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="T25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="U25" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2346,64 +2337,64 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D26" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F26" t="s">
         <v>34</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
+        <v>51</v>
+      </c>
+      <c r="I26" t="s">
+        <v>42</v>
+      </c>
+      <c r="J26" t="s">
+        <v>37</v>
+      </c>
+      <c r="K26" t="s">
+        <v>43</v>
+      </c>
+      <c r="L26" t="s">
         <v>50</v>
       </c>
-      <c r="I26" t="s">
-        <v>46</v>
-      </c>
-      <c r="J26" t="s">
-        <v>43</v>
-      </c>
-      <c r="K26" t="s">
-        <v>49</v>
-      </c>
-      <c r="L26" t="s">
-        <v>46</v>
-      </c>
       <c r="M26" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="N26" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="O26" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="P26" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="Q26" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="R26" t="s">
         <v>47</v>
       </c>
       <c r="S26" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T26" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="U26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2411,64 +2402,64 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D27" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E27" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="F27" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G27" t="s">
         <v>34</v>
       </c>
       <c r="H27" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K27" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="L27" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="M27" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="N27" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="O27" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="P27" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q27" t="s">
+        <v>48</v>
+      </c>
+      <c r="R27" t="s">
         <v>51</v>
       </c>
-      <c r="R27" t="s">
-        <v>35</v>
-      </c>
       <c r="S27" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="T27" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="U27" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2476,64 +2467,64 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D28" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="E28" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="F28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H28" t="s">
         <v>34</v>
       </c>
       <c r="I28" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="J28" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K28" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="L28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M28" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="N28" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O28" t="s">
         <v>43</v>
       </c>
       <c r="P28" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="Q28" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="R28" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="S28" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T28" t="s">
         <v>37</v>
       </c>
       <c r="U28" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2541,64 +2532,64 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C29" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D29" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E29" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="F29" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G29" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="I29" t="s">
         <v>34</v>
       </c>
       <c r="J29" t="s">
+        <v>36</v>
+      </c>
+      <c r="K29" t="s">
+        <v>52</v>
+      </c>
+      <c r="L29" t="s">
+        <v>48</v>
+      </c>
+      <c r="M29" t="s">
+        <v>52</v>
+      </c>
+      <c r="N29" t="s">
+        <v>52</v>
+      </c>
+      <c r="O29" t="s">
+        <v>45</v>
+      </c>
+      <c r="P29" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q29" t="s">
         <v>38</v>
       </c>
-      <c r="K29" t="s">
-        <v>46</v>
-      </c>
-      <c r="L29" t="s">
-        <v>37</v>
-      </c>
-      <c r="M29" t="s">
-        <v>50</v>
-      </c>
-      <c r="N29" t="s">
-        <v>50</v>
-      </c>
-      <c r="O29" t="s">
-        <v>38</v>
-      </c>
-      <c r="P29" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>37</v>
-      </c>
       <c r="R29" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="S29" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2606,64 +2597,64 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" t="s">
         <v>35</v>
       </c>
-      <c r="C30" t="s">
-        <v>50</v>
-      </c>
       <c r="D30" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E30" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F30" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G30" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I30" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="J30" t="s">
         <v>34</v>
       </c>
       <c r="K30" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M30" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="N30" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="O30" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="P30" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q30" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="R30" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="S30" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="T30" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="U30" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2671,64 +2662,64 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D31" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" t="s">
+        <v>51</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>52</v>
+      </c>
+      <c r="I31" t="s">
+        <v>35</v>
+      </c>
+      <c r="J31" t="s">
         <v>38</v>
-      </c>
-      <c r="E31" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" t="s">
-        <v>35</v>
-      </c>
-      <c r="G31" t="s">
-        <v>50</v>
-      </c>
-      <c r="H31" t="s">
-        <v>46</v>
-      </c>
-      <c r="I31" t="s">
-        <v>46</v>
-      </c>
-      <c r="J31" t="s">
-        <v>46</v>
       </c>
       <c r="K31" t="s">
         <v>34</v>
       </c>
       <c r="L31" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="M31" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="N31" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="O31" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="P31" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="Q31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R31" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="S31" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="T31" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="U31" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2736,64 +2727,64 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" t="s">
         <v>46</v>
       </c>
-      <c r="C32" t="s">
-        <v>35</v>
-      </c>
       <c r="D32" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E32" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F32" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G32" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K32" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="L32" t="s">
         <v>34</v>
       </c>
       <c r="M32" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="N32" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="O32" t="s">
+        <v>40</v>
+      </c>
+      <c r="P32" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q32" t="s">
         <v>46</v>
       </c>
-      <c r="P32" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q32" t="s">
+      <c r="R32" t="s">
+        <v>48</v>
+      </c>
+      <c r="S32" t="s">
+        <v>51</v>
+      </c>
+      <c r="T32" t="s">
         <v>38</v>
       </c>
-      <c r="R32" t="s">
-        <v>46</v>
-      </c>
-      <c r="S32" t="s">
-        <v>35</v>
-      </c>
-      <c r="T32" t="s">
-        <v>46</v>
-      </c>
       <c r="U32" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2801,61 +2792,61 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D33" t="s">
         <v>42</v>
       </c>
       <c r="E33" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G33" t="s">
         <v>42</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I33" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J33" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="K33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M33" t="s">
         <v>34</v>
       </c>
       <c r="N33" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O33" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="P33" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>51</v>
+      </c>
+      <c r="R33" t="s">
+        <v>42</v>
+      </c>
+      <c r="S33" t="s">
+        <v>48</v>
+      </c>
+      <c r="T33" t="s">
         <v>50</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>42</v>
-      </c>
-      <c r="R33" t="s">
-        <v>38</v>
-      </c>
-      <c r="S33" t="s">
-        <v>46</v>
-      </c>
-      <c r="T33" t="s">
-        <v>38</v>
       </c>
       <c r="U33" t="s">
         <v>50</v>
@@ -2869,61 +2860,61 @@
         <v>46</v>
       </c>
       <c r="C34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" t="s">
         <v>35</v>
       </c>
-      <c r="D34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E34" t="s">
-        <v>39</v>
-      </c>
       <c r="F34" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J34" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K34" t="s">
         <v>50</v>
       </c>
       <c r="L34" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M34" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="N34" t="s">
         <v>34</v>
       </c>
       <c r="O34" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P34" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="Q34" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="R34" t="s">
+        <v>52</v>
+      </c>
+      <c r="S34" t="s">
         <v>50</v>
       </c>
-      <c r="S34" t="s">
-        <v>46</v>
-      </c>
       <c r="T34" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="U34" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2934,61 +2925,61 @@
         <v>47</v>
       </c>
       <c r="C35" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D35" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E35" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F35" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G35" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H35" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I35" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="J35" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="K35" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="L35" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M35" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N35" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="O35" t="s">
         <v>34</v>
       </c>
       <c r="P35" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="Q35" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="R35" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="S35" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="T35" t="s">
         <v>44</v>
       </c>
       <c r="U35" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3006,7 +2997,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3014,7 +3005,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3022,7 +3013,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3030,7 +3021,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3038,7 +3029,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3046,7 +3037,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3054,7 +3045,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3062,7 +3053,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3070,7 +3061,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3078,7 +3069,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3094,7 +3085,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3102,7 +3093,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3110,7 +3101,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3118,7 +3109,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3134,7 +3125,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3142,7 +3133,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3158,7 +3149,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3166,7 +3157,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3174,7 +3165,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3182,7 +3173,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3190,7 +3181,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3198,7 +3189,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -3214,7 +3205,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3222,7 +3213,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3238,7 +3229,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3254,7 +3245,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -3262,7 +3253,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3278,7 +3269,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -3296,100 +3287,100 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B2">
-        <v>0.06682027649769585</v>
+        <v>0.04608294930875576</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B3">
-        <v>0.01023017902813299</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B4">
-        <v>0.02137767220902613</v>
+        <v>0.004750593824228029</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B5">
-        <v>0.009569377990430622</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B6">
-        <v>0.009732360097323601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B7">
-        <v>0.07808564231738035</v>
+        <v>0.07304785894206549</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B8">
-        <v>0.01486988847583643</v>
+        <v>0.03717472118959108</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B9">
-        <v>0.08870967741935484</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B10">
-        <v>0.08833922261484099</v>
+        <v>0.02473498233215548</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11">
-        <v>0.04878048780487805</v>
+        <v>0.02439024390243903</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B12">
-        <v>0.02820512820512821</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -3397,7 +3388,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3405,7 +3396,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3413,7 +3404,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3421,31 +3412,31 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B17">
-        <v>0.0911854103343465</v>
+        <v>0.02735562310030395</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B18">
-        <v>0.007246376811594203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B19">
-        <v>0.06222222222222222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3453,42 +3444,42 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B21">
-        <v>0.04895104895104895</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B22">
-        <v>0.09933774834437085</v>
+        <v>0.02649006622516556</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B23">
-        <v>0.0945945945945946</v>
+        <v>0.01351351351351351</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B24">
-        <v>0.09868421052631579</v>
+        <v>0.03289473684210526</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B25">
-        <v>0.02222222222222222</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3506,7 +3497,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3514,7 +3505,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.09263657957244656</v>
+        <v>0.04038004750593824</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3522,7 +3513,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.01111111111111111</v>
+        <v>0.002777777777777778</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3530,7 +3521,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.0226628895184136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3538,7 +3529,7 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0.08551068883610451</v>
+        <v>0.0498812351543943</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3546,7 +3537,7 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.01111111111111111</v>
+        <v>0.002777777777777778</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3554,7 +3545,7 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.0226628895184136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3562,7 +3553,7 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.01552795031055901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3570,7 +3561,7 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.006289308176100629</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3578,7 +3569,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.09263657957244656</v>
+        <v>0.04275534441805225</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3586,7 +3577,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.025</v>
+        <v>0.002777777777777778</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3594,7 +3585,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.0311614730878187</v>
+        <v>0.0028328611898017</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3602,7 +3593,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.006211180124223602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3610,7 +3601,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.006289308176100629</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3618,7 +3609,7 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>0.09263657957244656</v>
+        <v>0.0498812351543943</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3626,7 +3617,7 @@
         <v>23</v>
       </c>
       <c r="B16">
-        <v>0.025</v>
+        <v>0.002777777777777778</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3634,7 +3625,7 @@
         <v>24</v>
       </c>
       <c r="B17">
-        <v>0.0113314447592068</v>
+        <v>0.0028328611898017</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3642,7 +3633,7 @@
         <v>25</v>
       </c>
       <c r="B18">
-        <v>0.01863354037267081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3650,7 +3641,7 @@
         <v>26</v>
       </c>
       <c r="B19">
-        <v>0.006289308176100629</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3658,7 +3649,7 @@
         <v>29</v>
       </c>
       <c r="B20">
-        <v>0.06888361045130641</v>
+        <v>0.0332541567695962</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3666,7 +3657,7 @@
         <v>30</v>
       </c>
       <c r="B21">
-        <v>0.008333333333333333</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3684,7 +3675,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3692,7 +3683,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3700,7 +3691,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3708,7 +3699,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3716,7 +3707,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3724,7 +3715,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3732,7 +3723,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3740,7 +3731,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3748,7 +3739,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3756,7 +3747,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3764,7 +3755,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3772,7 +3763,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3780,7 +3771,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3788,7 +3779,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3796,7 +3787,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3812,7 +3803,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3844,7 +3835,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3852,7 +3843,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3860,7 +3851,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3868,7 +3859,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3884,7 +3875,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -3892,7 +3883,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3900,7 +3891,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3908,7 +3899,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -3916,7 +3907,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3924,7 +3915,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -3932,7 +3923,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -3940,7 +3931,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3948,7 +3939,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3956,7 +3947,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3974,79 +3965,79 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:26">
@@ -4054,79 +4045,79 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
         <v>6</v>
       </c>
-      <c r="C2">
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>2</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
-      <c r="J2">
-        <v>3</v>
-      </c>
-      <c r="K2">
-        <v>4</v>
-      </c>
-      <c r="L2">
-        <v>2</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>4</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
-      <c r="V2">
-        <v>1</v>
-      </c>
-      <c r="W2">
-        <v>1</v>
-      </c>
-      <c r="X2">
-        <v>2</v>
-      </c>
       <c r="Y2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -4155,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -4179,7 +4170,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -4206,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -4235,16 +4226,16 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -4265,7 +4256,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4277,16 +4268,16 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -4294,37 +4285,37 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
         <v>1</v>
       </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>6</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
         <v>2</v>
       </c>
-      <c r="J5">
-        <v>4</v>
-      </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -4339,13 +4330,13 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4366,7 +4357,7 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -4395,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -4419,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -4446,7 +4437,7 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -4475,16 +4466,16 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -4505,7 +4496,7 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -4517,16 +4508,16 @@
         <v>0</v>
       </c>
       <c r="W7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -4591,22 +4582,22 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -4629,13 +4620,13 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -4686,7 +4677,7 @@
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -4694,79 +4685,79 @@
         <v>15</v>
       </c>
       <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
         <v>6</v>
       </c>
-      <c r="C10">
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>2</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
         <v>1</v>
       </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>5</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>2</v>
-      </c>
-      <c r="J10">
-        <v>3</v>
-      </c>
-      <c r="K10">
-        <v>4</v>
-      </c>
-      <c r="L10">
-        <v>2</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>4</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>1</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>1</v>
-      </c>
-      <c r="V10">
-        <v>1</v>
-      </c>
-      <c r="W10">
-        <v>1</v>
-      </c>
-      <c r="X10">
-        <v>2</v>
-      </c>
       <c r="Y10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -4795,58 +4786,58 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
         <v>1</v>
       </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
         <v>1</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>1</v>
-      </c>
-      <c r="V11">
-        <v>2</v>
-      </c>
-      <c r="W11">
-        <v>1</v>
-      </c>
-      <c r="X11">
-        <v>1</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11">
-        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -4869,64 +4860,64 @@
         <v>0</v>
       </c>
       <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
         <v>1</v>
       </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
         <v>1</v>
-      </c>
-      <c r="J12">
-        <v>2</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>3</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>2</v>
-      </c>
-      <c r="X12">
-        <v>1</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -4979,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -4994,7 +4985,7 @@
         <v>0</v>
       </c>
       <c r="V13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W13">
         <v>0</v>
@@ -5006,7 +4997,7 @@
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -5029,7 +5020,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -5086,7 +5077,7 @@
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -5094,79 +5085,79 @@
         <v>22</v>
       </c>
       <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
         <v>6</v>
       </c>
-      <c r="C15">
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>2</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
         <v>1</v>
       </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>5</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>2</v>
-      </c>
-      <c r="J15">
-        <v>3</v>
-      </c>
-      <c r="K15">
-        <v>4</v>
-      </c>
-      <c r="L15">
-        <v>2</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>4</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>1</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>1</v>
-      </c>
-      <c r="V15">
-        <v>1</v>
-      </c>
-      <c r="W15">
-        <v>1</v>
-      </c>
-      <c r="X15">
-        <v>2</v>
-      </c>
       <c r="Y15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -5195,58 +5186,58 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
         <v>1</v>
       </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
         <v>1</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>1</v>
-      </c>
-      <c r="V16">
-        <v>2</v>
-      </c>
-      <c r="W16">
-        <v>1</v>
-      </c>
-      <c r="X16">
-        <v>1</v>
-      </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
-      <c r="Z16">
-        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:26">
@@ -5269,7 +5260,7 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -5278,7 +5269,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -5305,7 +5296,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -5326,7 +5317,7 @@
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -5358,7 +5349,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -5391,22 +5382,22 @@
         <v>0</v>
       </c>
       <c r="U18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:26">
@@ -5435,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -5465,7 +5456,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -5486,7 +5477,7 @@
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:26">
@@ -5494,13 +5485,13 @@
         <v>29</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -5515,37 +5506,37 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>1</v>
       </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>5</v>
-      </c>
       <c r="R20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -5566,7 +5557,7 @@
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -5595,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -5619,7 +5610,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -5634,7 +5625,7 @@
         <v>0</v>
       </c>
       <c r="V21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21">
         <v>0</v>
@@ -5646,87 +5637,87 @@
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:26">
       <c r="A22" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
         <v>29</v>
       </c>
-      <c r="C22">
+      <c r="H22">
+        <v>10</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>7</v>
+      </c>
+      <c r="K22">
+        <v>9</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>9</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
         <v>4</v>
       </c>
-      <c r="D22">
-        <v>9</v>
-      </c>
-      <c r="E22">
-        <v>4</v>
-      </c>
-      <c r="F22">
-        <v>4</v>
-      </c>
-      <c r="G22">
-        <v>31</v>
-      </c>
-      <c r="H22">
-        <v>4</v>
-      </c>
-      <c r="I22">
-        <v>22</v>
-      </c>
-      <c r="J22">
-        <v>25</v>
-      </c>
-      <c r="K22">
-        <v>18</v>
-      </c>
-      <c r="L22">
-        <v>11</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>30</v>
-      </c>
-      <c r="R22">
+      <c r="W22">
         <v>2</v>
       </c>
-      <c r="S22">
-        <v>14</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <v>7</v>
-      </c>
-      <c r="V22">
-        <v>15</v>
-      </c>
-      <c r="W22">
-        <v>14</v>
-      </c>
       <c r="X22">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Y22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z22">
-        <v>261</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -5764,19 +5755,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
         <v>87</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5784,19 +5775,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D3" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="E3" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="F3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5804,16 +5795,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" t="s">
         <v>83</v>
-      </c>
-      <c r="C4" t="s">
-        <v>86</v>
       </c>
       <c r="D4" t="s">
         <v>86</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F4" t="s">
         <v>86</v>
@@ -5824,19 +5815,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E5" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="F5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5847,16 +5838,16 @@
         <v>85</v>
       </c>
       <c r="C6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" t="s">
         <v>86</v>
       </c>
-      <c r="D6" t="s">
-        <v>85</v>
-      </c>
       <c r="E6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5864,13 +5855,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" t="s">
         <v>86</v>
-      </c>
-      <c r="C7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D7" t="s">
-        <v>100</v>
       </c>
       <c r="E7" t="s">
         <v>87</v>
@@ -5884,19 +5875,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E8" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5904,16 +5895,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D9" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F9" t="s">
         <v>85</v>
@@ -5927,13 +5918,13 @@
         <v>87</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D10" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="E10" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F10" t="s">
         <v>85</v>
@@ -5947,16 +5938,16 @@
         <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D11" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="E11" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="F11" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5964,16 +5955,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D12" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E12" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="F12" t="s">
         <v>83</v>
@@ -5984,19 +5975,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="D13" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E13" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="F13" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -6004,19 +5995,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="D14" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="E14" t="s">
         <v>107</v>
       </c>
       <c r="F14" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -6024,19 +6015,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D15" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E15" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="F15" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -6044,19 +6035,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" t="s">
         <v>87</v>
       </c>
-      <c r="C16" t="s">
-        <v>97</v>
-      </c>
       <c r="D16" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="E16" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F16" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6064,19 +6055,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C17" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="D17" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="E17" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6084,19 +6075,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" t="s">
         <v>102</v>
       </c>
-      <c r="D18" t="s">
-        <v>106</v>
-      </c>
-      <c r="E18" t="s">
-        <v>101</v>
-      </c>
       <c r="F18" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6107,16 +6098,16 @@
         <v>91</v>
       </c>
       <c r="C19" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="D19" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E19" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="F19" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6124,19 +6115,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" t="s">
         <v>104</v>
-      </c>
-      <c r="D20" t="s">
-        <v>110</v>
-      </c>
-      <c r="E20" t="s">
-        <v>96</v>
-      </c>
-      <c r="F20" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6144,19 +6135,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D21" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="E21" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F21" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -6167,16 +6158,16 @@
         <v>93</v>
       </c>
       <c r="C22" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="D22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" t="s">
         <v>93</v>
-      </c>
-      <c r="E22" t="s">
-        <v>95</v>
-      </c>
-      <c r="F22" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6184,19 +6175,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C23" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D23" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E23" t="s">
         <v>83</v>
       </c>
       <c r="F23" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6204,16 +6195,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D24" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E24" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="F24" t="s">
         <v>93</v>
@@ -6224,19 +6215,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C25" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D25" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E25" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F25" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6244,19 +6235,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" t="s">
         <v>86</v>
       </c>
-      <c r="C26" t="s">
-        <v>93</v>
-      </c>
       <c r="D26" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="E26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F26" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6267,16 +6258,16 @@
         <v>90</v>
       </c>
       <c r="C27" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D27" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="E27" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F27" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -6284,19 +6275,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C28" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D28" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E28" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="F28" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -6304,19 +6295,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" t="s">
         <v>85</v>
       </c>
-      <c r="C29" t="s">
-        <v>85</v>
-      </c>
-      <c r="D29" t="s">
-        <v>85</v>
-      </c>
-      <c r="E29" t="s">
-        <v>98</v>
-      </c>
       <c r="F29" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -6324,19 +6315,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" t="s">
         <v>95</v>
       </c>
-      <c r="D30" t="s">
-        <v>110</v>
-      </c>
       <c r="E30" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="F30" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -6344,19 +6335,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C31" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D31" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="E31" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="F31" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -6364,19 +6355,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C32" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D32" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E32" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="F32" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -6384,19 +6375,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C33" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D33" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E33" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="F33" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -6404,19 +6395,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C34" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" t="s">
+        <v>89</v>
+      </c>
+      <c r="E34" t="s">
+        <v>89</v>
+      </c>
+      <c r="F34" t="s">
         <v>82</v>
-      </c>
-      <c r="D34" t="s">
-        <v>94</v>
-      </c>
-      <c r="E34" t="s">
-        <v>94</v>
-      </c>
-      <c r="F34" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -6424,19 +6415,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C35" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D35" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="E35" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F35" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/alg_schedule_data_2019_4.xlsx
+++ b/alg_schedule_data_2019_4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="112">
   <si>
     <t>Abe</t>
   </si>
@@ -127,60 +127,60 @@
     <t>O</t>
   </si>
   <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>W6</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>N1</t>
+  </si>
+  <si>
+    <t>OB</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
     <t>P2</t>
   </si>
   <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>N1</t>
-  </si>
-  <si>
-    <t>P3</t>
-  </si>
-  <si>
-    <t>OB</t>
-  </si>
-  <si>
-    <t>CD</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>C4</t>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>AS</t>
   </si>
   <si>
     <t>P5</t>
   </si>
   <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>W6</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
     <t>P4</t>
   </si>
   <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>AS</t>
-  </si>
-  <si>
     <t>NightWork_count</t>
   </si>
   <si>
@@ -268,85 +268,94 @@
     <t>SUM_per_time</t>
   </si>
   <si>
+    <t>['11:30']</t>
+  </si>
+  <si>
     <t>['12:30']</t>
   </si>
   <si>
+    <t>['12:00', '12:30']</t>
+  </si>
+  <si>
+    <t>['12:30', '13:30']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:00', '12:30']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:30']</t>
+  </si>
+  <si>
+    <t>['12:00', '12:30', '13:00']</t>
+  </si>
+  <si>
+    <t>['13:00', '13:30']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:00']</t>
+  </si>
+  <si>
+    <t>['12:30', '13:00']</t>
+  </si>
+  <si>
+    <t>['11:30', '13:00']</t>
+  </si>
+  <si>
     <t>['12:00']</t>
   </si>
   <si>
+    <t>['13:30']</t>
+  </si>
+  <si>
     <t>['12:00', '13:30']</t>
   </si>
   <si>
-    <t>['11:30', '12:30']</t>
-  </si>
-  <si>
-    <t>['12:00', '12:30']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:00', '12:30']</t>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['12:00', '13:00']</t>
   </si>
   <si>
     <t>['11:30', '12:30', '13:00']</t>
   </si>
   <si>
-    <t>['11:30', '13:00']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:00']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:30', '13:30']</t>
-  </si>
-  <si>
-    <t>['12:30', '13:00']</t>
-  </si>
-  <si>
-    <t>['13:30']</t>
+    <t>['11:30', '12:00', '13:30']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:00', '12:30', '13:00']</t>
+  </si>
+  <si>
+    <t>['12:30', '13:00', '13:30']</t>
+  </si>
+  <si>
+    <t>['12:00', '12:30', '13:30']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:00', '12:30', '13:30']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:00', '13:00']</t>
+  </si>
+  <si>
+    <t>['11:30', '13:00', '13:30']</t>
+  </si>
+  <si>
+    <t>['12:00', '13:00', '13:30']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:00', '13:00', '13:30']</t>
+  </si>
+  <si>
+    <t>['11:30', '13:30']</t>
+  </si>
+  <si>
+    <t>['12:00', '12:30', '13:00', '13:30']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:30', '13:00', '13:30']</t>
   </si>
   <si>
     <t>['13:00']</t>
-  </si>
-  <si>
-    <t>['12:30', '13:30']</t>
-  </si>
-  <si>
-    <t>['12:30', '13:00', '13:30']</t>
-  </si>
-  <si>
-    <t>['13:00', '13:30']</t>
-  </si>
-  <si>
-    <t>['12:00', '13:00']</t>
-  </si>
-  <si>
-    <t>['11:30', '13:30']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:00', '13:00']</t>
-  </si>
-  <si>
-    <t>['12:00', '13:00', '13:30']</t>
-  </si>
-  <si>
-    <t>['11:30', '13:00', '13:30']</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>['11:30']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:00', '12:30', '13:30']</t>
-  </si>
-  <si>
-    <t>['12:00', '12:30', '13:30']</t>
-  </si>
-  <si>
-    <t>['12:00', '12:30', '13:00']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:00', '13:30']</t>
   </si>
 </sst>
 </file>
@@ -780,61 +789,61 @@
         <v>34</v>
       </c>
       <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>48</v>
       </c>
-      <c r="D2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" t="s">
         <v>35</v>
       </c>
-      <c r="G2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" t="s">
-        <v>48</v>
-      </c>
       <c r="I2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="L2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" t="s">
         <v>35</v>
       </c>
-      <c r="M2" t="s">
-        <v>45</v>
-      </c>
       <c r="N2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="P2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="Q2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="S2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="U2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -848,58 +857,58 @@
         <v>34</v>
       </c>
       <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
         <v>35</v>
       </c>
-      <c r="E3" t="s">
-        <v>37</v>
-      </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J3" t="s">
         <v>35</v>
       </c>
       <c r="K3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" t="s">
         <v>35</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" t="s">
         <v>35</v>
       </c>
-      <c r="M3" t="s">
-        <v>52</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q3" t="s">
         <v>48</v>
       </c>
-      <c r="O3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>51</v>
-      </c>
       <c r="R3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U3" t="s">
         <v>48</v>
-      </c>
-      <c r="S3" t="s">
-        <v>38</v>
-      </c>
-      <c r="T3" t="s">
-        <v>38</v>
-      </c>
-      <c r="U3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -910,58 +919,58 @@
         <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
         <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J4" t="s">
         <v>38</v>
       </c>
       <c r="K4" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="L4" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="M4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="P4" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="Q4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R4" t="s">
         <v>38</v>
       </c>
       <c r="S4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="T4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="U4" t="s">
         <v>35</v>
@@ -972,64 +981,64 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
         <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" t="s">
         <v>48</v>
       </c>
-      <c r="J5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" t="s">
-        <v>37</v>
-      </c>
       <c r="L5" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="M5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="P5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q5" t="s">
         <v>35</v>
       </c>
       <c r="R5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="S5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="T5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -1037,61 +1046,61 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
         <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" t="s">
         <v>48</v>
       </c>
-      <c r="J6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" t="s">
-        <v>40</v>
-      </c>
-      <c r="L6" t="s">
-        <v>38</v>
-      </c>
       <c r="M6" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="N6" t="s">
         <v>38</v>
       </c>
       <c r="O6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>41</v>
+      </c>
+      <c r="R6" t="s">
         <v>35</v>
       </c>
-      <c r="Q6" t="s">
-        <v>39</v>
-      </c>
-      <c r="R6" t="s">
-        <v>48</v>
-      </c>
       <c r="S6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="T6" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="U6" t="s">
         <v>35</v>
@@ -1102,64 +1111,64 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G7" t="s">
         <v>34</v>
       </c>
       <c r="H7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" t="s">
         <v>38</v>
       </c>
-      <c r="I7" t="s">
-        <v>37</v>
-      </c>
       <c r="J7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K7" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="L7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" t="s">
+        <v>43</v>
+      </c>
+      <c r="N7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>48</v>
+      </c>
+      <c r="R7" t="s">
         <v>35</v>
       </c>
-      <c r="M7" t="s">
-        <v>35</v>
-      </c>
-      <c r="N7" t="s">
-        <v>41</v>
-      </c>
-      <c r="O7" t="s">
-        <v>41</v>
-      </c>
-      <c r="P7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>38</v>
-      </c>
-      <c r="R7" t="s">
-        <v>38</v>
-      </c>
       <c r="S7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="T7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="U7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1167,64 +1176,64 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
         <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H8" t="s">
         <v>34</v>
       </c>
       <c r="I8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="M8" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="N8" t="s">
         <v>47</v>
       </c>
       <c r="O8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="P8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="R8" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="S8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="T8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="U8" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1232,25 +1241,25 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I9" t="s">
         <v>34</v>
@@ -1259,37 +1268,37 @@
         <v>37</v>
       </c>
       <c r="K9" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="L9" t="s">
         <v>35</v>
       </c>
       <c r="M9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O9" t="s">
+        <v>41</v>
+      </c>
+      <c r="P9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q9" t="s">
         <v>48</v>
       </c>
-      <c r="P9" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>42</v>
-      </c>
       <c r="R9" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="S9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T9" t="s">
         <v>37</v>
       </c>
       <c r="U9" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1300,61 +1309,61 @@
         <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" t="s">
         <v>35</v>
       </c>
-      <c r="E10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" t="s">
-        <v>47</v>
-      </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="H10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J10" t="s">
         <v>34</v>
       </c>
       <c r="K10" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" t="s">
+        <v>48</v>
+      </c>
+      <c r="M10" t="s">
+        <v>49</v>
+      </c>
+      <c r="N10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P10" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>46</v>
+      </c>
+      <c r="R10" t="s">
+        <v>45</v>
+      </c>
+      <c r="S10" t="s">
+        <v>44</v>
+      </c>
+      <c r="T10" t="s">
         <v>38</v>
       </c>
-      <c r="L10" t="s">
-        <v>42</v>
-      </c>
-      <c r="M10" t="s">
-        <v>47</v>
-      </c>
-      <c r="N10" t="s">
-        <v>41</v>
-      </c>
-      <c r="O10" t="s">
-        <v>41</v>
-      </c>
-      <c r="P10" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>52</v>
-      </c>
-      <c r="R10" t="s">
-        <v>50</v>
-      </c>
-      <c r="S10" t="s">
-        <v>50</v>
-      </c>
-      <c r="T10" t="s">
-        <v>41</v>
-      </c>
       <c r="U10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1362,64 +1371,64 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G11" t="s">
         <v>35</v>
       </c>
       <c r="H11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I11" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="J11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K11" t="s">
         <v>34</v>
       </c>
       <c r="L11" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="M11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="O11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q11" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="R11" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="S11" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="T11" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="U11" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1427,64 +1436,64 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F12" t="s">
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H12" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L12" t="s">
         <v>34</v>
       </c>
       <c r="M12" t="s">
+        <v>36</v>
+      </c>
+      <c r="N12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O12" t="s">
+        <v>37</v>
+      </c>
+      <c r="P12" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>46</v>
+      </c>
+      <c r="R12" t="s">
+        <v>36</v>
+      </c>
+      <c r="S12" t="s">
+        <v>40</v>
+      </c>
+      <c r="T12" t="s">
+        <v>37</v>
+      </c>
+      <c r="U12" t="s">
         <v>49</v>
-      </c>
-      <c r="N12" t="s">
-        <v>49</v>
-      </c>
-      <c r="O12" t="s">
-        <v>42</v>
-      </c>
-      <c r="P12" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>51</v>
-      </c>
-      <c r="R12" t="s">
-        <v>49</v>
-      </c>
-      <c r="S12" t="s">
-        <v>42</v>
-      </c>
-      <c r="T12" t="s">
-        <v>46</v>
-      </c>
-      <c r="U12" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1495,61 +1504,61 @@
         <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I13" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="J13" t="s">
         <v>37</v>
       </c>
       <c r="K13" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="L13" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M13" t="s">
         <v>34</v>
       </c>
       <c r="N13" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="O13" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="P13" t="s">
         <v>49</v>
       </c>
       <c r="Q13" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="R13" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="S13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="T13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="U13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1557,64 +1566,64 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F14" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G14" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="I14" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J14" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="K14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M14" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="N14" t="s">
         <v>34</v>
       </c>
       <c r="O14" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="P14" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Q14" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="R14" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="S14" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="T14" t="s">
         <v>41</v>
       </c>
       <c r="U14" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1622,31 +1631,31 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
         <v>37</v>
       </c>
       <c r="F15" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G15" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H15" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="I15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J15" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K15" t="s">
         <v>49</v>
@@ -1655,31 +1664,31 @@
         <v>42</v>
       </c>
       <c r="M15" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="N15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O15" t="s">
         <v>34</v>
       </c>
       <c r="P15" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="Q15" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="R15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="S15" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="T15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="U15" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1690,58 +1699,58 @@
         <v>41</v>
       </c>
       <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" t="s">
         <v>49</v>
       </c>
-      <c r="D16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" t="s">
-        <v>41</v>
-      </c>
       <c r="G16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H16" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="I16" t="s">
+        <v>44</v>
+      </c>
+      <c r="J16" t="s">
         <v>38</v>
       </c>
-      <c r="J16" t="s">
-        <v>37</v>
-      </c>
       <c r="K16" t="s">
+        <v>37</v>
+      </c>
+      <c r="L16" t="s">
+        <v>44</v>
+      </c>
+      <c r="M16" t="s">
         <v>47</v>
       </c>
-      <c r="L16" t="s">
-        <v>52</v>
-      </c>
-      <c r="M16" t="s">
-        <v>42</v>
-      </c>
       <c r="N16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="O16" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="P16" t="s">
         <v>34</v>
       </c>
       <c r="Q16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="T16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="U16" t="s">
         <v>49</v>
@@ -1752,64 +1761,64 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
         <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F17" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G17" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I17" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J17" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K17" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="L17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M17" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="N17" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="O17" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="P17" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Q17" t="s">
         <v>34</v>
       </c>
       <c r="R17" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="S17" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="T17" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1817,64 +1826,64 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
         <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F18" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H18" t="s">
         <v>41</v>
       </c>
       <c r="I18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J18" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K18" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="L18" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="M18" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="N18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O18" t="s">
+        <v>44</v>
+      </c>
+      <c r="P18" t="s">
         <v>36</v>
       </c>
-      <c r="P18" t="s">
-        <v>49</v>
-      </c>
       <c r="Q18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R18" t="s">
         <v>34</v>
       </c>
       <c r="S18" t="s">
+        <v>44</v>
+      </c>
+      <c r="T18" t="s">
+        <v>42</v>
+      </c>
+      <c r="U18" t="s">
         <v>36</v>
-      </c>
-      <c r="T18" t="s">
-        <v>36</v>
-      </c>
-      <c r="U18" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1882,64 +1891,64 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G19" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H19" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19" t="s">
+        <v>41</v>
+      </c>
+      <c r="J19" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19" t="s">
         <v>42</v>
       </c>
-      <c r="I19" t="s">
+      <c r="L19" t="s">
+        <v>38</v>
+      </c>
+      <c r="M19" t="s">
         <v>40</v>
       </c>
-      <c r="J19" t="s">
-        <v>45</v>
-      </c>
-      <c r="K19" t="s">
-        <v>41</v>
-      </c>
-      <c r="L19" t="s">
-        <v>39</v>
-      </c>
-      <c r="M19" t="s">
-        <v>36</v>
-      </c>
       <c r="N19" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="O19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P19" t="s">
         <v>49</v>
       </c>
       <c r="Q19" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="R19" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="S19" t="s">
         <v>34</v>
       </c>
       <c r="T19" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="U19" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1947,64 +1956,64 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E20" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G20" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20" t="s">
+        <v>40</v>
+      </c>
+      <c r="J20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K20" t="s">
         <v>49</v>
       </c>
-      <c r="H20" t="s">
+      <c r="L20" t="s">
+        <v>38</v>
+      </c>
+      <c r="M20" t="s">
+        <v>39</v>
+      </c>
+      <c r="N20" t="s">
+        <v>41</v>
+      </c>
+      <c r="O20" t="s">
+        <v>37</v>
+      </c>
+      <c r="P20" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>37</v>
+      </c>
+      <c r="R20" t="s">
+        <v>44</v>
+      </c>
+      <c r="S20" t="s">
         <v>49</v>
-      </c>
-      <c r="I20" t="s">
-        <v>49</v>
-      </c>
-      <c r="J20" t="s">
-        <v>36</v>
-      </c>
-      <c r="K20" t="s">
-        <v>44</v>
-      </c>
-      <c r="L20" t="s">
-        <v>37</v>
-      </c>
-      <c r="M20" t="s">
-        <v>36</v>
-      </c>
-      <c r="N20" t="s">
-        <v>37</v>
-      </c>
-      <c r="O20" t="s">
-        <v>36</v>
-      </c>
-      <c r="P20" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>48</v>
-      </c>
-      <c r="R20" t="s">
-        <v>42</v>
-      </c>
-      <c r="S20" t="s">
-        <v>46</v>
       </c>
       <c r="T20" t="s">
         <v>34</v>
       </c>
       <c r="U20" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -2012,61 +2021,61 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" t="s">
+        <v>46</v>
+      </c>
+      <c r="J21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K21" t="s">
+        <v>43</v>
+      </c>
+      <c r="L21" t="s">
+        <v>37</v>
+      </c>
+      <c r="M21" t="s">
+        <v>44</v>
+      </c>
+      <c r="N21" t="s">
         <v>38</v>
       </c>
-      <c r="E21" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="O21" t="s">
+        <v>40</v>
+      </c>
+      <c r="P21" t="s">
         <v>49</v>
       </c>
-      <c r="G21" t="s">
-        <v>51</v>
-      </c>
-      <c r="H21" t="s">
-        <v>51</v>
-      </c>
-      <c r="I21" t="s">
-        <v>45</v>
-      </c>
-      <c r="J21" t="s">
-        <v>42</v>
-      </c>
-      <c r="K21" t="s">
-        <v>49</v>
-      </c>
-      <c r="L21" t="s">
-        <v>45</v>
-      </c>
-      <c r="M21" t="s">
-        <v>51</v>
-      </c>
-      <c r="N21" t="s">
-        <v>37</v>
-      </c>
-      <c r="O21" t="s">
-        <v>42</v>
-      </c>
-      <c r="P21" t="s">
-        <v>37</v>
-      </c>
       <c r="Q21" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="R21" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="S21" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="T21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="U21" t="s">
         <v>34</v>
@@ -2080,61 +2089,61 @@
         <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E22" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
         <v>44</v>
       </c>
-      <c r="H22" t="s">
-        <v>46</v>
-      </c>
       <c r="I22" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="J22" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K22" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="L22" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M22" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="N22" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="O22" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="P22" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="Q22" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="R22" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="S22" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="T22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -2142,64 +2151,64 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
         <v>34</v>
       </c>
       <c r="D23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G23" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="I23" t="s">
         <v>44</v>
       </c>
       <c r="J23" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K23" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="L23" t="s">
+        <v>44</v>
+      </c>
+      <c r="M23" t="s">
+        <v>46</v>
+      </c>
+      <c r="N23" t="s">
+        <v>43</v>
+      </c>
+      <c r="O23" t="s">
         <v>47</v>
       </c>
-      <c r="M23" t="s">
+      <c r="P23" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q23" t="s">
         <v>43</v>
       </c>
-      <c r="N23" t="s">
-        <v>50</v>
-      </c>
-      <c r="O23" t="s">
-        <v>35</v>
-      </c>
-      <c r="P23" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>51</v>
-      </c>
       <c r="R23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="S23" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="T23" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="U23" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -2207,64 +2216,64 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D24" t="s">
         <v>34</v>
       </c>
       <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
         <v>36</v>
       </c>
-      <c r="F24" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" t="s">
-        <v>35</v>
-      </c>
-      <c r="H24" t="s">
-        <v>48</v>
-      </c>
-      <c r="I24" t="s">
-        <v>46</v>
-      </c>
       <c r="J24" t="s">
+        <v>42</v>
+      </c>
+      <c r="K24" t="s">
+        <v>37</v>
+      </c>
+      <c r="L24" t="s">
+        <v>40</v>
+      </c>
+      <c r="M24" t="s">
+        <v>46</v>
+      </c>
+      <c r="N24" t="s">
+        <v>39</v>
+      </c>
+      <c r="O24" t="s">
         <v>44</v>
       </c>
-      <c r="K24" t="s">
-        <v>36</v>
-      </c>
-      <c r="L24" t="s">
-        <v>43</v>
-      </c>
-      <c r="M24" t="s">
-        <v>48</v>
-      </c>
-      <c r="N24" t="s">
-        <v>51</v>
-      </c>
-      <c r="O24" t="s">
-        <v>39</v>
-      </c>
       <c r="P24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q24" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="R24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="S24" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="T24" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="U24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -2272,64 +2281,64 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E25" t="s">
         <v>34</v>
       </c>
       <c r="F25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G25" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H25" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J25" t="s">
+        <v>40</v>
+      </c>
+      <c r="K25" t="s">
+        <v>40</v>
+      </c>
+      <c r="L25" t="s">
         <v>39</v>
       </c>
-      <c r="K25" t="s">
-        <v>41</v>
-      </c>
-      <c r="L25" t="s">
-        <v>51</v>
-      </c>
       <c r="M25" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="N25" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="O25" t="s">
+        <v>37</v>
+      </c>
+      <c r="P25" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q25" t="s">
         <v>47</v>
       </c>
-      <c r="P25" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>48</v>
-      </c>
       <c r="R25" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="S25" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="T25" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="U25" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2337,64 +2346,64 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E26" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F26" t="s">
         <v>34</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H26" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K26" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="L26" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="M26" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="N26" t="s">
         <v>44</v>
       </c>
       <c r="O26" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="P26" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="Q26" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="R26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S26" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="T26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2402,64 +2411,64 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="D27" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="E27" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G27" t="s">
         <v>34</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I27" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J27" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="K27" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="L27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M27" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="N27" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="O27" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="P27" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="Q27" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="R27" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="S27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="T27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="U27" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2467,64 +2476,64 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="E28" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F28" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G28" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H28" t="s">
         <v>34</v>
       </c>
       <c r="I28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J28" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K28" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="L28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O28" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="P28" t="s">
         <v>46</v>
       </c>
       <c r="Q28" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="R28" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="S28" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="T28" t="s">
         <v>37</v>
       </c>
       <c r="U28" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2532,64 +2541,64 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D29" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F29" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G29" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H29" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="I29" t="s">
         <v>34</v>
       </c>
       <c r="J29" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="K29" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="L29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M29" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="N29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O29" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P29" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="Q29" t="s">
+        <v>49</v>
+      </c>
+      <c r="R29" t="s">
+        <v>50</v>
+      </c>
+      <c r="S29" t="s">
+        <v>50</v>
+      </c>
+      <c r="T29" t="s">
         <v>38</v>
       </c>
-      <c r="R29" t="s">
-        <v>51</v>
-      </c>
-      <c r="S29" t="s">
-        <v>51</v>
-      </c>
-      <c r="T29" t="s">
-        <v>37</v>
-      </c>
       <c r="U29" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2600,61 +2609,61 @@
         <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E30" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G30" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H30" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J30" t="s">
         <v>34</v>
       </c>
       <c r="K30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L30" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="M30" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="N30" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O30" t="s">
+        <v>42</v>
+      </c>
+      <c r="P30" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>37</v>
+      </c>
+      <c r="R30" t="s">
+        <v>46</v>
+      </c>
+      <c r="S30" t="s">
         <v>38</v>
       </c>
-      <c r="P30" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>37</v>
-      </c>
-      <c r="R30" t="s">
-        <v>40</v>
-      </c>
-      <c r="S30" t="s">
-        <v>52</v>
-      </c>
       <c r="T30" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="U30" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2662,28 +2671,28 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D31" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E31" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F31" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I31" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="J31" t="s">
         <v>38</v>
@@ -2692,34 +2701,34 @@
         <v>34</v>
       </c>
       <c r="L31" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="M31" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="N31" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="O31" t="s">
         <v>38</v>
       </c>
       <c r="P31" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="Q31" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="R31" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="S31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T31" t="s">
         <v>41</v>
       </c>
       <c r="U31" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2727,64 +2736,64 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C32" t="s">
         <v>46</v>
       </c>
       <c r="D32" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E32" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" t="s">
         <v>36</v>
       </c>
-      <c r="F32" t="s">
-        <v>48</v>
-      </c>
       <c r="G32" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H32" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="I32" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="J32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K32" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="L32" t="s">
         <v>34</v>
       </c>
       <c r="M32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N32" t="s">
+        <v>50</v>
+      </c>
+      <c r="O32" t="s">
+        <v>41</v>
+      </c>
+      <c r="P32" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q32" t="s">
         <v>40</v>
       </c>
-      <c r="O32" t="s">
-        <v>40</v>
-      </c>
-      <c r="P32" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>46</v>
-      </c>
       <c r="R32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S32" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="T32" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="U32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2792,34 +2801,34 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="D33" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F33" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H33" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J33" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="K33" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L33" t="s">
         <v>41</v>
@@ -2828,28 +2837,28 @@
         <v>34</v>
       </c>
       <c r="N33" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="O33" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="P33" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="Q33" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="R33" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="S33" t="s">
+        <v>38</v>
+      </c>
+      <c r="T33" t="s">
         <v>48</v>
       </c>
-      <c r="T33" t="s">
-        <v>50</v>
-      </c>
       <c r="U33" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2857,64 +2866,64 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D34" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E34" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F34" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J34" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="K34" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="L34" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="M34" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="N34" t="s">
         <v>34</v>
       </c>
       <c r="O34" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="P34" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="Q34" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="R34" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="S34" t="s">
         <v>50</v>
       </c>
       <c r="T34" t="s">
+        <v>46</v>
+      </c>
+      <c r="U34" t="s">
         <v>38</v>
-      </c>
-      <c r="U34" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2925,61 +2934,61 @@
         <v>47</v>
       </c>
       <c r="C35" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D35" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E35" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G35" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="J35" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="K35" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="L35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M35" t="s">
         <v>46</v>
       </c>
       <c r="N35" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="O35" t="s">
         <v>34</v>
       </c>
       <c r="P35" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="Q35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R35" t="s">
         <v>43</v>
       </c>
       <c r="S35" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="T35" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="U35" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -3005,7 +3014,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3021,7 +3030,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3037,7 +3046,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3045,7 +3054,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3053,7 +3062,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3061,7 +3070,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3069,7 +3078,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3077,7 +3086,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3085,7 +3094,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3093,7 +3102,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3117,7 +3126,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3133,7 +3142,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3141,7 +3150,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3165,7 +3174,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3173,7 +3182,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3181,7 +3190,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3197,7 +3206,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -3205,7 +3214,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3213,7 +3222,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3237,7 +3246,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -3245,7 +3254,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -3253,7 +3262,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3261,7 +3270,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3295,7 +3304,7 @@
         <v>55</v>
       </c>
       <c r="B2">
-        <v>0.04608294930875576</v>
+        <v>0.06682027649769585</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3303,7 +3312,7 @@
         <v>56</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.01023017902813299</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3311,7 +3320,7 @@
         <v>57</v>
       </c>
       <c r="B4">
-        <v>0.004750593824228029</v>
+        <v>0.02137767220902613</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3319,7 +3328,7 @@
         <v>58</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.009569377990430622</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3327,7 +3336,7 @@
         <v>59</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.009732360097323601</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3335,7 +3344,7 @@
         <v>60</v>
       </c>
       <c r="B7">
-        <v>0.07304785894206549</v>
+        <v>0.08060453400503778</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3343,7 +3352,7 @@
         <v>61</v>
       </c>
       <c r="B8">
-        <v>0.03717472118959108</v>
+        <v>0.02230483271375465</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3351,7 +3360,7 @@
         <v>62</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.08064516129032258</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3359,7 +3368,7 @@
         <v>63</v>
       </c>
       <c r="B10">
-        <v>0.02473498233215548</v>
+        <v>0.07420494699646643</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3367,7 +3376,7 @@
         <v>64</v>
       </c>
       <c r="B11">
-        <v>0.02439024390243903</v>
+        <v>0.03252032520325204</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3375,7 +3384,7 @@
         <v>65</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>0.01538461538461539</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3415,7 +3424,7 @@
         <v>70</v>
       </c>
       <c r="B17">
-        <v>0.02735562310030395</v>
+        <v>0.1033434650455927</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3423,7 +3432,7 @@
         <v>71</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.0108695652173913</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3431,7 +3440,7 @@
         <v>72</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>0.04444444444444445</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3455,7 +3464,7 @@
         <v>75</v>
       </c>
       <c r="B22">
-        <v>0.02649006622516556</v>
+        <v>0.05298013245033113</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3463,7 +3472,7 @@
         <v>76</v>
       </c>
       <c r="B23">
-        <v>0.01351351351351351</v>
+        <v>0.05405405405405406</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3471,7 +3480,7 @@
         <v>77</v>
       </c>
       <c r="B24">
-        <v>0.03289473684210526</v>
+        <v>0.05263157894736842</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3505,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.04038004750593824</v>
+        <v>0.07600950118764846</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3513,7 +3522,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.002777777777777778</v>
+        <v>0.01111111111111111</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3521,7 +3530,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.0198300283286119</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3529,7 +3538,7 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0.0498812351543943</v>
+        <v>0.08551068883610451</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3537,7 +3546,7 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.002777777777777778</v>
+        <v>0.01111111111111111</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3545,7 +3554,7 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.0226628895184136</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3553,7 +3562,7 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.006211180124223602</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3561,7 +3570,7 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.006289308176100629</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3569,7 +3578,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.04275534441805225</v>
+        <v>0.08551068883610451</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3577,7 +3586,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.002777777777777778</v>
+        <v>0.01111111111111111</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3585,7 +3594,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.0028328611898017</v>
+        <v>0.0198300283286119</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3593,7 +3602,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>0.006211180124223602</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3601,7 +3610,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>0.009433962264150943</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3609,7 +3618,7 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>0.0498812351543943</v>
+        <v>0.07600950118764846</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3617,7 +3626,7 @@
         <v>23</v>
       </c>
       <c r="B16">
-        <v>0.002777777777777778</v>
+        <v>0.008333333333333333</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3625,7 +3634,7 @@
         <v>24</v>
       </c>
       <c r="B17">
-        <v>0.0028328611898017</v>
+        <v>0.0198300283286119</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3633,7 +3642,7 @@
         <v>25</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.003105590062111801</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3649,7 +3658,7 @@
         <v>29</v>
       </c>
       <c r="B20">
-        <v>0.0332541567695962</v>
+        <v>0.05700712589073634</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3657,7 +3666,7 @@
         <v>30</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>0.01111111111111111</v>
       </c>
     </row>
   </sheetData>
@@ -3691,7 +3700,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3699,7 +3708,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3715,7 +3724,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3723,7 +3732,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3731,7 +3740,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3739,7 +3748,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3747,7 +3756,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3755,7 +3764,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3771,7 +3780,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3779,7 +3788,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3787,7 +3796,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3795,7 +3804,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3803,7 +3812,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3811,7 +3820,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3827,7 +3836,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3835,7 +3844,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3843,7 +3852,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3851,7 +3860,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3859,7 +3868,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3875,7 +3884,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -3883,7 +3892,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3891,7 +3900,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3899,7 +3908,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -3907,7 +3916,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3915,7 +3924,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -3923,7 +3932,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -3931,7 +3940,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3939,7 +3948,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3947,7 +3956,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4045,31 +4054,31 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>6</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -4090,13 +4099,13 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4117,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -4146,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -4170,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -4197,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -4226,16 +4235,16 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -4256,7 +4265,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4268,16 +4277,16 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -4285,37 +4294,37 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>6</v>
       </c>
       <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
         <v>2</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
       <c r="J5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -4330,13 +4339,13 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4357,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -4386,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -4410,7 +4419,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -4437,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -4466,16 +4475,16 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -4496,7 +4505,7 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -4508,16 +4517,16 @@
         <v>0</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -4570,7 +4579,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -4585,7 +4594,7 @@
         <v>0</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8">
         <v>0</v>
@@ -4597,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -4620,13 +4629,13 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -4677,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -4685,37 +4694,37 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>6</v>
       </c>
       <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>4</v>
+      </c>
+      <c r="K10">
         <v>3</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
       <c r="L10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -4730,13 +4739,13 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -4757,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -4786,7 +4795,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -4810,7 +4819,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -4837,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -4866,7 +4875,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -4875,7 +4884,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -4896,7 +4905,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -4908,16 +4917,16 @@
         <v>0</v>
       </c>
       <c r="W12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -4970,7 +4979,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -4985,7 +4994,7 @@
         <v>0</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W13">
         <v>0</v>
@@ -4997,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -5020,13 +5029,13 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -5056,7 +5065,7 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -5077,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -5085,31 +5094,31 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H15">
         <v>2</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -5130,10 +5139,10 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -5151,13 +5160,13 @@
         <v>0</v>
       </c>
       <c r="X15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -5186,7 +5195,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -5210,7 +5219,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -5237,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:26">
@@ -5266,10 +5275,10 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -5296,7 +5305,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -5308,16 +5317,16 @@
         <v>0</v>
       </c>
       <c r="W17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -5385,7 +5394,7 @@
         <v>0</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18">
         <v>0</v>
@@ -5397,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:26">
@@ -5485,13 +5494,13 @@
         <v>29</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -5503,16 +5512,16 @@
         <v>5</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20">
         <v>3</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -5530,7 +5539,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -5557,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -5586,7 +5595,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -5610,7 +5619,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -5625,7 +5634,7 @@
         <v>0</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21">
         <v>0</v>
@@ -5637,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:26">
@@ -5645,59 +5654,59 @@
         <v>81</v>
       </c>
       <c r="B22">
+        <v>29</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>9</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <v>32</v>
+      </c>
+      <c r="H22">
+        <v>6</v>
+      </c>
+      <c r="I22">
         <v>20</v>
       </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>29</v>
-      </c>
-      <c r="H22">
+      <c r="J22">
+        <v>21</v>
+      </c>
+      <c r="K22">
+        <v>12</v>
+      </c>
+      <c r="L22">
+        <v>6</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>34</v>
+      </c>
+      <c r="R22">
+        <v>3</v>
+      </c>
+      <c r="S22">
         <v>10</v>
       </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>7</v>
-      </c>
-      <c r="K22">
-        <v>9</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>9</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
       <c r="T22">
         <v>0</v>
       </c>
@@ -5705,19 +5714,19 @@
         <v>0</v>
       </c>
       <c r="V22">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="W22">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="X22">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>97</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -5758,16 +5767,16 @@
         <v>82</v>
       </c>
       <c r="C2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" t="s">
         <v>87</v>
-      </c>
-      <c r="D2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F2" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5778,16 +5787,16 @@
         <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E3" t="s">
         <v>86</v>
       </c>
       <c r="F3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5798,16 +5807,16 @@
         <v>84</v>
       </c>
       <c r="C4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" t="s">
         <v>83</v>
-      </c>
-      <c r="D4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F4" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5818,16 +5827,16 @@
         <v>85</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" t="s">
         <v>87</v>
-      </c>
-      <c r="F5" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5835,19 +5844,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E6" t="s">
         <v>86</v>
       </c>
       <c r="F6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5855,19 +5864,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D7" t="s">
         <v>86</v>
       </c>
       <c r="E7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" t="s">
         <v>87</v>
-      </c>
-      <c r="F7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5875,19 +5884,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="D8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E8" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="F8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5898,16 +5907,16 @@
         <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="D9" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5915,19 +5924,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" t="s">
         <v>86</v>
       </c>
-      <c r="E10" t="s">
-        <v>92</v>
-      </c>
       <c r="F10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5938,16 +5947,16 @@
         <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F11" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5955,19 +5964,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E12" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F12" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5975,19 +5984,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C13" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5995,19 +6004,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" t="s">
         <v>86</v>
       </c>
-      <c r="E14" t="s">
-        <v>107</v>
-      </c>
       <c r="F14" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -6015,19 +6024,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="D15" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E15" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" t="s">
         <v>90</v>
-      </c>
-      <c r="F15" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -6035,19 +6044,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F16" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6055,19 +6064,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="D17" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="E17" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="F17" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6075,19 +6084,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="D18" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="E18" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="F18" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6095,19 +6104,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="D19" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E19" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="F19" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6115,19 +6124,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C20" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E20" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="F20" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6135,19 +6144,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" t="s">
         <v>86</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E21" t="s">
         <v>89</v>
       </c>
-      <c r="D21" t="s">
-        <v>100</v>
-      </c>
-      <c r="E21" t="s">
-        <v>100</v>
-      </c>
       <c r="F21" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -6155,19 +6164,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" t="s">
         <v>93</v>
       </c>
-      <c r="C22" t="s">
-        <v>84</v>
-      </c>
-      <c r="D22" t="s">
-        <v>90</v>
-      </c>
-      <c r="E22" t="s">
-        <v>97</v>
-      </c>
       <c r="F22" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6175,19 +6184,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D23" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E23" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="F23" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6195,19 +6204,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C24" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" t="s">
         <v>84</v>
       </c>
-      <c r="D24" t="s">
-        <v>97</v>
-      </c>
-      <c r="E24" t="s">
-        <v>106</v>
-      </c>
       <c r="F24" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6215,19 +6224,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C25" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D25" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E25" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="F25" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6235,19 +6244,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C26" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D26" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="E26" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F26" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6255,19 +6264,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C27" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D27" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E27" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F27" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -6275,19 +6284,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C28" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D28" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="E28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F28" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -6295,19 +6304,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C29" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="D29" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E29" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F29" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -6315,19 +6324,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" t="s">
         <v>83</v>
       </c>
-      <c r="D30" t="s">
-        <v>95</v>
-      </c>
-      <c r="E30" t="s">
-        <v>87</v>
-      </c>
       <c r="F30" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -6335,16 +6344,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C31" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D31" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="E31" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="F31" t="s">
         <v>82</v>
@@ -6355,19 +6364,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C32" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D32" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="E32" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="F32" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -6375,19 +6384,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C33" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D33" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E33" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="F33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -6395,19 +6404,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C34" t="s">
         <v>83</v>
       </c>
       <c r="D34" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E34" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F34" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -6415,19 +6424,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35" t="s">
         <v>82</v>
       </c>
-      <c r="C35" t="s">
-        <v>87</v>
-      </c>
-      <c r="D35" t="s">
-        <v>105</v>
-      </c>
-      <c r="E35" t="s">
-        <v>92</v>
-      </c>
       <c r="F35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/alg_schedule_data_2019_4.xlsx
+++ b/alg_schedule_data_2019_4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="118">
   <si>
     <t>Abe</t>
   </si>
@@ -37,10 +37,7 @@
     <t>Crystal</t>
   </si>
   <si>
-    <t>Cynthia</t>
-  </si>
-  <si>
-    <t>Daphne</t>
+    <t>Elaine</t>
   </si>
   <si>
     <t>Ellen</t>
@@ -58,7 +55,10 @@
     <t>Ginny</t>
   </si>
   <si>
-    <t>Irene</t>
+    <t>Jamie</t>
+  </si>
+  <si>
+    <t>Jane</t>
   </si>
   <si>
     <t>Janet</t>
@@ -76,6 +76,9 @@
     <t>Karen</t>
   </si>
   <si>
+    <t>Lance</t>
+  </si>
+  <si>
     <t>Mandy</t>
   </si>
   <si>
@@ -97,6 +100,9 @@
     <t>Oscar</t>
   </si>
   <si>
+    <t>Patty</t>
+  </si>
+  <si>
     <t>Sabina</t>
   </si>
   <si>
@@ -109,78 +115,98 @@
     <t>Sandy</t>
   </si>
   <si>
-    <t>Sharon</t>
-  </si>
-  <si>
     <t>Sony</t>
   </si>
   <si>
-    <t xml:space="preserve">Summer </t>
-  </si>
-  <si>
-    <t>Vivian</t>
+    <t>Stacy</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>Vivian
+Huang</t>
+  </si>
+  <si>
+    <t>Vivian
+Kuang</t>
   </si>
   <si>
     <t>Yvette</t>
   </si>
   <si>
+    <t>Anita</t>
+  </si>
+  <si>
+    <t>Catherine</t>
+  </si>
+  <si>
+    <t>Lisa</t>
+  </si>
+  <si>
+    <t>Penny</t>
+  </si>
+  <si>
+    <t>Soraya</t>
+  </si>
+  <si>
     <t>O</t>
   </si>
   <si>
     <t>P3</t>
   </si>
   <si>
+    <t>N1</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>W6</t>
+  </si>
+  <si>
+    <t>OB</t>
+  </si>
+  <si>
     <t>CD</t>
   </si>
   <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>W6</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>N1</t>
-  </si>
-  <si>
-    <t>OB</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>P2</t>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>P4</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>AS</t>
-  </si>
-  <si>
     <t>P5</t>
   </si>
   <si>
-    <t>P4</t>
-  </si>
-  <si>
     <t>NightWork_count</t>
   </si>
   <si>
@@ -268,94 +294,88 @@
     <t>SUM_per_time</t>
   </si>
   <si>
+    <t>['11:30', '12:00']</t>
+  </si>
+  <si>
+    <t>['12:30']</t>
+  </si>
+  <si>
+    <t>['12:00', '12:30']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:30']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:00', '12:30']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:30', '13:00']</t>
+  </si>
+  <si>
+    <t>['11:30', '13:30']</t>
+  </si>
+  <si>
+    <t>['12:00', '13:30']</t>
+  </si>
+  <si>
+    <t>['12:30', '13:00', '13:30']</t>
+  </si>
+  <si>
+    <t>['12:00', '12:30', '13:00']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:00', '13:00']</t>
+  </si>
+  <si>
+    <t>['12:30', '13:30']</t>
+  </si>
+  <si>
+    <t>['13:30']</t>
+  </si>
+  <si>
+    <t>['11:30', '13:00']</t>
+  </si>
+  <si>
+    <t>['12:00']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>['11:30']</t>
   </si>
   <si>
-    <t>['12:30']</t>
-  </si>
-  <si>
-    <t>['12:00', '12:30']</t>
-  </si>
-  <si>
-    <t>['12:30', '13:30']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:00', '12:30']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:30']</t>
-  </si>
-  <si>
-    <t>['12:00', '12:30', '13:00']</t>
+    <t>['13:00']</t>
+  </si>
+  <si>
+    <t>['12:30', '13:00']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:30', '13:30']</t>
+  </si>
+  <si>
+    <t>['12:00', '13:00', '13:30']</t>
+  </si>
+  <si>
+    <t>['12:00', '13:00']</t>
+  </si>
+  <si>
+    <t>['11:30', '13:00', '13:30']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:00', '12:30', '13:00']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:00', '13:30']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:00', '13:00', '13:30']</t>
   </si>
   <si>
     <t>['13:00', '13:30']</t>
   </si>
   <si>
-    <t>['11:30', '12:00']</t>
-  </si>
-  <si>
-    <t>['12:30', '13:00']</t>
-  </si>
-  <si>
-    <t>['11:30', '13:00']</t>
-  </si>
-  <si>
-    <t>['12:00']</t>
-  </si>
-  <si>
-    <t>['13:30']</t>
-  </si>
-  <si>
-    <t>['12:00', '13:30']</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>['12:00', '13:00']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:30', '13:00']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:00', '13:30']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:00', '12:30', '13:00']</t>
-  </si>
-  <si>
-    <t>['12:30', '13:00', '13:30']</t>
-  </si>
-  <si>
-    <t>['12:00', '12:30', '13:30']</t>
-  </si>
-  <si>
     <t>['11:30', '12:00', '12:30', '13:30']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:00', '13:00']</t>
-  </si>
-  <si>
-    <t>['11:30', '13:00', '13:30']</t>
-  </si>
-  <si>
-    <t>['12:00', '13:00', '13:30']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:00', '13:00', '13:30']</t>
-  </si>
-  <si>
-    <t>['11:30', '13:30']</t>
-  </si>
-  <si>
-    <t>['12:00', '12:30', '13:00', '13:30']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:30', '13:00', '13:30']</t>
-  </si>
-  <si>
-    <t>['13:00']</t>
   </si>
 </sst>
 </file>
@@ -713,7 +733,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U35"/>
+  <dimension ref="A1:U43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -786,10 +806,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>46</v>
@@ -798,52 +818,52 @@
         <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="I2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="N2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="O2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="P2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="R2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="U2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -851,64 +871,64 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S3" t="s">
         <v>49</v>
       </c>
-      <c r="H3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" t="s">
-        <v>48</v>
-      </c>
-      <c r="M3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" t="s">
-        <v>36</v>
-      </c>
-      <c r="O3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>48</v>
-      </c>
-      <c r="R3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S3" t="s">
-        <v>41</v>
-      </c>
       <c r="T3" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="U3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -916,64 +936,64 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L4" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="M4" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="N4" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="O4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="P4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="Q4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="R4" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="S4" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="T4" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="U4" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -981,64 +1001,64 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" t="s">
         <v>42</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" t="s">
         <v>51</v>
       </c>
-      <c r="E5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5" t="s">
-        <v>48</v>
-      </c>
-      <c r="L5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M5" t="s">
-        <v>35</v>
-      </c>
-      <c r="N5" t="s">
-        <v>35</v>
-      </c>
-      <c r="O5" t="s">
-        <v>37</v>
-      </c>
-      <c r="P5" t="s">
-        <v>35</v>
-      </c>
       <c r="Q5" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="R5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="S5" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="T5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="U5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -1046,64 +1066,64 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" t="s">
         <v>42</v>
       </c>
-      <c r="F6" t="s">
-        <v>34</v>
-      </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H6" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I6" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="J6" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="K6" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="L6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M6" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="N6" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="O6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="P6" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="Q6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R6" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="S6" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="T6" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="U6" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -1111,64 +1131,64 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" t="s">
         <v>48</v>
       </c>
-      <c r="D7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" t="s">
-        <v>38</v>
-      </c>
       <c r="J7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="L7" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="M7" t="s">
         <v>43</v>
       </c>
       <c r="N7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="O7" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="P7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="R7" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="S7" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="T7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="U7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1176,64 +1196,64 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="I8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J8" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="K8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L8" t="s">
         <v>45</v>
       </c>
       <c r="M8" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="N8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O8" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="P8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="Q8" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="R8" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="S8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="T8" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="U8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1241,64 +1261,64 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" t="s">
         <v>43</v>
       </c>
-      <c r="G9" t="s">
+      <c r="L9" t="s">
+        <v>59</v>
+      </c>
+      <c r="M9" t="s">
+        <v>45</v>
+      </c>
+      <c r="N9" t="s">
+        <v>54</v>
+      </c>
+      <c r="O9" t="s">
+        <v>45</v>
+      </c>
+      <c r="P9" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>53</v>
+      </c>
+      <c r="R9" t="s">
+        <v>54</v>
+      </c>
+      <c r="S9" t="s">
         <v>48</v>
       </c>
-      <c r="H9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I9" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" t="s">
-        <v>37</v>
-      </c>
-      <c r="K9" t="s">
-        <v>41</v>
-      </c>
-      <c r="L9" t="s">
-        <v>35</v>
-      </c>
-      <c r="M9" t="s">
-        <v>38</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="T9" t="s">
+        <v>45</v>
+      </c>
+      <c r="U9" t="s">
         <v>44</v>
-      </c>
-      <c r="O9" t="s">
-        <v>41</v>
-      </c>
-      <c r="P9" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>48</v>
-      </c>
-      <c r="R9" t="s">
-        <v>37</v>
-      </c>
-      <c r="S9" t="s">
-        <v>43</v>
-      </c>
-      <c r="T9" t="s">
-        <v>37</v>
-      </c>
-      <c r="U9" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1306,64 +1326,64 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
         <v>44</v>
       </c>
       <c r="E10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" t="s">
         <v>47</v>
       </c>
-      <c r="F10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" t="s">
-        <v>44</v>
-      </c>
       <c r="J10" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="K10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L10" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="M10" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="N10" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="O10" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="P10" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="Q10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R10" t="s">
+        <v>59</v>
+      </c>
+      <c r="S10" t="s">
         <v>45</v>
       </c>
-      <c r="S10" t="s">
-        <v>44</v>
-      </c>
       <c r="T10" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="U10" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1371,34 +1391,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" t="s">
         <v>48</v>
       </c>
-      <c r="D11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" t="s">
-        <v>37</v>
-      </c>
       <c r="J11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K11" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="L11" t="s">
         <v>46</v>
@@ -1407,28 +1427,28 @@
         <v>44</v>
       </c>
       <c r="N11" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="O11" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="P11" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="Q11" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="R11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S11" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="T11" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="U11" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1436,64 +1456,64 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12" t="s">
+        <v>58</v>
+      </c>
+      <c r="L12" t="s">
         <v>42</v>
       </c>
-      <c r="F12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="M12" t="s">
         <v>49</v>
       </c>
-      <c r="I12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J12" t="s">
-        <v>37</v>
-      </c>
-      <c r="K12" t="s">
-        <v>35</v>
-      </c>
-      <c r="L12" t="s">
-        <v>34</v>
-      </c>
-      <c r="M12" t="s">
-        <v>36</v>
-      </c>
       <c r="N12" t="s">
+        <v>45</v>
+      </c>
+      <c r="O12" t="s">
+        <v>45</v>
+      </c>
+      <c r="P12" t="s">
         <v>44</v>
       </c>
-      <c r="O12" t="s">
-        <v>37</v>
-      </c>
-      <c r="P12" t="s">
-        <v>41</v>
-      </c>
       <c r="Q12" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="R12" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="S12" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="T12" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="U12" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1501,64 +1521,64 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" t="s">
         <v>48</v>
       </c>
-      <c r="E13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" t="s">
+        <v>59</v>
+      </c>
+      <c r="I13" t="s">
         <v>47</v>
       </c>
-      <c r="G13" t="s">
+      <c r="J13" t="s">
         <v>45</v>
       </c>
-      <c r="H13" t="s">
-        <v>45</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="K13" t="s">
         <v>44</v>
       </c>
-      <c r="J13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K13" t="s">
-        <v>41</v>
-      </c>
       <c r="L13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M13" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="N13" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="O13" t="s">
         <v>45</v>
       </c>
       <c r="P13" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="Q13" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="R13" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="S13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="T13" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="U13" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1566,64 +1586,64 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="F14" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G14" t="s">
         <v>48</v>
       </c>
       <c r="H14" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="J14" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="K14" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="L14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N14" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="O14" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="P14" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>53</v>
+      </c>
+      <c r="R14" t="s">
+        <v>47</v>
+      </c>
+      <c r="S14" t="s">
+        <v>47</v>
+      </c>
+      <c r="T14" t="s">
+        <v>47</v>
+      </c>
+      <c r="U14" t="s">
         <v>45</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>50</v>
-      </c>
-      <c r="R14" t="s">
-        <v>41</v>
-      </c>
-      <c r="S14" t="s">
-        <v>37</v>
-      </c>
-      <c r="T14" t="s">
-        <v>41</v>
-      </c>
-      <c r="U14" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1631,64 +1651,64 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="F15" t="s">
         <v>44</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="H15" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="I15" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="J15" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K15" t="s">
+        <v>59</v>
+      </c>
+      <c r="L15" t="s">
+        <v>53</v>
+      </c>
+      <c r="M15" t="s">
+        <v>59</v>
+      </c>
+      <c r="N15" t="s">
+        <v>48</v>
+      </c>
+      <c r="O15" t="s">
+        <v>42</v>
+      </c>
+      <c r="P15" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>53</v>
+      </c>
+      <c r="R15" t="s">
+        <v>48</v>
+      </c>
+      <c r="S15" t="s">
+        <v>54</v>
+      </c>
+      <c r="T15" t="s">
+        <v>45</v>
+      </c>
+      <c r="U15" t="s">
         <v>49</v>
-      </c>
-      <c r="L15" t="s">
-        <v>42</v>
-      </c>
-      <c r="M15" t="s">
-        <v>42</v>
-      </c>
-      <c r="N15" t="s">
-        <v>40</v>
-      </c>
-      <c r="O15" t="s">
-        <v>34</v>
-      </c>
-      <c r="P15" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>49</v>
-      </c>
-      <c r="R15" t="s">
-        <v>41</v>
-      </c>
-      <c r="S15" t="s">
-        <v>40</v>
-      </c>
-      <c r="T15" t="s">
-        <v>41</v>
-      </c>
-      <c r="U15" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1696,64 +1716,64 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" t="s">
         <v>45</v>
       </c>
-      <c r="D16" t="s">
+      <c r="G16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" t="s">
+        <v>49</v>
+      </c>
+      <c r="J16" t="s">
+        <v>55</v>
+      </c>
+      <c r="K16" t="s">
+        <v>52</v>
+      </c>
+      <c r="L16" t="s">
         <v>50</v>
       </c>
-      <c r="E16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" t="s">
-        <v>44</v>
-      </c>
-      <c r="I16" t="s">
-        <v>44</v>
-      </c>
-      <c r="J16" t="s">
-        <v>38</v>
-      </c>
-      <c r="K16" t="s">
-        <v>37</v>
-      </c>
-      <c r="L16" t="s">
-        <v>44</v>
-      </c>
       <c r="M16" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="N16" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="O16" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="P16" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="Q16" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="R16" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="S16" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="T16" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="U16" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1761,64 +1781,64 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I17" t="s">
+        <v>52</v>
+      </c>
+      <c r="J17" t="s">
+        <v>52</v>
+      </c>
+      <c r="K17" t="s">
+        <v>51</v>
+      </c>
+      <c r="L17" t="s">
+        <v>51</v>
+      </c>
+      <c r="M17" t="s">
+        <v>51</v>
+      </c>
+      <c r="N17" t="s">
+        <v>50</v>
+      </c>
+      <c r="O17" t="s">
+        <v>50</v>
+      </c>
+      <c r="P17" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q17" t="s">
         <v>42</v>
       </c>
-      <c r="C17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" t="s">
-        <v>49</v>
-      </c>
-      <c r="I17" t="s">
-        <v>49</v>
-      </c>
-      <c r="J17" t="s">
-        <v>41</v>
-      </c>
-      <c r="K17" t="s">
-        <v>49</v>
-      </c>
-      <c r="L17" t="s">
-        <v>46</v>
-      </c>
-      <c r="M17" t="s">
+      <c r="R17" t="s">
+        <v>51</v>
+      </c>
+      <c r="S17" t="s">
         <v>44</v>
       </c>
-      <c r="N17" t="s">
-        <v>49</v>
-      </c>
-      <c r="O17" t="s">
-        <v>40</v>
-      </c>
-      <c r="P17" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>34</v>
-      </c>
-      <c r="R17" t="s">
-        <v>49</v>
-      </c>
-      <c r="S17" t="s">
-        <v>42</v>
-      </c>
       <c r="T17" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="U17" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1826,64 +1846,64 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" t="s">
         <v>44</v>
       </c>
-      <c r="G18" t="s">
-        <v>48</v>
-      </c>
-      <c r="H18" t="s">
-        <v>41</v>
-      </c>
-      <c r="I18" t="s">
-        <v>42</v>
-      </c>
       <c r="J18" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="K18" t="s">
         <v>44</v>
       </c>
       <c r="L18" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="M18" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="N18" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="O18" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P18" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q18" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="R18" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="S18" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="T18" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="U18" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1891,64 +1911,64 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E19" t="s">
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G19" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>47</v>
+      </c>
+      <c r="J19" t="s">
+        <v>47</v>
+      </c>
+      <c r="K19" t="s">
+        <v>59</v>
+      </c>
+      <c r="L19" t="s">
+        <v>48</v>
+      </c>
+      <c r="M19" t="s">
+        <v>54</v>
+      </c>
+      <c r="N19" t="s">
+        <v>47</v>
+      </c>
+      <c r="O19" t="s">
+        <v>47</v>
+      </c>
+      <c r="P19" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>53</v>
+      </c>
+      <c r="R19" t="s">
         <v>44</v>
       </c>
-      <c r="H19" t="s">
-        <v>44</v>
-      </c>
-      <c r="I19" t="s">
-        <v>41</v>
-      </c>
-      <c r="J19" t="s">
-        <v>40</v>
-      </c>
-      <c r="K19" t="s">
+      <c r="S19" t="s">
         <v>42</v>
-      </c>
-      <c r="L19" t="s">
-        <v>38</v>
-      </c>
-      <c r="M19" t="s">
-        <v>40</v>
-      </c>
-      <c r="N19" t="s">
-        <v>46</v>
-      </c>
-      <c r="O19" t="s">
-        <v>40</v>
-      </c>
-      <c r="P19" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>40</v>
-      </c>
-      <c r="R19" t="s">
-        <v>42</v>
-      </c>
-      <c r="S19" t="s">
-        <v>34</v>
       </c>
       <c r="T19" t="s">
         <v>44</v>
       </c>
       <c r="U19" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1956,64 +1976,64 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" t="s">
         <v>49</v>
       </c>
-      <c r="D20" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" t="s">
+        <v>53</v>
+      </c>
+      <c r="J20" t="s">
+        <v>48</v>
+      </c>
+      <c r="K20" t="s">
+        <v>59</v>
+      </c>
+      <c r="L20" t="s">
+        <v>53</v>
+      </c>
+      <c r="M20" t="s">
         <v>47</v>
       </c>
-      <c r="H20" t="s">
-        <v>40</v>
-      </c>
-      <c r="I20" t="s">
-        <v>40</v>
-      </c>
-      <c r="J20" t="s">
+      <c r="N20" t="s">
+        <v>53</v>
+      </c>
+      <c r="O20" t="s">
+        <v>54</v>
+      </c>
+      <c r="P20" t="s">
         <v>47</v>
       </c>
-      <c r="K20" t="s">
-        <v>49</v>
-      </c>
-      <c r="L20" t="s">
-        <v>38</v>
-      </c>
-      <c r="M20" t="s">
-        <v>39</v>
-      </c>
-      <c r="N20" t="s">
-        <v>41</v>
-      </c>
-      <c r="O20" t="s">
-        <v>37</v>
-      </c>
-      <c r="P20" t="s">
-        <v>37</v>
-      </c>
       <c r="Q20" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="R20" t="s">
+        <v>59</v>
+      </c>
+      <c r="S20" t="s">
+        <v>59</v>
+      </c>
+      <c r="T20" t="s">
+        <v>42</v>
+      </c>
+      <c r="U20" t="s">
         <v>44</v>
-      </c>
-      <c r="S20" t="s">
-        <v>49</v>
-      </c>
-      <c r="T20" t="s">
-        <v>34</v>
-      </c>
-      <c r="U20" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -2021,64 +2041,64 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
         <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="I21" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J21" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21" t="s">
+        <v>48</v>
+      </c>
+      <c r="L21" t="s">
+        <v>48</v>
+      </c>
+      <c r="M21" t="s">
+        <v>48</v>
+      </c>
+      <c r="N21" t="s">
+        <v>48</v>
+      </c>
+      <c r="O21" t="s">
+        <v>45</v>
+      </c>
+      <c r="P21" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>57</v>
+      </c>
+      <c r="R21" t="s">
         <v>44</v>
       </c>
-      <c r="K21" t="s">
-        <v>43</v>
-      </c>
-      <c r="L21" t="s">
-        <v>37</v>
-      </c>
-      <c r="M21" t="s">
-        <v>44</v>
-      </c>
-      <c r="N21" t="s">
-        <v>38</v>
-      </c>
-      <c r="O21" t="s">
-        <v>40</v>
-      </c>
-      <c r="P21" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>38</v>
-      </c>
-      <c r="R21" t="s">
-        <v>40</v>
-      </c>
       <c r="S21" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="T21" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="U21" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -2086,64 +2106,64 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D22" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H22" t="s">
+        <v>53</v>
+      </c>
+      <c r="I22" t="s">
+        <v>53</v>
+      </c>
+      <c r="J22" t="s">
+        <v>47</v>
+      </c>
+      <c r="K22" t="s">
         <v>44</v>
       </c>
-      <c r="I22" t="s">
-        <v>45</v>
-      </c>
-      <c r="J22" t="s">
-        <v>40</v>
-      </c>
-      <c r="K22" t="s">
-        <v>41</v>
-      </c>
       <c r="L22" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="M22" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="N22" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="O22" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="P22" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="Q22" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="R22" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="S22" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="T22" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="U22" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -2151,64 +2171,64 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F23" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H23" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I23" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J23" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="K23" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="L23" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="M23" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="N23" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="O23" t="s">
+        <v>54</v>
+      </c>
+      <c r="P23" t="s">
         <v>47</v>
       </c>
-      <c r="P23" t="s">
-        <v>40</v>
-      </c>
       <c r="Q23" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="R23" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="S23" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="T23" t="s">
         <v>45</v>
       </c>
       <c r="U23" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -2216,61 +2236,61 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F24" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="I24" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J24" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="K24" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="L24" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="M24" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="N24" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="O24" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="P24" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Q24" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="R24" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="S24" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T24" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="U24" t="s">
         <v>47</v>
@@ -2281,64 +2301,64 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" t="s">
+        <v>57</v>
+      </c>
+      <c r="H25" t="s">
+        <v>53</v>
+      </c>
+      <c r="I25" t="s">
+        <v>54</v>
+      </c>
+      <c r="J25" t="s">
         <v>47</v>
       </c>
-      <c r="D25" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" t="s">
-        <v>34</v>
-      </c>
-      <c r="F25" t="s">
-        <v>37</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="K25" t="s">
         <v>42</v>
       </c>
-      <c r="H25" t="s">
-        <v>46</v>
-      </c>
-      <c r="I25" t="s">
-        <v>39</v>
-      </c>
-      <c r="J25" t="s">
-        <v>40</v>
-      </c>
-      <c r="K25" t="s">
-        <v>40</v>
-      </c>
       <c r="L25" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="M25" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="N25" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="O25" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="P25" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="Q25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="R25" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="S25" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="T25" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="U25" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2346,64 +2366,64 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D26" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E26" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G26" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="I26" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="J26" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="K26" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="L26" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="M26" t="s">
+        <v>53</v>
+      </c>
+      <c r="N26" t="s">
+        <v>53</v>
+      </c>
+      <c r="O26" t="s">
         <v>45</v>
       </c>
-      <c r="N26" t="s">
+      <c r="P26" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q26" t="s">
         <v>44</v>
       </c>
-      <c r="O26" t="s">
-        <v>41</v>
-      </c>
-      <c r="P26" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>41</v>
-      </c>
       <c r="R26" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="S26" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="T26" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="U26" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2411,64 +2431,64 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E27" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G27" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H27" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="I27" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="J27" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="K27" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="L27" t="s">
+        <v>54</v>
+      </c>
+      <c r="M27" t="s">
+        <v>57</v>
+      </c>
+      <c r="N27" t="s">
+        <v>57</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>53</v>
+      </c>
+      <c r="R27" t="s">
+        <v>54</v>
+      </c>
+      <c r="S27" t="s">
+        <v>57</v>
+      </c>
+      <c r="T27" t="s">
         <v>49</v>
       </c>
-      <c r="M27" t="s">
-        <v>41</v>
-      </c>
-      <c r="N27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O27" t="s">
-        <v>38</v>
-      </c>
-      <c r="P27" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>44</v>
-      </c>
-      <c r="R27" t="s">
-        <v>38</v>
-      </c>
-      <c r="S27" t="s">
-        <v>46</v>
-      </c>
-      <c r="T27" t="s">
-        <v>44</v>
-      </c>
       <c r="U27" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2476,64 +2496,64 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D28" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E28" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
+        <v>54</v>
+      </c>
+      <c r="G28" t="s">
+        <v>53</v>
+      </c>
+      <c r="H28" t="s">
+        <v>42</v>
+      </c>
+      <c r="I28" t="s">
+        <v>57</v>
+      </c>
+      <c r="J28" t="s">
         <v>46</v>
       </c>
-      <c r="G28" t="s">
-        <v>39</v>
-      </c>
-      <c r="H28" t="s">
-        <v>34</v>
-      </c>
-      <c r="I28" t="s">
-        <v>46</v>
-      </c>
-      <c r="J28" t="s">
-        <v>37</v>
-      </c>
       <c r="K28" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="L28" t="s">
         <v>46</v>
       </c>
       <c r="M28" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="N28" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="O28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P28" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q28" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="R28" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="S28" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="T28" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="U28" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2541,64 +2561,64 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D29" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E29" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F29" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G29" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="I29" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="J29" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="K29" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="L29" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M29" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="N29" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O29" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="P29" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="Q29" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="R29" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="S29" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="T29" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="U29" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2606,64 +2626,64 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D30" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="E30" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F30" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G30" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="I30" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J30" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="K30" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="L30" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M30" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="N30" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="O30" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="P30" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Q30" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="R30" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="S30" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T30" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="U30" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2671,64 +2691,64 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" t="s">
         <v>50</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31" t="s">
+        <v>52</v>
+      </c>
+      <c r="G31" t="s">
+        <v>50</v>
+      </c>
+      <c r="H31" t="s">
+        <v>53</v>
+      </c>
+      <c r="I31" t="s">
+        <v>51</v>
+      </c>
+      <c r="J31" t="s">
+        <v>51</v>
+      </c>
+      <c r="K31" t="s">
         <v>42</v>
       </c>
-      <c r="E31" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" t="s">
-        <v>38</v>
-      </c>
-      <c r="G31" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" t="s">
-        <v>50</v>
-      </c>
-      <c r="I31" t="s">
-        <v>46</v>
-      </c>
-      <c r="J31" t="s">
-        <v>38</v>
-      </c>
-      <c r="K31" t="s">
-        <v>34</v>
-      </c>
       <c r="L31" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="M31" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N31" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="O31" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="P31" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="Q31" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="R31" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="S31" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="T31" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="U31" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2736,64 +2756,64 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D32" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E32" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F32" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G32" t="s">
         <v>44</v>
       </c>
       <c r="H32" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="I32" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="J32" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="K32" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="L32" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="M32" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="N32" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="O32" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="P32" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="Q32" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="R32" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="S32" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="T32" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="U32" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2801,64 +2821,64 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C33" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D33" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E33" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="F33" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="G33" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="I33" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J33" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="K33" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L33" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="M33" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="N33" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="O33" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="P33" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="Q33" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R33" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="S33" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T33" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="U33" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2866,64 +2886,64 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C34" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D34" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="E34" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="F34" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="G34" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H34" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="I34" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J34" t="s">
+        <v>53</v>
+      </c>
+      <c r="K34" t="s">
+        <v>57</v>
+      </c>
+      <c r="L34" t="s">
+        <v>54</v>
+      </c>
+      <c r="M34" t="s">
+        <v>53</v>
+      </c>
+      <c r="N34" t="s">
+        <v>42</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>53</v>
+      </c>
+      <c r="R34" t="s">
+        <v>53</v>
+      </c>
+      <c r="S34" t="s">
+        <v>54</v>
+      </c>
+      <c r="T34" t="s">
         <v>45</v>
       </c>
-      <c r="K34" t="s">
-        <v>46</v>
-      </c>
-      <c r="L34" t="s">
-        <v>47</v>
-      </c>
-      <c r="M34" t="s">
-        <v>38</v>
-      </c>
-      <c r="N34" t="s">
-        <v>34</v>
-      </c>
-      <c r="O34" t="s">
-        <v>46</v>
-      </c>
-      <c r="P34" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>50</v>
-      </c>
-      <c r="R34" t="s">
-        <v>38</v>
-      </c>
-      <c r="S34" t="s">
-        <v>50</v>
-      </c>
-      <c r="T34" t="s">
-        <v>46</v>
-      </c>
       <c r="U34" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2931,64 +2951,584 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C35" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="D35" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>53</v>
+      </c>
+      <c r="G35" t="s">
         <v>45</v>
       </c>
-      <c r="E35" t="s">
-        <v>45</v>
-      </c>
-      <c r="F35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G35" t="s">
-        <v>46</v>
-      </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="I35" t="s">
         <v>43</v>
       </c>
       <c r="J35" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K35" t="s">
+        <v>53</v>
+      </c>
+      <c r="L35" t="s">
+        <v>53</v>
+      </c>
+      <c r="M35" t="s">
+        <v>57</v>
+      </c>
+      <c r="N35" t="s">
+        <v>53</v>
+      </c>
+      <c r="O35" t="s">
+        <v>42</v>
+      </c>
+      <c r="P35" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>58</v>
+      </c>
+      <c r="R35" t="s">
+        <v>54</v>
+      </c>
+      <c r="S35" t="s">
+        <v>53</v>
+      </c>
+      <c r="T35" t="s">
+        <v>53</v>
+      </c>
+      <c r="U35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" t="s">
+        <v>55</v>
+      </c>
+      <c r="F36" t="s">
+        <v>57</v>
+      </c>
+      <c r="G36" t="s">
+        <v>52</v>
+      </c>
+      <c r="H36" t="s">
+        <v>50</v>
+      </c>
+      <c r="I36" t="s">
+        <v>54</v>
+      </c>
+      <c r="J36" t="s">
+        <v>55</v>
+      </c>
+      <c r="K36" t="s">
+        <v>55</v>
+      </c>
+      <c r="L36" t="s">
+        <v>53</v>
+      </c>
+      <c r="M36" t="s">
+        <v>54</v>
+      </c>
+      <c r="N36" t="s">
+        <v>57</v>
+      </c>
+      <c r="O36" t="s">
+        <v>55</v>
+      </c>
+      <c r="P36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>51</v>
+      </c>
+      <c r="R36" t="s">
+        <v>50</v>
+      </c>
+      <c r="S36" t="s">
+        <v>55</v>
+      </c>
+      <c r="T36" t="s">
+        <v>50</v>
+      </c>
+      <c r="U36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" t="s">
+        <v>53</v>
+      </c>
+      <c r="F37" t="s">
+        <v>53</v>
+      </c>
+      <c r="G37" t="s">
+        <v>53</v>
+      </c>
+      <c r="H37" t="s">
+        <v>53</v>
+      </c>
+      <c r="I37" t="s">
+        <v>53</v>
+      </c>
+      <c r="J37" t="s">
+        <v>54</v>
+      </c>
+      <c r="K37" t="s">
+        <v>57</v>
+      </c>
+      <c r="L37" t="s">
+        <v>57</v>
+      </c>
+      <c r="M37" t="s">
+        <v>53</v>
+      </c>
+      <c r="N37" t="s">
+        <v>53</v>
+      </c>
+      <c r="O37" t="s">
+        <v>58</v>
+      </c>
+      <c r="P37" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>42</v>
+      </c>
+      <c r="R37" t="s">
+        <v>53</v>
+      </c>
+      <c r="S37" t="s">
+        <v>53</v>
+      </c>
+      <c r="T37" t="s">
+        <v>48</v>
+      </c>
+      <c r="U37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" t="s">
+        <v>45</v>
+      </c>
+      <c r="E38" t="s">
+        <v>53</v>
+      </c>
+      <c r="F38" t="s">
+        <v>54</v>
+      </c>
+      <c r="G38" t="s">
+        <v>57</v>
+      </c>
+      <c r="H38" t="s">
+        <v>54</v>
+      </c>
+      <c r="I38" t="s">
+        <v>57</v>
+      </c>
+      <c r="J38" t="s">
+        <v>53</v>
+      </c>
+      <c r="K38" t="s">
+        <v>53</v>
+      </c>
+      <c r="L38" t="s">
+        <v>43</v>
+      </c>
+      <c r="M38" t="s">
+        <v>54</v>
+      </c>
+      <c r="N38" t="s">
+        <v>57</v>
+      </c>
+      <c r="O38" t="s">
+        <v>44</v>
+      </c>
+      <c r="P38" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>57</v>
+      </c>
+      <c r="R38" t="s">
+        <v>42</v>
+      </c>
+      <c r="S38" t="s">
+        <v>54</v>
+      </c>
+      <c r="T38" t="s">
+        <v>53</v>
+      </c>
+      <c r="U38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39" t="s">
+        <v>57</v>
+      </c>
+      <c r="F39" t="s">
+        <v>53</v>
+      </c>
+      <c r="G39" t="s">
+        <v>43</v>
+      </c>
+      <c r="H39" t="s">
+        <v>53</v>
+      </c>
+      <c r="I39" t="s">
+        <v>44</v>
+      </c>
+      <c r="J39" t="s">
+        <v>53</v>
+      </c>
+      <c r="K39" t="s">
+        <v>48</v>
+      </c>
+      <c r="L39" t="s">
+        <v>57</v>
+      </c>
+      <c r="M39" t="s">
+        <v>53</v>
+      </c>
+      <c r="N39" t="s">
+        <v>44</v>
+      </c>
+      <c r="O39" t="s">
+        <v>57</v>
+      </c>
+      <c r="P39" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>48</v>
+      </c>
+      <c r="R39" t="s">
+        <v>57</v>
+      </c>
+      <c r="S39" t="s">
+        <v>42</v>
+      </c>
+      <c r="T39" t="s">
+        <v>54</v>
+      </c>
+      <c r="U39" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
+      <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L35" t="s">
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" t="s">
+        <v>53</v>
+      </c>
+      <c r="F40" t="s">
+        <v>49</v>
+      </c>
+      <c r="G40" t="s">
+        <v>47</v>
+      </c>
+      <c r="H40" t="s">
+        <v>57</v>
+      </c>
+      <c r="I40" t="s">
+        <v>53</v>
+      </c>
+      <c r="J40" t="s">
+        <v>57</v>
+      </c>
+      <c r="K40" t="s">
+        <v>53</v>
+      </c>
+      <c r="L40" t="s">
+        <v>57</v>
+      </c>
+      <c r="M40" t="s">
+        <v>57</v>
+      </c>
+      <c r="N40" t="s">
+        <v>44</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>54</v>
+      </c>
+      <c r="R40" t="s">
+        <v>53</v>
+      </c>
+      <c r="S40" t="s">
+        <v>53</v>
+      </c>
+      <c r="T40" t="s">
+        <v>42</v>
+      </c>
+      <c r="U40" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41" t="s">
+        <v>49</v>
+      </c>
+      <c r="F41" t="s">
+        <v>57</v>
+      </c>
+      <c r="G41" t="s">
+        <v>59</v>
+      </c>
+      <c r="H41" t="s">
+        <v>53</v>
+      </c>
+      <c r="I41" t="s">
+        <v>57</v>
+      </c>
+      <c r="J41" t="s">
+        <v>48</v>
+      </c>
+      <c r="K41" t="s">
+        <v>57</v>
+      </c>
+      <c r="L41" t="s">
+        <v>44</v>
+      </c>
+      <c r="M41" t="s">
+        <v>53</v>
+      </c>
+      <c r="N41" t="s">
+        <v>53</v>
+      </c>
+      <c r="O41" t="s">
+        <v>49</v>
+      </c>
+      <c r="P41" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>53</v>
+      </c>
+      <c r="R41" t="s">
+        <v>53</v>
+      </c>
+      <c r="S41" t="s">
+        <v>57</v>
+      </c>
+      <c r="T41" t="s">
+        <v>53</v>
+      </c>
+      <c r="U41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
+      <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M35" t="s">
-        <v>46</v>
-      </c>
-      <c r="N35" t="s">
-        <v>38</v>
-      </c>
-      <c r="O35" t="s">
-        <v>34</v>
-      </c>
-      <c r="P35" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>46</v>
-      </c>
-      <c r="R35" t="s">
-        <v>43</v>
-      </c>
-      <c r="S35" t="s">
-        <v>46</v>
-      </c>
-      <c r="T35" t="s">
-        <v>46</v>
-      </c>
-      <c r="U35" t="s">
-        <v>46</v>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" t="s">
+        <v>54</v>
+      </c>
+      <c r="F42" t="s">
+        <v>53</v>
+      </c>
+      <c r="G42" t="s">
+        <v>53</v>
+      </c>
+      <c r="H42" t="s">
+        <v>53</v>
+      </c>
+      <c r="I42" t="s">
+        <v>59</v>
+      </c>
+      <c r="J42" t="s">
+        <v>57</v>
+      </c>
+      <c r="K42" t="s">
+        <v>53</v>
+      </c>
+      <c r="L42" t="s">
+        <v>47</v>
+      </c>
+      <c r="M42" t="s">
+        <v>53</v>
+      </c>
+      <c r="N42" t="s">
+        <v>49</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>57</v>
+      </c>
+      <c r="R42" t="s">
+        <v>54</v>
+      </c>
+      <c r="S42" t="s">
+        <v>53</v>
+      </c>
+      <c r="T42" t="s">
+        <v>54</v>
+      </c>
+      <c r="U42" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" t="s">
+        <v>57</v>
+      </c>
+      <c r="E43" t="s">
+        <v>53</v>
+      </c>
+      <c r="F43" t="s">
+        <v>57</v>
+      </c>
+      <c r="G43" t="s">
+        <v>57</v>
+      </c>
+      <c r="H43" t="s">
+        <v>57</v>
+      </c>
+      <c r="I43" t="s">
+        <v>57</v>
+      </c>
+      <c r="J43" t="s">
+        <v>54</v>
+      </c>
+      <c r="K43" t="s">
+        <v>57</v>
+      </c>
+      <c r="L43" t="s">
+        <v>57</v>
+      </c>
+      <c r="M43" t="s">
+        <v>57</v>
+      </c>
+      <c r="N43" t="s">
+        <v>57</v>
+      </c>
+      <c r="O43" t="s">
+        <v>54</v>
+      </c>
+      <c r="P43" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>57</v>
+      </c>
+      <c r="R43" t="s">
+        <v>57</v>
+      </c>
+      <c r="S43" t="s">
+        <v>57</v>
+      </c>
+      <c r="T43" t="s">
+        <v>44</v>
+      </c>
+      <c r="U43" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2998,7 +3538,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3006,7 +3546,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3022,7 +3562,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3038,7 +3578,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3046,7 +3586,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3054,7 +3594,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3086,7 +3626,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3094,7 +3634,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3110,7 +3650,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3118,7 +3658,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3126,7 +3666,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3134,7 +3674,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3142,7 +3682,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3150,7 +3690,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3158,7 +3698,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3166,7 +3706,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3174,7 +3714,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3182,7 +3722,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3190,7 +3730,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3198,7 +3738,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -3206,7 +3746,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -3222,7 +3762,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3238,7 +3778,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3246,7 +3786,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -3254,7 +3794,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -3262,7 +3802,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3270,7 +3810,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3278,7 +3818,71 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>7</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -3296,100 +3900,100 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B2">
-        <v>0.06682027649769585</v>
+        <v>0.004608294930875576</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B3">
-        <v>0.01023017902813299</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B4">
-        <v>0.02137767220902613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B5">
-        <v>0.009569377990430622</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B6">
-        <v>0.009732360097323601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B7">
-        <v>0.08060453400503778</v>
+        <v>0.002518891687657431</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B8">
-        <v>0.02230483271375465</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B9">
-        <v>0.08064516129032258</v>
+        <v>0.008064516129032258</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B10">
-        <v>0.07420494699646643</v>
+        <v>0.007067137809187279</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B11">
-        <v>0.03252032520325204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B12">
-        <v>0.01538461538461539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -3397,7 +4001,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3405,7 +4009,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3413,7 +4017,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3421,31 +4025,31 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B17">
-        <v>0.1033434650455927</v>
+        <v>0.01519756838905775</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B18">
-        <v>0.0108695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B19">
-        <v>0.04444444444444445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3453,39 +4057,39 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>0.006993006993006993</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B22">
-        <v>0.05298013245033113</v>
+        <v>0.05960264900662252</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B23">
-        <v>0.05405405405405406</v>
+        <v>0.02702702702702703</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B24">
-        <v>0.05263157894736842</v>
+        <v>0.0131578947368421</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3506,7 +4110,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3514,7 +4118,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.07600950118764846</v>
+        <v>0.0166270783847981</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3522,7 +4126,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.01111111111111111</v>
+        <v>0.002777777777777778</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3530,7 +4134,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.0198300283286119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3538,7 +4142,7 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0.08551068883610451</v>
+        <v>0.002375296912114014</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3546,7 +4150,7 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.01111111111111111</v>
+        <v>0.002777777777777778</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3554,7 +4158,7 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.0226628895184136</v>
+        <v>0.0028328611898017</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3562,7 +4166,7 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.006211180124223602</v>
+        <v>0.003105590062111801</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3570,7 +4174,7 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.006289308176100629</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3578,7 +4182,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.08551068883610451</v>
+        <v>0.004750593824228029</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3586,7 +4190,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.01111111111111111</v>
+        <v>0.01666666666666667</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3594,7 +4198,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.0198300283286119</v>
+        <v>0.0028328611898017</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3602,7 +4206,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.006211180124223602</v>
+        <v>0.003105590062111801</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3610,7 +4214,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.009433962264150943</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3618,7 +4222,7 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>0.07600950118764846</v>
+        <v>0.002375296912114014</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3626,7 +4230,7 @@
         <v>23</v>
       </c>
       <c r="B16">
-        <v>0.008333333333333333</v>
+        <v>0.002777777777777778</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3634,7 +4238,7 @@
         <v>24</v>
       </c>
       <c r="B17">
-        <v>0.0198300283286119</v>
+        <v>0.0028328611898017</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3658,7 +4262,7 @@
         <v>29</v>
       </c>
       <c r="B20">
-        <v>0.05700712589073634</v>
+        <v>0.002375296912114014</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3666,7 +4270,7 @@
         <v>30</v>
       </c>
       <c r="B21">
-        <v>0.01111111111111111</v>
+        <v>0.002777777777777778</v>
       </c>
     </row>
   </sheetData>
@@ -3676,7 +4280,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3684,7 +4288,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3692,7 +4296,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3700,7 +4304,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3708,7 +4312,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3716,7 +4320,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3724,7 +4328,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3740,7 +4344,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3748,7 +4352,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3756,7 +4360,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3772,7 +4376,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3788,7 +4392,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3796,7 +4400,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3820,7 +4424,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3852,7 +4456,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3900,7 +4504,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3916,7 +4520,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3924,7 +4528,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -3940,7 +4544,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3956,6 +4560,70 @@
         <v>33</v>
       </c>
       <c r="B35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43">
         <v>0</v>
       </c>
     </row>
@@ -3974,79 +4642,79 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:26">
@@ -4054,34 +4722,34 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="J2">
         <v>1</v>
       </c>
-      <c r="G2">
-        <v>6</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
-      <c r="J2">
-        <v>4</v>
-      </c>
       <c r="K2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -4099,13 +4767,13 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4120,13 +4788,13 @@
         <v>0</v>
       </c>
       <c r="X2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -4155,7 +4823,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -4179,7 +4847,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -4206,7 +4874,7 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -4235,16 +4903,16 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -4265,7 +4933,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4277,16 +4945,16 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -4294,79 +4962,79 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>1</v>
       </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
         <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>6</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="J5">
-        <v>4</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>5</v>
-      </c>
-      <c r="R5">
-        <v>1</v>
-      </c>
-      <c r="S5">
-        <v>1</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>1</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -4395,7 +5063,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -4419,7 +5087,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -4446,7 +5114,7 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -4475,58 +5143,58 @@
         <v>0</v>
       </c>
       <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
         <v>1</v>
       </c>
-      <c r="J7">
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
         <v>1</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>2</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>2</v>
-      </c>
-      <c r="X7">
-        <v>1</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -4579,7 +5247,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -4606,7 +5274,7 @@
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -4629,13 +5297,13 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -4686,7 +5354,7 @@
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -4694,37 +5362,37 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -4739,13 +5407,13 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -4766,7 +5434,7 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>36</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -4819,34 +5487,34 @@
         <v>0</v>
       </c>
       <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
         <v>2</v>
       </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
+      <c r="W11">
         <v>1</v>
       </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
       <c r="X11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -4875,58 +5543,58 @@
         <v>0</v>
       </c>
       <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
         <v>1</v>
       </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>2</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
         <v>1</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>2</v>
-      </c>
-      <c r="X12">
-        <v>1</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -4979,7 +5647,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -5006,7 +5674,7 @@
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -5029,13 +5697,13 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -5065,7 +5733,7 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -5086,7 +5754,7 @@
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -5094,79 +5762,79 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
         <v>1</v>
       </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15">
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
         <v>1</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>7</v>
-      </c>
-      <c r="H15">
-        <v>2</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>3</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>5</v>
-      </c>
-      <c r="R15">
-        <v>1</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
-      <c r="Y15">
-        <v>0</v>
-      </c>
-      <c r="Z15">
-        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -5195,7 +5863,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -5219,7 +5887,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -5246,7 +5914,7 @@
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:26">
@@ -5275,58 +5943,58 @@
         <v>0</v>
       </c>
       <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
         <v>1</v>
       </c>
-      <c r="J17">
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
         <v>1</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>2</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>2</v>
-      </c>
-      <c r="X17">
-        <v>1</v>
-      </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
-      <c r="Z17">
-        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -5494,79 +6162,79 @@
         <v>29</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>1</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>5</v>
-      </c>
-      <c r="H20">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
         <v>1</v>
-      </c>
-      <c r="I20">
-        <v>2</v>
-      </c>
-      <c r="J20">
-        <v>3</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>4</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20">
-        <v>1</v>
-      </c>
-      <c r="Y20">
-        <v>0</v>
-      </c>
-      <c r="Z20">
-        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -5595,7 +6263,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -5619,7 +6287,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -5646,87 +6314,87 @@
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:26">
       <c r="A22" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B22">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>5</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="V22">
+        <v>9</v>
+      </c>
+      <c r="W22">
         <v>4</v>
       </c>
-      <c r="D22">
-        <v>9</v>
-      </c>
-      <c r="E22">
-        <v>4</v>
-      </c>
-      <c r="F22">
-        <v>4</v>
-      </c>
-      <c r="G22">
-        <v>32</v>
-      </c>
-      <c r="H22">
-        <v>6</v>
-      </c>
-      <c r="I22">
-        <v>20</v>
-      </c>
-      <c r="J22">
-        <v>21</v>
-      </c>
-      <c r="K22">
-        <v>12</v>
-      </c>
-      <c r="L22">
-        <v>6</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>34</v>
-      </c>
-      <c r="R22">
-        <v>3</v>
-      </c>
-      <c r="S22">
-        <v>10</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>8</v>
-      </c>
-      <c r="W22">
-        <v>8</v>
-      </c>
       <c r="X22">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>218</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -5736,7 +6404,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5764,19 +6432,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5784,19 +6452,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5804,19 +6472,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="F4" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5824,19 +6492,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="F5" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5844,19 +6512,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="D6" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="E6" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5864,19 +6532,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E7" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5884,19 +6552,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5904,19 +6572,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D9" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E9" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F9" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5924,19 +6592,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="D10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E10" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="F10" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5944,19 +6612,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="D11" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E11" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="F11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5964,19 +6632,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C12" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="D12" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="E12" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F12" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5984,19 +6652,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="D13" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="E13" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F13" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -6004,19 +6672,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="D14" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E14" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="F14" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -6027,16 +6695,16 @@
         <v>90</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D15" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="E15" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F15" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -6044,19 +6712,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D16" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E16" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F16" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6064,16 +6732,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D17" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E17" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="F17" t="s">
         <v>108</v>
@@ -6084,19 +6752,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C18" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="D18" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="E18" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="F18" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6104,16 +6772,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C19" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="D19" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="E19" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="F19" t="s">
         <v>90</v>
@@ -6124,19 +6792,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C20" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="D20" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="E20" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="F20" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6147,16 +6815,16 @@
         <v>90</v>
       </c>
       <c r="C21" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="D21" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E21" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="F21" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -6164,19 +6832,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="C22" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="D22" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E22" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="F22" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6184,19 +6852,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="C23" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D23" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="E23" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="F23" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6204,19 +6872,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="C24" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D24" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E24" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="F24" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6227,16 +6895,16 @@
         <v>91</v>
       </c>
       <c r="C25" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="D25" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="E25" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F25" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6244,19 +6912,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C26" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D26" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="E26" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F26" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6264,19 +6932,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="C27" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="D27" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E27" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="F27" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -6284,19 +6952,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C28" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D28" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="E28" t="s">
         <v>96</v>
       </c>
       <c r="F28" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -6304,19 +6972,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="C29" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="D29" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E29" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="F29" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -6324,19 +6992,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="C30" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D30" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E30" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="F30" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -6344,19 +7012,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="C31" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D31" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="E31" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F31" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -6364,19 +7032,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C32" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D32" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E32" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F32" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -6384,19 +7052,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C33" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="D33" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="E33" t="s">
         <v>90</v>
       </c>
       <c r="F33" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -6404,19 +7072,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="C34" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D34" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E34" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F34" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -6424,19 +7092,179 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C35" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" t="s">
+        <v>106</v>
+      </c>
+      <c r="E35" t="s">
+        <v>107</v>
+      </c>
+      <c r="F35" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" t="s">
+        <v>108</v>
+      </c>
+      <c r="F36" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" t="s">
+        <v>105</v>
+      </c>
+      <c r="E37" t="s">
+        <v>107</v>
+      </c>
+      <c r="F37" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" t="s">
+        <v>91</v>
+      </c>
+      <c r="E38" t="s">
+        <v>106</v>
+      </c>
+      <c r="F38" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" t="s">
         <v>90</v>
       </c>
-      <c r="D35" t="s">
-        <v>94</v>
-      </c>
-      <c r="E35" t="s">
-        <v>82</v>
-      </c>
-      <c r="F35" t="s">
+      <c r="E39" t="s">
+        <v>104</v>
+      </c>
+      <c r="F39" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" t="s">
         <v>96</v>
+      </c>
+      <c r="D40" t="s">
+        <v>106</v>
+      </c>
+      <c r="E40" t="s">
+        <v>105</v>
+      </c>
+      <c r="F40" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" t="s">
+        <v>103</v>
+      </c>
+      <c r="D41" t="s">
+        <v>90</v>
+      </c>
+      <c r="E41" t="s">
+        <v>106</v>
+      </c>
+      <c r="F41" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" t="s">
+        <v>107</v>
+      </c>
+      <c r="D42" t="s">
+        <v>96</v>
+      </c>
+      <c r="E42" t="s">
+        <v>105</v>
+      </c>
+      <c r="F42" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" t="s">
+        <v>105</v>
+      </c>
+      <c r="E43" t="s">
+        <v>105</v>
+      </c>
+      <c r="F43" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/alg_schedule_data_2019_4.xlsx
+++ b/alg_schedule_data_2019_4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="111">
   <si>
     <t>Abe</t>
   </si>
@@ -156,54 +156,54 @@
     <t>P3</t>
   </si>
   <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
     <t>N1</t>
   </si>
   <si>
-    <t>A3</t>
+    <t>OB</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>W6</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>C4</t>
   </si>
   <si>
     <t>P2</t>
   </si>
   <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
     <t>M1</t>
   </si>
   <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>W6</t>
-  </si>
-  <si>
-    <t>OB</t>
-  </si>
-  <si>
-    <t>CD</t>
+    <t>A4</t>
   </si>
   <si>
     <t>AS</t>
   </si>
   <si>
-    <t>P4</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
     <t>P5</t>
   </si>
   <si>
@@ -300,82 +300,61 @@
     <t>['12:30']</t>
   </si>
   <si>
+    <t>['12:00']</t>
+  </si>
+  <si>
+    <t>['12:00', '13:00']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:30', '13:00']</t>
+  </si>
+  <si>
     <t>['12:00', '12:30']</t>
   </si>
   <si>
     <t>['11:30', '12:30']</t>
   </si>
   <si>
+    <t>['11:30', '13:30']</t>
+  </si>
+  <si>
+    <t>['13:00']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['13:30']</t>
+  </si>
+  <si>
+    <t>['11:30']</t>
+  </si>
+  <si>
+    <t>['12:30', '13:00']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:00', '13:00']</t>
+  </si>
+  <si>
+    <t>['12:00', '13:30']</t>
+  </si>
+  <si>
+    <t>['11:30', '13:00']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:30', '13:30']</t>
+  </si>
+  <si>
     <t>['11:30', '12:00', '12:30']</t>
   </si>
   <si>
-    <t>['11:30', '12:30', '13:00']</t>
-  </si>
-  <si>
-    <t>['11:30', '13:30']</t>
-  </si>
-  <si>
-    <t>['12:00', '13:30']</t>
-  </si>
-  <si>
-    <t>['12:30', '13:00', '13:30']</t>
+    <t>['12:30', '13:30']</t>
+  </si>
+  <si>
+    <t>['12:00', '12:30', '13:30']</t>
   </si>
   <si>
     <t>['12:00', '12:30', '13:00']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:00', '13:00']</t>
-  </si>
-  <si>
-    <t>['12:30', '13:30']</t>
-  </si>
-  <si>
-    <t>['13:30']</t>
-  </si>
-  <si>
-    <t>['11:30', '13:00']</t>
-  </si>
-  <si>
-    <t>['12:00']</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>['11:30']</t>
-  </si>
-  <si>
-    <t>['13:00']</t>
-  </si>
-  <si>
-    <t>['12:30', '13:00']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:30', '13:30']</t>
-  </si>
-  <si>
-    <t>['12:00', '13:00', '13:30']</t>
-  </si>
-  <si>
-    <t>['12:00', '13:00']</t>
-  </si>
-  <si>
-    <t>['11:30', '13:00', '13:30']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:00', '12:30', '13:00']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:00', '13:30']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:00', '13:00', '13:30']</t>
-  </si>
-  <si>
-    <t>['13:00', '13:30']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:00', '12:30', '13:30']</t>
   </si>
 </sst>
 </file>
@@ -809,31 +788,31 @@
         <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
         <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="H2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="J2" t="s">
         <v>43</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="L2" t="s">
         <v>46</v>
@@ -842,28 +821,28 @@
         <v>43</v>
       </c>
       <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
         <v>43</v>
       </c>
-      <c r="O2" t="s">
-        <v>44</v>
-      </c>
       <c r="P2" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="Q2" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="R2" t="s">
         <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
         <v>43</v>
       </c>
       <c r="U2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -883,28 +862,28 @@
         <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" t="s">
         <v>43</v>
       </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
       <c r="K3" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L3" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="M3" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="N3" t="s">
         <v>43</v>
@@ -913,22 +892,22 @@
         <v>43</v>
       </c>
       <c r="P3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Q3" t="s">
         <v>43</v>
       </c>
       <c r="R3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S3" t="s">
         <v>43</v>
-      </c>
-      <c r="S3" t="s">
-        <v>49</v>
       </c>
       <c r="T3" t="s">
         <v>43</v>
       </c>
       <c r="U3" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -936,22 +915,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
         <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F4" t="s">
         <v>43</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H4" t="s">
         <v>43</v>
@@ -960,37 +939,37 @@
         <v>43</v>
       </c>
       <c r="J4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" t="s">
         <v>43</v>
-      </c>
-      <c r="K4" t="s">
-        <v>46</v>
-      </c>
-      <c r="L4" t="s">
-        <v>59</v>
-      </c>
-      <c r="M4" t="s">
-        <v>44</v>
       </c>
       <c r="N4" t="s">
         <v>43</v>
       </c>
       <c r="O4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="P4" t="s">
         <v>43</v>
       </c>
       <c r="Q4" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="R4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="S4" t="s">
         <v>43</v>
       </c>
       <c r="T4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U4" t="s">
         <v>43</v>
@@ -1001,64 +980,64 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
         <v>42</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G5" t="s">
         <v>55</v>
       </c>
       <c r="H5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I5" t="s">
         <v>55</v>
       </c>
       <c r="J5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="P5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="Q5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="R5" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="S5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T5" t="s">
         <v>45</v>
       </c>
       <c r="U5" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -1066,52 +1045,52 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" t="s">
         <v>46</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
       </c>
       <c r="F6" t="s">
         <v>42</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="H6" t="s">
         <v>43</v>
       </c>
       <c r="I6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K6" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="L6" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="M6" t="s">
         <v>43</v>
       </c>
       <c r="N6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P6" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="Q6" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="R6" t="s">
         <v>43</v>
@@ -1120,10 +1099,10 @@
         <v>43</v>
       </c>
       <c r="T6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="U6" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -1131,64 +1110,64 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G7" t="s">
         <v>42</v>
       </c>
       <c r="H7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M7" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>58</v>
+      </c>
+      <c r="R7" t="s">
+        <v>50</v>
+      </c>
+      <c r="S7" t="s">
+        <v>46</v>
+      </c>
+      <c r="T7" t="s">
+        <v>46</v>
+      </c>
+      <c r="U7" t="s">
         <v>43</v>
-      </c>
-      <c r="I7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M7" t="s">
-        <v>43</v>
-      </c>
-      <c r="N7" t="s">
-        <v>48</v>
-      </c>
-      <c r="O7" t="s">
-        <v>45</v>
-      </c>
-      <c r="P7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>46</v>
-      </c>
-      <c r="R7" t="s">
-        <v>58</v>
-      </c>
-      <c r="S7" t="s">
-        <v>45</v>
-      </c>
-      <c r="T7" t="s">
-        <v>45</v>
-      </c>
-      <c r="U7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1196,64 +1175,64 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" t="s">
         <v>46</v>
-      </c>
-      <c r="D8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" t="s">
-        <v>45</v>
       </c>
       <c r="F8" t="s">
         <v>43</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="H8" t="s">
         <v>42</v>
       </c>
       <c r="I8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" t="s">
+        <v>56</v>
+      </c>
+      <c r="M8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N8" t="s">
         <v>44</v>
       </c>
-      <c r="L8" t="s">
-        <v>45</v>
-      </c>
-      <c r="M8" t="s">
-        <v>58</v>
-      </c>
-      <c r="N8" t="s">
-        <v>45</v>
-      </c>
       <c r="O8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P8" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="Q8" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="R8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S8" t="s">
         <v>44</v>
       </c>
       <c r="T8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1267,58 +1246,58 @@
         <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" t="s">
         <v>46</v>
-      </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>49</v>
       </c>
       <c r="I9" t="s">
         <v>42</v>
       </c>
       <c r="J9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K9" t="s">
         <v>43</v>
       </c>
       <c r="L9" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="M9" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="N9" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="O9" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="P9" t="s">
         <v>43</v>
       </c>
       <c r="Q9" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="R9" t="s">
         <v>54</v>
       </c>
       <c r="S9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="T9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U9" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1326,64 +1305,64 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F10" t="s">
         <v>43</v>
       </c>
       <c r="G10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H10" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="I10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J10" t="s">
         <v>42</v>
       </c>
       <c r="K10" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="L10" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="M10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N10" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="O10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P10" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="Q10" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="R10" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="S10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U10" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1391,64 +1370,64 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="G11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J11" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="K11" t="s">
         <v>42</v>
       </c>
       <c r="L11" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="M11" t="s">
+        <v>56</v>
+      </c>
+      <c r="N11" t="s">
         <v>44</v>
       </c>
-      <c r="N11" t="s">
-        <v>48</v>
-      </c>
       <c r="O11" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="P11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q11" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="R11" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="S11" t="s">
+        <v>58</v>
+      </c>
+      <c r="T11" t="s">
         <v>47</v>
       </c>
-      <c r="T11" t="s">
-        <v>44</v>
-      </c>
       <c r="U11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1459,58 +1438,58 @@
         <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H12" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K12" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="L12" t="s">
         <v>42</v>
       </c>
       <c r="M12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P12" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>51</v>
+      </c>
+      <c r="R12" t="s">
+        <v>42</v>
+      </c>
+      <c r="S12" t="s">
+        <v>46</v>
+      </c>
+      <c r="T12" t="s">
         <v>44</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>53</v>
-      </c>
-      <c r="R12" t="s">
-        <v>59</v>
-      </c>
-      <c r="S12" t="s">
-        <v>57</v>
-      </c>
-      <c r="T12" t="s">
-        <v>47</v>
       </c>
       <c r="U12" t="s">
         <v>44</v>
@@ -1521,37 +1500,37 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E13" t="s">
         <v>47</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H13" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="I13" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="J13" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="K13" t="s">
         <v>44</v>
       </c>
       <c r="L13" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="M13" t="s">
         <v>42</v>
@@ -1560,25 +1539,25 @@
         <v>47</v>
       </c>
       <c r="O13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P13" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="Q13" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="R13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U13" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1586,64 +1565,64 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" t="s">
         <v>47</v>
       </c>
-      <c r="C14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" t="s">
-        <v>48</v>
-      </c>
-      <c r="H14" t="s">
-        <v>48</v>
-      </c>
       <c r="I14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K14" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="L14" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N14" t="s">
         <v>42</v>
       </c>
       <c r="O14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P14" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q14" t="s">
         <v>44</v>
       </c>
-      <c r="Q14" t="s">
-        <v>53</v>
-      </c>
       <c r="R14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="S14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="T14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U14" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1651,64 +1630,64 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
         <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F15" t="s">
         <v>44</v>
       </c>
       <c r="G15" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H15" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="I15" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="J15" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="K15" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="L15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M15" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="N15" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O15" t="s">
         <v>42</v>
       </c>
       <c r="P15" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="Q15" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="R15" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="S15" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="T15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1716,64 +1695,64 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E16" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F16" t="s">
         <v>45</v>
       </c>
       <c r="G16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="I16" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16" t="s">
         <v>49</v>
       </c>
-      <c r="J16" t="s">
-        <v>55</v>
-      </c>
       <c r="K16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="N16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="O16" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="P16" t="s">
         <v>42</v>
       </c>
       <c r="Q16" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="R16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="S16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T16" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="U16" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1781,64 +1760,64 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K17" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="L17" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="M17" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="N17" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="O17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q17" t="s">
         <v>42</v>
       </c>
       <c r="R17" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="S17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="T17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="U17" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1846,64 +1825,64 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="F18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="I18" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K18" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="L18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M18" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="N18" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="O18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P18" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="Q18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R18" t="s">
         <v>42</v>
       </c>
       <c r="S18" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="T18" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="U18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1911,64 +1890,64 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19" t="s">
+        <v>58</v>
+      </c>
+      <c r="J19" t="s">
         <v>48</v>
       </c>
-      <c r="G19" t="s">
-        <v>53</v>
-      </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" t="s">
-        <v>47</v>
-      </c>
-      <c r="J19" t="s">
-        <v>47</v>
-      </c>
       <c r="K19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L19" t="s">
+        <v>51</v>
+      </c>
+      <c r="M19" t="s">
+        <v>51</v>
+      </c>
+      <c r="N19" t="s">
+        <v>58</v>
+      </c>
+      <c r="O19" t="s">
         <v>48</v>
       </c>
-      <c r="M19" t="s">
-        <v>54</v>
-      </c>
-      <c r="N19" t="s">
-        <v>47</v>
-      </c>
-      <c r="O19" t="s">
-        <v>47</v>
-      </c>
       <c r="P19" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Q19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R19" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="S19" t="s">
         <v>42</v>
       </c>
       <c r="T19" t="s">
+        <v>48</v>
+      </c>
+      <c r="U19" t="s">
         <v>44</v>
-      </c>
-      <c r="U19" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1976,64 +1955,64 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E20" t="s">
         <v>47</v>
       </c>
       <c r="F20" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G20" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I20" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J20" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K20" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="L20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M20" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="N20" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="O20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q20" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="R20" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="S20" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="T20" t="s">
         <v>42</v>
       </c>
       <c r="U20" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -2041,61 +2020,61 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F21" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G21" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="H21" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="I21" t="s">
         <v>48</v>
       </c>
       <c r="J21" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L21" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="M21" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N21" t="s">
         <v>48</v>
       </c>
       <c r="O21" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q21" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="R21" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="S21" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="T21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="U21" t="s">
         <v>42</v>
@@ -2109,58 +2088,58 @@
         <v>42</v>
       </c>
       <c r="C22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" t="s">
         <v>47</v>
       </c>
-      <c r="D22" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" t="s">
-        <v>54</v>
-      </c>
-      <c r="F22" t="s">
-        <v>59</v>
-      </c>
       <c r="G22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H22" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="I22" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J22" t="s">
+        <v>57</v>
+      </c>
+      <c r="K22" t="s">
         <v>47</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
+        <v>51</v>
+      </c>
+      <c r="M22" t="s">
+        <v>59</v>
+      </c>
+      <c r="N22" t="s">
+        <v>47</v>
+      </c>
+      <c r="O22" t="s">
+        <v>52</v>
+      </c>
+      <c r="P22" t="s">
         <v>44</v>
       </c>
-      <c r="L22" t="s">
-        <v>57</v>
-      </c>
-      <c r="M22" t="s">
-        <v>59</v>
-      </c>
-      <c r="N22" t="s">
-        <v>53</v>
-      </c>
-      <c r="O22" t="s">
-        <v>47</v>
-      </c>
-      <c r="P22" t="s">
-        <v>59</v>
-      </c>
       <c r="Q22" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="R22" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="S22" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T22" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="U22" t="s">
         <v>47</v>
@@ -2171,64 +2150,64 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s">
         <v>42</v>
       </c>
       <c r="D23" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E23" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" t="s">
+        <v>52</v>
+      </c>
+      <c r="H23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I23" t="s">
+        <v>51</v>
+      </c>
+      <c r="J23" t="s">
+        <v>44</v>
+      </c>
+      <c r="K23" t="s">
+        <v>44</v>
+      </c>
+      <c r="L23" t="s">
+        <v>52</v>
+      </c>
+      <c r="M23" t="s">
+        <v>51</v>
+      </c>
+      <c r="N23" t="s">
+        <v>51</v>
+      </c>
+      <c r="O23" t="s">
+        <v>44</v>
+      </c>
+      <c r="P23" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>57</v>
+      </c>
+      <c r="R23" t="s">
+        <v>51</v>
+      </c>
+      <c r="S23" t="s">
+        <v>51</v>
+      </c>
+      <c r="T23" t="s">
         <v>47</v>
       </c>
-      <c r="G23" t="s">
-        <v>54</v>
-      </c>
-      <c r="H23" t="s">
-        <v>53</v>
-      </c>
-      <c r="I23" t="s">
-        <v>53</v>
-      </c>
-      <c r="J23" t="s">
-        <v>54</v>
-      </c>
-      <c r="K23" t="s">
-        <v>47</v>
-      </c>
-      <c r="L23" t="s">
-        <v>53</v>
-      </c>
-      <c r="M23" t="s">
-        <v>53</v>
-      </c>
-      <c r="N23" t="s">
-        <v>53</v>
-      </c>
-      <c r="O23" t="s">
-        <v>54</v>
-      </c>
-      <c r="P23" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>47</v>
-      </c>
-      <c r="R23" t="s">
-        <v>53</v>
-      </c>
-      <c r="S23" t="s">
-        <v>48</v>
-      </c>
-      <c r="T23" t="s">
-        <v>45</v>
-      </c>
       <c r="U23" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -2236,64 +2215,64 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D24" t="s">
         <v>42</v>
       </c>
       <c r="E24" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G24" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H24" t="s">
         <v>52</v>
       </c>
       <c r="I24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K24" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L24" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="M24" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N24" t="s">
+        <v>46</v>
+      </c>
+      <c r="O24" t="s">
+        <v>46</v>
+      </c>
+      <c r="P24" t="s">
         <v>55</v>
       </c>
-      <c r="O24" t="s">
-        <v>51</v>
-      </c>
-      <c r="P24" t="s">
-        <v>52</v>
-      </c>
       <c r="Q24" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R24" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="S24" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="T24" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="U24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -2301,64 +2280,64 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E25" t="s">
         <v>42</v>
       </c>
       <c r="F25" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G25" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I25" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K25" t="s">
         <v>42</v>
       </c>
       <c r="L25" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="M25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N25" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="O25" t="s">
         <v>48</v>
       </c>
       <c r="P25" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="Q25" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="R25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="S25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="T25" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="U25" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2366,64 +2345,64 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s">
         <v>47</v>
       </c>
       <c r="D26" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F26" t="s">
         <v>42</v>
       </c>
       <c r="G26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H26" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I26" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="J26" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="K26" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L26" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="M26" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="N26" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="O26" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="P26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q26" t="s">
+        <v>51</v>
+      </c>
+      <c r="R26" t="s">
+        <v>51</v>
+      </c>
+      <c r="S26" t="s">
+        <v>48</v>
+      </c>
+      <c r="T26" t="s">
         <v>44</v>
       </c>
-      <c r="R26" t="s">
-        <v>57</v>
-      </c>
-      <c r="S26" t="s">
-        <v>53</v>
-      </c>
-      <c r="T26" t="s">
-        <v>47</v>
-      </c>
       <c r="U26" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2431,64 +2410,64 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D27" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" t="s">
         <v>48</v>
       </c>
-      <c r="E27" t="s">
-        <v>54</v>
-      </c>
       <c r="F27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G27" t="s">
         <v>42</v>
       </c>
       <c r="H27" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="I27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J27" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="K27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L27" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M27" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="N27" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="P27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q27" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="R27" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="S27" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="T27" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2496,64 +2475,64 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D28" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G28" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H28" t="s">
         <v>42</v>
       </c>
       <c r="I28" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J28" t="s">
+        <v>51</v>
+      </c>
+      <c r="K28" t="s">
+        <v>52</v>
+      </c>
+      <c r="L28" t="s">
+        <v>59</v>
+      </c>
+      <c r="M28" t="s">
+        <v>59</v>
+      </c>
+      <c r="N28" t="s">
+        <v>59</v>
+      </c>
+      <c r="O28" t="s">
+        <v>51</v>
+      </c>
+      <c r="P28" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q28" t="s">
         <v>46</v>
       </c>
-      <c r="K28" t="s">
-        <v>54</v>
-      </c>
-      <c r="L28" t="s">
-        <v>46</v>
-      </c>
-      <c r="M28" t="s">
-        <v>53</v>
-      </c>
-      <c r="N28" t="s">
-        <v>53</v>
-      </c>
-      <c r="O28" t="s">
-        <v>47</v>
-      </c>
-      <c r="P28" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>53</v>
-      </c>
       <c r="R28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="S28" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="T28" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="U28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2561,64 +2540,64 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D29" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F29" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G29" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H29" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I29" t="s">
         <v>42</v>
       </c>
       <c r="J29" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L29" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="M29" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="N29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O29" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="P29" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="Q29" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="R29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S29" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="T29" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="U29" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2626,64 +2605,64 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C30" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D30" t="s">
         <v>59</v>
       </c>
       <c r="E30" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F30" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G30" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H30" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I30" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J30" t="s">
         <v>42</v>
       </c>
       <c r="K30" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L30" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="M30" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="N30" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="P30" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Q30" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R30" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="S30" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="T30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U30" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2691,31 +2670,31 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E31" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H31" t="s">
+        <v>49</v>
+      </c>
+      <c r="I31" t="s">
+        <v>49</v>
+      </c>
+      <c r="J31" t="s">
         <v>53</v>
-      </c>
-      <c r="I31" t="s">
-        <v>51</v>
-      </c>
-      <c r="J31" t="s">
-        <v>51</v>
       </c>
       <c r="K31" t="s">
         <v>42</v>
@@ -2724,31 +2703,31 @@
         <v>55</v>
       </c>
       <c r="M31" t="s">
+        <v>53</v>
+      </c>
+      <c r="N31" t="s">
         <v>55</v>
       </c>
-      <c r="N31" t="s">
-        <v>51</v>
-      </c>
       <c r="O31" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="P31" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R31" t="s">
         <v>55</v>
       </c>
       <c r="S31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T31" t="s">
+        <v>53</v>
+      </c>
+      <c r="U31" t="s">
         <v>55</v>
-      </c>
-      <c r="U31" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2756,64 +2735,64 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C32" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" t="s">
         <v>57</v>
       </c>
-      <c r="D32" t="s">
-        <v>54</v>
-      </c>
       <c r="E32" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F32" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G32" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H32" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="I32" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K32" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="L32" t="s">
         <v>42</v>
       </c>
       <c r="M32" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="N32" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="O32" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="P32" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="Q32" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="R32" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="S32" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="T32" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="U32" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2821,37 +2800,37 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F33" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="H33" t="s">
         <v>54</v>
       </c>
       <c r="I33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L33" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M33" t="s">
         <v>42</v>
@@ -2860,25 +2839,25 @@
         <v>54</v>
       </c>
       <c r="O33" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="P33" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="Q33" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="R33" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="S33" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="T33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2886,64 +2865,64 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D34" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E34" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H34" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="I34" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J34" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K34" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L34" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="M34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N34" t="s">
         <v>42</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="P34" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q34" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="R34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S34" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="T34" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="U34" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2951,64 +2930,64 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C35" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D35" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F35" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="H35" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="I35" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="J35" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K35" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L35" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="M35" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="N35" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="O35" t="s">
         <v>42</v>
       </c>
       <c r="P35" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q35" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="R35" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="S35" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="T35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U35" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -3019,25 +2998,25 @@
         <v>55</v>
       </c>
       <c r="C36" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" t="s">
         <v>53</v>
       </c>
-      <c r="D36" t="s">
-        <v>51</v>
-      </c>
-      <c r="E36" t="s">
-        <v>55</v>
-      </c>
       <c r="F36" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G36" t="s">
         <v>52</v>
       </c>
       <c r="H36" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I36" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J36" t="s">
         <v>55</v>
@@ -3046,13 +3025,13 @@
         <v>55</v>
       </c>
       <c r="L36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N36" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="O36" t="s">
         <v>55</v>
@@ -3061,19 +3040,19 @@
         <v>42</v>
       </c>
       <c r="Q36" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="R36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S36" t="s">
+        <v>52</v>
+      </c>
+      <c r="T36" t="s">
         <v>55</v>
       </c>
-      <c r="T36" t="s">
-        <v>50</v>
-      </c>
       <c r="U36" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:21">
@@ -3081,64 +3060,64 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C37" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D37" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E37" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G37" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H37" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I37" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J37" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="K37" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="L37" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="M37" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N37" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="O37" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="P37" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q37" t="s">
         <v>42</v>
       </c>
       <c r="R37" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="S37" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="T37" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="U37" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:21">
@@ -3146,64 +3125,64 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C38" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D38" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E38" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F38" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G38" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H38" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I38" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="J38" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K38" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L38" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="M38" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="N38" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="O38" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="P38" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q38" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="R38" t="s">
         <v>42</v>
       </c>
       <c r="S38" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="T38" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="U38" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:21">
@@ -3211,64 +3190,64 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C39" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D39" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E39" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F39" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G39" t="s">
+        <v>51</v>
+      </c>
+      <c r="H39" t="s">
+        <v>52</v>
+      </c>
+      <c r="I39" t="s">
+        <v>59</v>
+      </c>
+      <c r="J39" t="s">
         <v>43</v>
       </c>
-      <c r="H39" t="s">
-        <v>53</v>
-      </c>
-      <c r="I39" t="s">
-        <v>44</v>
-      </c>
-      <c r="J39" t="s">
-        <v>53</v>
-      </c>
       <c r="K39" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="L39" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N39" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="O39" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="P39" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="Q39" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="R39" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="S39" t="s">
         <v>42</v>
       </c>
       <c r="T39" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U39" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:21">
@@ -3276,64 +3255,64 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D40" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E40" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F40" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H40" t="s">
+        <v>52</v>
+      </c>
+      <c r="I40" t="s">
+        <v>42</v>
+      </c>
+      <c r="J40" t="s">
+        <v>54</v>
+      </c>
+      <c r="K40" t="s">
+        <v>51</v>
+      </c>
+      <c r="L40" t="s">
+        <v>56</v>
+      </c>
+      <c r="M40" t="s">
+        <v>52</v>
+      </c>
+      <c r="N40" t="s">
+        <v>51</v>
+      </c>
+      <c r="O40" t="s">
+        <v>59</v>
+      </c>
+      <c r="P40" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>51</v>
+      </c>
+      <c r="R40" t="s">
         <v>57</v>
       </c>
-      <c r="I40" t="s">
-        <v>53</v>
-      </c>
-      <c r="J40" t="s">
-        <v>57</v>
-      </c>
-      <c r="K40" t="s">
-        <v>53</v>
-      </c>
-      <c r="L40" t="s">
-        <v>57</v>
-      </c>
-      <c r="M40" t="s">
-        <v>57</v>
-      </c>
-      <c r="N40" t="s">
-        <v>44</v>
-      </c>
-      <c r="O40" t="s">
-        <v>53</v>
-      </c>
-      <c r="P40" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>54</v>
-      </c>
-      <c r="R40" t="s">
-        <v>53</v>
-      </c>
       <c r="S40" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="T40" t="s">
         <v>42</v>
       </c>
       <c r="U40" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:21">
@@ -3341,61 +3320,61 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" t="s">
+        <v>46</v>
+      </c>
+      <c r="F41" t="s">
+        <v>59</v>
+      </c>
+      <c r="G41" t="s">
+        <v>47</v>
+      </c>
+      <c r="H41" t="s">
         <v>57</v>
       </c>
-      <c r="D41" t="s">
-        <v>53</v>
-      </c>
-      <c r="E41" t="s">
-        <v>49</v>
-      </c>
-      <c r="F41" t="s">
+      <c r="I41" t="s">
+        <v>59</v>
+      </c>
+      <c r="J41" t="s">
+        <v>60</v>
+      </c>
+      <c r="K41" t="s">
+        <v>59</v>
+      </c>
+      <c r="L41" t="s">
+        <v>51</v>
+      </c>
+      <c r="M41" t="s">
         <v>57</v>
       </c>
-      <c r="G41" t="s">
-        <v>59</v>
-      </c>
-      <c r="H41" t="s">
-        <v>53</v>
-      </c>
-      <c r="I41" t="s">
-        <v>57</v>
-      </c>
-      <c r="J41" t="s">
+      <c r="N41" t="s">
+        <v>59</v>
+      </c>
+      <c r="O41" t="s">
+        <v>51</v>
+      </c>
+      <c r="P41" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>47</v>
+      </c>
+      <c r="R41" t="s">
+        <v>52</v>
+      </c>
+      <c r="S41" t="s">
+        <v>59</v>
+      </c>
+      <c r="T41" t="s">
         <v>48</v>
-      </c>
-      <c r="K41" t="s">
-        <v>57</v>
-      </c>
-      <c r="L41" t="s">
-        <v>44</v>
-      </c>
-      <c r="M41" t="s">
-        <v>53</v>
-      </c>
-      <c r="N41" t="s">
-        <v>53</v>
-      </c>
-      <c r="O41" t="s">
-        <v>49</v>
-      </c>
-      <c r="P41" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>53</v>
-      </c>
-      <c r="R41" t="s">
-        <v>53</v>
-      </c>
-      <c r="S41" t="s">
-        <v>57</v>
-      </c>
-      <c r="T41" t="s">
-        <v>53</v>
       </c>
       <c r="U41" t="s">
         <v>42</v>
@@ -3409,61 +3388,61 @@
         <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D42" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E42" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F42" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G42" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J42" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="K42" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L42" t="s">
         <v>47</v>
       </c>
       <c r="M42" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="N42" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="P42" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q42" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="R42" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="S42" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="T42" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="U42" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:21">
@@ -3471,64 +3450,64 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C43" t="s">
         <v>42</v>
       </c>
       <c r="D43" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E43" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F43" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H43" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J43" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="K43" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L43" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="M43" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="N43" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O43" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="P43" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Q43" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="R43" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="S43" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="T43" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="U43" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -3562,7 +3541,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3578,7 +3557,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3594,7 +3573,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3610,7 +3589,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3618,7 +3597,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3626,7 +3605,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3642,7 +3621,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3650,7 +3629,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3666,7 +3645,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3674,7 +3653,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3682,7 +3661,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3698,7 +3677,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3706,7 +3685,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3714,7 +3693,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3730,7 +3709,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3746,7 +3725,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -3762,7 +3741,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3778,7 +3757,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3786,7 +3765,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -3802,7 +3781,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3810,7 +3789,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3818,7 +3797,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -3826,7 +3805,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -3834,7 +3813,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -3842,7 +3821,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -3850,7 +3829,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -3874,7 +3853,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -3882,7 +3861,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -3908,7 +3887,7 @@
         <v>63</v>
       </c>
       <c r="B2">
-        <v>0.004608294930875576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3948,7 +3927,7 @@
         <v>68</v>
       </c>
       <c r="B7">
-        <v>0.002518891687657431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3964,7 +3943,7 @@
         <v>70</v>
       </c>
       <c r="B9">
-        <v>0.008064516129032258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3972,7 +3951,7 @@
         <v>71</v>
       </c>
       <c r="B10">
-        <v>0.007067137809187279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4028,7 +4007,7 @@
         <v>78</v>
       </c>
       <c r="B17">
-        <v>0.01519756838905775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4060,7 +4039,7 @@
         <v>82</v>
       </c>
       <c r="B21">
-        <v>0.006993006993006993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4068,7 +4047,7 @@
         <v>83</v>
       </c>
       <c r="B22">
-        <v>0.05960264900662252</v>
+        <v>0.01324503311258278</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4076,7 +4055,7 @@
         <v>84</v>
       </c>
       <c r="B23">
-        <v>0.02702702702702703</v>
+        <v>0.01351351351351351</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -4084,7 +4063,7 @@
         <v>85</v>
       </c>
       <c r="B24">
-        <v>0.0131578947368421</v>
+        <v>0.01973684210526316</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -4118,7 +4097,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.0166270783847981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4126,7 +4105,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.002777777777777778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4150,7 +4129,7 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.002777777777777778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4166,7 +4145,7 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.003105590062111801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4182,7 +4161,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.004750593824228029</v>
+        <v>0.002375296912114014</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4190,7 +4169,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.01666666666666667</v>
+        <v>0.002777777777777778</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4198,7 +4177,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.0028328611898017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4206,7 +4185,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.003105590062111801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4246,7 +4225,7 @@
         <v>25</v>
       </c>
       <c r="B18">
-        <v>0.003105590062111801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4262,7 +4241,7 @@
         <v>29</v>
       </c>
       <c r="B20">
-        <v>0.002375296912114014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4270,7 +4249,7 @@
         <v>30</v>
       </c>
       <c r="B21">
-        <v>0.002777777777777778</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4296,7 +4275,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4304,7 +4283,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4312,7 +4291,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4320,7 +4299,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4328,7 +4307,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4336,7 +4315,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4344,7 +4323,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4352,7 +4331,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4360,7 +4339,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4376,7 +4355,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4384,7 +4363,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4392,7 +4371,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4424,7 +4403,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4440,7 +4419,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4464,7 +4443,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -4472,7 +4451,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -4488,7 +4467,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -4504,7 +4483,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4528,7 +4507,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -4536,7 +4515,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -4552,7 +4531,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -4560,7 +4539,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -4584,7 +4563,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -4600,7 +4579,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -4608,7 +4587,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -4616,7 +4595,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -4624,7 +4603,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -4722,7 +4701,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -4737,16 +4716,16 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -4767,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -4794,7 +4773,7 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -4862,7 +4841,7 @@
         <v>0</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -4874,7 +4853,7 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -5007,28 +4986,28 @@
         <v>0</v>
       </c>
       <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
         <v>1</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -5102,7 +5081,7 @@
         <v>0</v>
       </c>
       <c r="V6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -5114,7 +5093,7 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -5262,7 +5241,7 @@
         <v>0</v>
       </c>
       <c r="V8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8">
         <v>0</v>
@@ -5274,7 +5253,7 @@
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -5362,7 +5341,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -5434,7 +5413,7 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -5463,58 +5442,58 @@
         <v>0</v>
       </c>
       <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
         <v>1</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
         <v>1</v>
-      </c>
-      <c r="V11">
-        <v>2</v>
-      </c>
-      <c r="W11">
-        <v>1</v>
-      </c>
-      <c r="X11">
-        <v>1</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11">
-        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -5585,7 +5564,7 @@
         <v>0</v>
       </c>
       <c r="W12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12">
         <v>0</v>
@@ -5594,7 +5573,7 @@
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -5662,7 +5641,7 @@
         <v>0</v>
       </c>
       <c r="V13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W13">
         <v>0</v>
@@ -5674,7 +5653,7 @@
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -5786,49 +5765,49 @@
         <v>0</v>
       </c>
       <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
         <v>1</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -6062,7 +6041,7 @@
         <v>0</v>
       </c>
       <c r="V18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W18">
         <v>0</v>
@@ -6074,7 +6053,7 @@
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:26">
@@ -6207,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -6234,7 +6213,7 @@
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -6302,7 +6281,7 @@
         <v>0</v>
       </c>
       <c r="V21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21">
         <v>0</v>
@@ -6314,7 +6293,7 @@
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:26">
@@ -6322,79 +6301,79 @@
         <v>89</v>
       </c>
       <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
         <v>2</v>
       </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
+      <c r="W22">
         <v>2</v>
       </c>
-      <c r="J22">
-        <v>2</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>5</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <v>1</v>
-      </c>
-      <c r="V22">
-        <v>9</v>
-      </c>
-      <c r="W22">
-        <v>4</v>
-      </c>
       <c r="X22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -6435,16 +6414,16 @@
         <v>90</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E2" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -6455,16 +6434,16 @@
         <v>91</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -6475,13 +6454,13 @@
         <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="E4" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="F4" t="s">
         <v>91</v>
@@ -6495,16 +6474,16 @@
         <v>93</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6512,19 +6491,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6532,7 +6511,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C7" t="s">
         <v>94</v>
@@ -6541,10 +6520,10 @@
         <v>94</v>
       </c>
       <c r="E7" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6552,19 +6531,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D8" t="s">
         <v>95</v>
       </c>
       <c r="E8" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -6572,19 +6551,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" t="s">
         <v>95</v>
       </c>
-      <c r="E9" t="s">
-        <v>92</v>
-      </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -6595,16 +6574,16 @@
         <v>95</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E10" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F10" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -6612,19 +6591,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C11" t="s">
         <v>100</v>
       </c>
       <c r="D11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E11" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="F11" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -6632,19 +6611,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" t="s">
         <v>96</v>
       </c>
-      <c r="C12" t="s">
-        <v>109</v>
-      </c>
-      <c r="D12" t="s">
-        <v>95</v>
-      </c>
       <c r="E12" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F12" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -6652,19 +6631,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C13" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D13" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F13" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -6672,19 +6651,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C14" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="E14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -6692,19 +6671,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C15" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="D15" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="E15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F15" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -6712,16 +6691,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C16" t="s">
         <v>95</v>
       </c>
       <c r="D16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F16" t="s">
         <v>91</v>
@@ -6732,19 +6711,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E17" t="s">
         <v>95</v>
       </c>
       <c r="F17" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6752,19 +6731,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" t="s">
         <v>100</v>
       </c>
-      <c r="C18" t="s">
-        <v>113</v>
-      </c>
-      <c r="D18" t="s">
-        <v>113</v>
-      </c>
-      <c r="E18" t="s">
-        <v>111</v>
-      </c>
       <c r="F18" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6772,16 +6751,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C19" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D19" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E19" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="F19" t="s">
         <v>90</v>
@@ -6792,19 +6771,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" t="s">
         <v>101</v>
-      </c>
-      <c r="C20" t="s">
-        <v>114</v>
-      </c>
-      <c r="D20" t="s">
-        <v>110</v>
-      </c>
-      <c r="E20" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6812,19 +6791,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21" t="s">
         <v>100</v>
       </c>
-      <c r="D21" t="s">
-        <v>92</v>
-      </c>
-      <c r="E21" t="s">
-        <v>117</v>
-      </c>
       <c r="F21" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -6832,19 +6811,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C22" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D22" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="E22" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="F22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6852,19 +6831,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" t="s">
         <v>103</v>
       </c>
-      <c r="C23" t="s">
-        <v>97</v>
-      </c>
-      <c r="D23" t="s">
-        <v>102</v>
-      </c>
-      <c r="E23" t="s">
-        <v>97</v>
-      </c>
       <c r="F23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6872,19 +6851,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D24" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" t="s">
+        <v>110</v>
+      </c>
+      <c r="F24" t="s">
         <v>92</v>
-      </c>
-      <c r="E24" t="s">
-        <v>99</v>
-      </c>
-      <c r="F24" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6895,16 +6874,16 @@
         <v>91</v>
       </c>
       <c r="C25" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D25" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E25" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F25" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6912,19 +6891,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C26" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D26" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" t="s">
         <v>101</v>
       </c>
-      <c r="E26" t="s">
-        <v>93</v>
-      </c>
       <c r="F26" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6932,19 +6911,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C27" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D27" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E27" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F27" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -6952,19 +6931,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="C28" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" t="s">
         <v>91</v>
       </c>
-      <c r="D28" t="s">
-        <v>104</v>
-      </c>
-      <c r="E28" t="s">
-        <v>96</v>
-      </c>
       <c r="F28" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -6972,19 +6951,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C29" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D29" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="E29" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F29" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -6992,19 +6971,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C30" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D30" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E30" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F30" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7012,19 +6991,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="C31" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D31" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E31" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="F31" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7032,19 +7011,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C32" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="D32" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E32" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F32" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7052,19 +7031,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C33" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D33" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="E33" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F33" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7072,19 +7051,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="C34" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D34" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="E34" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="F34" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7092,19 +7071,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C35" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="D35" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E35" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F35" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7112,19 +7091,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D36" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E36" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F36" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7132,19 +7111,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="C37" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D37" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="E37" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="F37" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7152,19 +7131,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C38" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D38" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E38" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F38" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7172,19 +7151,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C39" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D39" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E39" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F39" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7192,19 +7171,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C40" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D40" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="E40" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F40" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7212,19 +7191,19 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C41" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D41" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E41" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F41" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7232,19 +7211,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C42" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D42" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E42" t="s">
         <v>105</v>
       </c>
       <c r="F42" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7252,19 +7231,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C43" t="s">
         <v>105</v>
       </c>
       <c r="D43" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E43" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F43" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/alg_schedule_data_2019_4.xlsx
+++ b/alg_schedule_data_2019_4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="113">
   <si>
     <t>Abe</t>
   </si>
@@ -37,7 +37,10 @@
     <t>Crystal</t>
   </si>
   <si>
-    <t>Elaine</t>
+    <t>Cynthia</t>
+  </si>
+  <si>
+    <t>Daphne</t>
   </si>
   <si>
     <t>Ellen</t>
@@ -55,10 +58,7 @@
     <t>Ginny</t>
   </si>
   <si>
-    <t>Jamie</t>
-  </si>
-  <si>
-    <t>Jane</t>
+    <t>Irene</t>
   </si>
   <si>
     <t>Janet</t>
@@ -76,9 +76,6 @@
     <t>Karen</t>
   </si>
   <si>
-    <t>Lance</t>
-  </si>
-  <si>
     <t>Mandy</t>
   </si>
   <si>
@@ -100,9 +97,6 @@
     <t>Oscar</t>
   </si>
   <si>
-    <t>Patty</t>
-  </si>
-  <si>
     <t>Sabina</t>
   </si>
   <si>
@@ -115,98 +109,78 @@
     <t>Sandy</t>
   </si>
   <si>
+    <t>Sharon</t>
+  </si>
+  <si>
     <t>Sony</t>
   </si>
   <si>
-    <t>Stacy</t>
-  </si>
-  <si>
-    <t>Summer</t>
-  </si>
-  <si>
-    <t>Vivian
-Huang</t>
-  </si>
-  <si>
-    <t>Vivian
-Kuang</t>
+    <t xml:space="preserve">Summer </t>
+  </si>
+  <si>
+    <t>Vivian</t>
   </si>
   <si>
     <t>Yvette</t>
   </si>
   <si>
-    <t>Anita</t>
-  </si>
-  <si>
-    <t>Catherine</t>
-  </si>
-  <si>
-    <t>Lisa</t>
-  </si>
-  <si>
-    <t>Penny</t>
-  </si>
-  <si>
-    <t>Soraya</t>
-  </si>
-  <si>
     <t>O</t>
   </si>
   <si>
+    <t>N1</t>
+  </si>
+  <si>
     <t>P3</t>
   </si>
   <si>
+    <t>W6</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>OB</t>
+  </si>
+  <si>
     <t>A2</t>
   </si>
   <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
     <t>A5</t>
   </si>
   <si>
-    <t>N1</t>
-  </si>
-  <si>
-    <t>OB</t>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>C3</t>
   </si>
   <si>
     <t>P4</t>
   </si>
   <si>
+    <t>A4</t>
+  </si>
+  <si>
     <t>MS</t>
   </si>
   <si>
-    <t>W6</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>CD</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>P2</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
     <t>AS</t>
   </si>
   <si>
-    <t>P5</t>
-  </si>
-  <si>
     <t>NightWork_count</t>
   </si>
   <si>
@@ -297,64 +271,94 @@
     <t>['11:30', '12:00']</t>
   </si>
   <si>
+    <t>['11:30', '13:00']</t>
+  </si>
+  <si>
+    <t>['12:00', '12:30']</t>
+  </si>
+  <si>
     <t>['12:30']</t>
   </si>
   <si>
+    <t>['11:30', '12:30']</t>
+  </si>
+  <si>
+    <t>['12:30', '13:30']</t>
+  </si>
+  <si>
+    <t>['12:30', '13:00']</t>
+  </si>
+  <si>
     <t>['12:00']</t>
   </si>
   <si>
+    <t>['11:30', '12:00', '12:30']</t>
+  </si>
+  <si>
+    <t>['13:00', '13:30']</t>
+  </si>
+  <si>
+    <t>['11:30', '13:30']</t>
+  </si>
+  <si>
+    <t>['11:30', '13:00', '13:30']</t>
+  </si>
+  <si>
+    <t>['13:30']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['11:30', '12:30', '13:30']</t>
+  </si>
+  <si>
+    <t>['12:00', '13:30']</t>
+  </si>
+  <si>
+    <t>['12:00', '12:30', '13:00']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:00', '12:30', '13:00']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:30', '13:00']</t>
+  </si>
+  <si>
+    <t>['13:00']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:30', '13:00', '13:30']</t>
+  </si>
+  <si>
+    <t>['12:00', '13:00', '13:30']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:00', '13:00', '13:30']</t>
+  </si>
+  <si>
+    <t>['12:30', '13:00', '13:30']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:00', '13:30']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:00', '13:00']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:00', '12:30', '13:00', '13:30']</t>
+  </si>
+  <si>
+    <t>['12:00', '12:30', '13:30']</t>
+  </si>
+  <si>
     <t>['12:00', '13:00']</t>
   </si>
   <si>
-    <t>['11:30', '12:30', '13:00']</t>
-  </si>
-  <si>
-    <t>['12:00', '12:30']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:30']</t>
-  </si>
-  <si>
-    <t>['11:30', '13:30']</t>
-  </si>
-  <si>
-    <t>['13:00']</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>['13:30']</t>
+    <t>['11:30', '12:00', '12:30', '13:30']</t>
   </si>
   <si>
     <t>['11:30']</t>
-  </si>
-  <si>
-    <t>['12:30', '13:00']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:00', '13:00']</t>
-  </si>
-  <si>
-    <t>['12:00', '13:30']</t>
-  </si>
-  <si>
-    <t>['11:30', '13:00']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:30', '13:30']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:00', '12:30']</t>
-  </si>
-  <si>
-    <t>['12:30', '13:30']</t>
-  </si>
-  <si>
-    <t>['12:00', '12:30', '13:30']</t>
-  </si>
-  <si>
-    <t>['12:00', '12:30', '13:00']</t>
   </si>
 </sst>
 </file>
@@ -712,7 +716,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U43"/>
+  <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -785,64 +789,64 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="L2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="M2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="O2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="P2" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="S2" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="T2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="U2" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -850,64 +854,64 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="J3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K3" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="L3" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="M3" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="N3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="O3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="P3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="Q3" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="R3" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="S3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="T3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="U3" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -915,64 +919,64 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="I4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="J4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="K4" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="L4" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="M4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="N4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="O4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="P4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Q4" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="R4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="S4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="T4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="U4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -980,64 +984,64 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="H5" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="I5" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="J5" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="L5" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="M5" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="N5" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="O5" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="P5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="Q5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="R5" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="S5" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="T5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="U5" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -1045,64 +1049,64 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
         <v>52</v>
       </c>
-      <c r="E6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" t="s">
         <v>42</v>
       </c>
-      <c r="G6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" t="s">
-        <v>56</v>
-      </c>
-      <c r="L6" t="s">
-        <v>57</v>
-      </c>
-      <c r="M6" t="s">
-        <v>43</v>
-      </c>
-      <c r="N6" t="s">
-        <v>43</v>
-      </c>
       <c r="O6" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="P6" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Q6" t="s">
         <v>52</v>
       </c>
       <c r="R6" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="S6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="T6" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="U6" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -1110,64 +1114,64 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" t="s">
         <v>42</v>
       </c>
-      <c r="H7" t="s">
-        <v>50</v>
-      </c>
-      <c r="I7" t="s">
-        <v>46</v>
-      </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="K7" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="L7" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="M7" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="N7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="O7" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="P7" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="Q7" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="R7" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="S7" t="s">
         <v>46</v>
       </c>
       <c r="T7" t="s">
+        <v>39</v>
+      </c>
+      <c r="U7" t="s">
         <v>46</v>
-      </c>
-      <c r="U7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1175,64 +1179,64 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
         <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" t="s">
+        <v>49</v>
+      </c>
+      <c r="N8" t="s">
         <v>43</v>
       </c>
-      <c r="G8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H8" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" t="s">
-        <v>46</v>
-      </c>
-      <c r="K8" t="s">
-        <v>43</v>
-      </c>
-      <c r="L8" t="s">
-        <v>56</v>
-      </c>
-      <c r="M8" t="s">
-        <v>46</v>
-      </c>
-      <c r="N8" t="s">
-        <v>44</v>
-      </c>
       <c r="O8" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="P8" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="Q8" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="R8" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="S8" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="T8" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="U8" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1240,64 +1244,64 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="I9" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="K9" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="L9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="M9" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="N9" t="s">
         <v>46</v>
       </c>
       <c r="O9" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="P9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Q9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="R9" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="S9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="T9" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="U9" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1305,64 +1309,64 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" t="s">
         <v>43</v>
       </c>
-      <c r="D10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" t="s">
-        <v>58</v>
-      </c>
-      <c r="I10" t="s">
-        <v>46</v>
-      </c>
       <c r="J10" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10" t="s">
+        <v>50</v>
+      </c>
+      <c r="N10" t="s">
         <v>42</v>
       </c>
-      <c r="K10" t="s">
-        <v>47</v>
-      </c>
-      <c r="L10" t="s">
-        <v>48</v>
-      </c>
-      <c r="M10" t="s">
-        <v>60</v>
-      </c>
-      <c r="N10" t="s">
-        <v>47</v>
-      </c>
       <c r="O10" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="P10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R10" t="s">
         <v>42</v>
       </c>
-      <c r="Q10" t="s">
-        <v>56</v>
-      </c>
-      <c r="R10" t="s">
-        <v>44</v>
-      </c>
       <c r="S10" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="T10" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="U10" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1370,64 +1374,64 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" t="s">
         <v>46</v>
       </c>
-      <c r="C11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" t="s">
-        <v>51</v>
-      </c>
       <c r="H11" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J11" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="K11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" t="s">
         <v>42</v>
       </c>
-      <c r="L11" t="s">
-        <v>56</v>
-      </c>
-      <c r="M11" t="s">
-        <v>56</v>
-      </c>
       <c r="N11" t="s">
+        <v>39</v>
+      </c>
+      <c r="O11" t="s">
         <v>44</v>
       </c>
-      <c r="O11" t="s">
-        <v>57</v>
-      </c>
       <c r="P11" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>49</v>
+      </c>
+      <c r="R11" t="s">
         <v>50</v>
       </c>
-      <c r="Q11" t="s">
-        <v>51</v>
-      </c>
-      <c r="R11" t="s">
-        <v>58</v>
-      </c>
       <c r="S11" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="T11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="U11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1435,64 +1439,64 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
         <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
         <v>48</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H12" t="s">
         <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J12" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K12" t="s">
         <v>48</v>
       </c>
       <c r="L12" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="M12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N12" t="s">
         <v>48</v>
       </c>
-      <c r="N12" t="s">
-        <v>46</v>
-      </c>
       <c r="O12" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="P12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="Q12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R12" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="S12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="T12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="U12" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1500,64 +1504,64 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I13" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="J13" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="K13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L13" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="M13" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="N13" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="O13" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="P13" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="Q13" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="R13" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="S13" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="T13" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="U13" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1565,64 +1569,64 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="G14" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I14" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J14" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K14" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="L14" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="M14" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N14" t="s">
+        <v>34</v>
+      </c>
+      <c r="O14" t="s">
         <v>42</v>
       </c>
-      <c r="O14" t="s">
-        <v>44</v>
-      </c>
       <c r="P14" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="Q14" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="R14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="S14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="T14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="U14" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1630,64 +1634,64 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
         <v>51</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="F15" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G15" t="s">
         <v>51</v>
       </c>
       <c r="H15" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I15" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="J15" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="K15" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="L15" t="s">
         <v>51</v>
       </c>
       <c r="M15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N15" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="O15" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="P15" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="Q15" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="R15" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="S15" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="T15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="U15" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1695,64 +1699,64 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F16" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I16" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J16" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="K16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L16" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="M16" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="N16" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="O16" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="P16" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>35</v>
+      </c>
+      <c r="R16" t="s">
         <v>42</v>
       </c>
-      <c r="Q16" t="s">
-        <v>49</v>
-      </c>
-      <c r="R16" t="s">
-        <v>49</v>
-      </c>
       <c r="S16" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="T16" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="U16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1760,64 +1764,64 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E17" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="G17" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H17" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="I17" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="J17" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="K17" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="L17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M17" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="N17" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="O17" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="P17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q17" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="R17" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S17" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="T17" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="U17" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1825,64 +1829,64 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" t="s">
         <v>50</v>
       </c>
-      <c r="C18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="G18" t="s">
         <v>52</v>
       </c>
-      <c r="E18" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" t="s">
-        <v>57</v>
-      </c>
-      <c r="G18" t="s">
-        <v>51</v>
-      </c>
       <c r="H18" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="I18" t="s">
+        <v>43</v>
+      </c>
+      <c r="J18" t="s">
+        <v>42</v>
+      </c>
+      <c r="K18" t="s">
+        <v>50</v>
+      </c>
+      <c r="L18" t="s">
         <v>52</v>
       </c>
-      <c r="J18" t="s">
-        <v>47</v>
-      </c>
-      <c r="K18" t="s">
-        <v>57</v>
-      </c>
-      <c r="L18" t="s">
-        <v>51</v>
-      </c>
       <c r="M18" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="N18" t="s">
+        <v>37</v>
+      </c>
+      <c r="O18" t="s">
+        <v>43</v>
+      </c>
+      <c r="P18" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q18" t="s">
         <v>52</v>
       </c>
-      <c r="O18" t="s">
-        <v>47</v>
-      </c>
-      <c r="P18" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>51</v>
-      </c>
       <c r="R18" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="S18" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="T18" t="s">
+        <v>37</v>
+      </c>
+      <c r="U18" t="s">
         <v>50</v>
-      </c>
-      <c r="U18" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1890,64 +1894,64 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" t="s">
+        <v>42</v>
+      </c>
+      <c r="J19" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19" t="s">
+        <v>42</v>
+      </c>
+      <c r="L19" t="s">
+        <v>35</v>
+      </c>
+      <c r="M19" t="s">
+        <v>50</v>
+      </c>
+      <c r="N19" t="s">
+        <v>50</v>
+      </c>
+      <c r="O19" t="s">
+        <v>42</v>
+      </c>
+      <c r="P19" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q19" t="s">
         <v>46</v>
       </c>
-      <c r="D19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" t="s">
-        <v>58</v>
-      </c>
-      <c r="G19" t="s">
-        <v>59</v>
-      </c>
-      <c r="H19" t="s">
-        <v>51</v>
-      </c>
-      <c r="I19" t="s">
-        <v>58</v>
-      </c>
-      <c r="J19" t="s">
-        <v>48</v>
-      </c>
-      <c r="K19" t="s">
-        <v>58</v>
-      </c>
-      <c r="L19" t="s">
-        <v>51</v>
-      </c>
-      <c r="M19" t="s">
-        <v>51</v>
-      </c>
-      <c r="N19" t="s">
-        <v>58</v>
-      </c>
-      <c r="O19" t="s">
-        <v>48</v>
-      </c>
-      <c r="P19" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>51</v>
-      </c>
       <c r="R19" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="S19" t="s">
+        <v>34</v>
+      </c>
+      <c r="T19" t="s">
+        <v>46</v>
+      </c>
+      <c r="U19" t="s">
         <v>42</v>
-      </c>
-      <c r="T19" t="s">
-        <v>48</v>
-      </c>
-      <c r="U19" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1955,64 +1959,64 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="E20" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="G20" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H20" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I20" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="J20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L20" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="M20" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="N20" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="O20" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="P20" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="Q20" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="R20" t="s">
         <v>51</v>
       </c>
       <c r="S20" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="T20" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="U20" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -2020,64 +2024,64 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" t="s">
+        <v>35</v>
+      </c>
+      <c r="I21" t="s">
+        <v>43</v>
+      </c>
+      <c r="J21" t="s">
+        <v>35</v>
+      </c>
+      <c r="K21" t="s">
+        <v>42</v>
+      </c>
+      <c r="L21" t="s">
+        <v>39</v>
+      </c>
+      <c r="M21" t="s">
         <v>46</v>
       </c>
-      <c r="C21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" t="s">
-        <v>51</v>
-      </c>
-      <c r="G21" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" t="s">
-        <v>51</v>
-      </c>
-      <c r="I21" t="s">
-        <v>48</v>
-      </c>
-      <c r="J21" t="s">
-        <v>47</v>
-      </c>
-      <c r="K21" t="s">
-        <v>47</v>
-      </c>
-      <c r="L21" t="s">
-        <v>59</v>
-      </c>
-      <c r="M21" t="s">
-        <v>51</v>
-      </c>
       <c r="N21" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="O21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P21" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Q21" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="R21" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="S21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="T21" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="U21" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -2085,64 +2089,64 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" t="s">
         <v>42</v>
       </c>
-      <c r="C22" t="s">
-        <v>59</v>
-      </c>
       <c r="D22" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="E22" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="F22" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H22" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="I22" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J22" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="K22" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="L22" t="s">
         <v>51</v>
       </c>
       <c r="M22" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="N22" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="O22" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="P22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q22" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="R22" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="S22" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="T22" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="U22" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -2150,22 +2154,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" t="s">
         <v>51</v>
-      </c>
-      <c r="C23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" t="s">
-        <v>44</v>
-      </c>
-      <c r="G23" t="s">
-        <v>52</v>
       </c>
       <c r="H23" t="s">
         <v>51</v>
@@ -2177,37 +2181,37 @@
         <v>44</v>
       </c>
       <c r="K23" t="s">
+        <v>39</v>
+      </c>
+      <c r="L23" t="s">
         <v>44</v>
       </c>
-      <c r="L23" t="s">
-        <v>52</v>
-      </c>
       <c r="M23" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="N23" t="s">
         <v>51</v>
       </c>
       <c r="O23" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P23" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="Q23" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="R23" t="s">
         <v>51</v>
       </c>
       <c r="S23" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="T23" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="U23" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -2215,64 +2219,64 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D24" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F24" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G24" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="I24" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K24" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="L24" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="M24" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="N24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P24" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="Q24" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="R24" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="S24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="T24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -2280,64 +2284,64 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D25" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="E25" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G25" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H25" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I25" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J25" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="K25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L25" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="M25" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="N25" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="O25" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="P25" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="Q25" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="R25" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="S25" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="T25" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="U25" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2345,49 +2349,49 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D26" t="s">
         <v>51</v>
       </c>
       <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26" t="s">
+        <v>51</v>
+      </c>
+      <c r="I26" t="s">
+        <v>37</v>
+      </c>
+      <c r="J26" t="s">
+        <v>43</v>
+      </c>
+      <c r="K26" t="s">
+        <v>35</v>
+      </c>
+      <c r="L26" t="s">
+        <v>51</v>
+      </c>
+      <c r="M26" t="s">
+        <v>51</v>
+      </c>
+      <c r="N26" t="s">
+        <v>37</v>
+      </c>
+      <c r="O26" t="s">
+        <v>43</v>
+      </c>
+      <c r="P26" t="s">
         <v>50</v>
-      </c>
-      <c r="F26" t="s">
-        <v>42</v>
-      </c>
-      <c r="G26" t="s">
-        <v>51</v>
-      </c>
-      <c r="H26" t="s">
-        <v>59</v>
-      </c>
-      <c r="I26" t="s">
-        <v>52</v>
-      </c>
-      <c r="J26" t="s">
-        <v>47</v>
-      </c>
-      <c r="K26" t="s">
-        <v>51</v>
-      </c>
-      <c r="L26" t="s">
-        <v>59</v>
-      </c>
-      <c r="M26" t="s">
-        <v>59</v>
-      </c>
-      <c r="N26" t="s">
-        <v>48</v>
-      </c>
-      <c r="O26" t="s">
-        <v>51</v>
-      </c>
-      <c r="P26" t="s">
-        <v>51</v>
       </c>
       <c r="Q26" t="s">
         <v>51</v>
@@ -2396,13 +2400,13 @@
         <v>51</v>
       </c>
       <c r="S26" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="T26" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="U26" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2410,64 +2414,64 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D27" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E27" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G27" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H27" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="I27" t="s">
         <v>51</v>
       </c>
       <c r="J27" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K27" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="L27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M27" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="N27" t="s">
         <v>51</v>
       </c>
       <c r="O27" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="P27" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="Q27" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="R27" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="S27" t="s">
         <v>51</v>
       </c>
       <c r="T27" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="U27" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2475,64 +2479,64 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" t="s">
+        <v>37</v>
+      </c>
+      <c r="G28" t="s">
+        <v>51</v>
+      </c>
+      <c r="H28" t="s">
+        <v>34</v>
+      </c>
+      <c r="I28" t="s">
+        <v>51</v>
+      </c>
+      <c r="J28" t="s">
+        <v>42</v>
+      </c>
+      <c r="K28" t="s">
+        <v>51</v>
+      </c>
+      <c r="L28" t="s">
+        <v>37</v>
+      </c>
+      <c r="M28" t="s">
+        <v>51</v>
+      </c>
+      <c r="N28" t="s">
+        <v>51</v>
+      </c>
+      <c r="O28" t="s">
+        <v>42</v>
+      </c>
+      <c r="P28" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>51</v>
+      </c>
+      <c r="R28" t="s">
         <v>52</v>
       </c>
-      <c r="D28" t="s">
-        <v>44</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="S28" t="s">
         <v>51</v>
-      </c>
-      <c r="F28" t="s">
-        <v>52</v>
-      </c>
-      <c r="G28" t="s">
-        <v>44</v>
-      </c>
-      <c r="H28" t="s">
-        <v>42</v>
-      </c>
-      <c r="I28" t="s">
-        <v>59</v>
-      </c>
-      <c r="J28" t="s">
-        <v>51</v>
-      </c>
-      <c r="K28" t="s">
-        <v>52</v>
-      </c>
-      <c r="L28" t="s">
-        <v>59</v>
-      </c>
-      <c r="M28" t="s">
-        <v>59</v>
-      </c>
-      <c r="N28" t="s">
-        <v>59</v>
-      </c>
-      <c r="O28" t="s">
-        <v>51</v>
-      </c>
-      <c r="P28" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>46</v>
-      </c>
-      <c r="R28" t="s">
-        <v>51</v>
-      </c>
-      <c r="S28" t="s">
-        <v>59</v>
       </c>
       <c r="T28" t="s">
         <v>43</v>
       </c>
       <c r="U28" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2540,37 +2544,37 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" t="s">
+        <v>43</v>
+      </c>
+      <c r="G29" t="s">
+        <v>42</v>
+      </c>
+      <c r="H29" t="s">
         <v>51</v>
       </c>
-      <c r="C29" t="s">
+      <c r="I29" t="s">
+        <v>34</v>
+      </c>
+      <c r="J29" t="s">
+        <v>46</v>
+      </c>
+      <c r="K29" t="s">
         <v>51</v>
       </c>
-      <c r="D29" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" t="s">
-        <v>51</v>
-      </c>
-      <c r="F29" t="s">
-        <v>51</v>
-      </c>
-      <c r="G29" t="s">
-        <v>52</v>
-      </c>
-      <c r="H29" t="s">
-        <v>59</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="L29" t="s">
         <v>42</v>
-      </c>
-      <c r="J29" t="s">
-        <v>51</v>
-      </c>
-      <c r="K29" t="s">
-        <v>52</v>
-      </c>
-      <c r="L29" t="s">
-        <v>59</v>
       </c>
       <c r="M29" t="s">
         <v>51</v>
@@ -2579,25 +2583,25 @@
         <v>52</v>
       </c>
       <c r="O29" t="s">
+        <v>35</v>
+      </c>
+      <c r="P29" t="s">
         <v>51</v>
       </c>
-      <c r="P29" t="s">
+      <c r="Q29" t="s">
+        <v>42</v>
+      </c>
+      <c r="R29" t="s">
+        <v>51</v>
+      </c>
+      <c r="S29" t="s">
         <v>52</v>
       </c>
-      <c r="Q29" t="s">
-        <v>59</v>
-      </c>
-      <c r="R29" t="s">
-        <v>52</v>
-      </c>
-      <c r="S29" t="s">
-        <v>51</v>
-      </c>
       <c r="T29" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="U29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2605,64 +2609,64 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s">
         <v>51</v>
       </c>
       <c r="D30" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E30" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
         <v>51</v>
       </c>
       <c r="G30" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I30" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="J30" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="K30" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L30" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N30" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="O30" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="P30" t="s">
         <v>51</v>
       </c>
       <c r="Q30" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="R30" t="s">
+        <v>37</v>
+      </c>
+      <c r="S30" t="s">
         <v>51</v>
       </c>
-      <c r="S30" t="s">
-        <v>59</v>
-      </c>
       <c r="T30" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="U30" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2670,64 +2674,64 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="D31" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F31" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G31" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H31" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I31" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="J31" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="K31" t="s">
+        <v>34</v>
+      </c>
+      <c r="L31" t="s">
+        <v>46</v>
+      </c>
+      <c r="M31" t="s">
+        <v>51</v>
+      </c>
+      <c r="N31" t="s">
+        <v>51</v>
+      </c>
+      <c r="O31" t="s">
+        <v>39</v>
+      </c>
+      <c r="P31" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>38</v>
+      </c>
+      <c r="R31" t="s">
+        <v>46</v>
+      </c>
+      <c r="S31" t="s">
+        <v>52</v>
+      </c>
+      <c r="T31" t="s">
         <v>42</v>
       </c>
-      <c r="L31" t="s">
-        <v>55</v>
-      </c>
-      <c r="M31" t="s">
-        <v>53</v>
-      </c>
-      <c r="N31" t="s">
-        <v>55</v>
-      </c>
-      <c r="O31" t="s">
-        <v>53</v>
-      </c>
-      <c r="P31" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>53</v>
-      </c>
-      <c r="R31" t="s">
-        <v>55</v>
-      </c>
-      <c r="S31" t="s">
-        <v>55</v>
-      </c>
-      <c r="T31" t="s">
-        <v>53</v>
-      </c>
       <c r="U31" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2735,61 +2739,61 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="D32" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
         <v>51</v>
       </c>
-      <c r="F32" t="s">
-        <v>59</v>
-      </c>
       <c r="G32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H32" t="s">
         <v>52</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
+        <v>43</v>
+      </c>
+      <c r="J32" t="s">
+        <v>39</v>
+      </c>
+      <c r="K32" t="s">
+        <v>37</v>
+      </c>
+      <c r="L32" t="s">
+        <v>34</v>
+      </c>
+      <c r="M32" t="s">
+        <v>37</v>
+      </c>
+      <c r="N32" t="s">
+        <v>52</v>
+      </c>
+      <c r="O32" t="s">
+        <v>43</v>
+      </c>
+      <c r="P32" t="s">
         <v>51</v>
       </c>
-      <c r="I32" t="s">
-        <v>59</v>
-      </c>
-      <c r="J32" t="s">
-        <v>52</v>
-      </c>
-      <c r="K32" t="s">
+      <c r="Q32" t="s">
+        <v>35</v>
+      </c>
+      <c r="R32" t="s">
         <v>51</v>
       </c>
-      <c r="L32" t="s">
-        <v>42</v>
-      </c>
-      <c r="M32" t="s">
-        <v>59</v>
-      </c>
-      <c r="N32" t="s">
+      <c r="S32" t="s">
+        <v>37</v>
+      </c>
+      <c r="T32" t="s">
         <v>51</v>
-      </c>
-      <c r="O32" t="s">
-        <v>52</v>
-      </c>
-      <c r="P32" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>51</v>
-      </c>
-      <c r="R32" t="s">
-        <v>59</v>
-      </c>
-      <c r="S32" t="s">
-        <v>51</v>
-      </c>
-      <c r="T32" t="s">
-        <v>59</v>
       </c>
       <c r="U32" t="s">
         <v>51</v>
@@ -2800,64 +2804,64 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D33" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E33" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="F33" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G33" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="H33" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J33" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="K33" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="L33" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="M33" t="s">
+        <v>34</v>
+      </c>
+      <c r="N33" t="s">
+        <v>35</v>
+      </c>
+      <c r="O33" t="s">
+        <v>43</v>
+      </c>
+      <c r="P33" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q33" t="s">
         <v>42</v>
       </c>
-      <c r="N33" t="s">
-        <v>54</v>
-      </c>
-      <c r="O33" t="s">
-        <v>54</v>
-      </c>
-      <c r="P33" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>54</v>
-      </c>
       <c r="R33" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="S33" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T33" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="U33" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2865,64 +2869,64 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C34" t="s">
         <v>52</v>
       </c>
       <c r="D34" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E34" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G34" t="s">
         <v>51</v>
       </c>
       <c r="H34" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="I34" t="s">
+        <v>52</v>
+      </c>
+      <c r="J34" t="s">
+        <v>37</v>
+      </c>
+      <c r="K34" t="s">
+        <v>52</v>
+      </c>
+      <c r="L34" t="s">
+        <v>37</v>
+      </c>
+      <c r="M34" t="s">
         <v>51</v>
       </c>
-      <c r="J34" t="s">
-        <v>51</v>
-      </c>
-      <c r="K34" t="s">
-        <v>59</v>
-      </c>
-      <c r="L34" t="s">
-        <v>46</v>
-      </c>
-      <c r="M34" t="s">
-        <v>52</v>
-      </c>
       <c r="N34" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="O34" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="P34" t="s">
         <v>51</v>
       </c>
       <c r="Q34" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="R34" t="s">
         <v>52</v>
       </c>
       <c r="S34" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="T34" t="s">
         <v>51</v>
       </c>
       <c r="U34" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2930,584 +2934,64 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C35" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="D35" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E35" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F35" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G35" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="H35" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="I35" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="J35" t="s">
         <v>48</v>
       </c>
       <c r="K35" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="L35" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="M35" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="N35" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="O35" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="P35" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="Q35" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="R35" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="S35" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="T35" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="U35" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21">
-      <c r="A36" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>55</v>
-      </c>
-      <c r="C36" t="s">
-        <v>52</v>
-      </c>
-      <c r="D36" t="s">
-        <v>51</v>
-      </c>
-      <c r="E36" t="s">
-        <v>53</v>
-      </c>
-      <c r="F36" t="s">
-        <v>51</v>
-      </c>
-      <c r="G36" t="s">
-        <v>52</v>
-      </c>
-      <c r="H36" t="s">
-        <v>59</v>
-      </c>
-      <c r="I36" t="s">
-        <v>52</v>
-      </c>
-      <c r="J36" t="s">
-        <v>55</v>
-      </c>
-      <c r="K36" t="s">
-        <v>55</v>
-      </c>
-      <c r="L36" t="s">
-        <v>52</v>
-      </c>
-      <c r="M36" t="s">
-        <v>55</v>
-      </c>
-      <c r="N36" t="s">
-        <v>51</v>
-      </c>
-      <c r="O36" t="s">
-        <v>55</v>
-      </c>
-      <c r="P36" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>55</v>
-      </c>
-      <c r="R36" t="s">
-        <v>51</v>
-      </c>
-      <c r="S36" t="s">
-        <v>52</v>
-      </c>
-      <c r="T36" t="s">
-        <v>55</v>
-      </c>
-      <c r="U36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21">
-      <c r="A37" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>56</v>
-      </c>
-      <c r="C37" t="s">
-        <v>51</v>
-      </c>
-      <c r="D37" t="s">
-        <v>45</v>
-      </c>
-      <c r="E37" t="s">
         <v>44</v>
-      </c>
-      <c r="F37" t="s">
-        <v>52</v>
-      </c>
-      <c r="G37" t="s">
-        <v>45</v>
-      </c>
-      <c r="H37" t="s">
-        <v>51</v>
-      </c>
-      <c r="I37" t="s">
-        <v>51</v>
-      </c>
-      <c r="J37" t="s">
-        <v>44</v>
-      </c>
-      <c r="K37" t="s">
-        <v>52</v>
-      </c>
-      <c r="L37" t="s">
-        <v>44</v>
-      </c>
-      <c r="M37" t="s">
-        <v>51</v>
-      </c>
-      <c r="N37" t="s">
-        <v>59</v>
-      </c>
-      <c r="O37" t="s">
-        <v>44</v>
-      </c>
-      <c r="P37" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>42</v>
-      </c>
-      <c r="R37" t="s">
-        <v>59</v>
-      </c>
-      <c r="S37" t="s">
-        <v>51</v>
-      </c>
-      <c r="T37" t="s">
-        <v>52</v>
-      </c>
-      <c r="U37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21">
-      <c r="A38" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>52</v>
-      </c>
-      <c r="C38" t="s">
-        <v>51</v>
-      </c>
-      <c r="D38" t="s">
-        <v>52</v>
-      </c>
-      <c r="E38" t="s">
-        <v>51</v>
-      </c>
-      <c r="F38" t="s">
-        <v>52</v>
-      </c>
-      <c r="G38" t="s">
-        <v>51</v>
-      </c>
-      <c r="H38" t="s">
-        <v>52</v>
-      </c>
-      <c r="I38" t="s">
-        <v>51</v>
-      </c>
-      <c r="J38" t="s">
-        <v>51</v>
-      </c>
-      <c r="K38" t="s">
-        <v>51</v>
-      </c>
-      <c r="L38" t="s">
-        <v>52</v>
-      </c>
-      <c r="M38" t="s">
-        <v>59</v>
-      </c>
-      <c r="N38" t="s">
-        <v>51</v>
-      </c>
-      <c r="O38" t="s">
-        <v>51</v>
-      </c>
-      <c r="P38" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>52</v>
-      </c>
-      <c r="R38" t="s">
-        <v>42</v>
-      </c>
-      <c r="S38" t="s">
-        <v>52</v>
-      </c>
-      <c r="T38" t="s">
-        <v>51</v>
-      </c>
-      <c r="U38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21">
-      <c r="A39" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>57</v>
-      </c>
-      <c r="C39" t="s">
-        <v>59</v>
-      </c>
-      <c r="D39" t="s">
-        <v>51</v>
-      </c>
-      <c r="E39" t="s">
-        <v>51</v>
-      </c>
-      <c r="F39" t="s">
-        <v>59</v>
-      </c>
-      <c r="G39" t="s">
-        <v>51</v>
-      </c>
-      <c r="H39" t="s">
-        <v>52</v>
-      </c>
-      <c r="I39" t="s">
-        <v>59</v>
-      </c>
-      <c r="J39" t="s">
-        <v>43</v>
-      </c>
-      <c r="K39" t="s">
-        <v>59</v>
-      </c>
-      <c r="L39" t="s">
-        <v>59</v>
-      </c>
-      <c r="M39" t="s">
-        <v>52</v>
-      </c>
-      <c r="N39" t="s">
-        <v>59</v>
-      </c>
-      <c r="O39" t="s">
-        <v>51</v>
-      </c>
-      <c r="P39" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>51</v>
-      </c>
-      <c r="R39" t="s">
-        <v>52</v>
-      </c>
-      <c r="S39" t="s">
-        <v>42</v>
-      </c>
-      <c r="T39" t="s">
-        <v>57</v>
-      </c>
-      <c r="U39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21">
-      <c r="A40" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>48</v>
-      </c>
-      <c r="C40" t="s">
-        <v>51</v>
-      </c>
-      <c r="D40" t="s">
-        <v>51</v>
-      </c>
-      <c r="E40" t="s">
-        <v>59</v>
-      </c>
-      <c r="F40" t="s">
-        <v>51</v>
-      </c>
-      <c r="G40" t="s">
-        <v>51</v>
-      </c>
-      <c r="H40" t="s">
-        <v>52</v>
-      </c>
-      <c r="I40" t="s">
-        <v>42</v>
-      </c>
-      <c r="J40" t="s">
-        <v>54</v>
-      </c>
-      <c r="K40" t="s">
-        <v>51</v>
-      </c>
-      <c r="L40" t="s">
-        <v>56</v>
-      </c>
-      <c r="M40" t="s">
-        <v>52</v>
-      </c>
-      <c r="N40" t="s">
-        <v>51</v>
-      </c>
-      <c r="O40" t="s">
-        <v>59</v>
-      </c>
-      <c r="P40" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>51</v>
-      </c>
-      <c r="R40" t="s">
-        <v>57</v>
-      </c>
-      <c r="S40" t="s">
-        <v>51</v>
-      </c>
-      <c r="T40" t="s">
-        <v>42</v>
-      </c>
-      <c r="U40" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21">
-      <c r="A41" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41" t="s">
-        <v>59</v>
-      </c>
-      <c r="D41" t="s">
-        <v>47</v>
-      </c>
-      <c r="E41" t="s">
-        <v>46</v>
-      </c>
-      <c r="F41" t="s">
-        <v>59</v>
-      </c>
-      <c r="G41" t="s">
-        <v>47</v>
-      </c>
-      <c r="H41" t="s">
-        <v>57</v>
-      </c>
-      <c r="I41" t="s">
-        <v>59</v>
-      </c>
-      <c r="J41" t="s">
-        <v>60</v>
-      </c>
-      <c r="K41" t="s">
-        <v>59</v>
-      </c>
-      <c r="L41" t="s">
-        <v>51</v>
-      </c>
-      <c r="M41" t="s">
-        <v>57</v>
-      </c>
-      <c r="N41" t="s">
-        <v>59</v>
-      </c>
-      <c r="O41" t="s">
-        <v>51</v>
-      </c>
-      <c r="P41" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>47</v>
-      </c>
-      <c r="R41" t="s">
-        <v>52</v>
-      </c>
-      <c r="S41" t="s">
-        <v>59</v>
-      </c>
-      <c r="T41" t="s">
-        <v>48</v>
-      </c>
-      <c r="U41" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21">
-      <c r="A42" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>42</v>
-      </c>
-      <c r="C42" t="s">
-        <v>51</v>
-      </c>
-      <c r="D42" t="s">
-        <v>48</v>
-      </c>
-      <c r="E42" t="s">
-        <v>51</v>
-      </c>
-      <c r="F42" t="s">
-        <v>51</v>
-      </c>
-      <c r="G42" t="s">
-        <v>47</v>
-      </c>
-      <c r="H42" t="s">
-        <v>48</v>
-      </c>
-      <c r="I42" t="s">
-        <v>51</v>
-      </c>
-      <c r="J42" t="s">
-        <v>47</v>
-      </c>
-      <c r="K42" t="s">
-        <v>51</v>
-      </c>
-      <c r="L42" t="s">
-        <v>47</v>
-      </c>
-      <c r="M42" t="s">
-        <v>48</v>
-      </c>
-      <c r="N42" t="s">
-        <v>60</v>
-      </c>
-      <c r="O42" t="s">
-        <v>50</v>
-      </c>
-      <c r="P42" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>50</v>
-      </c>
-      <c r="R42" t="s">
-        <v>48</v>
-      </c>
-      <c r="S42" t="s">
-        <v>51</v>
-      </c>
-      <c r="T42" t="s">
-        <v>48</v>
-      </c>
-      <c r="U42" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21">
-      <c r="A43" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>48</v>
-      </c>
-      <c r="C43" t="s">
-        <v>42</v>
-      </c>
-      <c r="D43" t="s">
-        <v>51</v>
-      </c>
-      <c r="E43" t="s">
-        <v>59</v>
-      </c>
-      <c r="F43" t="s">
-        <v>59</v>
-      </c>
-      <c r="G43" t="s">
-        <v>58</v>
-      </c>
-      <c r="H43" t="s">
-        <v>48</v>
-      </c>
-      <c r="I43" t="s">
-        <v>59</v>
-      </c>
-      <c r="J43" t="s">
-        <v>59</v>
-      </c>
-      <c r="K43" t="s">
-        <v>59</v>
-      </c>
-      <c r="L43" t="s">
-        <v>47</v>
-      </c>
-      <c r="M43" t="s">
-        <v>48</v>
-      </c>
-      <c r="N43" t="s">
-        <v>59</v>
-      </c>
-      <c r="O43" t="s">
-        <v>59</v>
-      </c>
-      <c r="P43" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>60</v>
-      </c>
-      <c r="R43" t="s">
-        <v>48</v>
-      </c>
-      <c r="S43" t="s">
-        <v>59</v>
-      </c>
-      <c r="T43" t="s">
-        <v>48</v>
-      </c>
-      <c r="U43" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -3517,7 +3001,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3525,7 +3009,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3533,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3541,7 +3025,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3549,7 +3033,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3557,7 +3041,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3565,7 +3049,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3573,7 +3057,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3589,7 +3073,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3597,7 +3081,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3613,7 +3097,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3621,7 +3105,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3629,7 +3113,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3637,7 +3121,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3645,7 +3129,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3653,7 +3137,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3661,7 +3145,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3685,7 +3169,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3693,7 +3177,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3701,7 +3185,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3709,7 +3193,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3717,7 +3201,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -3725,7 +3209,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -3733,7 +3217,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3765,7 +3249,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -3773,7 +3257,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -3781,7 +3265,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3789,7 +3273,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3797,71 +3281,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3879,100 +3299,100 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.06451612903225806</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.007672634271099744</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.01900237529691211</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.007177033492822967</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.009732360097323601</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.07052896725440806</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.02973977695167286</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.008064516129032258</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.0176678445229682</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.03523035230352303</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>0.007692307692307693</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -3980,7 +3400,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3988,7 +3408,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3996,7 +3416,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -4004,15 +3424,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.02735562310030395</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -4020,7 +3440,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -4028,7 +3448,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -4036,42 +3456,42 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>0.02797202797202797</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B22">
-        <v>0.01324503311258278</v>
+        <v>0.06622516556291391</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B23">
-        <v>0.01351351351351351</v>
+        <v>0.05405405405405406</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B24">
-        <v>0.01973684210526316</v>
+        <v>0.06578947368421052</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>0.02962962962962963</v>
       </c>
     </row>
   </sheetData>
@@ -4089,7 +3509,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4097,7 +3517,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.06888361045130641</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4105,7 +3525,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.002777777777777778</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4113,7 +3533,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.0028328611898017</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4121,7 +3541,7 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0.002375296912114014</v>
+        <v>0.05938242280285035</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4129,7 +3549,7 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.005555555555555556</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4137,7 +3557,7 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.0028328611898017</v>
+        <v>0.0113314447592068</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4161,7 +3581,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.002375296912114014</v>
+        <v>0.0665083135391924</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4177,7 +3597,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>0.0084985835694051</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4185,7 +3605,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>0.003105590062111801</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4193,7 +3613,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>0.003144654088050315</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4201,7 +3621,7 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>0.002375296912114014</v>
+        <v>0.06888361045130641</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4209,7 +3629,7 @@
         <v>23</v>
       </c>
       <c r="B16">
-        <v>0.002777777777777778</v>
+        <v>0.005555555555555556</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4225,7 +3645,7 @@
         <v>25</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.003105590062111801</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4241,7 +3661,7 @@
         <v>29</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>0.0498812351543943</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4259,7 +3679,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4267,7 +3687,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4275,7 +3695,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4283,7 +3703,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4291,7 +3711,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4299,7 +3719,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4307,7 +3727,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4315,7 +3735,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4323,7 +3743,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4331,7 +3751,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4339,7 +3759,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4347,7 +3767,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4355,7 +3775,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4363,7 +3783,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4371,7 +3791,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4387,7 +3807,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4403,7 +3823,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4411,7 +3831,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4419,7 +3839,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4427,7 +3847,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4443,7 +3863,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -4451,7 +3871,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -4467,7 +3887,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -4475,7 +3895,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -4483,7 +3903,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4491,7 +3911,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -4499,7 +3919,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -4507,7 +3927,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -4515,7 +3935,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -4540,70 +3960,6 @@
       </c>
       <c r="B35">
         <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -4621,79 +3977,79 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:26">
@@ -4701,25 +4057,25 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -4728,10 +4084,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -4746,7 +4102,7 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -4758,22 +4114,22 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -4841,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -4853,7 +4209,7 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -4924,7 +4280,7 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -4933,7 +4289,7 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -4941,34 +4297,34 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -4986,7 +4342,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -5013,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -5066,7 +4422,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -5081,7 +4437,7 @@
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -5093,7 +4449,7 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -5119,7 +4475,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -5164,16 +4520,16 @@
         <v>0</v>
       </c>
       <c r="W7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -5341,13 +4697,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -5356,22 +4712,22 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -5398,22 +4754,22 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z10">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -5513,10 +4869,10 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -5573,7 +4929,7 @@
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -5641,7 +4997,7 @@
         <v>0</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W13">
         <v>0</v>
@@ -5653,7 +5009,7 @@
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -5676,7 +5032,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -5733,7 +5089,7 @@
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -5741,37 +5097,37 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -5786,7 +5142,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -5798,22 +5154,22 @@
         <v>0</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z15">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -5866,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -5893,7 +5249,7 @@
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:26">
@@ -6041,7 +5397,7 @@
         <v>0</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18">
         <v>0</v>
@@ -6053,7 +5409,7 @@
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:26">
@@ -6141,13 +5497,13 @@
         <v>29</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -6156,19 +5512,19 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -6186,7 +5542,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -6207,13 +5563,13 @@
         <v>0</v>
       </c>
       <c r="X20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -6298,40 +5654,40 @@
     </row>
     <row r="22" spans="1:26">
       <c r="A22" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -6346,7 +5702,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="R22">
         <v>0</v>
@@ -6358,22 +5714,22 @@
         <v>0</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V22">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="W22">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="X22">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="Y22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z22">
-        <v>7</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -6383,7 +5739,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6411,19 +5767,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" t="s">
         <v>90</v>
       </c>
-      <c r="C2" t="s">
-        <v>95</v>
-      </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="F2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -6431,19 +5787,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -6451,19 +5807,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="E4" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="F4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -6471,19 +5827,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E5" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="F5" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6491,19 +5847,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D6" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="E6" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="F6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6511,19 +5867,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E7" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6531,19 +5887,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="E8" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -6551,19 +5907,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="E9" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -6571,19 +5927,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E10" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="F10" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -6591,19 +5947,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
         <v>100</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E11" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="F11" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -6611,19 +5967,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="E12" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F12" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -6631,19 +5987,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="D13" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="E13" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="F13" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -6651,19 +6007,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" t="s">
         <v>90</v>
       </c>
-      <c r="C14" t="s">
-        <v>104</v>
-      </c>
       <c r="D14" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F14" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -6671,19 +6027,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" t="s">
         <v>92</v>
       </c>
-      <c r="D15" t="s">
+      <c r="F15" t="s">
         <v>92</v>
-      </c>
-      <c r="E15" t="s">
-        <v>103</v>
-      </c>
-      <c r="F15" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -6691,19 +6047,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D16" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="E16" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="F16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6714,16 +6070,16 @@
         <v>91</v>
       </c>
       <c r="C17" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="D17" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="E17" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F17" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6731,19 +6087,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="C18" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D18" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="E18" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="F18" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6751,19 +6107,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D19" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E19" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F19" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6771,19 +6127,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C20" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D20" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E20" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="F20" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6791,19 +6147,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C21" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D21" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E21" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F21" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -6811,19 +6167,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="C22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" t="s">
         <v>97</v>
-      </c>
-      <c r="D22" t="s">
-        <v>97</v>
-      </c>
-      <c r="E22" t="s">
-        <v>92</v>
-      </c>
-      <c r="F22" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6831,19 +6187,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C23" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D23" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E23" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="F23" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6851,19 +6207,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C24" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="D24" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E24" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="F24" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6871,19 +6227,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C25" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="D25" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="E25" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F25" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6891,19 +6247,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C26" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D26" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E26" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F26" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6911,19 +6267,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C27" t="s">
         <v>101</v>
       </c>
       <c r="D27" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E27" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F27" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -6931,19 +6287,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C28" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D28" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E28" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F28" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -6951,19 +6307,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="C29" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D29" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E29" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="F29" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -6971,19 +6327,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C30" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D30" t="s">
         <v>101</v>
       </c>
       <c r="E30" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F30" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -6991,19 +6347,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C31" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D31" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="E31" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F31" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7011,19 +6367,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C32" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D32" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="E32" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F32" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7031,19 +6387,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C33" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D33" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="E33" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="F33" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7051,19 +6407,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C34" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D34" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E34" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F34" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7071,179 +6427,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C35" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" t="s">
+        <v>88</v>
+      </c>
+      <c r="E35" t="s">
         <v>101</v>
       </c>
-      <c r="D35" t="s">
-        <v>101</v>
-      </c>
-      <c r="E35" t="s">
-        <v>99</v>
-      </c>
       <c r="F35" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>98</v>
-      </c>
-      <c r="C36" t="s">
-        <v>91</v>
-      </c>
-      <c r="D36" t="s">
-        <v>98</v>
-      </c>
-      <c r="E36" t="s">
-        <v>98</v>
-      </c>
-      <c r="F36" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>92</v>
-      </c>
-      <c r="C37" t="s">
-        <v>92</v>
-      </c>
-      <c r="D37" t="s">
-        <v>92</v>
-      </c>
-      <c r="E37" t="s">
-        <v>92</v>
-      </c>
-      <c r="F37" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>99</v>
-      </c>
-      <c r="C38" t="s">
-        <v>99</v>
-      </c>
-      <c r="D38" t="s">
-        <v>99</v>
-      </c>
-      <c r="E38" t="s">
-        <v>99</v>
-      </c>
-      <c r="F38" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>101</v>
-      </c>
-      <c r="C39" t="s">
-        <v>99</v>
-      </c>
-      <c r="D39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E39" t="s">
-        <v>99</v>
-      </c>
-      <c r="F39" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>101</v>
-      </c>
-      <c r="C40" t="s">
-        <v>99</v>
-      </c>
-      <c r="D40" t="s">
-        <v>92</v>
-      </c>
-      <c r="E40" t="s">
-        <v>101</v>
-      </c>
-      <c r="F40" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>100</v>
-      </c>
-      <c r="C41" t="s">
-        <v>106</v>
-      </c>
-      <c r="D41" t="s">
-        <v>97</v>
-      </c>
-      <c r="E41" t="s">
-        <v>100</v>
-      </c>
-      <c r="F41" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>101</v>
-      </c>
-      <c r="C42" t="s">
-        <v>97</v>
-      </c>
-      <c r="D42" t="s">
-        <v>97</v>
-      </c>
-      <c r="E42" t="s">
-        <v>105</v>
-      </c>
-      <c r="F42" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>101</v>
-      </c>
-      <c r="C43" t="s">
-        <v>105</v>
-      </c>
-      <c r="D43" t="s">
-        <v>97</v>
-      </c>
-      <c r="E43" t="s">
-        <v>97</v>
-      </c>
-      <c r="F43" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/alg_schedule_data_2019_4.xlsx
+++ b/alg_schedule_data_2019_4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="113">
   <si>
     <t>Abe</t>
   </si>
@@ -37,10 +37,7 @@
     <t>Crystal</t>
   </si>
   <si>
-    <t>Cynthia</t>
-  </si>
-  <si>
-    <t>Daphne</t>
+    <t>Elaine</t>
   </si>
   <si>
     <t>Ellen</t>
@@ -58,7 +55,10 @@
     <t>Ginny</t>
   </si>
   <si>
-    <t>Irene</t>
+    <t>Jamie</t>
+  </si>
+  <si>
+    <t>Jane</t>
   </si>
   <si>
     <t>Janet</t>
@@ -76,6 +76,9 @@
     <t>Karen</t>
   </si>
   <si>
+    <t>Lance</t>
+  </si>
+  <si>
     <t>Mandy</t>
   </si>
   <si>
@@ -97,6 +100,9 @@
     <t>Oscar</t>
   </si>
   <si>
+    <t>Patty</t>
+  </si>
+  <si>
     <t>Sabina</t>
   </si>
   <si>
@@ -109,21 +115,41 @@
     <t>Sandy</t>
   </si>
   <si>
-    <t>Sharon</t>
-  </si>
-  <si>
     <t>Sony</t>
   </si>
   <si>
-    <t xml:space="preserve">Summer </t>
-  </si>
-  <si>
-    <t>Vivian</t>
+    <t>Stacy</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>Vivian
+Huang</t>
+  </si>
+  <si>
+    <t>Vivian
+Kuang</t>
   </si>
   <si>
     <t>Yvette</t>
   </si>
   <si>
+    <t>Anita</t>
+  </si>
+  <si>
+    <t>Catherine</t>
+  </si>
+  <si>
+    <t>Lisa</t>
+  </si>
+  <si>
+    <t>Penny</t>
+  </si>
+  <si>
+    <t>Soraya</t>
+  </si>
+  <si>
     <t>O</t>
   </si>
   <si>
@@ -133,54 +159,54 @@
     <t>P3</t>
   </si>
   <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
     <t>W6</t>
   </si>
   <si>
-    <t>P2</t>
-  </si>
-  <si>
     <t>A3</t>
   </si>
   <si>
-    <t>C2</t>
-  </si>
-  <si>
     <t>OB</t>
   </si>
   <si>
-    <t>A2</t>
-  </si>
-  <si>
     <t>A5</t>
   </si>
   <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
     <t>C4</t>
   </si>
   <si>
-    <t>CD</t>
-  </si>
-  <si>
-    <t>M1</t>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>A4</t>
   </si>
   <si>
     <t>P5</t>
   </si>
   <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>P4</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>AS</t>
-  </si>
-  <si>
     <t>NightWork_count</t>
   </si>
   <si>
@@ -268,97 +294,73 @@
     <t>SUM_per_time</t>
   </si>
   <si>
+    <t>['12:00']</t>
+  </si>
+  <si>
     <t>['11:30', '12:00']</t>
   </si>
   <si>
+    <t>['12:30']</t>
+  </si>
+  <si>
+    <t>['12:00', '12:30']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:00', '12:30']</t>
+  </si>
+  <si>
+    <t>['12:00', '13:00']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:30']</t>
+  </si>
+  <si>
+    <t>['13:00']</t>
+  </si>
+  <si>
+    <t>['11:30', '13:30']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:30', '13:30']</t>
+  </si>
+  <si>
+    <t>['13:30']</t>
+  </si>
+  <si>
+    <t>['12:30', '13:30']</t>
+  </si>
+  <si>
+    <t>['12:30', '13:00']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['11:30']</t>
+  </si>
+  <si>
+    <t>['12:00', '13:30']</t>
+  </si>
+  <si>
+    <t>['11:30', '13:00', '13:30']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:00', '13:30']</t>
+  </si>
+  <si>
+    <t>['13:00', '13:30']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:00', '13:00']</t>
+  </si>
+  <si>
+    <t>['12:30', '13:00', '13:30']</t>
+  </si>
+  <si>
     <t>['11:30', '13:00']</t>
   </si>
   <si>
-    <t>['12:00', '12:30']</t>
-  </si>
-  <si>
-    <t>['12:30']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:30']</t>
-  </si>
-  <si>
-    <t>['12:30', '13:30']</t>
-  </si>
-  <si>
-    <t>['12:30', '13:00']</t>
-  </si>
-  <si>
-    <t>['12:00']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:00', '12:30']</t>
-  </si>
-  <si>
-    <t>['13:00', '13:30']</t>
-  </si>
-  <si>
-    <t>['11:30', '13:30']</t>
-  </si>
-  <si>
-    <t>['11:30', '13:00', '13:30']</t>
-  </si>
-  <si>
-    <t>['13:30']</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>['11:30', '12:30', '13:30']</t>
-  </si>
-  <si>
-    <t>['12:00', '13:30']</t>
-  </si>
-  <si>
-    <t>['12:00', '12:30', '13:00']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:00', '12:30', '13:00']</t>
-  </si>
-  <si>
     <t>['11:30', '12:30', '13:00']</t>
-  </si>
-  <si>
-    <t>['13:00']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:30', '13:00', '13:30']</t>
-  </si>
-  <si>
-    <t>['12:00', '13:00', '13:30']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:00', '13:00', '13:30']</t>
-  </si>
-  <si>
-    <t>['12:30', '13:00', '13:30']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:00', '13:30']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:00', '13:00']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:00', '12:30', '13:00', '13:30']</t>
-  </si>
-  <si>
-    <t>['12:00', '12:30', '13:30']</t>
-  </si>
-  <si>
-    <t>['12:00', '13:00']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:00', '12:30', '13:30']</t>
-  </si>
-  <si>
-    <t>['11:30']</t>
   </si>
 </sst>
 </file>
@@ -716,7 +718,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U35"/>
+  <dimension ref="A1:U43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -789,64 +791,64 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="I2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="J2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="K2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="L2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="M2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="N2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="O2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="Q2" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="R2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="S2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="U2" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -854,64 +856,64 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="I3" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="J3" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="K3" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="L3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M3" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="N3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="O3" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="P3" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="Q3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="R3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="S3" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="T3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="U3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -919,64 +921,64 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="I4" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="J4" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="K4" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="L4" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="M4" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="N4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O4" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="P4" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="Q4" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="R4" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="S4" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="T4" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="U4" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -984,64 +986,64 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="I5" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="J5" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="K5" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="L5" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="M5" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="N5" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="O5" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="P5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="Q5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="R5" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="S5" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="T5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="U5" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -1049,64 +1051,64 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
         <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G6" t="s">
         <v>52</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="I6" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="J6" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="K6" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="L6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M6" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="N6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O6" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="P6" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="Q6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="R6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="S6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="T6" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="U6" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -1114,64 +1116,64 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J7" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="K7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="L7" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="M7" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="N7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="O7" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="P7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="Q7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="R7" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="S7" t="s">
         <v>46</v>
       </c>
       <c r="T7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="U7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1179,64 +1181,64 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" t="s">
         <v>43</v>
       </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" t="s">
-        <v>39</v>
-      </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="I8" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="J8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K8" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="L8" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="M8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="N8" t="s">
+        <v>50</v>
+      </c>
+      <c r="O8" t="s">
         <v>43</v>
       </c>
-      <c r="O8" t="s">
-        <v>39</v>
-      </c>
       <c r="P8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="Q8" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="R8" t="s">
+        <v>47</v>
+      </c>
+      <c r="S8" t="s">
         <v>50</v>
       </c>
-      <c r="S8" t="s">
-        <v>36</v>
-      </c>
       <c r="T8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="U8" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1244,64 +1246,64 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I9" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="J9" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="K9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="L9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="M9" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="N9" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="O9" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="P9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="R9" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="S9" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T9" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="U9" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1309,64 +1311,64 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H10" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="I10" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J10" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="K10" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="L10" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M10" t="s">
+        <v>58</v>
+      </c>
+      <c r="N10" t="s">
+        <v>49</v>
+      </c>
+      <c r="O10" t="s">
+        <v>57</v>
+      </c>
+      <c r="P10" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>52</v>
+      </c>
+      <c r="R10" t="s">
+        <v>58</v>
+      </c>
+      <c r="S10" t="s">
+        <v>49</v>
+      </c>
+      <c r="T10" t="s">
         <v>50</v>
       </c>
-      <c r="N10" t="s">
-        <v>42</v>
-      </c>
-      <c r="O10" t="s">
-        <v>39</v>
-      </c>
-      <c r="P10" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>36</v>
-      </c>
-      <c r="R10" t="s">
-        <v>42</v>
-      </c>
-      <c r="S10" t="s">
-        <v>39</v>
-      </c>
-      <c r="T10" t="s">
-        <v>39</v>
-      </c>
       <c r="U10" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1374,61 +1376,61 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" t="s">
         <v>48</v>
-      </c>
-      <c r="F11" t="s">
-        <v>49</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
       </c>
       <c r="H11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" t="s">
         <v>50</v>
       </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" t="s">
         <v>46</v>
       </c>
-      <c r="J11" t="s">
-        <v>39</v>
-      </c>
-      <c r="K11" t="s">
-        <v>34</v>
-      </c>
-      <c r="L11" t="s">
-        <v>35</v>
-      </c>
       <c r="M11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N11" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="O11" t="s">
+        <v>50</v>
+      </c>
+      <c r="P11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>57</v>
+      </c>
+      <c r="R11" t="s">
         <v>44</v>
       </c>
-      <c r="P11" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>49</v>
-      </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
+        <v>46</v>
+      </c>
+      <c r="T11" t="s">
         <v>50</v>
-      </c>
-      <c r="S11" t="s">
-        <v>43</v>
-      </c>
-      <c r="T11" t="s">
-        <v>43</v>
       </c>
       <c r="U11" t="s">
         <v>49</v>
@@ -1439,64 +1441,64 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
         <v>48</v>
       </c>
-      <c r="D12" t="s">
-        <v>45</v>
-      </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="G12" t="s">
         <v>48</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I12" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J12" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K12" t="s">
         <v>48</v>
       </c>
       <c r="L12" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="M12" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="N12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O12" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="P12" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="Q12" t="s">
         <v>48</v>
       </c>
       <c r="R12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S12" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="T12" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="U12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1504,64 +1506,64 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G13" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H13" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="I13" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J13" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="K13" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="L13" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="M13" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="N13" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="O13" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="P13" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q13" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="R13" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="S13" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="T13" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="U13" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1569,64 +1571,64 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>54</v>
+      </c>
+      <c r="J14" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L14" t="s">
+        <v>43</v>
+      </c>
+      <c r="M14" t="s">
+        <v>51</v>
+      </c>
+      <c r="N14" t="s">
         <v>42</v>
       </c>
-      <c r="G14" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" t="s">
-        <v>42</v>
-      </c>
-      <c r="I14" t="s">
-        <v>42</v>
-      </c>
-      <c r="J14" t="s">
-        <v>39</v>
-      </c>
-      <c r="K14" t="s">
-        <v>39</v>
-      </c>
-      <c r="L14" t="s">
-        <v>37</v>
-      </c>
-      <c r="M14" t="s">
-        <v>50</v>
-      </c>
-      <c r="N14" t="s">
-        <v>34</v>
-      </c>
       <c r="O14" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="P14" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="Q14" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="R14" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="S14" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="T14" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="U14" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1634,64 +1636,64 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" t="s">
+        <v>46</v>
+      </c>
+      <c r="K15" t="s">
+        <v>46</v>
+      </c>
+      <c r="L15" t="s">
+        <v>59</v>
+      </c>
+      <c r="M15" t="s">
+        <v>59</v>
+      </c>
+      <c r="N15" t="s">
+        <v>49</v>
+      </c>
+      <c r="O15" t="s">
         <v>42</v>
       </c>
-      <c r="D15" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="P15" t="s">
         <v>50</v>
       </c>
-      <c r="G15" t="s">
-        <v>51</v>
-      </c>
-      <c r="H15" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" t="s">
-        <v>37</v>
-      </c>
-      <c r="J15" t="s">
-        <v>42</v>
-      </c>
-      <c r="K15" t="s">
-        <v>35</v>
-      </c>
-      <c r="L15" t="s">
-        <v>51</v>
-      </c>
-      <c r="M15" t="s">
-        <v>42</v>
-      </c>
-      <c r="N15" t="s">
-        <v>35</v>
-      </c>
-      <c r="O15" t="s">
-        <v>34</v>
-      </c>
-      <c r="P15" t="s">
-        <v>35</v>
-      </c>
       <c r="Q15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R15" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="S15" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="T15" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="U15" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1699,64 +1701,64 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" t="s">
+        <v>51</v>
+      </c>
+      <c r="J16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K16" t="s">
+        <v>51</v>
+      </c>
+      <c r="L16" t="s">
+        <v>51</v>
+      </c>
+      <c r="M16" t="s">
+        <v>51</v>
+      </c>
+      <c r="N16" t="s">
+        <v>51</v>
+      </c>
+      <c r="O16" t="s">
+        <v>51</v>
+      </c>
+      <c r="P16" t="s">
         <v>42</v>
       </c>
-      <c r="C16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" t="s">
-        <v>42</v>
-      </c>
-      <c r="I16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J16" t="s">
-        <v>43</v>
-      </c>
-      <c r="K16" t="s">
-        <v>50</v>
-      </c>
-      <c r="L16" t="s">
-        <v>36</v>
-      </c>
-      <c r="M16" t="s">
-        <v>43</v>
-      </c>
-      <c r="N16" t="s">
-        <v>43</v>
-      </c>
-      <c r="O16" t="s">
-        <v>43</v>
-      </c>
-      <c r="P16" t="s">
-        <v>34</v>
-      </c>
       <c r="Q16" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="R16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="S16" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="T16" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="U16" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1764,64 +1766,64 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F17" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G17" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I17" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="J17" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="K17" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="L17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M17" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="N17" t="s">
+        <v>45</v>
+      </c>
+      <c r="O17" t="s">
+        <v>51</v>
+      </c>
+      <c r="P17" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q17" t="s">
         <v>42</v>
       </c>
-      <c r="O17" t="s">
-        <v>39</v>
-      </c>
-      <c r="P17" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>34</v>
-      </c>
       <c r="R17" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="S17" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="T17" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="U17" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1829,64 +1831,64 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
         <v>50</v>
       </c>
       <c r="G18" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>57</v>
+      </c>
+      <c r="J18" t="s">
+        <v>43</v>
+      </c>
+      <c r="K18" t="s">
         <v>52</v>
       </c>
-      <c r="H18" t="s">
-        <v>42</v>
-      </c>
-      <c r="I18" t="s">
-        <v>43</v>
-      </c>
-      <c r="J18" t="s">
-        <v>42</v>
-      </c>
-      <c r="K18" t="s">
-        <v>50</v>
-      </c>
       <c r="L18" t="s">
+        <v>54</v>
+      </c>
+      <c r="M18" t="s">
+        <v>47</v>
+      </c>
+      <c r="N18" t="s">
         <v>52</v>
-      </c>
-      <c r="M18" t="s">
-        <v>42</v>
-      </c>
-      <c r="N18" t="s">
-        <v>37</v>
       </c>
       <c r="O18" t="s">
         <v>43</v>
       </c>
       <c r="P18" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="Q18" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="R18" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="S18" t="s">
+        <v>59</v>
+      </c>
+      <c r="T18" t="s">
         <v>43</v>
       </c>
-      <c r="T18" t="s">
-        <v>37</v>
-      </c>
       <c r="U18" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1894,64 +1896,64 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19" t="s">
+        <v>59</v>
+      </c>
+      <c r="J19" t="s">
+        <v>49</v>
+      </c>
+      <c r="K19" t="s">
+        <v>46</v>
+      </c>
+      <c r="L19" t="s">
+        <v>45</v>
+      </c>
+      <c r="M19" t="s">
+        <v>46</v>
+      </c>
+      <c r="N19" t="s">
+        <v>46</v>
+      </c>
+      <c r="O19" t="s">
+        <v>46</v>
+      </c>
+      <c r="P19" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>50</v>
+      </c>
+      <c r="R19" t="s">
+        <v>49</v>
+      </c>
+      <c r="S19" t="s">
         <v>42</v>
       </c>
-      <c r="G19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" t="s">
-        <v>50</v>
-      </c>
-      <c r="I19" t="s">
-        <v>42</v>
-      </c>
-      <c r="J19" t="s">
-        <v>39</v>
-      </c>
-      <c r="K19" t="s">
-        <v>42</v>
-      </c>
-      <c r="L19" t="s">
-        <v>35</v>
-      </c>
-      <c r="M19" t="s">
-        <v>50</v>
-      </c>
-      <c r="N19" t="s">
-        <v>50</v>
-      </c>
-      <c r="O19" t="s">
-        <v>42</v>
-      </c>
-      <c r="P19" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>46</v>
-      </c>
-      <c r="R19" t="s">
-        <v>43</v>
-      </c>
-      <c r="S19" t="s">
-        <v>34</v>
-      </c>
       <c r="T19" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="U19" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1959,64 +1961,64 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F20" t="s">
         <v>43</v>
       </c>
       <c r="G20" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="H20" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20" t="s">
+        <v>52</v>
+      </c>
+      <c r="J20" t="s">
+        <v>52</v>
+      </c>
+      <c r="K20" t="s">
+        <v>49</v>
+      </c>
+      <c r="L20" t="s">
+        <v>54</v>
+      </c>
+      <c r="M20" t="s">
+        <v>52</v>
+      </c>
+      <c r="N20" t="s">
+        <v>60</v>
+      </c>
+      <c r="O20" t="s">
+        <v>52</v>
+      </c>
+      <c r="P20" t="s">
         <v>43</v>
       </c>
-      <c r="I20" t="s">
-        <v>50</v>
-      </c>
-      <c r="J20" t="s">
+      <c r="Q20" t="s">
+        <v>54</v>
+      </c>
+      <c r="R20" t="s">
+        <v>46</v>
+      </c>
+      <c r="S20" t="s">
+        <v>52</v>
+      </c>
+      <c r="T20" t="s">
+        <v>42</v>
+      </c>
+      <c r="U20" t="s">
         <v>43</v>
-      </c>
-      <c r="K20" t="s">
-        <v>43</v>
-      </c>
-      <c r="L20" t="s">
-        <v>37</v>
-      </c>
-      <c r="M20" t="s">
-        <v>43</v>
-      </c>
-      <c r="N20" t="s">
-        <v>43</v>
-      </c>
-      <c r="O20" t="s">
-        <v>39</v>
-      </c>
-      <c r="P20" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>37</v>
-      </c>
-      <c r="R20" t="s">
-        <v>51</v>
-      </c>
-      <c r="S20" t="s">
-        <v>42</v>
-      </c>
-      <c r="T20" t="s">
-        <v>34</v>
-      </c>
-      <c r="U20" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -2024,64 +2026,64 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" t="s">
         <v>43</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I21" t="s">
+        <v>46</v>
+      </c>
+      <c r="J21" t="s">
         <v>50</v>
       </c>
-      <c r="E21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
-      </c>
-      <c r="G21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H21" t="s">
-        <v>35</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="K21" t="s">
         <v>43</v>
       </c>
-      <c r="J21" t="s">
-        <v>35</v>
-      </c>
-      <c r="K21" t="s">
-        <v>42</v>
-      </c>
       <c r="L21" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="M21" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="N21" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O21" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="P21" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="Q21" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="R21" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="S21" t="s">
         <v>50</v>
       </c>
       <c r="T21" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="U21" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -2089,64 +2091,64 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D22" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="E22" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="G22" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H22" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="I22" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="J22" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="K22" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="L22" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M22" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="N22" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O22" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="P22" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="Q22" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="R22" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="S22" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="T22" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U22" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -2154,64 +2156,64 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" t="s">
+        <v>54</v>
+      </c>
+      <c r="H23" t="s">
+        <v>49</v>
+      </c>
+      <c r="I23" t="s">
+        <v>54</v>
+      </c>
+      <c r="J23" t="s">
         <v>46</v>
       </c>
-      <c r="E23" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="K23" t="s">
+        <v>52</v>
+      </c>
+      <c r="L23" t="s">
+        <v>52</v>
+      </c>
+      <c r="M23" t="s">
+        <v>43</v>
+      </c>
+      <c r="N23" t="s">
+        <v>54</v>
+      </c>
+      <c r="O23" t="s">
         <v>46</v>
       </c>
-      <c r="G23" t="s">
-        <v>51</v>
-      </c>
-      <c r="H23" t="s">
-        <v>51</v>
-      </c>
-      <c r="I23" t="s">
-        <v>51</v>
-      </c>
-      <c r="J23" t="s">
-        <v>44</v>
-      </c>
-      <c r="K23" t="s">
-        <v>39</v>
-      </c>
-      <c r="L23" t="s">
-        <v>44</v>
-      </c>
-      <c r="M23" t="s">
-        <v>44</v>
-      </c>
-      <c r="N23" t="s">
-        <v>51</v>
-      </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>57</v>
+      </c>
+      <c r="R23" t="s">
+        <v>60</v>
+      </c>
+      <c r="S23" t="s">
+        <v>54</v>
+      </c>
+      <c r="T23" t="s">
+        <v>46</v>
+      </c>
+      <c r="U23" t="s">
         <v>48</v>
-      </c>
-      <c r="P23" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>51</v>
-      </c>
-      <c r="R23" t="s">
-        <v>51</v>
-      </c>
-      <c r="S23" t="s">
-        <v>42</v>
-      </c>
-      <c r="T23" t="s">
-        <v>44</v>
-      </c>
-      <c r="U23" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -2219,64 +2221,64 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E24" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="F24" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="H24" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="I24" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="J24" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L24" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="M24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N24" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="O24" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="P24" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="Q24" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="R24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="S24" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="T24" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="U24" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -2284,64 +2286,64 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D25" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="E25" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F25" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G25" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="I25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J25" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="K25" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="L25" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="M25" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="N25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O25" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="P25" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="Q25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R25" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="S25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="T25" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="U25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2349,64 +2351,64 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D26" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E26" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" t="s">
         <v>43</v>
       </c>
-      <c r="F26" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" t="s">
-        <v>35</v>
-      </c>
       <c r="H26" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I26" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="J26" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26" t="s">
+        <v>54</v>
+      </c>
+      <c r="L26" t="s">
         <v>43</v>
       </c>
-      <c r="K26" t="s">
-        <v>35</v>
-      </c>
-      <c r="L26" t="s">
-        <v>51</v>
-      </c>
       <c r="M26" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="N26" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="O26" t="s">
+        <v>46</v>
+      </c>
+      <c r="P26" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q26" t="s">
         <v>43</v>
       </c>
-      <c r="P26" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>51</v>
-      </c>
       <c r="R26" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="S26" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="T26" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="U26" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2414,64 +2416,64 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" t="s">
+        <v>42</v>
+      </c>
+      <c r="H27" t="s">
+        <v>57</v>
+      </c>
+      <c r="I27" t="s">
         <v>43</v>
       </c>
-      <c r="C27" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" t="s">
-        <v>37</v>
-      </c>
-      <c r="F27" t="s">
-        <v>50</v>
-      </c>
-      <c r="G27" t="s">
-        <v>34</v>
-      </c>
-      <c r="H27" t="s">
-        <v>37</v>
-      </c>
-      <c r="I27" t="s">
-        <v>51</v>
-      </c>
       <c r="J27" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="K27" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="L27" t="s">
         <v>50</v>
       </c>
       <c r="M27" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="N27" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="O27" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="P27" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="Q27" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R27" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="S27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="T27" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="U27" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2479,64 +2481,64 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28" t="s">
+        <v>54</v>
+      </c>
+      <c r="H28" t="s">
         <v>42</v>
       </c>
-      <c r="C28" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28" t="s">
-        <v>51</v>
-      </c>
-      <c r="E28" t="s">
-        <v>42</v>
-      </c>
-      <c r="F28" t="s">
-        <v>37</v>
-      </c>
-      <c r="G28" t="s">
-        <v>51</v>
-      </c>
-      <c r="H28" t="s">
-        <v>34</v>
-      </c>
       <c r="I28" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J28" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="K28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L28" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="M28" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="N28" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="O28" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="P28" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="Q28" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="R28" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="S28" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="T28" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="U28" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2544,61 +2546,61 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G29" t="s">
+        <v>54</v>
+      </c>
+      <c r="H29" t="s">
+        <v>49</v>
+      </c>
+      <c r="I29" t="s">
         <v>42</v>
       </c>
-      <c r="D29" t="s">
-        <v>42</v>
-      </c>
-      <c r="E29" t="s">
-        <v>35</v>
-      </c>
-      <c r="F29" t="s">
-        <v>43</v>
-      </c>
-      <c r="G29" t="s">
-        <v>42</v>
-      </c>
-      <c r="H29" t="s">
-        <v>51</v>
-      </c>
-      <c r="I29" t="s">
-        <v>34</v>
-      </c>
       <c r="J29" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="K29" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L29" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="M29" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="N29" t="s">
+        <v>49</v>
+      </c>
+      <c r="O29" t="s">
         <v>52</v>
       </c>
-      <c r="O29" t="s">
-        <v>35</v>
-      </c>
       <c r="P29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q29" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="R29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="S29" t="s">
+        <v>57</v>
+      </c>
+      <c r="T29" t="s">
         <v>52</v>
-      </c>
-      <c r="T29" t="s">
-        <v>35</v>
       </c>
       <c r="U29" t="s">
         <v>49</v>
@@ -2609,64 +2611,64 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C30" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" t="s">
         <v>52</v>
       </c>
-      <c r="E30" t="s">
-        <v>43</v>
-      </c>
       <c r="F30" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G30" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="H30" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I30" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="J30" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="K30" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="L30" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M30" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N30" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="O30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P30" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="Q30" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="R30" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="S30" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="T30" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="U30" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2674,64 +2676,64 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="D31" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="E31" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="G31" t="s">
+        <v>56</v>
+      </c>
+      <c r="H31" t="s">
+        <v>56</v>
+      </c>
+      <c r="I31" t="s">
+        <v>56</v>
+      </c>
+      <c r="J31" t="s">
+        <v>53</v>
+      </c>
+      <c r="K31" t="s">
+        <v>42</v>
+      </c>
+      <c r="L31" t="s">
+        <v>56</v>
+      </c>
+      <c r="M31" t="s">
+        <v>53</v>
+      </c>
+      <c r="N31" t="s">
+        <v>56</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>53</v>
+      </c>
+      <c r="R31" t="s">
         <v>51</v>
       </c>
-      <c r="H31" t="s">
+      <c r="S31" t="s">
         <v>51</v>
       </c>
-      <c r="I31" t="s">
-        <v>38</v>
-      </c>
-      <c r="J31" t="s">
-        <v>43</v>
-      </c>
-      <c r="K31" t="s">
-        <v>34</v>
-      </c>
-      <c r="L31" t="s">
-        <v>46</v>
-      </c>
-      <c r="M31" t="s">
+      <c r="T31" t="s">
+        <v>53</v>
+      </c>
+      <c r="U31" t="s">
         <v>51</v>
-      </c>
-      <c r="N31" t="s">
-        <v>51</v>
-      </c>
-      <c r="O31" t="s">
-        <v>39</v>
-      </c>
-      <c r="P31" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>38</v>
-      </c>
-      <c r="R31" t="s">
-        <v>46</v>
-      </c>
-      <c r="S31" t="s">
-        <v>52</v>
-      </c>
-      <c r="T31" t="s">
-        <v>42</v>
-      </c>
-      <c r="U31" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2739,64 +2741,64 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C32" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="D32" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E32" t="s">
+        <v>54</v>
+      </c>
+      <c r="F32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G32" t="s">
         <v>43</v>
       </c>
-      <c r="F32" t="s">
-        <v>51</v>
-      </c>
-      <c r="G32" t="s">
-        <v>37</v>
-      </c>
       <c r="H32" t="s">
+        <v>54</v>
+      </c>
+      <c r="I32" t="s">
+        <v>57</v>
+      </c>
+      <c r="J32" t="s">
         <v>52</v>
       </c>
-      <c r="I32" t="s">
-        <v>43</v>
-      </c>
-      <c r="J32" t="s">
-        <v>39</v>
-      </c>
       <c r="K32" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="L32" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="M32" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="N32" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O32" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="P32" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="Q32" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="R32" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="S32" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="T32" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="U32" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2804,64 +2806,64 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C33" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D33" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" t="s">
+        <v>55</v>
+      </c>
+      <c r="F33" t="s">
+        <v>55</v>
+      </c>
+      <c r="G33" t="s">
+        <v>55</v>
+      </c>
+      <c r="H33" t="s">
+        <v>55</v>
+      </c>
+      <c r="I33" t="s">
+        <v>55</v>
+      </c>
+      <c r="J33" t="s">
+        <v>55</v>
+      </c>
+      <c r="K33" t="s">
+        <v>55</v>
+      </c>
+      <c r="L33" t="s">
+        <v>55</v>
+      </c>
+      <c r="M33" t="s">
         <v>42</v>
       </c>
-      <c r="E33" t="s">
-        <v>35</v>
-      </c>
-      <c r="F33" t="s">
-        <v>52</v>
-      </c>
-      <c r="G33" t="s">
-        <v>42</v>
-      </c>
-      <c r="H33" t="s">
-        <v>46</v>
-      </c>
-      <c r="I33" t="s">
-        <v>51</v>
-      </c>
-      <c r="J33" t="s">
-        <v>43</v>
-      </c>
-      <c r="K33" t="s">
-        <v>46</v>
-      </c>
-      <c r="L33" t="s">
-        <v>42</v>
-      </c>
-      <c r="M33" t="s">
-        <v>34</v>
-      </c>
       <c r="N33" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="O33" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="P33" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="Q33" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="R33" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="S33" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="T33" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="U33" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2869,64 +2871,64 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" t="s">
+        <v>57</v>
+      </c>
+      <c r="F34" t="s">
+        <v>49</v>
+      </c>
+      <c r="G34" t="s">
+        <v>54</v>
+      </c>
+      <c r="H34" t="s">
+        <v>57</v>
+      </c>
+      <c r="I34" t="s">
+        <v>54</v>
+      </c>
+      <c r="J34" t="s">
+        <v>57</v>
+      </c>
+      <c r="K34" t="s">
         <v>47</v>
       </c>
-      <c r="C34" t="s">
-        <v>52</v>
-      </c>
-      <c r="D34" t="s">
-        <v>37</v>
-      </c>
-      <c r="E34" t="s">
-        <v>44</v>
-      </c>
-      <c r="F34" t="s">
-        <v>51</v>
-      </c>
-      <c r="G34" t="s">
-        <v>51</v>
-      </c>
-      <c r="H34" t="s">
-        <v>37</v>
-      </c>
-      <c r="I34" t="s">
-        <v>52</v>
-      </c>
-      <c r="J34" t="s">
-        <v>37</v>
-      </c>
-      <c r="K34" t="s">
-        <v>52</v>
-      </c>
       <c r="L34" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="M34" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="N34" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="O34" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="P34" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="Q34" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="R34" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="S34" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="T34" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="U34" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2934,64 +2936,584 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C35" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" t="s">
+        <v>54</v>
+      </c>
+      <c r="F35" t="s">
+        <v>54</v>
+      </c>
+      <c r="G35" t="s">
+        <v>49</v>
+      </c>
+      <c r="H35" t="s">
+        <v>54</v>
+      </c>
+      <c r="I35" t="s">
+        <v>57</v>
+      </c>
+      <c r="J35" t="s">
+        <v>54</v>
+      </c>
+      <c r="K35" t="s">
+        <v>54</v>
+      </c>
+      <c r="L35" t="s">
+        <v>49</v>
+      </c>
+      <c r="M35" t="s">
+        <v>54</v>
+      </c>
+      <c r="N35" t="s">
+        <v>57</v>
+      </c>
+      <c r="O35" t="s">
+        <v>42</v>
+      </c>
+      <c r="P35" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>49</v>
+      </c>
+      <c r="R35" t="s">
+        <v>54</v>
+      </c>
+      <c r="S35" t="s">
+        <v>54</v>
+      </c>
+      <c r="T35" t="s">
+        <v>54</v>
+      </c>
+      <c r="U35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" t="s">
+        <v>53</v>
+      </c>
+      <c r="F36" t="s">
+        <v>54</v>
+      </c>
+      <c r="G36" t="s">
+        <v>49</v>
+      </c>
+      <c r="H36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I36" t="s">
+        <v>54</v>
+      </c>
+      <c r="J36" t="s">
+        <v>56</v>
+      </c>
+      <c r="K36" t="s">
+        <v>56</v>
+      </c>
+      <c r="L36" t="s">
+        <v>54</v>
+      </c>
+      <c r="M36" t="s">
+        <v>56</v>
+      </c>
+      <c r="N36" t="s">
+        <v>54</v>
+      </c>
+      <c r="O36" t="s">
+        <v>56</v>
+      </c>
+      <c r="P36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>56</v>
+      </c>
+      <c r="R36" t="s">
+        <v>54</v>
+      </c>
+      <c r="S36" t="s">
+        <v>57</v>
+      </c>
+      <c r="T36" t="s">
+        <v>56</v>
+      </c>
+      <c r="U36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" t="s">
+        <v>54</v>
+      </c>
+      <c r="F37" t="s">
+        <v>47</v>
+      </c>
+      <c r="G37" t="s">
+        <v>57</v>
+      </c>
+      <c r="H37" t="s">
+        <v>57</v>
+      </c>
+      <c r="I37" t="s">
+        <v>57</v>
+      </c>
+      <c r="J37" t="s">
+        <v>54</v>
+      </c>
+      <c r="K37" t="s">
+        <v>54</v>
+      </c>
+      <c r="L37" t="s">
+        <v>57</v>
+      </c>
+      <c r="M37" t="s">
+        <v>49</v>
+      </c>
+      <c r="N37" t="s">
+        <v>57</v>
+      </c>
+      <c r="O37" t="s">
+        <v>54</v>
+      </c>
+      <c r="P37" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>42</v>
+      </c>
+      <c r="R37" t="s">
+        <v>57</v>
+      </c>
+      <c r="S37" t="s">
+        <v>54</v>
+      </c>
+      <c r="T37" t="s">
+        <v>49</v>
+      </c>
+      <c r="U37" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G38" t="s">
+        <v>54</v>
+      </c>
+      <c r="H38" t="s">
+        <v>49</v>
+      </c>
+      <c r="I38" t="s">
+        <v>54</v>
+      </c>
+      <c r="J38" t="s">
+        <v>49</v>
+      </c>
+      <c r="K38" t="s">
+        <v>57</v>
+      </c>
+      <c r="L38" t="s">
+        <v>57</v>
+      </c>
+      <c r="M38" t="s">
+        <v>49</v>
+      </c>
+      <c r="N38" t="s">
+        <v>54</v>
+      </c>
+      <c r="O38" t="s">
+        <v>49</v>
+      </c>
+      <c r="P38" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>47</v>
+      </c>
+      <c r="R38" t="s">
+        <v>42</v>
+      </c>
+      <c r="S38" t="s">
+        <v>57</v>
+      </c>
+      <c r="T38" t="s">
+        <v>49</v>
+      </c>
+      <c r="U38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" t="s">
+        <v>54</v>
+      </c>
+      <c r="E39" t="s">
+        <v>49</v>
+      </c>
+      <c r="F39" t="s">
+        <v>54</v>
+      </c>
+      <c r="G39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H39" t="s">
+        <v>54</v>
+      </c>
+      <c r="I39" t="s">
+        <v>57</v>
+      </c>
+      <c r="J39" t="s">
+        <v>49</v>
+      </c>
+      <c r="K39" t="s">
+        <v>54</v>
+      </c>
+      <c r="L39" t="s">
+        <v>54</v>
+      </c>
+      <c r="M39" t="s">
+        <v>54</v>
+      </c>
+      <c r="N39" t="s">
+        <v>57</v>
+      </c>
+      <c r="O39" t="s">
+        <v>49</v>
+      </c>
+      <c r="P39" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>57</v>
+      </c>
+      <c r="R39" t="s">
+        <v>54</v>
+      </c>
+      <c r="S39" t="s">
+        <v>42</v>
+      </c>
+      <c r="T39" t="s">
+        <v>49</v>
+      </c>
+      <c r="U39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" t="s">
+        <v>57</v>
+      </c>
+      <c r="E40" t="s">
+        <v>54</v>
+      </c>
+      <c r="F40" t="s">
+        <v>57</v>
+      </c>
+      <c r="G40" t="s">
+        <v>54</v>
+      </c>
+      <c r="H40" t="s">
+        <v>57</v>
+      </c>
+      <c r="I40" t="s">
+        <v>54</v>
+      </c>
+      <c r="J40" t="s">
+        <v>54</v>
+      </c>
+      <c r="K40" t="s">
+        <v>57</v>
+      </c>
+      <c r="L40" t="s">
+        <v>43</v>
+      </c>
+      <c r="M40" t="s">
+        <v>57</v>
+      </c>
+      <c r="N40" t="s">
+        <v>54</v>
+      </c>
+      <c r="O40" t="s">
+        <v>54</v>
+      </c>
+      <c r="P40" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>49</v>
+      </c>
+      <c r="R40" t="s">
+        <v>57</v>
+      </c>
+      <c r="S40" t="s">
+        <v>54</v>
+      </c>
+      <c r="T40" t="s">
+        <v>42</v>
+      </c>
+      <c r="U40" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41" t="s">
+        <v>54</v>
+      </c>
+      <c r="E41" t="s">
+        <v>54</v>
+      </c>
+      <c r="F41" t="s">
+        <v>59</v>
+      </c>
+      <c r="G41" t="s">
+        <v>57</v>
+      </c>
+      <c r="H41" t="s">
+        <v>54</v>
+      </c>
+      <c r="I41" t="s">
+        <v>49</v>
+      </c>
+      <c r="J41" t="s">
+        <v>54</v>
+      </c>
+      <c r="K41" t="s">
+        <v>54</v>
+      </c>
+      <c r="L41" t="s">
+        <v>54</v>
+      </c>
+      <c r="M41" t="s">
+        <v>54</v>
+      </c>
+      <c r="N41" t="s">
+        <v>49</v>
+      </c>
+      <c r="O41" t="s">
+        <v>54</v>
+      </c>
+      <c r="P41" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>54</v>
+      </c>
+      <c r="R41" t="s">
+        <v>54</v>
+      </c>
+      <c r="S41" t="s">
+        <v>49</v>
+      </c>
+      <c r="T41" t="s">
         <v>46</v>
       </c>
-      <c r="D35" t="s">
-        <v>48</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="U41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" t="s">
+        <v>57</v>
+      </c>
+      <c r="F42" t="s">
+        <v>49</v>
+      </c>
+      <c r="G42" t="s">
+        <v>54</v>
+      </c>
+      <c r="H42" t="s">
+        <v>57</v>
+      </c>
+      <c r="I42" t="s">
+        <v>54</v>
+      </c>
+      <c r="J42" t="s">
+        <v>50</v>
+      </c>
+      <c r="K42" t="s">
+        <v>57</v>
+      </c>
+      <c r="L42" t="s">
+        <v>57</v>
+      </c>
+      <c r="M42" t="s">
+        <v>57</v>
+      </c>
+      <c r="N42" t="s">
+        <v>54</v>
+      </c>
+      <c r="O42" t="s">
+        <v>43</v>
+      </c>
+      <c r="P42" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>54</v>
+      </c>
+      <c r="R42" t="s">
+        <v>57</v>
+      </c>
+      <c r="S42" t="s">
+        <v>54</v>
+      </c>
+      <c r="T42" t="s">
         <v>46</v>
       </c>
-      <c r="F35" t="s">
-        <v>44</v>
-      </c>
-      <c r="G35" t="s">
-        <v>44</v>
-      </c>
-      <c r="H35" t="s">
-        <v>44</v>
-      </c>
-      <c r="I35" t="s">
-        <v>44</v>
-      </c>
-      <c r="J35" t="s">
-        <v>48</v>
-      </c>
-      <c r="K35" t="s">
-        <v>44</v>
-      </c>
-      <c r="L35" t="s">
-        <v>48</v>
-      </c>
-      <c r="M35" t="s">
-        <v>48</v>
-      </c>
-      <c r="N35" t="s">
-        <v>44</v>
-      </c>
-      <c r="O35" t="s">
-        <v>34</v>
-      </c>
-      <c r="P35" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>44</v>
-      </c>
-      <c r="R35" t="s">
-        <v>44</v>
-      </c>
-      <c r="S35" t="s">
-        <v>44</v>
-      </c>
-      <c r="T35" t="s">
-        <v>48</v>
-      </c>
-      <c r="U35" t="s">
-        <v>44</v>
+      <c r="U42" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" t="s">
+        <v>54</v>
+      </c>
+      <c r="E43" t="s">
+        <v>54</v>
+      </c>
+      <c r="F43" t="s">
+        <v>54</v>
+      </c>
+      <c r="G43" t="s">
+        <v>57</v>
+      </c>
+      <c r="H43" t="s">
+        <v>54</v>
+      </c>
+      <c r="I43" t="s">
+        <v>57</v>
+      </c>
+      <c r="J43" t="s">
+        <v>54</v>
+      </c>
+      <c r="K43" t="s">
+        <v>54</v>
+      </c>
+      <c r="L43" t="s">
+        <v>54</v>
+      </c>
+      <c r="M43" t="s">
+        <v>54</v>
+      </c>
+      <c r="N43" t="s">
+        <v>57</v>
+      </c>
+      <c r="O43" t="s">
+        <v>58</v>
+      </c>
+      <c r="P43" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>49</v>
+      </c>
+      <c r="R43" t="s">
+        <v>54</v>
+      </c>
+      <c r="S43" t="s">
+        <v>57</v>
+      </c>
+      <c r="T43" t="s">
+        <v>54</v>
+      </c>
+      <c r="U43" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -3001,7 +3523,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3009,7 +3531,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3017,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3025,7 +3547,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3033,7 +3555,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3041,7 +3563,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3049,7 +3571,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3057,7 +3579,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3065,7 +3587,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3081,7 +3603,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3089,7 +3611,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3097,7 +3619,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3105,7 +3627,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3121,7 +3643,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3129,7 +3651,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3137,7 +3659,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3145,7 +3667,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3169,7 +3691,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3177,7 +3699,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3185,7 +3707,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3193,7 +3715,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3201,7 +3723,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -3217,7 +3739,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3233,7 +3755,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -3241,7 +3763,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3249,7 +3771,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -3257,7 +3779,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -3265,7 +3787,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3273,7 +3795,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3281,6 +3803,70 @@
         <v>33</v>
       </c>
       <c r="B35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43">
         <v>2</v>
       </c>
     </row>
@@ -3299,100 +3885,100 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B2">
-        <v>0.06451612903225806</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B3">
-        <v>0.007672634271099744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B4">
-        <v>0.01900237529691211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B5">
-        <v>0.007177033492822967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B6">
-        <v>0.009732360097323601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B7">
-        <v>0.07052896725440806</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B8">
-        <v>0.02973977695167286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B9">
-        <v>0.008064516129032258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B10">
-        <v>0.0176678445229682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B11">
-        <v>0.03523035230352303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B12">
-        <v>0.007692307692307693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -3400,7 +3986,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3408,7 +3994,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3416,7 +4002,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3424,15 +4010,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B17">
-        <v>0.02735562310030395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3440,7 +4026,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3448,7 +4034,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3456,42 +4042,42 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B21">
-        <v>0.02797202797202797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B22">
-        <v>0.06622516556291391</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B23">
-        <v>0.05405405405405406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B24">
-        <v>0.06578947368421052</v>
+        <v>0.01973684210526316</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B25">
-        <v>0.02962962962962963</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3509,7 +4095,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3517,7 +4103,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.06888361045130641</v>
+        <v>0.002375296912114014</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3525,7 +4111,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.002777777777777778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3533,7 +4119,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.0028328611898017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3541,7 +4127,7 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0.05938242280285035</v>
+        <v>0.002375296912114014</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3549,7 +4135,7 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.005555555555555556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3557,7 +4143,7 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.0113314447592068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3581,7 +4167,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.0665083135391924</v>
+        <v>0.002375296912114014</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3589,7 +4175,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.002777777777777778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3597,7 +4183,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.0084985835694051</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3605,7 +4191,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.003105590062111801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3613,7 +4199,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.003144654088050315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3621,7 +4207,7 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>0.06888361045130641</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3629,7 +4215,7 @@
         <v>23</v>
       </c>
       <c r="B16">
-        <v>0.005555555555555556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3637,7 +4223,7 @@
         <v>24</v>
       </c>
       <c r="B17">
-        <v>0.0028328611898017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3645,7 +4231,7 @@
         <v>25</v>
       </c>
       <c r="B18">
-        <v>0.003105590062111801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3661,7 +4247,7 @@
         <v>29</v>
       </c>
       <c r="B20">
-        <v>0.0498812351543943</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3679,7 +4265,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3687,7 +4273,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3695,7 +4281,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3703,7 +4289,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3711,7 +4297,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3719,7 +4305,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3727,7 +4313,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3735,7 +4321,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3751,7 +4337,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3759,7 +4345,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3767,7 +4353,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3775,7 +4361,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3783,7 +4369,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3791,7 +4377,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3799,7 +4385,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3807,7 +4393,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3823,7 +4409,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3831,7 +4417,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3855,7 +4441,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3863,7 +4449,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3895,7 +4481,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3919,7 +4505,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3927,7 +4513,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -3951,7 +4537,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3960,6 +4546,70 @@
       </c>
       <c r="B35">
         <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3977,79 +4627,79 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:26">
@@ -4057,79 +4707,79 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
         <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>3</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
-      <c r="V2">
-        <v>1</v>
-      </c>
-      <c r="W2">
-        <v>1</v>
-      </c>
-      <c r="X2">
-        <v>2</v>
-      </c>
-      <c r="Y2">
-        <v>1</v>
-      </c>
-      <c r="Z2">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -4197,7 +4847,7 @@
         <v>0</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -4209,7 +4859,7 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -4280,7 +4930,7 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -4289,7 +4939,7 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -4297,34 +4947,34 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -4342,7 +4992,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -4369,7 +5019,7 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -4422,7 +5072,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -4437,7 +5087,7 @@
         <v>0</v>
       </c>
       <c r="V6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -4449,7 +5099,7 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -4475,7 +5125,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -4520,16 +5170,16 @@
         <v>0</v>
       </c>
       <c r="W7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -4697,79 +5347,79 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
         <v>1</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>4</v>
-      </c>
-      <c r="H10">
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
         <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>2</v>
-      </c>
-      <c r="V10">
-        <v>2</v>
-      </c>
-      <c r="W10">
-        <v>2</v>
-      </c>
-      <c r="X10">
-        <v>3</v>
-      </c>
-      <c r="Y10">
-        <v>2</v>
-      </c>
-      <c r="Z10">
-        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -4837,7 +5487,7 @@
         <v>0</v>
       </c>
       <c r="V11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W11">
         <v>0</v>
@@ -4849,7 +5499,7 @@
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -4869,10 +5519,10 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -4929,7 +5579,7 @@
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -4997,7 +5647,7 @@
         <v>0</v>
       </c>
       <c r="V13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W13">
         <v>0</v>
@@ -5009,7 +5659,7 @@
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -5032,7 +5682,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -5089,7 +5739,7 @@
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -5097,37 +5747,37 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -5142,7 +5792,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -5154,22 +5804,22 @@
         <v>0</v>
       </c>
       <c r="U15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -5222,7 +5872,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -5237,7 +5887,7 @@
         <v>0</v>
       </c>
       <c r="V16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16">
         <v>0</v>
@@ -5249,7 +5899,7 @@
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:26">
@@ -5320,7 +5970,7 @@
         <v>0</v>
       </c>
       <c r="W17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X17">
         <v>0</v>
@@ -5329,7 +5979,7 @@
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -5397,7 +6047,7 @@
         <v>0</v>
       </c>
       <c r="V18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W18">
         <v>0</v>
@@ -5409,7 +6059,7 @@
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:26">
@@ -5497,13 +6147,13 @@
         <v>29</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -5512,19 +6162,19 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -5542,7 +6192,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -5563,13 +6213,13 @@
         <v>0</v>
       </c>
       <c r="X20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -5654,82 +6304,82 @@
     </row>
     <row r="22" spans="1:26">
       <c r="A22" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B22">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
         <v>3</v>
       </c>
-      <c r="D22">
-        <v>8</v>
-      </c>
-      <c r="E22">
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
         <v>3</v>
-      </c>
-      <c r="F22">
-        <v>4</v>
-      </c>
-      <c r="G22">
-        <v>28</v>
-      </c>
-      <c r="H22">
-        <v>8</v>
-      </c>
-      <c r="I22">
-        <v>2</v>
-      </c>
-      <c r="J22">
-        <v>5</v>
-      </c>
-      <c r="K22">
-        <v>13</v>
-      </c>
-      <c r="L22">
-        <v>3</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>9</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <v>4</v>
-      </c>
-      <c r="V22">
-        <v>10</v>
-      </c>
-      <c r="W22">
-        <v>8</v>
-      </c>
-      <c r="X22">
-        <v>10</v>
-      </c>
-      <c r="Y22">
-        <v>4</v>
-      </c>
-      <c r="Z22">
-        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -5739,7 +6389,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5767,19 +6417,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5787,19 +6437,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5807,19 +6457,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F4" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5827,19 +6477,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E5" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="F5" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5847,19 +6497,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="E6" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5867,19 +6517,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5887,19 +6537,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D8" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="E8" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5907,19 +6557,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E9" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="F9" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5927,19 +6577,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E10" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="F10" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5947,19 +6597,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C11" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D11" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5967,19 +6617,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="D12" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E12" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="F12" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5987,19 +6637,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D13" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="F13" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -6007,19 +6657,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D14" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E14" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="F14" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -6027,19 +6677,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C15" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D15" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="E15" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="F15" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -6047,19 +6697,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D16" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="E16" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="F16" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6067,19 +6717,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C17" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D17" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F17" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6087,19 +6737,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C18" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D18" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="E18" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="F18" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6107,19 +6757,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D19" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E19" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="F19" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6127,19 +6777,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="C20" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D20" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="F20" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6147,19 +6797,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D21" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="E21" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F21" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -6167,19 +6817,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C22" t="s">
         <v>107</v>
       </c>
       <c r="D22" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="E22" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="F22" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6187,19 +6837,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D23" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="E23" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" t="s">
         <v>90</v>
-      </c>
-      <c r="F23" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6207,19 +6857,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C24" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="D24" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E24" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="F24" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6227,19 +6877,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="C25" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D25" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="E25" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="F25" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6247,19 +6897,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="C26" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E26" t="s">
         <v>91</v>
       </c>
       <c r="F26" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6267,19 +6917,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C27" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D27" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E27" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="F27" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -6287,19 +6937,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C28" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="D28" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E28" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F28" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -6307,19 +6957,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C29" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="D29" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="E29" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="F29" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -6327,19 +6977,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C30" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D30" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E30" t="s">
         <v>94</v>
       </c>
       <c r="F30" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -6347,19 +6997,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C31" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D31" t="s">
+        <v>102</v>
+      </c>
+      <c r="E31" t="s">
         <v>92</v>
       </c>
-      <c r="E31" t="s">
-        <v>90</v>
-      </c>
       <c r="F31" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -6367,19 +7017,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="C32" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D32" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="E32" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="F32" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -6387,19 +7037,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C33" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D33" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="E33" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="F33" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -6407,19 +7057,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="C34" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D34" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="E34" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="F34" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -6427,19 +7077,179 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="C35" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="D35" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E35" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F35" t="s">
-        <v>88</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" t="s">
+        <v>97</v>
+      </c>
+      <c r="E36" t="s">
+        <v>97</v>
+      </c>
+      <c r="F36" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" t="s">
+        <v>104</v>
+      </c>
+      <c r="D37" t="s">
+        <v>103</v>
+      </c>
+      <c r="E37" t="s">
+        <v>103</v>
+      </c>
+      <c r="F37" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" t="s">
+        <v>103</v>
+      </c>
+      <c r="E38" t="s">
+        <v>104</v>
+      </c>
+      <c r="F38" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" t="s">
+        <v>103</v>
+      </c>
+      <c r="E39" t="s">
+        <v>103</v>
+      </c>
+      <c r="F39" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" t="s">
+        <v>104</v>
+      </c>
+      <c r="E40" t="s">
+        <v>103</v>
+      </c>
+      <c r="F40" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41" t="s">
+        <v>103</v>
+      </c>
+      <c r="E41" t="s">
+        <v>103</v>
+      </c>
+      <c r="F41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" t="s">
+        <v>104</v>
+      </c>
+      <c r="F42" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>103</v>
+      </c>
+      <c r="C43" t="s">
+        <v>103</v>
+      </c>
+      <c r="D43" t="s">
+        <v>103</v>
+      </c>
+      <c r="E43" t="s">
+        <v>97</v>
+      </c>
+      <c r="F43" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/alg_schedule_data_2019_4.xlsx
+++ b/alg_schedule_data_2019_4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="117">
   <si>
     <t>Abe</t>
   </si>
@@ -159,45 +159,45 @@
     <t>P3</t>
   </si>
   <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>W6</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>OB</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
     <t>C2</t>
   </si>
   <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>M1</t>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>AS</t>
   </si>
   <si>
     <t>P2</t>
   </si>
   <si>
-    <t>W6</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>OB</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>CD</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>AS</t>
-  </si>
-  <si>
     <t>P4</t>
   </si>
   <si>
@@ -294,73 +294,85 @@
     <t>SUM_per_time</t>
   </si>
   <si>
+    <t>['11:30', '12:00']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:30']</t>
+  </si>
+  <si>
+    <t>['12:00', '12:30']</t>
+  </si>
+  <si>
+    <t>['12:30', '13:30']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:00', '12:30']</t>
+  </si>
+  <si>
+    <t>['13:00']</t>
+  </si>
+  <si>
+    <t>['12:30']</t>
+  </si>
+  <si>
+    <t>['12:00', '13:00']</t>
+  </si>
+  <si>
+    <t>['12:30', '13:00']</t>
+  </si>
+  <si>
+    <t>['11:30', '13:30']</t>
+  </si>
+  <si>
     <t>['12:00']</t>
   </si>
   <si>
-    <t>['11:30', '12:00']</t>
-  </si>
-  <si>
-    <t>['12:30']</t>
-  </si>
-  <si>
-    <t>['12:00', '12:30']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:00', '12:30']</t>
-  </si>
-  <si>
-    <t>['12:00', '13:00']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:30']</t>
-  </si>
-  <si>
-    <t>['13:00']</t>
-  </si>
-  <si>
-    <t>['11:30', '13:30']</t>
+    <t>['13:30']</t>
+  </si>
+  <si>
+    <t>['13:00', '13:30']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['11:30']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:00', '13:30']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:30', '13:00']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:00', '13:00']</t>
+  </si>
+  <si>
+    <t>['11:30', '13:00', '13:30']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:30', '13:00', '13:30']</t>
+  </si>
+  <si>
+    <t>['12:00', '12:30', '13:00']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:00', '13:00', '13:30']</t>
+  </si>
+  <si>
+    <t>['12:30', '13:00', '13:30']</t>
   </si>
   <si>
     <t>['11:30', '12:30', '13:30']</t>
   </si>
   <si>
-    <t>['13:30']</t>
-  </si>
-  <si>
-    <t>['12:30', '13:30']</t>
-  </si>
-  <si>
-    <t>['12:30', '13:00']</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>['11:30']</t>
-  </si>
-  <si>
-    <t>['12:00', '13:30']</t>
-  </si>
-  <si>
-    <t>['11:30', '13:00', '13:30']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:00', '13:30']</t>
-  </si>
-  <si>
-    <t>['13:00', '13:30']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:00', '13:00']</t>
-  </si>
-  <si>
-    <t>['12:30', '13:00', '13:30']</t>
-  </si>
-  <si>
     <t>['11:30', '13:00']</t>
   </si>
   <si>
-    <t>['11:30', '12:30', '13:00']</t>
+    <t>['11:30', '12:00', '12:30', '13:30']</t>
+  </si>
+  <si>
+    <t>['12:00', '12:30', '13:30']</t>
   </si>
 </sst>
 </file>
@@ -794,22 +806,22 @@
         <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
         <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
         <v>44</v>
@@ -818,13 +830,13 @@
         <v>44</v>
       </c>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="M2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N2" t="s">
         <v>44</v>
@@ -833,13 +845,13 @@
         <v>44</v>
       </c>
       <c r="P2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q2" t="s">
         <v>48</v>
       </c>
-      <c r="Q2" t="s">
-        <v>49</v>
-      </c>
       <c r="R2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S2" t="s">
         <v>44</v>
@@ -848,7 +860,7 @@
         <v>44</v>
       </c>
       <c r="U2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -862,58 +874,58 @@
         <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
         <v>47</v>
       </c>
-      <c r="F3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3" t="s">
-        <v>48</v>
-      </c>
-      <c r="L3" t="s">
-        <v>48</v>
-      </c>
       <c r="M3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O3" t="s">
         <v>43</v>
       </c>
       <c r="P3" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="Q3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T3" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="U3" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -924,7 +936,7 @@
         <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
         <v>42</v>
@@ -933,13 +945,13 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I4" t="s">
         <v>44</v>
@@ -951,25 +963,25 @@
         <v>44</v>
       </c>
       <c r="L4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N4" t="s">
         <v>44</v>
       </c>
       <c r="O4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="P4" t="s">
         <v>44</v>
       </c>
       <c r="Q4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R4" t="s">
         <v>50</v>
-      </c>
-      <c r="R4" t="s">
-        <v>42</v>
       </c>
       <c r="S4" t="s">
         <v>44</v>
@@ -989,61 +1001,61 @@
         <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s">
         <v>42</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J5" t="s">
         <v>45</v>
       </c>
       <c r="K5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" t="s">
         <v>53</v>
       </c>
-      <c r="L5" t="s">
-        <v>53</v>
-      </c>
-      <c r="M5" t="s">
-        <v>55</v>
-      </c>
       <c r="N5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O5" t="s">
         <v>45</v>
       </c>
       <c r="P5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="Q5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="R5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="S5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="T5" t="s">
         <v>45</v>
       </c>
       <c r="U5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -1054,7 +1066,7 @@
         <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
         <v>51</v>
@@ -1066,7 +1078,7 @@
         <v>42</v>
       </c>
       <c r="G6" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H6" t="s">
         <v>44</v>
@@ -1081,7 +1093,7 @@
         <v>43</v>
       </c>
       <c r="L6" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M6" t="s">
         <v>44</v>
@@ -1096,7 +1108,7 @@
         <v>43</v>
       </c>
       <c r="Q6" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="R6" t="s">
         <v>44</v>
@@ -1116,19 +1128,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
         <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G7" t="s">
         <v>42</v>
@@ -1152,7 +1164,7 @@
         <v>44</v>
       </c>
       <c r="N7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O7" t="s">
         <v>44</v>
@@ -1161,13 +1173,13 @@
         <v>43</v>
       </c>
       <c r="Q7" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="R7" t="s">
         <v>44</v>
       </c>
       <c r="S7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="T7" t="s">
         <v>44</v>
@@ -1181,13 +1193,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
         <v>43</v>
@@ -1202,43 +1214,43 @@
         <v>42</v>
       </c>
       <c r="I8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" t="s">
         <v>50</v>
-      </c>
-      <c r="J8" t="s">
-        <v>43</v>
       </c>
       <c r="K8" t="s">
         <v>44</v>
       </c>
       <c r="L8" t="s">
+        <v>43</v>
+      </c>
+      <c r="M8" t="s">
+        <v>44</v>
+      </c>
+      <c r="N8" t="s">
         <v>48</v>
       </c>
-      <c r="M8" t="s">
-        <v>43</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>50</v>
-      </c>
-      <c r="O8" t="s">
-        <v>43</v>
       </c>
       <c r="P8" t="s">
         <v>44</v>
       </c>
       <c r="Q8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="R8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="S8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="T8" t="s">
         <v>43</v>
       </c>
       <c r="U8" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1249,22 +1261,22 @@
         <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E9" t="s">
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I9" t="s">
         <v>42</v>
@@ -1276,31 +1288,31 @@
         <v>44</v>
       </c>
       <c r="L9" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="M9" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="N9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="P9" t="s">
         <v>44</v>
       </c>
       <c r="Q9" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="R9" t="s">
+        <v>58</v>
+      </c>
+      <c r="S9" t="s">
+        <v>51</v>
+      </c>
+      <c r="T9" t="s">
         <v>43</v>
-      </c>
-      <c r="S9" t="s">
-        <v>52</v>
-      </c>
-      <c r="T9" t="s">
-        <v>47</v>
       </c>
       <c r="U9" t="s">
         <v>44</v>
@@ -1317,22 +1329,22 @@
         <v>44</v>
       </c>
       <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
         <v>46</v>
-      </c>
-      <c r="E10" t="s">
-        <v>50</v>
       </c>
       <c r="F10" t="s">
         <v>58</v>
       </c>
       <c r="G10" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H10" t="s">
         <v>58</v>
       </c>
       <c r="I10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J10" t="s">
         <v>42</v>
@@ -1341,34 +1353,34 @@
         <v>58</v>
       </c>
       <c r="L10" t="s">
+        <v>54</v>
+      </c>
+      <c r="M10" t="s">
         <v>59</v>
       </c>
-      <c r="M10" t="s">
-        <v>58</v>
-      </c>
       <c r="N10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O10" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P10" t="s">
         <v>58</v>
       </c>
       <c r="Q10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="R10" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="S10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="T10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="U10" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1376,64 +1388,64 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
         <v>43</v>
       </c>
       <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" t="s">
         <v>46</v>
       </c>
-      <c r="E11" t="s">
-        <v>50</v>
-      </c>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" t="s">
         <v>46</v>
       </c>
-      <c r="H11" t="s">
-        <v>44</v>
-      </c>
       <c r="I11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K11" t="s">
         <v>42</v>
       </c>
       <c r="L11" t="s">
+        <v>54</v>
+      </c>
+      <c r="M11" t="s">
         <v>46</v>
       </c>
-      <c r="M11" t="s">
-        <v>44</v>
-      </c>
       <c r="N11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="P11" t="s">
         <v>43</v>
       </c>
       <c r="Q11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R11" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="S11" t="s">
         <v>46</v>
       </c>
       <c r="T11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="U11" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1441,64 +1453,64 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
         <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G12" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="H12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K12" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="L12" t="s">
         <v>42</v>
       </c>
       <c r="M12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P12" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="Q12" t="s">
+        <v>57</v>
+      </c>
+      <c r="R12" t="s">
+        <v>43</v>
+      </c>
+      <c r="S12" t="s">
         <v>48</v>
       </c>
-      <c r="R12" t="s">
-        <v>49</v>
-      </c>
-      <c r="S12" t="s">
-        <v>59</v>
-      </c>
       <c r="T12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="U12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1506,16 +1518,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
         <v>43</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F13" t="s">
         <v>43</v>
@@ -1524,43 +1536,43 @@
         <v>44</v>
       </c>
       <c r="H13" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I13" t="s">
         <v>46</v>
       </c>
       <c r="J13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K13" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="L13" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="M13" t="s">
         <v>42</v>
       </c>
       <c r="N13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="O13" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="P13" t="s">
         <v>43</v>
       </c>
       <c r="Q13" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="R13" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="S13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="U13" t="s">
         <v>43</v>
@@ -1571,46 +1583,46 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
         <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F14" t="s">
         <v>43</v>
       </c>
       <c r="G14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" t="s">
         <v>48</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" t="s">
         <v>46</v>
       </c>
-      <c r="I14" t="s">
-        <v>54</v>
-      </c>
-      <c r="J14" t="s">
-        <v>50</v>
-      </c>
       <c r="K14" t="s">
+        <v>59</v>
+      </c>
+      <c r="L14" t="s">
         <v>44</v>
       </c>
-      <c r="L14" t="s">
-        <v>43</v>
-      </c>
       <c r="M14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="N14" t="s">
         <v>42</v>
       </c>
       <c r="O14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P14" t="s">
         <v>59</v>
@@ -1619,13 +1631,13 @@
         <v>43</v>
       </c>
       <c r="R14" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="S14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="T14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U14" t="s">
         <v>59</v>
@@ -1636,7 +1648,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
         <v>59</v>
@@ -1645,55 +1657,55 @@
         <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F15" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="G15" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H15" t="s">
         <v>59</v>
       </c>
       <c r="I15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M15" t="s">
         <v>59</v>
       </c>
       <c r="N15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O15" t="s">
         <v>42</v>
       </c>
       <c r="P15" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Q15" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="R15" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="S15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="T15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U15" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1701,52 +1713,52 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="I16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="J16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="L16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="M16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="N16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="O16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P16" t="s">
         <v>42</v>
       </c>
       <c r="Q16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="R16" t="s">
         <v>45</v>
@@ -1755,7 +1767,7 @@
         <v>45</v>
       </c>
       <c r="T16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="U16" t="s">
         <v>45</v>
@@ -1766,64 +1778,64 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" t="s">
+        <v>49</v>
+      </c>
+      <c r="J17" t="s">
+        <v>49</v>
+      </c>
+      <c r="K17" t="s">
+        <v>49</v>
+      </c>
+      <c r="L17" t="s">
+        <v>49</v>
+      </c>
+      <c r="M17" t="s">
+        <v>49</v>
+      </c>
+      <c r="N17" t="s">
+        <v>49</v>
+      </c>
+      <c r="O17" t="s">
+        <v>49</v>
+      </c>
+      <c r="P17" t="s">
         <v>45</v>
-      </c>
-      <c r="D17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" t="s">
-        <v>45</v>
-      </c>
-      <c r="I17" t="s">
-        <v>45</v>
-      </c>
-      <c r="J17" t="s">
-        <v>51</v>
-      </c>
-      <c r="K17" t="s">
-        <v>45</v>
-      </c>
-      <c r="L17" t="s">
-        <v>45</v>
-      </c>
-      <c r="M17" t="s">
-        <v>45</v>
-      </c>
-      <c r="N17" t="s">
-        <v>45</v>
-      </c>
-      <c r="O17" t="s">
-        <v>51</v>
-      </c>
-      <c r="P17" t="s">
-        <v>51</v>
       </c>
       <c r="Q17" t="s">
         <v>42</v>
       </c>
       <c r="R17" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="S17" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="T17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="U17" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1831,43 +1843,43 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" t="s">
         <v>43</v>
       </c>
-      <c r="C18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18" t="s">
-        <v>44</v>
-      </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J18" t="s">
         <v>43</v>
       </c>
       <c r="K18" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="L18" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="M18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N18" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O18" t="s">
         <v>43</v>
@@ -1896,64 +1908,64 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
         <v>59</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="E19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F19" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
         <v>51</v>
       </c>
       <c r="I19" t="s">
+        <v>51</v>
+      </c>
+      <c r="J19" t="s">
+        <v>47</v>
+      </c>
+      <c r="K19" t="s">
         <v>59</v>
       </c>
-      <c r="J19" t="s">
-        <v>49</v>
-      </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>46</v>
       </c>
-      <c r="L19" t="s">
-        <v>45</v>
-      </c>
       <c r="M19" t="s">
+        <v>51</v>
+      </c>
+      <c r="N19" t="s">
+        <v>59</v>
+      </c>
+      <c r="O19" t="s">
+        <v>47</v>
+      </c>
+      <c r="P19" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q19" t="s">
         <v>46</v>
       </c>
-      <c r="N19" t="s">
-        <v>46</v>
-      </c>
-      <c r="O19" t="s">
-        <v>46</v>
-      </c>
-      <c r="P19" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>50</v>
-      </c>
       <c r="R19" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="S19" t="s">
         <v>42</v>
       </c>
       <c r="T19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="U19" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1961,7 +1973,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
         <v>43</v>
@@ -1970,49 +1982,49 @@
         <v>54</v>
       </c>
       <c r="E20" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F20" t="s">
         <v>43</v>
       </c>
       <c r="G20" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>46</v>
+      </c>
+      <c r="J20" t="s">
+        <v>51</v>
+      </c>
+      <c r="K20" t="s">
+        <v>43</v>
+      </c>
+      <c r="L20" t="s">
         <v>57</v>
       </c>
-      <c r="H20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I20" t="s">
-        <v>52</v>
-      </c>
-      <c r="J20" t="s">
-        <v>52</v>
-      </c>
-      <c r="K20" t="s">
-        <v>49</v>
-      </c>
-      <c r="L20" t="s">
-        <v>54</v>
-      </c>
       <c r="M20" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="N20" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="O20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P20" t="s">
         <v>43</v>
       </c>
       <c r="Q20" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="R20" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="S20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T20" t="s">
         <v>42</v>
@@ -2026,61 +2038,61 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" t="s">
         <v>43</v>
       </c>
-      <c r="E21" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>60</v>
       </c>
-      <c r="G21" t="s">
-        <v>54</v>
-      </c>
       <c r="H21" t="s">
+        <v>51</v>
+      </c>
+      <c r="I21" t="s">
+        <v>51</v>
+      </c>
+      <c r="J21" t="s">
+        <v>46</v>
+      </c>
+      <c r="K21" t="s">
+        <v>51</v>
+      </c>
+      <c r="L21" t="s">
         <v>43</v>
       </c>
-      <c r="I21" t="s">
+      <c r="M21" t="s">
+        <v>51</v>
+      </c>
+      <c r="N21" t="s">
         <v>46</v>
       </c>
-      <c r="J21" t="s">
-        <v>50</v>
-      </c>
-      <c r="K21" t="s">
+      <c r="O21" t="s">
+        <v>46</v>
+      </c>
+      <c r="P21" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>54</v>
+      </c>
+      <c r="R21" t="s">
         <v>43</v>
       </c>
-      <c r="L21" t="s">
-        <v>54</v>
-      </c>
-      <c r="M21" t="s">
-        <v>52</v>
-      </c>
-      <c r="N21" t="s">
-        <v>52</v>
-      </c>
-      <c r="O21" t="s">
-        <v>50</v>
-      </c>
-      <c r="P21" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>57</v>
-      </c>
-      <c r="R21" t="s">
-        <v>50</v>
-      </c>
       <c r="S21" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="T21" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="U21" t="s">
         <v>42</v>
@@ -2094,61 +2106,61 @@
         <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D22" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G22" t="s">
         <v>43</v>
       </c>
       <c r="H22" t="s">
+        <v>48</v>
+      </c>
+      <c r="I22" t="s">
+        <v>54</v>
+      </c>
+      <c r="J22" t="s">
+        <v>51</v>
+      </c>
+      <c r="K22" t="s">
+        <v>48</v>
+      </c>
+      <c r="L22" t="s">
         <v>60</v>
       </c>
-      <c r="I22" t="s">
-        <v>54</v>
-      </c>
-      <c r="J22" t="s">
-        <v>52</v>
-      </c>
-      <c r="K22" t="s">
-        <v>59</v>
-      </c>
-      <c r="L22" t="s">
-        <v>54</v>
-      </c>
       <c r="M22" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="N22" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="O22" t="s">
+        <v>51</v>
+      </c>
+      <c r="P22" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>54</v>
+      </c>
+      <c r="R22" t="s">
         <v>46</v>
       </c>
-      <c r="P22" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>54</v>
-      </c>
-      <c r="R22" t="s">
-        <v>49</v>
-      </c>
       <c r="S22" t="s">
         <v>54</v>
       </c>
       <c r="T22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -2156,64 +2168,64 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s">
         <v>42</v>
       </c>
       <c r="D23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E23" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F23" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G23" t="s">
         <v>54</v>
       </c>
       <c r="H23" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I23" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J23" t="s">
+        <v>48</v>
+      </c>
+      <c r="K23" t="s">
         <v>46</v>
       </c>
-      <c r="K23" t="s">
-        <v>52</v>
-      </c>
       <c r="L23" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M23" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="N23" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="O23" t="s">
+        <v>48</v>
+      </c>
+      <c r="P23" t="s">
         <v>46</v>
       </c>
-      <c r="P23" t="s">
-        <v>52</v>
-      </c>
       <c r="Q23" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="R23" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="S23" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="T23" t="s">
+        <v>48</v>
+      </c>
+      <c r="U23" t="s">
         <v>46</v>
-      </c>
-      <c r="U23" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -2221,64 +2233,64 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" t="s">
         <v>46</v>
-      </c>
-      <c r="C24" t="s">
-        <v>57</v>
       </c>
       <c r="D24" t="s">
         <v>42</v>
       </c>
       <c r="E24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F24" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="G24" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H24" t="s">
         <v>54</v>
       </c>
       <c r="I24" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J24" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K24" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="L24" t="s">
         <v>54</v>
       </c>
       <c r="M24" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="N24" t="s">
         <v>54</v>
       </c>
       <c r="O24" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="P24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q24" t="s">
         <v>54</v>
       </c>
       <c r="R24" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="S24" t="s">
         <v>54</v>
       </c>
       <c r="T24" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="U24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -2286,22 +2298,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E25" t="s">
         <v>42</v>
       </c>
       <c r="F25" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H25" t="s">
         <v>54</v>
@@ -2310,13 +2322,13 @@
         <v>43</v>
       </c>
       <c r="J25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L25" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="M25" t="s">
         <v>54</v>
@@ -2325,13 +2337,13 @@
         <v>43</v>
       </c>
       <c r="O25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P25" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q25" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="R25" t="s">
         <v>54</v>
@@ -2340,7 +2352,7 @@
         <v>43</v>
       </c>
       <c r="T25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U25" t="s">
         <v>43</v>
@@ -2351,64 +2363,64 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D26" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F26" t="s">
         <v>42</v>
       </c>
       <c r="G26" t="s">
+        <v>48</v>
+      </c>
+      <c r="H26" t="s">
         <v>43</v>
       </c>
-      <c r="H26" t="s">
-        <v>54</v>
-      </c>
       <c r="I26" t="s">
         <v>54</v>
       </c>
       <c r="J26" t="s">
+        <v>48</v>
+      </c>
+      <c r="K26" t="s">
+        <v>48</v>
+      </c>
+      <c r="L26" t="s">
+        <v>48</v>
+      </c>
+      <c r="M26" t="s">
+        <v>43</v>
+      </c>
+      <c r="N26" t="s">
+        <v>54</v>
+      </c>
+      <c r="O26" t="s">
+        <v>48</v>
+      </c>
+      <c r="P26" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>48</v>
+      </c>
+      <c r="R26" t="s">
+        <v>43</v>
+      </c>
+      <c r="S26" t="s">
+        <v>54</v>
+      </c>
+      <c r="T26" t="s">
+        <v>48</v>
+      </c>
+      <c r="U26" t="s">
         <v>46</v>
-      </c>
-      <c r="K26" t="s">
-        <v>54</v>
-      </c>
-      <c r="L26" t="s">
-        <v>43</v>
-      </c>
-      <c r="M26" t="s">
-        <v>54</v>
-      </c>
-      <c r="N26" t="s">
-        <v>54</v>
-      </c>
-      <c r="O26" t="s">
-        <v>46</v>
-      </c>
-      <c r="P26" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>43</v>
-      </c>
-      <c r="R26" t="s">
-        <v>54</v>
-      </c>
-      <c r="S26" t="s">
-        <v>57</v>
-      </c>
-      <c r="T26" t="s">
-        <v>46</v>
-      </c>
-      <c r="U26" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2416,61 +2428,61 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E27" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G27" t="s">
         <v>42</v>
       </c>
       <c r="H27" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I27" t="s">
         <v>43</v>
       </c>
       <c r="J27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K27" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L27" t="s">
+        <v>51</v>
+      </c>
+      <c r="M27" t="s">
+        <v>56</v>
+      </c>
+      <c r="N27" t="s">
+        <v>43</v>
+      </c>
+      <c r="O27" t="s">
+        <v>51</v>
+      </c>
+      <c r="P27" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>51</v>
+      </c>
+      <c r="R27" t="s">
+        <v>56</v>
+      </c>
+      <c r="S27" t="s">
         <v>50</v>
       </c>
-      <c r="M27" t="s">
-        <v>57</v>
-      </c>
-      <c r="N27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O27" t="s">
-        <v>52</v>
-      </c>
-      <c r="P27" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>52</v>
-      </c>
-      <c r="R27" t="s">
-        <v>54</v>
-      </c>
-      <c r="S27" t="s">
-        <v>49</v>
-      </c>
       <c r="T27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U27" t="s">
         <v>54</v>
@@ -2481,19 +2493,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D28" t="s">
         <v>54</v>
       </c>
       <c r="E28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G28" t="s">
         <v>54</v>
@@ -2502,43 +2514,43 @@
         <v>42</v>
       </c>
       <c r="I28" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J28" t="s">
+        <v>46</v>
+      </c>
+      <c r="K28" t="s">
+        <v>47</v>
+      </c>
+      <c r="L28" t="s">
+        <v>54</v>
+      </c>
+      <c r="M28" t="s">
+        <v>54</v>
+      </c>
+      <c r="N28" t="s">
+        <v>56</v>
+      </c>
+      <c r="O28" t="s">
+        <v>46</v>
+      </c>
+      <c r="P28" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>54</v>
+      </c>
+      <c r="R28" t="s">
+        <v>54</v>
+      </c>
+      <c r="S28" t="s">
+        <v>56</v>
+      </c>
+      <c r="T28" t="s">
+        <v>46</v>
+      </c>
+      <c r="U28" t="s">
         <v>50</v>
-      </c>
-      <c r="K28" t="s">
-        <v>49</v>
-      </c>
-      <c r="L28" t="s">
-        <v>54</v>
-      </c>
-      <c r="M28" t="s">
-        <v>54</v>
-      </c>
-      <c r="N28" t="s">
-        <v>57</v>
-      </c>
-      <c r="O28" t="s">
-        <v>50</v>
-      </c>
-      <c r="P28" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>54</v>
-      </c>
-      <c r="R28" t="s">
-        <v>57</v>
-      </c>
-      <c r="S28" t="s">
-        <v>54</v>
-      </c>
-      <c r="T28" t="s">
-        <v>50</v>
-      </c>
-      <c r="U28" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2546,64 +2558,64 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C29" t="s">
         <v>54</v>
       </c>
       <c r="D29" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F29" t="s">
         <v>54</v>
       </c>
       <c r="G29" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="I29" t="s">
         <v>42</v>
       </c>
       <c r="J29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K29" t="s">
         <v>54</v>
       </c>
       <c r="L29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P29" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="Q29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="S29" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="T29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2611,58 +2623,58 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F30" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H30" t="s">
         <v>54</v>
       </c>
       <c r="I30" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J30" t="s">
         <v>42</v>
       </c>
       <c r="K30" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L30" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="M30" t="s">
         <v>54</v>
       </c>
       <c r="N30" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="O30" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="P30" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q30" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="R30" t="s">
         <v>54</v>
       </c>
       <c r="S30" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="T30" t="s">
         <v>54</v>
@@ -2676,64 +2688,64 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E31" t="s">
         <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K31" t="s">
         <v>42</v>
       </c>
       <c r="L31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R31" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="S31" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="T31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U31" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2741,40 +2753,40 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C32" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D32" t="s">
         <v>59</v>
       </c>
       <c r="E32" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F32" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="G32" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="H32" t="s">
         <v>54</v>
       </c>
       <c r="I32" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J32" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K32" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="L32" t="s">
         <v>42</v>
       </c>
       <c r="M32" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="N32" t="s">
         <v>54</v>
@@ -2783,16 +2795,16 @@
         <v>54</v>
       </c>
       <c r="P32" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="Q32" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="R32" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="S32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="T32" t="s">
         <v>54</v>
@@ -2806,64 +2818,64 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M33" t="s">
         <v>42</v>
       </c>
       <c r="N33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="R33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="S33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="U33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2874,37 +2886,37 @@
         <v>54</v>
       </c>
       <c r="C34" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E34" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F34" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G34" t="s">
         <v>54</v>
       </c>
       <c r="H34" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J34" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K34" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L34" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M34" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="N34" t="s">
         <v>42</v>
@@ -2913,13 +2925,13 @@
         <v>54</v>
       </c>
       <c r="P34" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q34" t="s">
         <v>54</v>
       </c>
       <c r="R34" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="S34" t="s">
         <v>54</v>
@@ -2928,7 +2940,7 @@
         <v>54</v>
       </c>
       <c r="U34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2939,7 +2951,7 @@
         <v>54</v>
       </c>
       <c r="C35" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D35" t="s">
         <v>43</v>
@@ -2948,16 +2960,16 @@
         <v>54</v>
       </c>
       <c r="F35" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G35" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="H35" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J35" t="s">
         <v>54</v>
@@ -2966,13 +2978,13 @@
         <v>54</v>
       </c>
       <c r="L35" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="M35" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="N35" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="O35" t="s">
         <v>42</v>
@@ -2981,13 +2993,13 @@
         <v>54</v>
       </c>
       <c r="Q35" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="R35" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="S35" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T35" t="s">
         <v>54</v>
@@ -3001,64 +3013,64 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" t="s">
         <v>56</v>
       </c>
-      <c r="C36" t="s">
-        <v>54</v>
-      </c>
-      <c r="D36" t="s">
-        <v>54</v>
-      </c>
       <c r="E36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F36" t="s">
         <v>54</v>
       </c>
       <c r="G36" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H36" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I36" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="J36" t="s">
+        <v>55</v>
+      </c>
+      <c r="K36" t="s">
+        <v>55</v>
+      </c>
+      <c r="L36" t="s">
         <v>56</v>
       </c>
-      <c r="K36" t="s">
+      <c r="M36" t="s">
+        <v>55</v>
+      </c>
+      <c r="N36" t="s">
         <v>56</v>
       </c>
-      <c r="L36" t="s">
-        <v>54</v>
-      </c>
-      <c r="M36" t="s">
-        <v>56</v>
-      </c>
-      <c r="N36" t="s">
-        <v>54</v>
-      </c>
       <c r="O36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P36" t="s">
         <v>42</v>
       </c>
       <c r="Q36" t="s">
+        <v>55</v>
+      </c>
+      <c r="R36" t="s">
         <v>56</v>
       </c>
-      <c r="R36" t="s">
-        <v>54</v>
-      </c>
       <c r="S36" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="T36" t="s">
+        <v>55</v>
+      </c>
+      <c r="U36" t="s">
         <v>56</v>
-      </c>
-      <c r="U36" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:21">
@@ -3069,58 +3081,58 @@
         <v>54</v>
       </c>
       <c r="C37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" t="s">
+        <v>54</v>
+      </c>
+      <c r="F37" t="s">
+        <v>50</v>
+      </c>
+      <c r="G37" t="s">
+        <v>54</v>
+      </c>
+      <c r="H37" t="s">
+        <v>54</v>
+      </c>
+      <c r="I37" t="s">
+        <v>54</v>
+      </c>
+      <c r="J37" t="s">
+        <v>48</v>
+      </c>
+      <c r="K37" t="s">
         <v>47</v>
       </c>
-      <c r="D37" t="s">
-        <v>57</v>
-      </c>
-      <c r="E37" t="s">
-        <v>54</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="L37" t="s">
+        <v>54</v>
+      </c>
+      <c r="M37" t="s">
+        <v>56</v>
+      </c>
+      <c r="N37" t="s">
+        <v>54</v>
+      </c>
+      <c r="O37" t="s">
+        <v>54</v>
+      </c>
+      <c r="P37" t="s">
         <v>47</v>
-      </c>
-      <c r="G37" t="s">
-        <v>57</v>
-      </c>
-      <c r="H37" t="s">
-        <v>57</v>
-      </c>
-      <c r="I37" t="s">
-        <v>57</v>
-      </c>
-      <c r="J37" t="s">
-        <v>54</v>
-      </c>
-      <c r="K37" t="s">
-        <v>54</v>
-      </c>
-      <c r="L37" t="s">
-        <v>57</v>
-      </c>
-      <c r="M37" t="s">
-        <v>49</v>
-      </c>
-      <c r="N37" t="s">
-        <v>57</v>
-      </c>
-      <c r="O37" t="s">
-        <v>54</v>
-      </c>
-      <c r="P37" t="s">
-        <v>54</v>
       </c>
       <c r="Q37" t="s">
         <v>42</v>
       </c>
       <c r="R37" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="S37" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T37" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="U37" t="s">
         <v>54</v>
@@ -3131,49 +3143,49 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C38" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D38" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F38" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G38" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I38" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J38" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K38" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L38" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="M38" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="N38" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O38" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P38" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="Q38" t="s">
         <v>47</v>
@@ -3182,13 +3194,13 @@
         <v>42</v>
       </c>
       <c r="S38" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="T38" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="U38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:21">
@@ -3196,61 +3208,61 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C39" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D39" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E39" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F39" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H39" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I39" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J39" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K39" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L39" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M39" t="s">
         <v>54</v>
       </c>
       <c r="N39" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="O39" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P39" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R39" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="S39" t="s">
         <v>42</v>
       </c>
       <c r="T39" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="U39" t="s">
         <v>54</v>
@@ -3261,64 +3273,64 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C40" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D40" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E40" t="s">
         <v>54</v>
       </c>
       <c r="F40" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G40" t="s">
         <v>54</v>
       </c>
       <c r="H40" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I40" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="J40" t="s">
         <v>54</v>
       </c>
       <c r="K40" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L40" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="M40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N40" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="O40" t="s">
         <v>54</v>
       </c>
       <c r="P40" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="Q40" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="R40" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="S40" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="T40" t="s">
         <v>42</v>
       </c>
       <c r="U40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:21">
@@ -3329,7 +3341,7 @@
         <v>54</v>
       </c>
       <c r="C41" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D41" t="s">
         <v>54</v>
@@ -3338,49 +3350,49 @@
         <v>54</v>
       </c>
       <c r="F41" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H41" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I41" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J41" t="s">
         <v>54</v>
       </c>
       <c r="K41" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L41" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M41" t="s">
         <v>54</v>
       </c>
       <c r="N41" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="O41" t="s">
         <v>54</v>
       </c>
       <c r="P41" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q41" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="R41" t="s">
         <v>54</v>
       </c>
       <c r="S41" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="T41" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="U41" t="s">
         <v>42</v>
@@ -3394,58 +3406,58 @@
         <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F42" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G42" t="s">
         <v>54</v>
       </c>
       <c r="H42" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I42" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J42" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K42" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L42" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N42" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O42" t="s">
+        <v>48</v>
+      </c>
+      <c r="P42" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>54</v>
+      </c>
+      <c r="R42" t="s">
+        <v>56</v>
+      </c>
+      <c r="S42" t="s">
+        <v>56</v>
+      </c>
+      <c r="T42" t="s">
         <v>43</v>
-      </c>
-      <c r="P42" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>54</v>
-      </c>
-      <c r="R42" t="s">
-        <v>57</v>
-      </c>
-      <c r="S42" t="s">
-        <v>54</v>
-      </c>
-      <c r="T42" t="s">
-        <v>46</v>
       </c>
       <c r="U42" t="s">
         <v>54</v>
@@ -3456,7 +3468,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C43" t="s">
         <v>42</v>
@@ -3468,52 +3480,52 @@
         <v>54</v>
       </c>
       <c r="F43" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G43" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H43" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J43" t="s">
         <v>54</v>
       </c>
       <c r="K43" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L43" t="s">
         <v>54</v>
       </c>
       <c r="M43" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="N43" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="O43" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="P43" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q43" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="R43" t="s">
         <v>54</v>
       </c>
       <c r="S43" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="T43" t="s">
         <v>54</v>
       </c>
       <c r="U43" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -3571,7 +3583,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3603,7 +3615,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3611,7 +3623,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3619,7 +3631,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3635,7 +3647,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3643,7 +3655,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3691,7 +3703,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3699,7 +3711,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3715,7 +3727,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3755,7 +3767,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -3779,7 +3791,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -3795,7 +3807,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3819,7 +3831,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -3835,7 +3847,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -3843,7 +3855,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3851,7 +3863,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -3859,7 +3871,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -3867,7 +3879,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -3893,7 +3905,7 @@
         <v>63</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.002304147465437788</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3957,7 +3969,7 @@
         <v>71</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.007067137809187279</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3965,7 +3977,7 @@
         <v>72</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.008130081300813009</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4013,7 +4025,7 @@
         <v>78</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.00911854103343465</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4029,7 +4041,7 @@
         <v>80</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>0.01333333333333333</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4053,7 +4065,7 @@
         <v>83</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.03311258278145696</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4061,7 +4073,7 @@
         <v>84</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.02702702702702703</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -4069,7 +4081,7 @@
         <v>85</v>
       </c>
       <c r="B24">
-        <v>0.01973684210526316</v>
+        <v>0.02631578947368421</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -4103,7 +4115,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.002375296912114014</v>
+        <v>0.007125890736342043</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4111,7 +4123,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.002777777777777778</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4119,7 +4131,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.0084985835694051</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4127,7 +4139,7 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0.002375296912114014</v>
+        <v>0.004750593824228029</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4135,7 +4147,7 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.002777777777777778</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4143,7 +4155,7 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.0028328611898017</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4175,7 +4187,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.002777777777777778</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4183,7 +4195,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>0.0056657223796034</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4207,7 +4219,7 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.007125890736342043</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4215,7 +4227,7 @@
         <v>23</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>0.002777777777777778</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4223,7 +4235,7 @@
         <v>24</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.0056657223796034</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4231,7 +4243,7 @@
         <v>25</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.003105590062111801</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4247,7 +4259,7 @@
         <v>29</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>0.007125890736342043</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4281,7 +4293,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4289,7 +4301,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4313,7 +4325,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4337,7 +4349,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4345,7 +4357,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4353,7 +4365,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4385,7 +4397,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4409,7 +4421,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4425,7 +4437,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4441,7 +4453,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4449,7 +4461,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -4457,7 +4469,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -4497,7 +4509,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -4505,7 +4517,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -4585,7 +4597,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -4609,7 +4621,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4707,7 +4719,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -4734,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -4779,7 +4791,7 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -4847,7 +4859,7 @@
         <v>0</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -4859,7 +4871,7 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -4891,7 +4903,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -4918,7 +4930,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4930,7 +4942,7 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -4939,7 +4951,7 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -4971,7 +4983,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -5019,7 +5031,7 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -5087,7 +5099,7 @@
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -5099,7 +5111,7 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -5170,7 +5182,7 @@
         <v>0</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7">
         <v>0</v>
@@ -5179,7 +5191,7 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -5487,7 +5499,7 @@
         <v>0</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11">
         <v>0</v>
@@ -5499,7 +5511,7 @@
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -5558,7 +5570,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -5570,7 +5582,7 @@
         <v>0</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12">
         <v>0</v>
@@ -5579,7 +5591,7 @@
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -5774,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -5792,7 +5804,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -5813,13 +5825,13 @@
         <v>0</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -5887,7 +5899,7 @@
         <v>0</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W16">
         <v>0</v>
@@ -5899,7 +5911,7 @@
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:26">
@@ -5958,7 +5970,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -5970,7 +5982,7 @@
         <v>0</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X17">
         <v>0</v>
@@ -5979,7 +5991,7 @@
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -6047,7 +6059,7 @@
         <v>0</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18">
         <v>0</v>
@@ -6059,7 +6071,7 @@
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:26">
@@ -6174,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -6192,7 +6204,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -6219,7 +6231,7 @@
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -6307,7 +6319,7 @@
         <v>89</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -6331,10 +6343,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -6352,13 +6364,13 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R22">
         <v>0</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T22">
         <v>0</v>
@@ -6367,19 +6379,19 @@
         <v>0</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -6423,13 +6435,13 @@
         <v>92</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -6437,19 +6449,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F3" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -6457,19 +6469,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" t="s">
         <v>96</v>
-      </c>
-      <c r="D4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F4" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -6477,19 +6489,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" t="s">
         <v>92</v>
       </c>
-      <c r="D5" t="s">
-        <v>93</v>
-      </c>
       <c r="E5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6497,19 +6509,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D6" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6520,16 +6532,16 @@
         <v>91</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E7" t="s">
         <v>94</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6540,16 +6552,16 @@
         <v>91</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D8" t="s">
         <v>94</v>
       </c>
       <c r="E8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -6557,19 +6569,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" t="s">
         <v>94</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F9" t="s">
         <v>91</v>
-      </c>
-      <c r="D9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E9" t="s">
-        <v>99</v>
-      </c>
-      <c r="F9" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -6577,19 +6589,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E10" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -6597,19 +6609,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C11" t="s">
         <v>93</v>
       </c>
       <c r="D11" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E11" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="F11" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -6626,10 +6638,10 @@
         <v>90</v>
       </c>
       <c r="E12" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F12" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -6637,19 +6649,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" t="s">
         <v>94</v>
       </c>
-      <c r="D13" t="s">
-        <v>93</v>
-      </c>
       <c r="E13" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="F13" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -6660,16 +6672,16 @@
         <v>96</v>
       </c>
       <c r="C14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D14" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="E14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F14" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -6677,19 +6689,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C15" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D15" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="E15" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="F15" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -6697,19 +6709,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C16" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D16" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E16" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F16" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6717,19 +6729,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D17" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E17" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F17" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6737,19 +6749,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="D18" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E18" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F18" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6757,19 +6769,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D19" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="E19" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="F19" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6777,16 +6789,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" t="s">
+        <v>105</v>
+      </c>
+      <c r="E20" t="s">
         <v>99</v>
-      </c>
-      <c r="D20" t="s">
-        <v>100</v>
-      </c>
-      <c r="E20" t="s">
-        <v>107</v>
       </c>
       <c r="F20" t="s">
         <v>104</v>
@@ -6797,19 +6809,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" t="s">
         <v>99</v>
       </c>
-      <c r="C21" t="s">
-        <v>107</v>
-      </c>
       <c r="D21" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="E21" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="F21" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -6817,19 +6829,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D22" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E22" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F22" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6837,19 +6849,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" t="s">
         <v>92</v>
       </c>
-      <c r="D23" t="s">
-        <v>107</v>
-      </c>
       <c r="E23" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="F23" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6857,19 +6869,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C24" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D24" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E24" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="F24" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6877,19 +6889,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C25" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D25" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E25" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F25" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6897,19 +6909,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C26" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F26" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6917,19 +6929,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" t="s">
         <v>90</v>
-      </c>
-      <c r="C27" t="s">
-        <v>91</v>
       </c>
       <c r="D27" t="s">
         <v>99</v>
       </c>
       <c r="E27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F27" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -6937,19 +6949,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D28" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E28" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F28" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -6957,19 +6969,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C29" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D29" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E29" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F29" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -6977,16 +6989,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C30" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D30" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E30" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="F30" t="s">
         <v>103</v>
@@ -6997,19 +7009,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C31" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D31" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E31" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F31" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7017,13 +7029,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C32" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D32" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E32" t="s">
         <v>103</v>
@@ -7037,19 +7049,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C33" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D33" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E33" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F33" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7080,13 +7092,13 @@
         <v>104</v>
       </c>
       <c r="C35" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D35" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E35" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F35" t="s">
         <v>103</v>
@@ -7097,19 +7109,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C36" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D36" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E36" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F36" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7123,7 +7135,7 @@
         <v>104</v>
       </c>
       <c r="D37" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E37" t="s">
         <v>103</v>
@@ -7140,13 +7152,13 @@
         <v>103</v>
       </c>
       <c r="C38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D38" t="s">
         <v>103</v>
       </c>
       <c r="E38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F38" t="s">
         <v>103</v>
@@ -7157,7 +7169,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C39" t="s">
         <v>103</v>
@@ -7177,13 +7189,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="C40" t="s">
         <v>103</v>
       </c>
       <c r="D40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E40" t="s">
         <v>103</v>
@@ -7200,7 +7212,7 @@
         <v>103</v>
       </c>
       <c r="C41" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D41" t="s">
         <v>103</v>
@@ -7209,7 +7221,7 @@
         <v>103</v>
       </c>
       <c r="F41" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7223,13 +7235,13 @@
         <v>103</v>
       </c>
       <c r="D42" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="E42" t="s">
+        <v>100</v>
+      </c>
+      <c r="F42" t="s">
         <v>104</v>
-      </c>
-      <c r="F42" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7246,7 +7258,7 @@
         <v>103</v>
       </c>
       <c r="E43" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="F43" t="s">
         <v>103</v>

--- a/alg_schedule_data_2019_4.xlsx
+++ b/alg_schedule_data_2019_4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="108">
   <si>
     <t>Abe</t>
   </si>
@@ -153,60 +153,60 @@
     <t>O</t>
   </si>
   <si>
+    <t>W6</t>
+  </si>
+  <si>
     <t>N1</t>
   </si>
   <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>OB</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
     <t>P3</t>
   </si>
   <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>W6</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>OB</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>CD</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>AS</t>
-  </si>
-  <si>
-    <t>P2</t>
-  </si>
-  <si>
     <t>P4</t>
   </si>
   <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>P5</t>
-  </si>
-  <si>
     <t>NightWork_count</t>
   </si>
   <si>
@@ -294,85 +294,58 @@
     <t>SUM_per_time</t>
   </si>
   <si>
+    <t>['11:30']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>['11:30', '12:00']</t>
   </si>
   <si>
+    <t>['12:00']</t>
+  </si>
+  <si>
+    <t>['11:30', '13:30']</t>
+  </si>
+  <si>
+    <t>['12:30']</t>
+  </si>
+  <si>
+    <t>['12:00', '12:30']</t>
+  </si>
+  <si>
+    <t>['12:30', '13:00']</t>
+  </si>
+  <si>
+    <t>['13:00']</t>
+  </si>
+  <si>
+    <t>['12:00', '12:30', '13:00']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:00', '12:30']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:30', '13:30']</t>
+  </si>
+  <si>
+    <t>['11:30', '13:00']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:30', '13:00']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:00', '12:30', '13:00']</t>
+  </si>
+  <si>
     <t>['11:30', '12:30']</t>
   </si>
   <si>
-    <t>['12:00', '12:30']</t>
-  </si>
-  <si>
-    <t>['12:30', '13:30']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:00', '12:30']</t>
-  </si>
-  <si>
-    <t>['13:00']</t>
-  </si>
-  <si>
-    <t>['12:30']</t>
-  </si>
-  <si>
-    <t>['12:00', '13:00']</t>
-  </si>
-  <si>
-    <t>['12:30', '13:00']</t>
-  </si>
-  <si>
-    <t>['11:30', '13:30']</t>
-  </si>
-  <si>
-    <t>['12:00']</t>
-  </si>
-  <si>
     <t>['13:30']</t>
   </si>
   <si>
-    <t>['13:00', '13:30']</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>['11:30']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:00', '13:30']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:30', '13:00']</t>
-  </si>
-  <si>
     <t>['11:30', '12:00', '13:00']</t>
-  </si>
-  <si>
-    <t>['11:30', '13:00', '13:30']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:30', '13:00', '13:30']</t>
-  </si>
-  <si>
-    <t>['12:00', '12:30', '13:00']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:00', '13:00', '13:30']</t>
-  </si>
-  <si>
-    <t>['12:30', '13:00', '13:30']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:30', '13:30']</t>
-  </si>
-  <si>
-    <t>['11:30', '13:00']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:00', '12:30', '13:30']</t>
-  </si>
-  <si>
-    <t>['12:00', '12:30', '13:30']</t>
   </si>
 </sst>
 </file>
@@ -806,61 +779,61 @@
         <v>42</v>
       </c>
       <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" t="s">
         <v>57</v>
       </c>
-      <c r="D2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" t="s">
         <v>57</v>
       </c>
-      <c r="G2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q2" t="s">
         <v>57</v>
       </c>
-      <c r="L2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O2" t="s">
-        <v>44</v>
-      </c>
-      <c r="P2" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>48</v>
-      </c>
       <c r="R2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
         <v>44</v>
       </c>
       <c r="U2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -874,58 +847,58 @@
         <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="L3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" t="s">
         <v>47</v>
       </c>
-      <c r="M3" t="s">
-        <v>44</v>
-      </c>
-      <c r="N3" t="s">
-        <v>44</v>
-      </c>
-      <c r="O3" t="s">
-        <v>43</v>
-      </c>
       <c r="P3" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="U3" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -936,7 +909,7 @@
         <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
         <v>42</v>
@@ -945,49 +918,49 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L4" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="M4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="P4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q4" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="R4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="S4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="U4" t="s">
         <v>44</v>
@@ -1001,61 +974,61 @@
         <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
         <v>42</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="J5" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="K5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="N5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="O5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="P5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T5" t="s">
         <v>45</v>
       </c>
       <c r="U5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -1063,13 +1036,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
         <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E6" t="s">
         <v>44</v>
@@ -1078,49 +1051,49 @@
         <v>42</v>
       </c>
       <c r="G6" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J6" t="s">
         <v>44</v>
       </c>
       <c r="K6" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="L6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M6" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="N6" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="O6" t="s">
         <v>44</v>
       </c>
       <c r="P6" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="Q6" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="R6" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="S6" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="T6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="U6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -1128,61 +1101,61 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G7" t="s">
         <v>42</v>
       </c>
       <c r="H7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="L7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M7" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="N7" t="s">
         <v>46</v>
       </c>
       <c r="O7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="P7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q7" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="T7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="U7" t="s">
         <v>44</v>
@@ -1193,19 +1166,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
         <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G8" t="s">
         <v>43</v>
@@ -1214,43 +1187,43 @@
         <v>42</v>
       </c>
       <c r="I8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N8" t="s">
+        <v>46</v>
+      </c>
+      <c r="O8" t="s">
+        <v>44</v>
+      </c>
+      <c r="P8" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>47</v>
+      </c>
+      <c r="R8" t="s">
+        <v>46</v>
+      </c>
+      <c r="S8" t="s">
         <v>50</v>
       </c>
-      <c r="K8" t="s">
-        <v>44</v>
-      </c>
-      <c r="L8" t="s">
-        <v>43</v>
-      </c>
-      <c r="M8" t="s">
-        <v>44</v>
-      </c>
-      <c r="N8" t="s">
-        <v>48</v>
-      </c>
-      <c r="O8" t="s">
-        <v>50</v>
-      </c>
-      <c r="P8" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>43</v>
-      </c>
-      <c r="R8" t="s">
-        <v>44</v>
-      </c>
-      <c r="S8" t="s">
-        <v>46</v>
-      </c>
       <c r="T8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U8" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1258,25 +1231,25 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" t="s">
         <v>43</v>
       </c>
-      <c r="C9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" t="s">
-        <v>47</v>
-      </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I9" t="s">
         <v>42</v>
@@ -1285,37 +1258,37 @@
         <v>43</v>
       </c>
       <c r="K9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L9" t="s">
+        <v>43</v>
+      </c>
+      <c r="M9" t="s">
+        <v>46</v>
+      </c>
+      <c r="N9" t="s">
         <v>50</v>
       </c>
-      <c r="M9" t="s">
-        <v>58</v>
-      </c>
-      <c r="N9" t="s">
-        <v>51</v>
-      </c>
       <c r="O9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q9" t="s">
+        <v>44</v>
+      </c>
+      <c r="R9" t="s">
+        <v>46</v>
+      </c>
+      <c r="S9" t="s">
         <v>50</v>
       </c>
-      <c r="R9" t="s">
-        <v>58</v>
-      </c>
-      <c r="S9" t="s">
-        <v>51</v>
-      </c>
       <c r="T9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="U9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1323,25 +1296,25 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
         <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="G10" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I10" t="s">
         <v>47</v>
@@ -1350,37 +1323,37 @@
         <v>42</v>
       </c>
       <c r="K10" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="L10" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="M10" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="N10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="O10" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="P10" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="Q10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="R10" t="s">
         <v>46</v>
       </c>
       <c r="S10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="T10" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="U10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1388,64 +1361,64 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G11" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I11" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J11" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K11" t="s">
         <v>42</v>
       </c>
       <c r="L11" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="M11" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="N11" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="O11" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="P11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="R11" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="S11" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="T11" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="U11" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1453,64 +1426,64 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="E12" t="s">
         <v>47</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="G12" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K12" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="L12" t="s">
         <v>42</v>
       </c>
       <c r="M12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N12" t="s">
         <v>50</v>
       </c>
-      <c r="N12" t="s">
-        <v>48</v>
-      </c>
       <c r="O12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="P12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q12" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R12" t="s">
         <v>43</v>
       </c>
       <c r="S12" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="T12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="U12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1518,64 +1491,64 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G13" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H13" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="I13" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J13" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L13" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="M13" t="s">
         <v>42</v>
       </c>
       <c r="N13" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="O13" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="P13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="R13" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="S13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T13" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="U13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1583,64 +1556,64 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="I14" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J14" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K14" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="L14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M14" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="N14" t="s">
         <v>42</v>
       </c>
       <c r="O14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P14" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="Q14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="R14" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="S14" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="T14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U14" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1648,64 +1621,64 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" t="s">
         <v>59</v>
       </c>
-      <c r="D15" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" t="s">
-        <v>54</v>
-      </c>
       <c r="H15" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="I15" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L15" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="M15" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="N15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O15" t="s">
         <v>42</v>
       </c>
       <c r="P15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q15" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="R15" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="S15" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="T15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U15" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1713,64 +1686,64 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F16" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H16" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="I16" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K16" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="L16" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="M16" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="N16" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="O16" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="P16" t="s">
         <v>42</v>
       </c>
       <c r="Q16" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="R16" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="S16" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="T16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="U16" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1778,64 +1751,64 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F17" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G17" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H17" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I17" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K17" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="L17" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="M17" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="N17" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="O17" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="P17" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="Q17" t="s">
         <v>42</v>
       </c>
       <c r="R17" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="S17" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="T17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="U17" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1843,49 +1816,49 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
         <v>50</v>
       </c>
-      <c r="C18" t="s">
-        <v>48</v>
-      </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E18" t="s">
         <v>50</v>
       </c>
       <c r="F18" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G18" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I18" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K18" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M18" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="N18" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="O18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P18" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="Q18" t="s">
         <v>43</v>
@@ -1894,13 +1867,13 @@
         <v>42</v>
       </c>
       <c r="S18" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="T18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U18" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1908,64 +1881,64 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="H19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J19" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="L19" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="M19" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="N19" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="O19" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="P19" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="Q19" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="R19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S19" t="s">
         <v>42</v>
       </c>
       <c r="T19" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="U19" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1973,64 +1946,64 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E20" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G20" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="I20" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="J20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L20" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M20" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="N20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P20" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="Q20" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="R20" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="S20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="T20" t="s">
         <v>42</v>
       </c>
       <c r="U20" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -2038,61 +2011,61 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G21" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J21" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="K21" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="L21" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="M21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N21" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="O21" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="P21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R21" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="S21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="T21" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="U21" t="s">
         <v>42</v>
@@ -2106,61 +2079,61 @@
         <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E22" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F22" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G22" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="I22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K22" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="L22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M22" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="N22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q22" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="R22" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="S22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -2168,64 +2141,64 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
         <v>42</v>
       </c>
       <c r="D23" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E23" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="G23" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I23" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J23" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K23" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M23" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="N23" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="O23" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="P23" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="Q23" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="R23" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="S23" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="T23" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="U23" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -2233,64 +2206,64 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D24" t="s">
         <v>42</v>
       </c>
       <c r="E24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F24" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H24" t="s">
+        <v>56</v>
+      </c>
+      <c r="I24" t="s">
+        <v>56</v>
+      </c>
+      <c r="J24" t="s">
         <v>54</v>
       </c>
-      <c r="I24" t="s">
-        <v>54</v>
-      </c>
-      <c r="J24" t="s">
-        <v>46</v>
-      </c>
       <c r="K24" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="L24" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="M24" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="N24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P24" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="Q24" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="R24" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="S24" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="T24" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="U24" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -2298,64 +2271,64 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D25" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E25" t="s">
         <v>42</v>
       </c>
       <c r="F25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H25" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="I25" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M25" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="N25" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="O25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q25" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="R25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U25" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2363,64 +2336,64 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D26" t="s">
         <v>50</v>
       </c>
       <c r="E26" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
         <v>42</v>
       </c>
       <c r="G26" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="I26" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J26" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K26" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="L26" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="M26" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="N26" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="O26" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="P26" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="Q26" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="R26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S26" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="T26" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="U26" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2428,64 +2401,64 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C27" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D27" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E27" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F27" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G27" t="s">
         <v>42</v>
       </c>
       <c r="H27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I27" t="s">
         <v>43</v>
       </c>
       <c r="J27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L27" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="M27" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N27" t="s">
         <v>43</v>
       </c>
       <c r="O27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q27" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="R27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="S27" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="T27" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2493,64 +2466,64 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F28" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H28" t="s">
         <v>42</v>
       </c>
       <c r="I28" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="J28" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K28" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L28" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="M28" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="N28" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="O28" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="P28" t="s">
         <v>47</v>
       </c>
       <c r="Q28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="R28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S28" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="T28" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="U28" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2558,64 +2531,64 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E29" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H29" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="I29" t="s">
         <v>42</v>
       </c>
       <c r="J29" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="K29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L29" t="s">
+        <v>60</v>
+      </c>
+      <c r="M29" t="s">
         <v>47</v>
       </c>
-      <c r="M29" t="s">
-        <v>56</v>
-      </c>
       <c r="N29" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="O29" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="P29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q29" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R29" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="S29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T29" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="U29" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2623,64 +2596,64 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D30" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G30" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H30" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I30" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J30" t="s">
         <v>42</v>
       </c>
       <c r="K30" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L30" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="M30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N30" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="O30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P30" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="Q30" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="R30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S30" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="T30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2688,64 +2661,64 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C31" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D31" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E31" t="s">
         <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G31" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H31" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="I31" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J31" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K31" t="s">
         <v>42</v>
       </c>
       <c r="L31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M31" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="N31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P31" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q31" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="R31" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="S31" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="T31" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U31" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2753,64 +2726,64 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C32" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E32" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F32" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G32" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I32" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J32" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K32" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L32" t="s">
         <v>42</v>
       </c>
       <c r="M32" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="N32" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O32" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P32" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q32" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="R32" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="S32" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="T32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2818,64 +2791,64 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C33" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D33" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E33" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F33" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G33" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H33" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I33" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L33" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="M33" t="s">
         <v>42</v>
       </c>
       <c r="N33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P33" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Q33" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="R33" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="S33" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T33" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U33" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2883,64 +2856,64 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C34" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D34" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I34" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K34" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L34" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="M34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N34" t="s">
         <v>42</v>
       </c>
       <c r="O34" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="P34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q34" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="R34" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="S34" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="T34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U34" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2948,64 +2921,64 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C35" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" t="s">
         <v>43</v>
       </c>
-      <c r="E35" t="s">
-        <v>54</v>
-      </c>
       <c r="F35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G35" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="I35" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L35" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="M35" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="N35" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="O35" t="s">
         <v>42</v>
       </c>
       <c r="P35" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="Q35" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="R35" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="S35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T35" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="U35" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -3013,61 +2986,61 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C36" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D36" t="s">
         <v>56</v>
       </c>
       <c r="E36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F36" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G36" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="H36" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I36" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J36" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="K36" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="L36" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="M36" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="N36" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="O36" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P36" t="s">
         <v>42</v>
       </c>
       <c r="Q36" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="R36" t="s">
+        <v>53</v>
+      </c>
+      <c r="S36" t="s">
+        <v>43</v>
+      </c>
+      <c r="T36" t="s">
         <v>56</v>
-      </c>
-      <c r="S36" t="s">
-        <v>54</v>
-      </c>
-      <c r="T36" t="s">
-        <v>55</v>
       </c>
       <c r="U36" t="s">
         <v>56</v>
@@ -3078,64 +3051,64 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C37" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F37" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G37" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H37" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I37" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K37" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="L37" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="M37" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="N37" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="O37" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="P37" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="Q37" t="s">
         <v>42</v>
       </c>
       <c r="R37" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="S37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T37" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U37" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:21">
@@ -3143,64 +3116,64 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C38" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D38" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E38" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F38" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H38" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J38" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K38" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L38" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="M38" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="N38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O38" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="P38" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Q38" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="R38" t="s">
         <v>42</v>
       </c>
       <c r="S38" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="T38" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="U38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:21">
@@ -3208,64 +3181,64 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C39" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D39" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E39" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F39" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G39" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="H39" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I39" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J39" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="K39" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="L39" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M39" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N39" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O39" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="P39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q39" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="R39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S39" t="s">
         <v>42</v>
       </c>
       <c r="T39" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="U39" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:21">
@@ -3273,64 +3246,64 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C40" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D40" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E40" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F40" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G40" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H40" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I40" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J40" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K40" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L40" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M40" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N40" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="O40" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P40" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q40" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="R40" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S40" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="T40" t="s">
         <v>42</v>
       </c>
       <c r="U40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:21">
@@ -3338,61 +3311,61 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C41" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D41" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E41" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F41" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G41" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H41" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I41" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J41" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K41" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="L41" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M41" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N41" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O41" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P41" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="Q41" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="R41" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S41" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="T41" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="U41" t="s">
         <v>42</v>
@@ -3406,61 +3379,61 @@
         <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F42" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="G42" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H42" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K42" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L42" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="O42" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="P42" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q42" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="R42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="S42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="T42" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="U42" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:21">
@@ -3468,64 +3441,64 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C43" t="s">
         <v>42</v>
       </c>
       <c r="D43" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E43" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G43" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I43" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="J43" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K43" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="L43" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M43" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="N43" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O43" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="P43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q43" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="R43" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="S43" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="T43" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="U43" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -3567,7 +3540,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3575,7 +3548,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3583,7 +3556,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3591,7 +3564,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3615,7 +3588,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3623,7 +3596,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3647,7 +3620,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3655,7 +3628,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3687,7 +3660,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3695,7 +3668,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3719,7 +3692,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3727,7 +3700,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3735,7 +3708,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -3743,7 +3716,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -3751,7 +3724,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3759,7 +3732,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3767,7 +3740,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -3775,7 +3748,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3783,7 +3756,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -3791,7 +3764,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -3799,7 +3772,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3807,7 +3780,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3815,7 +3788,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -3823,7 +3796,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -3831,7 +3804,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -3847,7 +3820,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -3855,7 +3828,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3905,7 +3878,7 @@
         <v>63</v>
       </c>
       <c r="B2">
-        <v>0.002304147465437788</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3969,7 +3942,7 @@
         <v>71</v>
       </c>
       <c r="B10">
-        <v>0.007067137809187279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3977,7 +3950,7 @@
         <v>72</v>
       </c>
       <c r="B11">
-        <v>0.008130081300813009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4025,7 +3998,7 @@
         <v>78</v>
       </c>
       <c r="B17">
-        <v>0.00911854103343465</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4041,7 +4014,7 @@
         <v>80</v>
       </c>
       <c r="B19">
-        <v>0.01333333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4065,7 +4038,7 @@
         <v>83</v>
       </c>
       <c r="B22">
-        <v>0.03311258278145696</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4073,7 +4046,7 @@
         <v>84</v>
       </c>
       <c r="B23">
-        <v>0.02702702702702703</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -4081,7 +4054,7 @@
         <v>85</v>
       </c>
       <c r="B24">
-        <v>0.02631578947368421</v>
+        <v>0.0131578947368421</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -4115,7 +4088,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.007125890736342043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4123,7 +4096,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.002777777777777778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4131,7 +4104,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.0084985835694051</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4139,7 +4112,7 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0.004750593824228029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4147,7 +4120,7 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.002777777777777778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4155,7 +4128,7 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.0028328611898017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4187,7 +4160,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.002777777777777778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4195,7 +4168,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.0056657223796034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4219,7 +4192,7 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>0.007125890736342043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4227,7 +4200,7 @@
         <v>23</v>
       </c>
       <c r="B16">
-        <v>0.002777777777777778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4235,7 +4208,7 @@
         <v>24</v>
       </c>
       <c r="B17">
-        <v>0.0056657223796034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4243,7 +4216,7 @@
         <v>25</v>
       </c>
       <c r="B18">
-        <v>0.003105590062111801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4259,7 +4232,7 @@
         <v>29</v>
       </c>
       <c r="B20">
-        <v>0.007125890736342043</v>
+        <v>0.002375296912114014</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4293,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4309,7 +4282,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4317,7 +4290,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4325,7 +4298,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4341,7 +4314,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4349,7 +4322,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4357,7 +4330,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4373,7 +4346,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4389,7 +4362,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4397,7 +4370,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4437,7 +4410,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4453,7 +4426,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4461,7 +4434,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -4477,7 +4450,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -4493,7 +4466,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -4509,7 +4482,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -4719,7 +4692,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -4746,7 +4719,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -4785,13 +4758,13 @@
         <v>0</v>
       </c>
       <c r="X2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -4859,7 +4832,7 @@
         <v>0</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -4871,7 +4844,7 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -4903,7 +4876,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -4930,7 +4903,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4942,7 +4915,7 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -4951,7 +4924,7 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -4983,7 +4956,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -5025,13 +4998,13 @@
         <v>0</v>
       </c>
       <c r="X5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -5099,7 +5072,7 @@
         <v>0</v>
       </c>
       <c r="V6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -5111,7 +5084,7 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -5182,7 +5155,7 @@
         <v>0</v>
       </c>
       <c r="W7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7">
         <v>0</v>
@@ -5191,7 +5164,7 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -5499,7 +5472,7 @@
         <v>0</v>
       </c>
       <c r="V11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W11">
         <v>0</v>
@@ -5511,7 +5484,7 @@
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -5570,7 +5543,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -5582,7 +5555,7 @@
         <v>0</v>
       </c>
       <c r="W12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12">
         <v>0</v>
@@ -5591,7 +5564,7 @@
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -5786,7 +5759,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -5804,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -5825,13 +5798,13 @@
         <v>0</v>
       </c>
       <c r="X15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -5899,7 +5872,7 @@
         <v>0</v>
       </c>
       <c r="V16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16">
         <v>0</v>
@@ -5911,7 +5884,7 @@
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:26">
@@ -5970,7 +5943,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -5982,7 +5955,7 @@
         <v>0</v>
       </c>
       <c r="W17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X17">
         <v>0</v>
@@ -5991,7 +5964,7 @@
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -6059,7 +6032,7 @@
         <v>0</v>
       </c>
       <c r="V18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W18">
         <v>0</v>
@@ -6071,7 +6044,7 @@
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:26">
@@ -6186,52 +6159,52 @@
         <v>0</v>
       </c>
       <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
         <v>1</v>
       </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>2</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20">
-        <v>0</v>
-      </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -6319,7 +6292,7 @@
         <v>89</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -6343,55 +6316,55 @@
         <v>0</v>
       </c>
       <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
         <v>2</v>
       </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>3</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>3</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>5</v>
-      </c>
-      <c r="W22">
-        <v>4</v>
-      </c>
-      <c r="X22">
-        <v>4</v>
-      </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -6441,7 +6414,7 @@
         <v>92</v>
       </c>
       <c r="F2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -6449,19 +6422,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -6469,19 +6442,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -6489,19 +6462,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" t="s">
         <v>92</v>
       </c>
-      <c r="C5" t="s">
-        <v>100</v>
-      </c>
       <c r="D5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6509,19 +6482,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D6" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="E6" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="F6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6529,19 +6502,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6549,19 +6522,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -6569,19 +6542,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D9" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="E9" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="F9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -6589,19 +6562,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" t="s">
         <v>92</v>
       </c>
-      <c r="C10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" t="s">
-        <v>95</v>
-      </c>
       <c r="E10" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -6612,16 +6585,16 @@
         <v>94</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D11" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E11" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="F11" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -6629,19 +6602,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C12" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D12" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E12" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F12" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -6649,19 +6622,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D13" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E13" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="F13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -6669,19 +6642,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="D14" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E14" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F14" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -6689,16 +6662,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D15" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="E15" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="F15" t="s">
         <v>93</v>
@@ -6709,19 +6682,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6729,19 +6702,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E17" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6749,19 +6722,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" t="s">
         <v>107</v>
       </c>
-      <c r="D18" t="s">
-        <v>94</v>
-      </c>
       <c r="E18" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F18" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6769,19 +6742,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C19" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="D19" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="E19" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="F19" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6789,19 +6762,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E20" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F20" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6809,19 +6782,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C21" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D21" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="E21" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="F21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -6829,19 +6802,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C22" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E22" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F22" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6849,19 +6822,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C23" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D23" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="E23" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="F23" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6869,19 +6842,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C24" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" t="s">
         <v>93</v>
       </c>
-      <c r="E24" t="s">
-        <v>98</v>
-      </c>
       <c r="F24" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6889,19 +6862,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D25" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E25" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F25" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6912,16 +6885,16 @@
         <v>99</v>
       </c>
       <c r="C26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" t="s">
         <v>105</v>
       </c>
-      <c r="D26" t="s">
-        <v>90</v>
-      </c>
-      <c r="E26" t="s">
-        <v>90</v>
-      </c>
       <c r="F26" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6929,19 +6902,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C27" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E27" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F27" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -6949,19 +6922,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C28" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D28" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E28" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F28" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -6969,19 +6942,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D29" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E29" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F29" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -6989,19 +6962,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C30" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D30" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="E30" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="F30" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7009,19 +6982,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" t="s">
         <v>98</v>
-      </c>
-      <c r="D31" t="s">
-        <v>97</v>
       </c>
       <c r="E31" t="s">
         <v>97</v>
       </c>
       <c r="F31" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7029,19 +7002,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" t="s">
         <v>102</v>
       </c>
-      <c r="C32" t="s">
-        <v>96</v>
-      </c>
       <c r="D32" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E32" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F32" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7049,19 +7022,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C33" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D33" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E33" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F33" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7069,19 +7042,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C34" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D34" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E34" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F34" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7089,19 +7062,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C35" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" t="s">
+        <v>102</v>
+      </c>
+      <c r="E35" t="s">
+        <v>91</v>
+      </c>
+      <c r="F35" t="s">
         <v>95</v>
-      </c>
-      <c r="D35" t="s">
-        <v>95</v>
-      </c>
-      <c r="E35" t="s">
-        <v>95</v>
-      </c>
-      <c r="F35" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7109,19 +7082,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" t="s">
         <v>95</v>
       </c>
-      <c r="C36" t="s">
-        <v>100</v>
-      </c>
       <c r="D36" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E36" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F36" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7129,19 +7102,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C37" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D37" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E37" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="F37" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7149,19 +7122,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C38" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D38" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="E38" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="F38" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7169,19 +7142,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C39" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D39" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E39" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="F39" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7189,19 +7162,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D40" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E40" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F40" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7209,19 +7182,19 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C41" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D41" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E41" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F41" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7229,19 +7202,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C42" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D42" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E42" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F42" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7249,19 +7222,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C43" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D43" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E43" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="F43" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/alg_schedule_data_2019_4.xlsx
+++ b/alg_schedule_data_2019_4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="107">
   <si>
     <t>Abe</t>
   </si>
@@ -159,42 +159,42 @@
     <t>N1</t>
   </si>
   <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>OB</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
     <t>C2</t>
   </si>
   <si>
-    <t>P2</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>P5</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>OB</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>A4</t>
+    <t>CD</t>
   </si>
   <si>
     <t>C3</t>
   </si>
   <si>
-    <t>CD</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
     <t>MS</t>
   </si>
   <si>
@@ -297,55 +297,52 @@
     <t>['11:30']</t>
   </si>
   <si>
+    <t>['12:00']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:00']</t>
+  </si>
+  <si>
+    <t>['13:00']</t>
+  </si>
+  <si>
+    <t>['11:30', '13:30']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:00', '12:30']</t>
+  </si>
+  <si>
+    <t>['12:30']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:00', '13:00']</t>
+  </si>
+  <si>
+    <t>['12:00', '12:30']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:30']</t>
+  </si>
+  <si>
+    <t>['12:30', '13:00']</t>
+  </si>
+  <si>
     <t>[]</t>
   </si>
   <si>
-    <t>['11:30', '12:00']</t>
-  </si>
-  <si>
-    <t>['12:00']</t>
-  </si>
-  <si>
-    <t>['11:30', '13:30']</t>
-  </si>
-  <si>
-    <t>['12:30']</t>
-  </si>
-  <si>
-    <t>['12:00', '12:30']</t>
-  </si>
-  <si>
-    <t>['12:30', '13:00']</t>
-  </si>
-  <si>
-    <t>['13:00']</t>
-  </si>
-  <si>
-    <t>['12:00', '12:30', '13:00']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:00', '12:30']</t>
+    <t>['11:30', '13:00']</t>
   </si>
   <si>
     <t>['11:30', '12:30', '13:30']</t>
   </si>
   <si>
-    <t>['11:30', '13:00']</t>
+    <t>['12:00', '13:00']</t>
   </si>
   <si>
     <t>['11:30', '12:30', '13:00']</t>
   </si>
   <si>
-    <t>['11:30', '12:00', '12:30', '13:00']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:30']</t>
-  </si>
-  <si>
-    <t>['13:30']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:00', '13:00']</t>
+    <t>['11:30', '13:00', '13:30']</t>
   </si>
 </sst>
 </file>
@@ -788,46 +785,46 @@
         <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="G2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="I2" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="J2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K2" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="L2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="M2" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="N2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="O2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P2" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="Q2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="R2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="S2" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="T2" t="s">
         <v>44</v>
@@ -847,32 +844,32 @@
         <v>42</v>
       </c>
       <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" t="s">
         <v>43</v>
       </c>
-      <c r="E3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L3" t="s">
-        <v>44</v>
-      </c>
       <c r="M3" t="s">
         <v>46</v>
       </c>
@@ -880,13 +877,13 @@
         <v>46</v>
       </c>
       <c r="O3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P3" t="s">
         <v>46</v>
       </c>
       <c r="Q3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R3" t="s">
         <v>46</v>
@@ -895,7 +892,7 @@
         <v>46</v>
       </c>
       <c r="T3" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="U3" t="s">
         <v>46</v>
@@ -915,13 +912,13 @@
         <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s">
         <v>46</v>
@@ -933,13 +930,13 @@
         <v>46</v>
       </c>
       <c r="K4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="M4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N4" t="s">
         <v>46</v>
@@ -948,13 +945,13 @@
         <v>46</v>
       </c>
       <c r="P4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="R4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S4" t="s">
         <v>46</v>
@@ -995,34 +992,34 @@
         <v>46</v>
       </c>
       <c r="J5" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="K5" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="L5" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="M5" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="N5" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="O5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="Q5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="R5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T5" t="s">
         <v>45</v>
@@ -1045,49 +1042,49 @@
         <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F6" t="s">
         <v>42</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I6" t="s">
         <v>46</v>
       </c>
       <c r="J6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K6" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="L6" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="M6" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="N6" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="O6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="P6" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="Q6" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="R6" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="S6" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="T6" t="s">
         <v>46</v>
@@ -1119,22 +1116,22 @@
         <v>42</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J7" t="s">
         <v>46</v>
       </c>
       <c r="K7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L7" t="s">
         <v>46</v>
       </c>
       <c r="M7" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="N7" t="s">
         <v>46</v>
@@ -1172,10 +1169,10 @@
         <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
         <v>46</v>
@@ -1187,37 +1184,37 @@
         <v>42</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J8" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="K8" t="s">
         <v>46</v>
       </c>
       <c r="L8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M8" t="s">
         <v>46</v>
       </c>
       <c r="N8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O8" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="P8" t="s">
         <v>46</v>
       </c>
       <c r="Q8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R8" t="s">
         <v>46</v>
       </c>
       <c r="S8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T8" t="s">
         <v>44</v>
@@ -1231,16 +1228,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
         <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
         <v>46</v>
@@ -1255,37 +1252,37 @@
         <v>42</v>
       </c>
       <c r="J9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" t="s">
+        <v>51</v>
+      </c>
+      <c r="M9" t="s">
+        <v>49</v>
+      </c>
+      <c r="N9" t="s">
+        <v>49</v>
+      </c>
+      <c r="O9" t="s">
+        <v>44</v>
+      </c>
+      <c r="P9" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>51</v>
+      </c>
+      <c r="R9" t="s">
+        <v>46</v>
+      </c>
+      <c r="S9" t="s">
+        <v>49</v>
+      </c>
+      <c r="T9" t="s">
         <v>43</v>
-      </c>
-      <c r="K9" t="s">
-        <v>46</v>
-      </c>
-      <c r="L9" t="s">
-        <v>43</v>
-      </c>
-      <c r="M9" t="s">
-        <v>46</v>
-      </c>
-      <c r="N9" t="s">
-        <v>50</v>
-      </c>
-      <c r="O9" t="s">
-        <v>44</v>
-      </c>
-      <c r="P9" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>44</v>
-      </c>
-      <c r="R9" t="s">
-        <v>46</v>
-      </c>
-      <c r="S9" t="s">
-        <v>50</v>
-      </c>
-      <c r="T9" t="s">
-        <v>47</v>
       </c>
       <c r="U9" t="s">
         <v>46</v>
@@ -1296,28 +1293,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" t="s">
         <v>48</v>
       </c>
-      <c r="C10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" t="s">
-        <v>49</v>
-      </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J10" t="s">
         <v>42</v>
@@ -1326,31 +1323,31 @@
         <v>44</v>
       </c>
       <c r="L10" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="M10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P10" t="s">
         <v>44</v>
       </c>
       <c r="Q10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="R10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="S10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="T10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U10" t="s">
         <v>44</v>
@@ -1361,61 +1358,61 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" t="s">
         <v>49</v>
-      </c>
-      <c r="C11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>44</v>
-      </c>
-      <c r="I11" t="s">
-        <v>50</v>
-      </c>
-      <c r="J11" t="s">
-        <v>50</v>
       </c>
       <c r="K11" t="s">
         <v>42</v>
       </c>
       <c r="L11" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="M11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="N11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P11" t="s">
         <v>44</v>
       </c>
       <c r="Q11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="R11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U11" t="s">
         <v>44</v>
@@ -1426,7 +1423,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
         <v>46</v>
@@ -1435,7 +1432,7 @@
         <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
         <v>46</v>
@@ -1444,10 +1441,10 @@
         <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J12" t="s">
         <v>43</v>
@@ -1462,7 +1459,7 @@
         <v>43</v>
       </c>
       <c r="N12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O12" t="s">
         <v>43</v>
@@ -1477,7 +1474,7 @@
         <v>43</v>
       </c>
       <c r="S12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T12" t="s">
         <v>43</v>
@@ -1491,13 +1488,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
         <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="E13" t="s">
         <v>49</v>
@@ -1506,16 +1503,16 @@
         <v>44</v>
       </c>
       <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" t="s">
         <v>49</v>
-      </c>
-      <c r="H13" t="s">
-        <v>52</v>
-      </c>
-      <c r="I13" t="s">
-        <v>52</v>
-      </c>
-      <c r="J13" t="s">
-        <v>50</v>
       </c>
       <c r="K13" t="s">
         <v>44</v>
@@ -1530,7 +1527,7 @@
         <v>52</v>
       </c>
       <c r="O13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P13" t="s">
         <v>44</v>
@@ -1545,7 +1542,7 @@
         <v>52</v>
       </c>
       <c r="T13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U13" t="s">
         <v>44</v>
@@ -1556,31 +1553,31 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
         <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G14" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K14" t="s">
         <v>44</v>
@@ -1595,7 +1592,7 @@
         <v>42</v>
       </c>
       <c r="O14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P14" t="s">
         <v>44</v>
@@ -1610,7 +1607,7 @@
         <v>52</v>
       </c>
       <c r="T14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U14" t="s">
         <v>44</v>
@@ -1621,43 +1618,43 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
         <v>58</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G15" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="H15" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I15" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K15" t="s">
         <v>44</v>
       </c>
       <c r="L15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O15" t="s">
         <v>42</v>
@@ -1666,19 +1663,19 @@
         <v>44</v>
       </c>
       <c r="Q15" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="R15" t="s">
         <v>52</v>
       </c>
       <c r="S15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1686,43 +1683,43 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F16" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G16" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H16" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="I16" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K16" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="L16" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="M16" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="N16" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="O16" t="s">
         <v>54</v>
@@ -1740,10 +1737,10 @@
         <v>54</v>
       </c>
       <c r="T16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U16" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1751,49 +1748,49 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="N17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="O17" t="s">
         <v>56</v>
       </c>
       <c r="P17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q17" t="s">
         <v>42</v>
@@ -1805,10 +1802,10 @@
         <v>56</v>
       </c>
       <c r="T17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1816,22 +1813,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H18" t="s">
         <v>52</v>
@@ -1843,7 +1840,7 @@
         <v>44</v>
       </c>
       <c r="K18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L18" t="s">
         <v>44</v>
@@ -1858,10 +1855,10 @@
         <v>44</v>
       </c>
       <c r="P18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R18" t="s">
         <v>42</v>
@@ -1881,61 +1878,61 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
         <v>52</v>
       </c>
       <c r="D19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F19" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="G19" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="H19" t="s">
         <v>53</v>
       </c>
       <c r="I19" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="J19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L19" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="M19" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="N19" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="O19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P19" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="Q19" t="s">
         <v>58</v>
       </c>
       <c r="R19" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="S19" t="s">
         <v>42</v>
       </c>
       <c r="T19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U19" t="s">
         <v>52</v>
@@ -1946,58 +1943,58 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="E20" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F20" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G20" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J20" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K20" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="L20" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="M20" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="N20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O20" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="P20" t="s">
         <v>52</v>
       </c>
       <c r="Q20" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="R20" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="S20" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T20" t="s">
         <v>42</v>
@@ -2017,52 +2014,52 @@
         <v>52</v>
       </c>
       <c r="D21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" t="s">
         <v>59</v>
       </c>
-      <c r="E21" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" t="s">
-        <v>44</v>
-      </c>
-      <c r="G21" t="s">
-        <v>50</v>
-      </c>
       <c r="H21" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I21" t="s">
         <v>53</v>
       </c>
       <c r="J21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K21" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="L21" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="M21" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="N21" t="s">
         <v>53</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q21" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="R21" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="S21" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="T21" t="s">
         <v>52</v>
@@ -2082,16 +2079,16 @@
         <v>52</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E22" t="s">
         <v>52</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G22" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="H22" t="s">
         <v>53</v>
@@ -2100,25 +2097,25 @@
         <v>53</v>
       </c>
       <c r="J22" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K22" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="L22" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="M22" t="s">
         <v>53</v>
       </c>
       <c r="N22" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="O22" t="s">
         <v>52</v>
       </c>
       <c r="P22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q22" t="s">
         <v>44</v>
@@ -2147,7 +2144,7 @@
         <v>42</v>
       </c>
       <c r="D23" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E23" t="s">
         <v>52</v>
@@ -2156,7 +2153,7 @@
         <v>53</v>
       </c>
       <c r="G23" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H23" t="s">
         <v>44</v>
@@ -2165,28 +2162,28 @@
         <v>53</v>
       </c>
       <c r="J23" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="K23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L23" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="M23" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="N23" t="s">
         <v>53</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P23" t="s">
         <v>53</v>
       </c>
       <c r="Q23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R23" t="s">
         <v>44</v>
@@ -2198,7 +2195,7 @@
         <v>52</v>
       </c>
       <c r="U23" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -2218,31 +2215,31 @@
         <v>56</v>
       </c>
       <c r="F24" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G24" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H24" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I24" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="J24" t="s">
         <v>54</v>
       </c>
       <c r="K24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L24" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="M24" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="N24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O24" t="s">
         <v>45</v>
@@ -2263,7 +2260,7 @@
         <v>52</v>
       </c>
       <c r="U24" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -2286,14 +2283,14 @@
         <v>53</v>
       </c>
       <c r="G25" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H25" t="s">
+        <v>53</v>
+      </c>
+      <c r="I25" t="s">
         <v>43</v>
       </c>
-      <c r="I25" t="s">
-        <v>53</v>
-      </c>
       <c r="J25" t="s">
         <v>52</v>
       </c>
@@ -2301,7 +2298,7 @@
         <v>53</v>
       </c>
       <c r="L25" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="M25" t="s">
         <v>44</v>
@@ -2310,19 +2307,19 @@
         <v>53</v>
       </c>
       <c r="O25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P25" t="s">
         <v>53</v>
       </c>
       <c r="Q25" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="R25" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="S25" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="T25" t="s">
         <v>52</v>
@@ -2342,22 +2339,22 @@
         <v>53</v>
       </c>
       <c r="D26" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F26" t="s">
         <v>42</v>
       </c>
       <c r="G26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H26" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I26" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="J26" t="s">
         <v>52</v>
@@ -2366,28 +2363,28 @@
         <v>53</v>
       </c>
       <c r="L26" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="M26" t="s">
         <v>53</v>
       </c>
       <c r="N26" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="O26" t="s">
         <v>52</v>
       </c>
       <c r="P26" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="Q26" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="R26" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="S26" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="T26" t="s">
         <v>52</v>
@@ -2413,7 +2410,7 @@
         <v>52</v>
       </c>
       <c r="F27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G27" t="s">
         <v>42</v>
@@ -2422,37 +2419,37 @@
         <v>52</v>
       </c>
       <c r="I27" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="J27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K27" t="s">
         <v>53</v>
       </c>
       <c r="L27" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="M27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N27" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="O27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P27" t="s">
         <v>53</v>
       </c>
       <c r="Q27" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="R27" t="s">
         <v>53</v>
       </c>
       <c r="S27" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="T27" t="s">
         <v>53</v>
@@ -2478,7 +2475,7 @@
         <v>52</v>
       </c>
       <c r="F28" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G28" t="s">
         <v>52</v>
@@ -2487,28 +2484,28 @@
         <v>42</v>
       </c>
       <c r="I28" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="J28" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K28" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L28" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="M28" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="N28" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="O28" t="s">
         <v>52</v>
       </c>
       <c r="P28" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="Q28" t="s">
         <v>52</v>
@@ -2543,10 +2540,10 @@
         <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H29" t="s">
         <v>43</v>
@@ -2555,16 +2552,16 @@
         <v>42</v>
       </c>
       <c r="J29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K29" t="s">
         <v>53</v>
       </c>
       <c r="L29" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="M29" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="N29" t="s">
         <v>53</v>
@@ -2573,16 +2570,16 @@
         <v>43</v>
       </c>
       <c r="P29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R29" t="s">
         <v>43</v>
       </c>
       <c r="S29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T29" t="s">
         <v>43</v>
@@ -2605,19 +2602,19 @@
         <v>52</v>
       </c>
       <c r="E30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J30" t="s">
         <v>42</v>
@@ -2626,13 +2623,13 @@
         <v>53</v>
       </c>
       <c r="L30" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="M30" t="s">
         <v>53</v>
       </c>
       <c r="N30" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="O30" t="s">
         <v>52</v>
@@ -2647,7 +2644,7 @@
         <v>52</v>
       </c>
       <c r="S30" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="T30" t="s">
         <v>53</v>
@@ -2664,10 +2661,10 @@
         <v>54</v>
       </c>
       <c r="C31" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D31" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E31" t="s">
         <v>45</v>
@@ -2691,22 +2688,22 @@
         <v>42</v>
       </c>
       <c r="L31" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M31" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N31" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="O31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P31" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q31" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="R31" t="s">
         <v>52</v>
@@ -2718,7 +2715,7 @@
         <v>54</v>
       </c>
       <c r="U31" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2735,19 +2732,19 @@
         <v>57</v>
       </c>
       <c r="E32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F32" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G32" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I32" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J32" t="s">
         <v>52</v>
@@ -2768,13 +2765,13 @@
         <v>52</v>
       </c>
       <c r="P32" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="Q32" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="R32" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="S32" t="s">
         <v>52</v>
@@ -2815,10 +2812,10 @@
         <v>55</v>
       </c>
       <c r="J33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L33" t="s">
         <v>43</v>
@@ -2827,7 +2824,7 @@
         <v>42</v>
       </c>
       <c r="N33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O33" t="s">
         <v>55</v>
@@ -2865,28 +2862,28 @@
         <v>52</v>
       </c>
       <c r="E34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G34" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H34" t="s">
+        <v>52</v>
+      </c>
+      <c r="I34" t="s">
+        <v>52</v>
+      </c>
+      <c r="J34" t="s">
+        <v>53</v>
+      </c>
+      <c r="K34" t="s">
         <v>43</v>
       </c>
-      <c r="I34" t="s">
-        <v>53</v>
-      </c>
-      <c r="J34" t="s">
-        <v>53</v>
-      </c>
-      <c r="K34" t="s">
-        <v>53</v>
-      </c>
       <c r="L34" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="M34" t="s">
         <v>53</v>
@@ -2895,19 +2892,19 @@
         <v>42</v>
       </c>
       <c r="O34" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P34" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q34" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="R34" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="S34" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T34" t="s">
         <v>53</v>
@@ -2930,19 +2927,19 @@
         <v>52</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F35" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G35" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H35" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I35" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="J35" t="s">
         <v>53</v>
@@ -2957,19 +2954,19 @@
         <v>53</v>
       </c>
       <c r="N35" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="O35" t="s">
         <v>42</v>
       </c>
       <c r="P35" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>58</v>
+      </c>
+      <c r="R35" t="s">
         <v>43</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>57</v>
-      </c>
-      <c r="R35" t="s">
-        <v>57</v>
       </c>
       <c r="S35" t="s">
         <v>57</v>
@@ -2989,40 +2986,40 @@
         <v>56</v>
       </c>
       <c r="C36" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D36" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E36" t="s">
         <v>54</v>
       </c>
       <c r="F36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G36" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I36" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J36" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="K36" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="L36" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="M36" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="N36" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="O36" t="s">
         <v>53</v>
@@ -3043,7 +3040,7 @@
         <v>56</v>
       </c>
       <c r="U36" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:21">
@@ -3054,40 +3051,40 @@
         <v>57</v>
       </c>
       <c r="C37" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D37" t="s">
         <v>57</v>
       </c>
       <c r="E37" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F37" t="s">
+        <v>51</v>
+      </c>
+      <c r="G37" t="s">
+        <v>57</v>
+      </c>
+      <c r="H37" t="s">
+        <v>57</v>
+      </c>
+      <c r="I37" t="s">
+        <v>57</v>
+      </c>
+      <c r="J37" t="s">
+        <v>52</v>
+      </c>
+      <c r="K37" t="s">
+        <v>52</v>
+      </c>
+      <c r="L37" t="s">
         <v>43</v>
       </c>
-      <c r="G37" t="s">
-        <v>52</v>
-      </c>
-      <c r="H37" t="s">
-        <v>52</v>
-      </c>
-      <c r="I37" t="s">
-        <v>52</v>
-      </c>
-      <c r="J37" t="s">
-        <v>49</v>
-      </c>
-      <c r="K37" t="s">
-        <v>43</v>
-      </c>
-      <c r="L37" t="s">
-        <v>49</v>
-      </c>
       <c r="M37" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="N37" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O37" t="s">
         <v>57</v>
@@ -3116,16 +3113,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C38" t="s">
         <v>57</v>
       </c>
       <c r="D38" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="E38" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
         <v>57</v>
@@ -3261,31 +3258,31 @@
         <v>52</v>
       </c>
       <c r="G40" t="s">
+        <v>52</v>
+      </c>
+      <c r="H40" t="s">
+        <v>52</v>
+      </c>
+      <c r="I40" t="s">
+        <v>52</v>
+      </c>
+      <c r="J40" t="s">
+        <v>52</v>
+      </c>
+      <c r="K40" t="s">
+        <v>52</v>
+      </c>
+      <c r="L40" t="s">
+        <v>52</v>
+      </c>
+      <c r="M40" t="s">
+        <v>52</v>
+      </c>
+      <c r="N40" t="s">
+        <v>52</v>
+      </c>
+      <c r="O40" t="s">
         <v>43</v>
-      </c>
-      <c r="H40" t="s">
-        <v>52</v>
-      </c>
-      <c r="I40" t="s">
-        <v>52</v>
-      </c>
-      <c r="J40" t="s">
-        <v>52</v>
-      </c>
-      <c r="K40" t="s">
-        <v>52</v>
-      </c>
-      <c r="L40" t="s">
-        <v>52</v>
-      </c>
-      <c r="M40" t="s">
-        <v>52</v>
-      </c>
-      <c r="N40" t="s">
-        <v>52</v>
-      </c>
-      <c r="O40" t="s">
-        <v>52</v>
       </c>
       <c r="P40" t="s">
         <v>52</v>
@@ -3311,13 +3308,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C41" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D41" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E41" t="s">
         <v>52</v>
@@ -3335,19 +3332,19 @@
         <v>52</v>
       </c>
       <c r="J41" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K41" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="L41" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="M41" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N41" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="O41" t="s">
         <v>52</v>
@@ -3388,7 +3385,7 @@
         <v>57</v>
       </c>
       <c r="F42" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G42" t="s">
         <v>57</v>
@@ -3397,37 +3394,37 @@
         <v>57</v>
       </c>
       <c r="I42" t="s">
+        <v>44</v>
+      </c>
+      <c r="J42" t="s">
         <v>57</v>
       </c>
-      <c r="J42" t="s">
-        <v>52</v>
-      </c>
       <c r="K42" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="L42" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="M42" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N42" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="O42" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="P42" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="Q42" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="R42" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="S42" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="T42" t="s">
         <v>52</v>
@@ -3450,37 +3447,37 @@
         <v>57</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="F43" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="G43" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="H43" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="I43" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J43" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K43" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="L43" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="M43" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O43" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="P43" t="s">
         <v>57</v>
@@ -3492,7 +3489,7 @@
         <v>57</v>
       </c>
       <c r="S43" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="T43" t="s">
         <v>52</v>
@@ -3668,7 +3665,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3676,7 +3673,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3684,7 +3681,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3692,7 +3689,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3716,7 +3713,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -3724,7 +3721,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3732,7 +3729,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3748,7 +3745,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3780,7 +3777,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3788,7 +3785,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -3836,7 +3833,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -3844,7 +3841,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -3852,7 +3849,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -4054,7 +4051,7 @@
         <v>85</v>
       </c>
       <c r="B24">
-        <v>0.0131578947368421</v>
+        <v>0.01973684210526316</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -4112,7 +4109,7 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.002375296912114014</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4314,7 +4311,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4330,7 +4327,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4338,7 +4335,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4354,7 +4351,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4370,7 +4367,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4394,7 +4391,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4410,7 +4407,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4418,7 +4415,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4426,7 +4423,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4434,7 +4431,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -4442,7 +4439,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -4458,7 +4455,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -4466,7 +4463,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -4474,7 +4471,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4482,7 +4479,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -4998,13 +4995,13 @@
         <v>0</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -6358,13 +6355,13 @@
         <v>0</v>
       </c>
       <c r="X22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -6405,13 +6402,13 @@
         <v>90</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F2" t="s">
         <v>92</v>
@@ -6471,7 +6468,7 @@
         <v>93</v>
       </c>
       <c r="E5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F5" t="s">
         <v>93</v>
@@ -6488,10 +6485,10 @@
         <v>92</v>
       </c>
       <c r="D6" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="E6" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="F6" t="s">
         <v>92</v>
@@ -6508,7 +6505,7 @@
         <v>92</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E7" t="s">
         <v>92</v>
@@ -6525,7 +6522,7 @@
         <v>92</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D8" t="s">
         <v>92</v>
@@ -6545,16 +6542,16 @@
         <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E9" t="s">
         <v>92</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -6565,13 +6562,13 @@
         <v>94</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D10" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F10" t="s">
         <v>92</v>
@@ -6585,13 +6582,13 @@
         <v>94</v>
       </c>
       <c r="C11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" t="s">
         <v>92</v>
       </c>
-      <c r="D11" t="s">
-        <v>100</v>
-      </c>
       <c r="E11" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="F11" t="s">
         <v>92</v>
@@ -6602,19 +6599,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" t="s">
         <v>92</v>
       </c>
-      <c r="C12" t="s">
-        <v>100</v>
-      </c>
       <c r="D12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E12" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -6622,16 +6619,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C13" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D13" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E13" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F13" t="s">
         <v>92</v>
@@ -6645,13 +6642,13 @@
         <v>92</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D14" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E14" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F14" t="s">
         <v>92</v>
@@ -6662,19 +6659,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C15" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D15" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E15" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -6682,19 +6679,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E16" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6702,19 +6699,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E17" t="s">
         <v>98</v>
       </c>
       <c r="F17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6722,19 +6719,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C18" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D18" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="E18" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="F18" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6742,19 +6739,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C19" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D19" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E19" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="F19" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6762,19 +6759,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" t="s">
         <v>96</v>
-      </c>
-      <c r="C20" t="s">
-        <v>103</v>
-      </c>
-      <c r="D20" t="s">
-        <v>102</v>
-      </c>
-      <c r="E20" t="s">
-        <v>101</v>
-      </c>
-      <c r="F20" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6782,19 +6779,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C21" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D21" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E21" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F21" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -6802,19 +6799,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C22" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D22" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E22" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6822,19 +6819,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C23" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E23" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6842,19 +6839,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C24" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D24" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E24" t="s">
         <v>93</v>
       </c>
       <c r="F24" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6862,19 +6859,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C25" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D25" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F25" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6882,19 +6879,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C26" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D26" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F26" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6902,19 +6899,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D27" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E27" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F27" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -6922,19 +6919,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D28" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E28" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F28" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -6942,19 +6939,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C29" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D29" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E29" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F29" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -6962,19 +6959,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C30" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="D30" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E30" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F30" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -6982,19 +6979,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C31" t="s">
         <v>93</v>
       </c>
       <c r="D31" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F31" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7002,19 +6999,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C32" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F32" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7022,19 +7019,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" t="s">
         <v>93</v>
       </c>
-      <c r="C33" t="s">
-        <v>93</v>
-      </c>
-      <c r="D33" t="s">
-        <v>95</v>
-      </c>
       <c r="E33" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F33" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7042,19 +7039,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C34" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D34" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E34" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F34" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7062,19 +7059,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C35" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D35" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E35" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="F35" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7082,19 +7079,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C36" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D36" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" t="s">
         <v>93</v>
       </c>
-      <c r="E36" t="s">
-        <v>98</v>
-      </c>
       <c r="F36" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7105,16 +7102,16 @@
         <v>90</v>
       </c>
       <c r="C37" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D37" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E37" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="F37" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7122,19 +7119,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C38" t="s">
         <v>90</v>
       </c>
       <c r="D38" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E38" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="F38" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7142,19 +7139,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C39" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D39" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E39" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="F39" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7162,19 +7159,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C40" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D40" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E40" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F40" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7182,19 +7179,19 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C41" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D41" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E41" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F41" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7202,19 +7199,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C42" t="s">
         <v>90</v>
       </c>
       <c r="D42" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E42" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F42" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7222,19 +7219,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C43" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="D43" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E43" t="s">
         <v>90</v>
       </c>
       <c r="F43" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/alg_schedule_data_2019_4.xlsx
+++ b/alg_schedule_data_2019_4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="103">
   <si>
     <t>Abe</t>
   </si>
@@ -37,7 +37,10 @@
     <t>Crystal</t>
   </si>
   <si>
-    <t>Elaine</t>
+    <t>Cynthia</t>
+  </si>
+  <si>
+    <t>Daphne</t>
   </si>
   <si>
     <t>Ellen</t>
@@ -55,10 +58,7 @@
     <t>Ginny</t>
   </si>
   <si>
-    <t>Jamie</t>
-  </si>
-  <si>
-    <t>Jane</t>
+    <t>Irene</t>
   </si>
   <si>
     <t>Janet</t>
@@ -76,9 +76,6 @@
     <t>Karen</t>
   </si>
   <si>
-    <t>Lance</t>
-  </si>
-  <si>
     <t>Mandy</t>
   </si>
   <si>
@@ -100,9 +97,6 @@
     <t>Oscar</t>
   </si>
   <si>
-    <t>Patty</t>
-  </si>
-  <si>
     <t>Sabina</t>
   </si>
   <si>
@@ -115,98 +109,78 @@
     <t>Sandy</t>
   </si>
   <si>
+    <t>Sharon</t>
+  </si>
+  <si>
     <t>Sony</t>
   </si>
   <si>
-    <t>Stacy</t>
-  </si>
-  <si>
-    <t>Summer</t>
-  </si>
-  <si>
-    <t>Vivian
-Huang</t>
-  </si>
-  <si>
-    <t>Vivian
-Kuang</t>
+    <t xml:space="preserve">Summer </t>
+  </si>
+  <si>
+    <t>Vivian</t>
   </si>
   <si>
     <t>Yvette</t>
   </si>
   <si>
-    <t>Anita</t>
-  </si>
-  <si>
-    <t>Catherine</t>
-  </si>
-  <si>
-    <t>Lisa</t>
-  </si>
-  <si>
-    <t>Penny</t>
-  </si>
-  <si>
-    <t>Soraya</t>
-  </si>
-  <si>
     <t>O</t>
   </si>
   <si>
+    <t>N1</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
     <t>W6</t>
   </si>
   <si>
-    <t>N1</t>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>OB</t>
+  </si>
+  <si>
+    <t>A5</t>
   </si>
   <si>
     <t>C4</t>
   </si>
   <si>
-    <t>P2</t>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>MS</t>
   </si>
   <si>
     <t>P5</t>
   </si>
   <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>OB</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>CD</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>AS</t>
-  </si>
-  <si>
-    <t>P3</t>
-  </si>
-  <si>
-    <t>P4</t>
-  </si>
-  <si>
     <t>NightWork_count</t>
   </si>
   <si>
@@ -294,55 +268,67 @@
     <t>SUM_per_time</t>
   </si>
   <si>
+    <t>['11:30', '12:00']</t>
+  </si>
+  <si>
+    <t>['11:30', '13:00']</t>
+  </si>
+  <si>
+    <t>['13:00']</t>
+  </si>
+  <si>
+    <t>['13:30']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:30']</t>
+  </si>
+  <si>
+    <t>['12:30', '13:00']</t>
+  </si>
+  <si>
+    <t>['12:00']</t>
+  </si>
+  <si>
+    <t>['12:00', '12:30']</t>
+  </si>
+  <si>
+    <t>['12:30']</t>
+  </si>
+  <si>
+    <t>['11:30', '13:30']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:30', '13:00']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:00', '12:30']</t>
+  </si>
+  <si>
+    <t>['11:30', '13:00', '13:30']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:00', '13:00']</t>
+  </si>
+  <si>
+    <t>['12:00', '13:00']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:00', '13:30']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:30', '13:30']</t>
+  </si>
+  <si>
+    <t>['13:00', '13:30']</t>
+  </si>
+  <si>
+    <t>['12:00', '13:30']</t>
+  </si>
+  <si>
     <t>['11:30']</t>
   </si>
   <si>
-    <t>['12:00']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:00']</t>
-  </si>
-  <si>
-    <t>['13:00']</t>
-  </si>
-  <si>
-    <t>['11:30', '13:30']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:00', '12:30']</t>
-  </si>
-  <si>
-    <t>['12:30']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:00', '13:00']</t>
-  </si>
-  <si>
-    <t>['12:00', '12:30']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:30']</t>
-  </si>
-  <si>
-    <t>['12:30', '13:00']</t>
-  </si>
-  <si>
     <t>[]</t>
-  </si>
-  <si>
-    <t>['11:30', '13:00']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:30', '13:30']</t>
-  </si>
-  <si>
-    <t>['12:00', '13:00']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:30', '13:00']</t>
-  </si>
-  <si>
-    <t>['11:30', '13:00', '13:30']</t>
   </si>
 </sst>
 </file>
@@ -700,7 +686,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U43"/>
+  <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -773,64 +759,64 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="J2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="L2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="M2" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="N2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="P2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="R2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="S2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="T2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -838,64 +824,64 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" t="s">
         <v>51</v>
       </c>
-      <c r="H3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L3" t="s">
-        <v>43</v>
-      </c>
       <c r="M3" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="N3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="O3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="P3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="Q3" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="R3" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="S3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="T3" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="U3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -903,64 +889,64 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="N4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="O4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="P4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="Q4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="S4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="U4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -968,64 +954,64 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5" t="s">
         <v>44</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K5" t="s">
-        <v>45</v>
-      </c>
-      <c r="L5" t="s">
-        <v>45</v>
-      </c>
-      <c r="M5" t="s">
-        <v>45</v>
-      </c>
-      <c r="N5" t="s">
-        <v>45</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="Q5" t="s">
         <v>50</v>
       </c>
-      <c r="P5" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>56</v>
-      </c>
       <c r="R5" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="S5" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="T5" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="U5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -1033,64 +1019,64 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I6" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K6" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="L6" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="M6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="N6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="O6" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="P6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="Q6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="R6" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="S6" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="T6" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="U6" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -1098,64 +1084,64 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" t="s">
         <v>44</v>
-      </c>
-      <c r="D7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" t="s">
-        <v>49</v>
-      </c>
-      <c r="J7" t="s">
-        <v>46</v>
       </c>
       <c r="K7" t="s">
         <v>44</v>
       </c>
       <c r="L7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O7" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="P7" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="Q7" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="R7" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="S7" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="T7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="U7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1163,64 +1149,64 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H8" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I8" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J8" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="K8" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="L8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M8" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="N8" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="O8" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="P8" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Q8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="R8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="S8" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="T8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="U8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1228,64 +1214,64 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I9" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="J9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="L9" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="M9" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="N9" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="O9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="P9" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="Q9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="R9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="S9" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="T9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="U9" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1293,64 +1279,64 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" t="s">
+        <v>37</v>
+      </c>
+      <c r="L10" t="s">
+        <v>38</v>
+      </c>
+      <c r="M10" t="s">
+        <v>51</v>
+      </c>
+      <c r="N10" t="s">
+        <v>40</v>
+      </c>
+      <c r="O10" t="s">
         <v>44</v>
       </c>
-      <c r="D10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" t="s">
-        <v>48</v>
-      </c>
-      <c r="J10" t="s">
-        <v>42</v>
-      </c>
-      <c r="K10" t="s">
-        <v>44</v>
-      </c>
-      <c r="L10" t="s">
-        <v>57</v>
-      </c>
-      <c r="M10" t="s">
-        <v>52</v>
-      </c>
-      <c r="N10" t="s">
-        <v>52</v>
-      </c>
-      <c r="O10" t="s">
-        <v>48</v>
-      </c>
       <c r="P10" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="Q10" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="R10" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="S10" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="T10" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="U10" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1358,64 +1344,64 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G11" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" t="s">
+        <v>41</v>
+      </c>
+      <c r="M11" t="s">
+        <v>35</v>
+      </c>
+      <c r="N11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O11" t="s">
         <v>49</v>
       </c>
-      <c r="K11" t="s">
-        <v>42</v>
-      </c>
-      <c r="L11" t="s">
-        <v>58</v>
-      </c>
-      <c r="M11" t="s">
-        <v>44</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="P11" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>40</v>
+      </c>
+      <c r="R11" t="s">
+        <v>47</v>
+      </c>
+      <c r="S11" t="s">
         <v>49</v>
       </c>
-      <c r="O11" t="s">
-        <v>48</v>
-      </c>
-      <c r="P11" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>48</v>
-      </c>
-      <c r="R11" t="s">
-        <v>52</v>
-      </c>
-      <c r="S11" t="s">
-        <v>52</v>
-      </c>
       <c r="T11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="U11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1423,64 +1409,64 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
         <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H12" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L12" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" t="s">
+        <v>42</v>
+      </c>
+      <c r="N12" t="s">
+        <v>45</v>
+      </c>
+      <c r="O12" t="s">
+        <v>42</v>
+      </c>
+      <c r="P12" t="s">
         <v>49</v>
       </c>
-      <c r="J12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K12" t="s">
-        <v>46</v>
-      </c>
-      <c r="L12" t="s">
+      <c r="Q12" t="s">
+        <v>49</v>
+      </c>
+      <c r="R12" t="s">
+        <v>49</v>
+      </c>
+      <c r="S12" t="s">
+        <v>41</v>
+      </c>
+      <c r="T12" t="s">
         <v>42</v>
       </c>
-      <c r="M12" t="s">
-        <v>43</v>
-      </c>
-      <c r="N12" t="s">
-        <v>49</v>
-      </c>
-      <c r="O12" t="s">
-        <v>43</v>
-      </c>
-      <c r="P12" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>46</v>
-      </c>
-      <c r="R12" t="s">
-        <v>43</v>
-      </c>
-      <c r="S12" t="s">
-        <v>49</v>
-      </c>
-      <c r="T12" t="s">
-        <v>43</v>
-      </c>
       <c r="U12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1488,64 +1474,64 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
         <v>49</v>
       </c>
-      <c r="C13" t="s">
-        <v>44</v>
-      </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" t="s">
+        <v>42</v>
+      </c>
+      <c r="L13" t="s">
+        <v>42</v>
+      </c>
+      <c r="M13" t="s">
+        <v>34</v>
+      </c>
+      <c r="N13" t="s">
+        <v>42</v>
+      </c>
+      <c r="O13" t="s">
+        <v>43</v>
+      </c>
+      <c r="P13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>42</v>
+      </c>
+      <c r="R13" t="s">
+        <v>42</v>
+      </c>
+      <c r="S13" t="s">
+        <v>42</v>
+      </c>
+      <c r="T13" t="s">
+        <v>43</v>
+      </c>
+      <c r="U13" t="s">
         <v>49</v>
-      </c>
-      <c r="F13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>52</v>
-      </c>
-      <c r="I13" t="s">
-        <v>52</v>
-      </c>
-      <c r="J13" t="s">
-        <v>49</v>
-      </c>
-      <c r="K13" t="s">
-        <v>44</v>
-      </c>
-      <c r="L13" t="s">
-        <v>46</v>
-      </c>
-      <c r="M13" t="s">
-        <v>42</v>
-      </c>
-      <c r="N13" t="s">
-        <v>52</v>
-      </c>
-      <c r="O13" t="s">
-        <v>49</v>
-      </c>
-      <c r="P13" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>46</v>
-      </c>
-      <c r="R13" t="s">
-        <v>52</v>
-      </c>
-      <c r="S13" t="s">
-        <v>52</v>
-      </c>
-      <c r="T13" t="s">
-        <v>49</v>
-      </c>
-      <c r="U13" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1553,64 +1539,64 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E14" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H14" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I14" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="J14" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="K14" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L14" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="M14" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="N14" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="O14" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="P14" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="Q14" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="R14" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="S14" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="T14" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="U14" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1618,64 +1604,64 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="F15" t="s">
         <v>48</v>
       </c>
       <c r="G15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" t="s">
         <v>48</v>
       </c>
-      <c r="H15" t="s">
+      <c r="J15" t="s">
+        <v>37</v>
+      </c>
+      <c r="K15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L15" t="s">
+        <v>50</v>
+      </c>
+      <c r="M15" t="s">
+        <v>37</v>
+      </c>
+      <c r="N15" t="s">
+        <v>39</v>
+      </c>
+      <c r="O15" t="s">
+        <v>34</v>
+      </c>
+      <c r="P15" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q15" t="s">
         <v>44</v>
       </c>
-      <c r="I15" t="s">
-        <v>52</v>
-      </c>
-      <c r="J15" t="s">
-        <v>48</v>
-      </c>
-      <c r="K15" t="s">
-        <v>44</v>
-      </c>
-      <c r="L15" t="s">
-        <v>48</v>
-      </c>
-      <c r="M15" t="s">
-        <v>53</v>
-      </c>
-      <c r="N15" t="s">
-        <v>53</v>
-      </c>
-      <c r="O15" t="s">
-        <v>42</v>
-      </c>
-      <c r="P15" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>57</v>
-      </c>
       <c r="R15" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="S15" t="s">
         <v>52</v>
       </c>
       <c r="T15" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="U15" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1683,64 +1669,64 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="G16" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="H16" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="I16" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="J16" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="K16" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="L16" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="M16" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="N16" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="O16" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="P16" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="Q16" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="R16" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="S16" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="T16" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="U16" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1748,64 +1734,64 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F17" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H17" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="I17" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="J17" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K17" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L17" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="M17" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="N17" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="O17" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="P17" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="Q17" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="R17" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="S17" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="T17" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="U17" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1813,64 +1799,64 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" t="s">
         <v>51</v>
       </c>
-      <c r="C18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" t="s">
-        <v>49</v>
-      </c>
-      <c r="G18" t="s">
-        <v>44</v>
-      </c>
-      <c r="H18" t="s">
-        <v>52</v>
-      </c>
       <c r="I18" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="J18" t="s">
         <v>44</v>
       </c>
       <c r="K18" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="L18" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="M18" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="N18" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="O18" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="P18" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="Q18" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="R18" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="S18" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="T18" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="U18" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1878,64 +1864,64 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" t="s">
         <v>52</v>
       </c>
-      <c r="D19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" t="s">
-        <v>58</v>
-      </c>
       <c r="G19" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I19" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="J19" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L19" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="M19" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="N19" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="O19" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="P19" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="Q19" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="R19" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="S19" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="T19" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="U19" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1943,64 +1929,64 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E20" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H20" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="I20" t="s">
         <v>51</v>
       </c>
       <c r="J20" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K20" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="L20" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M20" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="N20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O20" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="P20" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="Q20" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="R20" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="S20" t="s">
         <v>51</v>
       </c>
       <c r="T20" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="U20" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -2008,64 +1994,64 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E21" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="F21" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="G21" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="H21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I21" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="J21" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="K21" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="L21" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="M21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N21" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="O21" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="P21" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Q21" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="R21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="S21" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="T21" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="U21" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -2073,64 +2059,64 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" t="s">
+        <v>40</v>
+      </c>
+      <c r="I22" t="s">
+        <v>40</v>
+      </c>
+      <c r="J22" t="s">
+        <v>35</v>
+      </c>
+      <c r="K22" t="s">
+        <v>36</v>
+      </c>
+      <c r="L22" t="s">
+        <v>36</v>
+      </c>
+      <c r="M22" t="s">
+        <v>36</v>
+      </c>
+      <c r="N22" t="s">
+        <v>36</v>
+      </c>
+      <c r="O22" t="s">
         <v>44</v>
       </c>
-      <c r="E22" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" t="s">
-        <v>52</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="P22" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>39</v>
+      </c>
+      <c r="R22" t="s">
         <v>44</v>
       </c>
-      <c r="H22" t="s">
-        <v>53</v>
-      </c>
-      <c r="I22" t="s">
-        <v>53</v>
-      </c>
-      <c r="J22" t="s">
-        <v>52</v>
-      </c>
-      <c r="K22" t="s">
-        <v>52</v>
-      </c>
-      <c r="L22" t="s">
-        <v>44</v>
-      </c>
-      <c r="M22" t="s">
-        <v>53</v>
-      </c>
-      <c r="N22" t="s">
-        <v>45</v>
-      </c>
-      <c r="O22" t="s">
-        <v>52</v>
-      </c>
-      <c r="P22" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>44</v>
-      </c>
-      <c r="R22" t="s">
-        <v>53</v>
-      </c>
       <c r="S22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="T22" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="U22" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -2138,64 +2124,64 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D23" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F23" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H23" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="J23" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="K23" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="L23" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="M23" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="N23" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="O23" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="P23" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="Q23" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="R23" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="S23" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="T23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="U23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -2203,64 +2189,64 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D24" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G24" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J24" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="K24" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="L24" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="M24" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="N24" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="O24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T24" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="U24" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -2268,64 +2254,64 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D25" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E25" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F25" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G25" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="H25" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I25" t="s">
+        <v>49</v>
+      </c>
+      <c r="J25" t="s">
         <v>43</v>
       </c>
-      <c r="J25" t="s">
-        <v>52</v>
-      </c>
       <c r="K25" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="L25" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="M25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N25" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="P25" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="Q25" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="R25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S25" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="T25" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="U25" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2333,64 +2319,64 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="E26" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="F26" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G26" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="H26" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I26" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J26" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="K26" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="L26" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="M26" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="N26" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="O26" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="P26" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="Q26" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="R26" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="S26" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="T26" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="U26" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2398,64 +2384,64 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E27" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="G27" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H27" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="I27" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J27" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="K27" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="L27" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="M27" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="N27" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="P27" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="Q27" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="R27" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="S27" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="T27" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="U27" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2463,64 +2449,64 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D28" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="E28" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G28" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="H28" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I28" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J28" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="K28" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="L28" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="M28" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="N28" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="O28" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="P28" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Q28" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="R28" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="S28" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="T28" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="U28" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2528,64 +2514,64 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="D29" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F29" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="G29" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="H29" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="I29" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="J29" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K29" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="L29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M29" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="N29" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="O29" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="P29" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="Q29" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="R29" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="S29" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="T29" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="U29" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2593,64 +2579,64 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D30" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E30" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F30" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="H30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I30" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="J30" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="K30" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="L30" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="M30" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="N30" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="O30" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="P30" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="Q30" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="R30" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="S30" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="T30" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="U30" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2658,64 +2644,64 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="D31" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F31" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H31" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I31" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="J31" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="K31" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="L31" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="M31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N31" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="O31" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="P31" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="Q31" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="R31" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="S31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T31" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="U31" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2723,64 +2709,64 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="D32" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E32" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F32" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G32" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I32" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="J32" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="K32" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="L32" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="M32" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N32" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="O32" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="P32" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="Q32" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="R32" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="S32" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="T32" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="U32" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2788,64 +2774,64 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D33" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="E33" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="F33" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="G33" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="H33" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="I33" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="J33" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="K33" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="L33" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="M33" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="N33" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="O33" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="P33" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="Q33" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="R33" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="S33" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="T33" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="U33" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2853,64 +2839,64 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E34" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="F34" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="G34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H34" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I34" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="J34" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="K34" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="L34" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="M34" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="N34" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="O34" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="P34" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="Q34" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="R34" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="S34" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="T34" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="U34" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2918,584 +2904,64 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C35" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D35" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E35" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F35" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="G35" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H35" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I35" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J35" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K35" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="L35" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="M35" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="N35" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O35" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="P35" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="Q35" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="R35" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="S35" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="T35" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="U35" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21">
-      <c r="A36" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>56</v>
-      </c>
-      <c r="C36" t="s">
-        <v>52</v>
-      </c>
-      <c r="D36" t="s">
-        <v>43</v>
-      </c>
-      <c r="E36" t="s">
-        <v>54</v>
-      </c>
-      <c r="F36" t="s">
-        <v>54</v>
-      </c>
-      <c r="G36" t="s">
-        <v>54</v>
-      </c>
-      <c r="H36" t="s">
-        <v>54</v>
-      </c>
-      <c r="I36" t="s">
-        <v>54</v>
-      </c>
-      <c r="J36" t="s">
-        <v>55</v>
-      </c>
-      <c r="K36" t="s">
-        <v>55</v>
-      </c>
-      <c r="L36" t="s">
-        <v>55</v>
-      </c>
-      <c r="M36" t="s">
-        <v>55</v>
-      </c>
-      <c r="N36" t="s">
-        <v>55</v>
-      </c>
-      <c r="O36" t="s">
-        <v>53</v>
-      </c>
-      <c r="P36" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>43</v>
-      </c>
-      <c r="R36" t="s">
-        <v>53</v>
-      </c>
-      <c r="S36" t="s">
-        <v>43</v>
-      </c>
-      <c r="T36" t="s">
-        <v>56</v>
-      </c>
-      <c r="U36" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21">
-      <c r="A37" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>57</v>
-      </c>
-      <c r="C37" t="s">
-        <v>51</v>
-      </c>
-      <c r="D37" t="s">
-        <v>57</v>
-      </c>
-      <c r="E37" t="s">
-        <v>57</v>
-      </c>
-      <c r="F37" t="s">
-        <v>51</v>
-      </c>
-      <c r="G37" t="s">
-        <v>57</v>
-      </c>
-      <c r="H37" t="s">
-        <v>57</v>
-      </c>
-      <c r="I37" t="s">
-        <v>57</v>
-      </c>
-      <c r="J37" t="s">
-        <v>52</v>
-      </c>
-      <c r="K37" t="s">
-        <v>52</v>
-      </c>
-      <c r="L37" t="s">
-        <v>43</v>
-      </c>
-      <c r="M37" t="s">
-        <v>52</v>
-      </c>
-      <c r="N37" t="s">
-        <v>52</v>
-      </c>
-      <c r="O37" t="s">
-        <v>57</v>
-      </c>
-      <c r="P37" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>42</v>
-      </c>
-      <c r="R37" t="s">
-        <v>57</v>
-      </c>
-      <c r="S37" t="s">
-        <v>57</v>
-      </c>
-      <c r="T37" t="s">
-        <v>52</v>
-      </c>
-      <c r="U37" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21">
-      <c r="A38" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>44</v>
-      </c>
-      <c r="C38" t="s">
-        <v>57</v>
-      </c>
-      <c r="D38" t="s">
-        <v>57</v>
-      </c>
-      <c r="E38" t="s">
-        <v>44</v>
-      </c>
-      <c r="F38" t="s">
-        <v>57</v>
-      </c>
-      <c r="G38" t="s">
-        <v>44</v>
-      </c>
-      <c r="H38" t="s">
-        <v>57</v>
-      </c>
-      <c r="I38" t="s">
-        <v>57</v>
-      </c>
-      <c r="J38" t="s">
-        <v>43</v>
-      </c>
-      <c r="K38" t="s">
-        <v>57</v>
-      </c>
-      <c r="L38" t="s">
-        <v>43</v>
-      </c>
-      <c r="M38" t="s">
-        <v>57</v>
-      </c>
-      <c r="N38" t="s">
-        <v>57</v>
-      </c>
-      <c r="O38" t="s">
-        <v>43</v>
-      </c>
-      <c r="P38" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>43</v>
-      </c>
-      <c r="R38" t="s">
-        <v>42</v>
-      </c>
-      <c r="S38" t="s">
-        <v>57</v>
-      </c>
-      <c r="T38" t="s">
-        <v>43</v>
-      </c>
-      <c r="U38" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21">
-      <c r="A39" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" t="s">
-        <v>52</v>
-      </c>
-      <c r="D39" t="s">
-        <v>43</v>
-      </c>
-      <c r="E39" t="s">
-        <v>52</v>
-      </c>
-      <c r="F39" t="s">
-        <v>52</v>
-      </c>
-      <c r="G39" t="s">
-        <v>43</v>
-      </c>
-      <c r="H39" t="s">
-        <v>52</v>
-      </c>
-      <c r="I39" t="s">
-        <v>52</v>
-      </c>
-      <c r="J39" t="s">
-        <v>52</v>
-      </c>
-      <c r="K39" t="s">
-        <v>52</v>
-      </c>
-      <c r="L39" t="s">
-        <v>52</v>
-      </c>
-      <c r="M39" t="s">
-        <v>52</v>
-      </c>
-      <c r="N39" t="s">
-        <v>52</v>
-      </c>
-      <c r="O39" t="s">
-        <v>57</v>
-      </c>
-      <c r="P39" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>43</v>
-      </c>
-      <c r="R39" t="s">
-        <v>57</v>
-      </c>
-      <c r="S39" t="s">
-        <v>42</v>
-      </c>
-      <c r="T39" t="s">
-        <v>52</v>
-      </c>
-      <c r="U39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21">
-      <c r="A40" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40" t="s">
-        <v>52</v>
-      </c>
-      <c r="D40" t="s">
-        <v>43</v>
-      </c>
-      <c r="E40" t="s">
-        <v>52</v>
-      </c>
-      <c r="F40" t="s">
-        <v>52</v>
-      </c>
-      <c r="G40" t="s">
-        <v>52</v>
-      </c>
-      <c r="H40" t="s">
-        <v>52</v>
-      </c>
-      <c r="I40" t="s">
-        <v>52</v>
-      </c>
-      <c r="J40" t="s">
-        <v>52</v>
-      </c>
-      <c r="K40" t="s">
-        <v>52</v>
-      </c>
-      <c r="L40" t="s">
-        <v>52</v>
-      </c>
-      <c r="M40" t="s">
-        <v>52</v>
-      </c>
-      <c r="N40" t="s">
-        <v>52</v>
-      </c>
-      <c r="O40" t="s">
-        <v>43</v>
-      </c>
-      <c r="P40" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>52</v>
-      </c>
-      <c r="R40" t="s">
-        <v>52</v>
-      </c>
-      <c r="S40" t="s">
-        <v>52</v>
-      </c>
-      <c r="T40" t="s">
-        <v>42</v>
-      </c>
-      <c r="U40" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21">
-      <c r="A41" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>57</v>
-      </c>
-      <c r="C41" t="s">
-        <v>57</v>
-      </c>
-      <c r="D41" t="s">
-        <v>44</v>
-      </c>
-      <c r="E41" t="s">
-        <v>52</v>
-      </c>
-      <c r="F41" t="s">
-        <v>52</v>
-      </c>
-      <c r="G41" t="s">
-        <v>52</v>
-      </c>
-      <c r="H41" t="s">
-        <v>52</v>
-      </c>
-      <c r="I41" t="s">
-        <v>52</v>
-      </c>
-      <c r="J41" t="s">
-        <v>57</v>
-      </c>
-      <c r="K41" t="s">
-        <v>57</v>
-      </c>
-      <c r="L41" t="s">
-        <v>57</v>
-      </c>
-      <c r="M41" t="s">
-        <v>57</v>
-      </c>
-      <c r="N41" t="s">
-        <v>44</v>
-      </c>
-      <c r="O41" t="s">
-        <v>52</v>
-      </c>
-      <c r="P41" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>52</v>
-      </c>
-      <c r="R41" t="s">
-        <v>52</v>
-      </c>
-      <c r="S41" t="s">
-        <v>52</v>
-      </c>
-      <c r="T41" t="s">
-        <v>57</v>
-      </c>
-      <c r="U41" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21">
-      <c r="A42" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>42</v>
-      </c>
-      <c r="C42" t="s">
-        <v>57</v>
-      </c>
-      <c r="D42" t="s">
-        <v>57</v>
-      </c>
-      <c r="E42" t="s">
-        <v>57</v>
-      </c>
-      <c r="F42" t="s">
-        <v>57</v>
-      </c>
-      <c r="G42" t="s">
-        <v>57</v>
-      </c>
-      <c r="H42" t="s">
-        <v>57</v>
-      </c>
-      <c r="I42" t="s">
-        <v>44</v>
-      </c>
-      <c r="J42" t="s">
-        <v>57</v>
-      </c>
-      <c r="K42" t="s">
-        <v>57</v>
-      </c>
-      <c r="L42" t="s">
-        <v>57</v>
-      </c>
-      <c r="M42" t="s">
-        <v>57</v>
-      </c>
-      <c r="N42" t="s">
-        <v>44</v>
-      </c>
-      <c r="O42" t="s">
-        <v>57</v>
-      </c>
-      <c r="P42" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>57</v>
-      </c>
-      <c r="R42" t="s">
-        <v>57</v>
-      </c>
-      <c r="S42" t="s">
-        <v>44</v>
-      </c>
-      <c r="T42" t="s">
-        <v>52</v>
-      </c>
-      <c r="U42" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21">
-      <c r="A43" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" t="s">
-        <v>42</v>
-      </c>
-      <c r="D43" t="s">
-        <v>57</v>
-      </c>
-      <c r="E43" t="s">
-        <v>57</v>
-      </c>
-      <c r="F43" t="s">
-        <v>57</v>
-      </c>
-      <c r="G43" t="s">
-        <v>57</v>
-      </c>
-      <c r="H43" t="s">
-        <v>57</v>
-      </c>
-      <c r="I43" t="s">
-        <v>44</v>
-      </c>
-      <c r="J43" t="s">
-        <v>57</v>
-      </c>
-      <c r="K43" t="s">
-        <v>57</v>
-      </c>
-      <c r="L43" t="s">
-        <v>57</v>
-      </c>
-      <c r="M43" t="s">
-        <v>57</v>
-      </c>
-      <c r="N43" t="s">
-        <v>51</v>
-      </c>
-      <c r="O43" t="s">
-        <v>57</v>
-      </c>
-      <c r="P43" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>57</v>
-      </c>
-      <c r="R43" t="s">
-        <v>57</v>
-      </c>
-      <c r="S43" t="s">
-        <v>44</v>
-      </c>
-      <c r="T43" t="s">
-        <v>52</v>
-      </c>
-      <c r="U43" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -3505,7 +2971,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3513,7 +2979,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3521,7 +2987,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3537,7 +3003,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3545,7 +3011,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3561,7 +3027,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3569,7 +3035,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3577,7 +3043,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3585,7 +3051,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3593,7 +3059,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3601,7 +3067,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3609,7 +3075,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3617,7 +3083,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3625,7 +3091,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3633,7 +3099,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3641,7 +3107,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3649,7 +3115,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3657,7 +3123,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3673,7 +3139,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3681,7 +3147,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3697,7 +3163,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3705,7 +3171,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -3713,7 +3179,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -3721,7 +3187,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3729,7 +3195,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3737,7 +3203,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -3745,7 +3211,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3753,7 +3219,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -3761,7 +3227,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -3769,7 +3235,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3777,7 +3243,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3785,71 +3251,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37">
         <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -3867,92 +3269,92 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.06682027649769585</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.01023017902813299</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.02137767220902613</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.009569377990430622</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.009732360097323601</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.07556675062972293</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.1152416356877323</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.01209677419354839</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.00353356890459364</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.01626016260162602</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -3960,7 +3362,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -3968,7 +3370,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3976,7 +3378,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3984,7 +3386,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3992,15 +3394,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.02735562310030395</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -4008,7 +3410,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -4016,7 +3418,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -4024,7 +3426,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -4032,31 +3434,31 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.006622516556291391</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.04054054054054054</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B24">
-        <v>0.01973684210526316</v>
+        <v>0.04605263157894737</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -4077,7 +3479,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4085,7 +3487,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.0665083135391924</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4101,7 +3503,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.0084985835694051</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4109,7 +3511,7 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0.002375296912114014</v>
+        <v>0.06888361045130641</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4125,7 +3527,7 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.0056657223796034</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4149,7 +3551,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.002375296912114014</v>
+        <v>0.06413301662707839</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4157,7 +3559,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.005555555555555556</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4165,7 +3567,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>0.0084985835694051</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4189,7 +3591,7 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.0665083135391924</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4205,7 +3607,7 @@
         <v>24</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.0028328611898017</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4229,7 +3631,7 @@
         <v>29</v>
       </c>
       <c r="B20">
-        <v>0.002375296912114014</v>
+        <v>0.0498812351543943</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4247,7 +3649,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4255,7 +3657,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4263,7 +3665,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4271,7 +3673,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4279,7 +3681,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4287,7 +3689,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4295,7 +3697,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4303,7 +3705,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4311,7 +3713,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4319,7 +3721,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4327,7 +3729,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4335,7 +3737,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4343,7 +3745,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4351,7 +3753,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4367,7 +3769,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4375,7 +3777,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4391,7 +3793,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4399,7 +3801,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4407,7 +3809,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4415,7 +3817,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4431,7 +3833,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -4447,7 +3849,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -4455,7 +3857,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -4471,7 +3873,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4487,7 +3889,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -4503,7 +3905,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -4511,7 +3913,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -4519,7 +3921,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -4527,70 +3929,6 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43">
         <v>0</v>
       </c>
     </row>
@@ -4609,79 +3947,79 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:26">
@@ -4689,34 +4027,34 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -4734,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -4755,13 +4093,13 @@
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -4912,16 +4250,16 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -4929,34 +4267,34 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -4974,7 +4312,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -5001,7 +4339,7 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -5104,7 +4442,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -5152,7 +4490,7 @@
         <v>0</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7">
         <v>0</v>
@@ -5161,7 +4499,7 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -5329,34 +4667,34 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -5374,7 +4712,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -5401,7 +4739,7 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -5427,7 +4765,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -5469,7 +4807,7 @@
         <v>0</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11">
         <v>0</v>
@@ -5481,7 +4819,7 @@
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -5552,16 +4890,16 @@
         <v>0</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -5729,25 +5067,25 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -5756,7 +5094,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -5774,7 +5112,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -5795,13 +5133,13 @@
         <v>0</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -5952,7 +5290,7 @@
         <v>0</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X17">
         <v>0</v>
@@ -5961,7 +5299,7 @@
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -6129,13 +5467,13 @@
         <v>29</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -6144,13 +5482,13 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -6174,7 +5512,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -6201,7 +5539,7 @@
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -6286,37 +5624,37 @@
     </row>
     <row r="22" spans="1:26">
       <c r="A22" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -6334,7 +5672,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="R22">
         <v>0</v>
@@ -6349,19 +5687,19 @@
         <v>0</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X22">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>3</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -6371,7 +5709,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6399,19 +5737,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="F2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -6419,19 +5757,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E3" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -6439,19 +5777,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F4" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -6459,19 +5797,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" t="s">
         <v>93</v>
       </c>
-      <c r="C5" t="s">
-        <v>92</v>
-      </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6479,19 +5817,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6499,19 +5837,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E7" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6519,19 +5857,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D8" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E8" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -6539,19 +5877,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -6559,19 +5897,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D10" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E10" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F10" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -6579,19 +5917,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E11" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F11" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -6599,19 +5937,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D12" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -6619,19 +5957,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -6639,19 +5977,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" t="s">
         <v>92</v>
       </c>
-      <c r="C14" t="s">
-        <v>98</v>
-      </c>
-      <c r="D14" t="s">
-        <v>95</v>
-      </c>
       <c r="E14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -6659,19 +5997,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" t="s">
         <v>91</v>
       </c>
-      <c r="C15" t="s">
-        <v>103</v>
-      </c>
-      <c r="D15" t="s">
-        <v>106</v>
-      </c>
-      <c r="E15" t="s">
-        <v>99</v>
-      </c>
       <c r="F15" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -6679,19 +6017,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E16" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F16" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6699,19 +6037,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D17" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="E17" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F17" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6719,19 +6057,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C18" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D18" t="s">
         <v>97</v>
       </c>
       <c r="E18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F18" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6739,19 +6077,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" t="s">
         <v>98</v>
       </c>
-      <c r="C19" t="s">
-        <v>104</v>
-      </c>
-      <c r="D19" t="s">
-        <v>104</v>
-      </c>
       <c r="E19" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F19" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6759,19 +6097,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C20" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D20" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E20" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="F20" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6779,19 +6117,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="D21" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="E21" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="F21" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -6799,19 +6137,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C22" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="D22" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="E22" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F22" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6819,19 +6157,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C23" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D23" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="E23" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="F23" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6839,19 +6177,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C24" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D24" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E24" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F24" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6859,19 +6197,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C25" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D25" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="E25" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F25" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6879,19 +6217,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D26" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="E26" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="F26" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6899,19 +6237,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C27" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D27" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F27" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -6919,19 +6257,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C28" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D28" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E28" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="F28" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -6939,19 +6277,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D29" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E29" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="F29" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -6959,19 +6297,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C30" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D30" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="E30" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F30" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -6979,19 +6317,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" t="s">
         <v>91</v>
       </c>
-      <c r="C31" t="s">
-        <v>93</v>
-      </c>
-      <c r="D31" t="s">
-        <v>96</v>
-      </c>
       <c r="E31" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="F31" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -6999,19 +6337,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C32" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D32" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="E32" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="F32" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7019,19 +6357,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C33" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D33" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" t="s">
         <v>93</v>
       </c>
-      <c r="E33" t="s">
-        <v>91</v>
-      </c>
       <c r="F33" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7039,19 +6377,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C34" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D34" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E34" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="F34" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7059,179 +6397,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C35" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D35" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E35" t="s">
         <v>101</v>
       </c>
       <c r="F35" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>96</v>
-      </c>
-      <c r="C36" t="s">
-        <v>91</v>
-      </c>
-      <c r="D36" t="s">
-        <v>91</v>
-      </c>
-      <c r="E36" t="s">
-        <v>93</v>
-      </c>
-      <c r="F36" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>90</v>
-      </c>
-      <c r="C37" t="s">
-        <v>90</v>
-      </c>
-      <c r="D37" t="s">
-        <v>96</v>
-      </c>
-      <c r="E37" t="s">
-        <v>101</v>
-      </c>
-      <c r="F37" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>90</v>
-      </c>
-      <c r="C38" t="s">
-        <v>90</v>
-      </c>
-      <c r="D38" t="s">
-        <v>101</v>
-      </c>
-      <c r="E38" t="s">
-        <v>101</v>
-      </c>
-      <c r="F38" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>96</v>
-      </c>
-      <c r="C39" t="s">
-        <v>96</v>
-      </c>
-      <c r="D39" t="s">
-        <v>96</v>
-      </c>
-      <c r="E39" t="s">
-        <v>101</v>
-      </c>
-      <c r="F39" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>96</v>
-      </c>
-      <c r="C40" t="s">
-        <v>96</v>
-      </c>
-      <c r="D40" t="s">
-        <v>96</v>
-      </c>
-      <c r="E40" t="s">
-        <v>96</v>
-      </c>
-      <c r="F40" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>90</v>
-      </c>
-      <c r="C41" t="s">
-        <v>96</v>
-      </c>
-      <c r="D41" t="s">
-        <v>90</v>
-      </c>
-      <c r="E41" t="s">
-        <v>96</v>
-      </c>
-      <c r="F41" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>101</v>
-      </c>
-      <c r="C42" t="s">
-        <v>90</v>
-      </c>
-      <c r="D42" t="s">
-        <v>90</v>
-      </c>
-      <c r="E42" t="s">
-        <v>90</v>
-      </c>
-      <c r="F42" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>101</v>
-      </c>
-      <c r="C43" t="s">
-        <v>90</v>
-      </c>
-      <c r="D43" t="s">
-        <v>90</v>
-      </c>
-      <c r="E43" t="s">
-        <v>90</v>
-      </c>
-      <c r="F43" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/alg_schedule_data_2019_4.xlsx
+++ b/alg_schedule_data_2019_4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="104">
   <si>
     <t>Abe</t>
   </si>
@@ -37,10 +37,7 @@
     <t>Crystal</t>
   </si>
   <si>
-    <t>Cynthia</t>
-  </si>
-  <si>
-    <t>Daphne</t>
+    <t>Elaine</t>
   </si>
   <si>
     <t>Ellen</t>
@@ -58,7 +55,10 @@
     <t>Ginny</t>
   </si>
   <si>
-    <t>Irene</t>
+    <t>Jamie</t>
+  </si>
+  <si>
+    <t>Jane</t>
   </si>
   <si>
     <t>Janet</t>
@@ -76,6 +76,9 @@
     <t>Karen</t>
   </si>
   <si>
+    <t>Lance</t>
+  </si>
+  <si>
     <t>Mandy</t>
   </si>
   <si>
@@ -97,6 +100,9 @@
     <t>Oscar</t>
   </si>
   <si>
+    <t>Patty</t>
+  </si>
+  <si>
     <t>Sabina</t>
   </si>
   <si>
@@ -109,78 +115,98 @@
     <t>Sandy</t>
   </si>
   <si>
-    <t>Sharon</t>
-  </si>
-  <si>
     <t>Sony</t>
   </si>
   <si>
-    <t xml:space="preserve">Summer </t>
-  </si>
-  <si>
-    <t>Vivian</t>
+    <t>Stacy</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>Vivian
+Huang</t>
+  </si>
+  <si>
+    <t>Vivian
+Kuang</t>
   </si>
   <si>
     <t>Yvette</t>
   </si>
   <si>
+    <t>Anita</t>
+  </si>
+  <si>
+    <t>Catherine</t>
+  </si>
+  <si>
+    <t>Lisa</t>
+  </si>
+  <si>
+    <t>Penny</t>
+  </si>
+  <si>
+    <t>Soraya</t>
+  </si>
+  <si>
     <t>O</t>
   </si>
   <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>W6</t>
+  </si>
+  <si>
+    <t>OB</t>
+  </si>
+  <si>
     <t>N1</t>
   </si>
   <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>W6</t>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>A5</t>
   </si>
   <si>
     <t>P3</t>
   </si>
   <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>P2</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>OB</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>CD</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>P4</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>AS</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>P5</t>
-  </si>
-  <si>
     <t>NightWork_count</t>
   </si>
   <si>
@@ -268,67 +294,46 @@
     <t>SUM_per_time</t>
   </si>
   <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['13:00']</t>
+  </si>
+  <si>
+    <t>['12:30']</t>
+  </si>
+  <si>
     <t>['11:30', '12:00']</t>
   </si>
   <si>
+    <t>['12:30', '13:00']</t>
+  </si>
+  <si>
+    <t>['12:00', '12:30']</t>
+  </si>
+  <si>
+    <t>['11:30']</t>
+  </si>
+  <si>
+    <t>['12:00']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:30']</t>
+  </si>
+  <si>
+    <t>['11:30', '13:30']</t>
+  </si>
+  <si>
     <t>['11:30', '13:00']</t>
   </si>
   <si>
-    <t>['13:00']</t>
-  </si>
-  <si>
     <t>['13:30']</t>
   </si>
   <si>
-    <t>['11:30', '12:30']</t>
-  </si>
-  <si>
-    <t>['12:30', '13:00']</t>
-  </si>
-  <si>
-    <t>['12:00']</t>
-  </si>
-  <si>
-    <t>['12:00', '12:30']</t>
-  </si>
-  <si>
-    <t>['12:30']</t>
-  </si>
-  <si>
-    <t>['11:30', '13:30']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:30', '13:00']</t>
-  </si>
-  <si>
     <t>['11:30', '12:00', '12:30']</t>
   </si>
   <si>
-    <t>['11:30', '13:00', '13:30']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:00', '13:00']</t>
-  </si>
-  <si>
     <t>['12:00', '13:00']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:00', '13:30']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:30', '13:30']</t>
-  </si>
-  <si>
-    <t>['13:00', '13:30']</t>
-  </si>
-  <si>
-    <t>['12:00', '13:30']</t>
-  </si>
-  <si>
-    <t>['11:30']</t>
-  </si>
-  <si>
-    <t>[]</t>
   </si>
 </sst>
 </file>
@@ -686,7 +691,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U35"/>
+  <dimension ref="A1:U43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -759,64 +764,64 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="I2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="K2" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="L2" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="M2" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="N2" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="Q2" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="R2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="S2" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="U2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -824,64 +829,64 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I3" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J3" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="K3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="M3" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="N3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="O3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="P3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q3" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="R3" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="S3" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="T3" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="U3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -889,64 +894,64 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="G4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L4" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="M4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="N4" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="O4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="Q4" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="R4" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="S4" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="T4" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="U4" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -954,64 +959,64 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" t="s">
         <v>44</v>
       </c>
-      <c r="D5" t="s">
+      <c r="K5" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" t="s">
+        <v>54</v>
+      </c>
+      <c r="N5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O5" t="s">
         <v>44</v>
       </c>
-      <c r="E5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" t="s">
-        <v>40</v>
-      </c>
-      <c r="O5" t="s">
-        <v>36</v>
-      </c>
       <c r="P5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>53</v>
+      </c>
+      <c r="R5" t="s">
+        <v>49</v>
+      </c>
+      <c r="S5" t="s">
+        <v>49</v>
+      </c>
+      <c r="T5" t="s">
         <v>44</v>
       </c>
-      <c r="Q5" t="s">
-        <v>50</v>
-      </c>
-      <c r="R5" t="s">
-        <v>37</v>
-      </c>
-      <c r="S5" t="s">
-        <v>36</v>
-      </c>
-      <c r="T5" t="s">
-        <v>35</v>
-      </c>
       <c r="U5" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -1019,64 +1024,64 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" t="s">
         <v>50</v>
       </c>
-      <c r="H6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" t="s">
-        <v>50</v>
-      </c>
-      <c r="M6" t="s">
-        <v>40</v>
-      </c>
-      <c r="N6" t="s">
-        <v>40</v>
-      </c>
-      <c r="O6" t="s">
-        <v>37</v>
-      </c>
       <c r="P6" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="Q6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="R6" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="S6" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="T6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="U6" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -1084,64 +1089,64 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="P7" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="Q7" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="R7" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="S7" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="T7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="U7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1149,64 +1154,64 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="I8" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="J8" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K8" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="L8" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="M8" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="N8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="O8" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="P8" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="Q8" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="R8" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="S8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="T8" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="U8" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1214,64 +1219,64 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="J9" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L9" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="M9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N9" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="O9" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="P9" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="Q9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="R9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="S9" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="T9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="U9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1279,64 +1284,64 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G10" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J10" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="K10" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="L10" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="M10" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="N10" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="O10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P10" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="Q10" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="R10" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="S10" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="T10" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="U10" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1344,58 +1349,58 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
         <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="H11" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K11" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="L11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M11" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="N11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="O11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P11" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="Q11" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="R11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T11" t="s">
         <v>45</v>
@@ -1409,64 +1414,64 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" t="s">
+        <v>48</v>
+      </c>
+      <c r="L12" t="s">
         <v>42</v>
       </c>
-      <c r="C12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" t="s">
-        <v>42</v>
-      </c>
-      <c r="J12" t="s">
-        <v>42</v>
-      </c>
-      <c r="K12" t="s">
-        <v>45</v>
-      </c>
-      <c r="L12" t="s">
-        <v>34</v>
-      </c>
       <c r="M12" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="N12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O12" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="P12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Q12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="S12" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="T12" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="U12" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1474,64 +1479,64 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13" t="s">
+        <v>46</v>
+      </c>
+      <c r="M13" t="s">
         <v>42</v>
-      </c>
-      <c r="E13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13" t="s">
-        <v>43</v>
-      </c>
-      <c r="I13" t="s">
-        <v>43</v>
-      </c>
-      <c r="J13" t="s">
-        <v>43</v>
-      </c>
-      <c r="K13" t="s">
-        <v>42</v>
-      </c>
-      <c r="L13" t="s">
-        <v>42</v>
-      </c>
-      <c r="M13" t="s">
-        <v>34</v>
       </c>
       <c r="N13" t="s">
         <v>42</v>
       </c>
       <c r="O13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="P13" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="Q13" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="R13" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="S13" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="T13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="U13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1539,64 +1544,64 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
         <v>48</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G14" t="s">
         <v>48</v>
       </c>
       <c r="H14" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="I14" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="J14" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="K14" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="L14" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="M14" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="N14" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="O14" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="P14" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q14" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="R14" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="S14" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="T14" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="U14" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1604,64 +1609,64 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="J15" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K15" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="L15" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M15" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="N15" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="O15" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="P15" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="Q15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R15" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="S15" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="T15" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="U15" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1669,64 +1674,64 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="I16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J16" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="K16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L16" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="M16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="O16" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="P16" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="Q16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="S16" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="T16" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="U16" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1734,64 +1739,64 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" t="s">
+        <v>53</v>
+      </c>
+      <c r="I17" t="s">
+        <v>53</v>
+      </c>
+      <c r="J17" t="s">
+        <v>49</v>
+      </c>
+      <c r="K17" t="s">
+        <v>53</v>
+      </c>
+      <c r="L17" t="s">
+        <v>49</v>
+      </c>
+      <c r="M17" t="s">
+        <v>49</v>
+      </c>
+      <c r="N17" t="s">
+        <v>49</v>
+      </c>
+      <c r="O17" t="s">
+        <v>49</v>
+      </c>
+      <c r="P17" t="s">
         <v>44</v>
       </c>
-      <c r="C17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" t="s">
-        <v>51</v>
-      </c>
-      <c r="H17" t="s">
-        <v>37</v>
-      </c>
-      <c r="I17" t="s">
-        <v>39</v>
-      </c>
-      <c r="J17" t="s">
-        <v>40</v>
-      </c>
-      <c r="K17" t="s">
-        <v>40</v>
-      </c>
-      <c r="L17" t="s">
-        <v>40</v>
-      </c>
-      <c r="M17" t="s">
-        <v>35</v>
-      </c>
-      <c r="N17" t="s">
-        <v>40</v>
-      </c>
-      <c r="O17" t="s">
-        <v>40</v>
-      </c>
-      <c r="P17" t="s">
-        <v>40</v>
-      </c>
       <c r="Q17" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="R17" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="S17" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="T17" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="U17" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1799,64 +1804,64 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G18" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" t="s">
         <v>50</v>
       </c>
-      <c r="H18" t="s">
-        <v>51</v>
-      </c>
-      <c r="I18" t="s">
-        <v>37</v>
-      </c>
-      <c r="J18" t="s">
-        <v>44</v>
-      </c>
       <c r="K18" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L18" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="M18" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="N18" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="O18" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="P18" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="Q18" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="R18" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="S18" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="T18" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="U18" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1864,64 +1869,64 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="D19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" t="s">
         <v>50</v>
       </c>
-      <c r="E19" t="s">
+      <c r="G19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" t="s">
+        <v>58</v>
+      </c>
+      <c r="J19" t="s">
+        <v>58</v>
+      </c>
+      <c r="K19" t="s">
+        <v>58</v>
+      </c>
+      <c r="L19" t="s">
+        <v>43</v>
+      </c>
+      <c r="M19" t="s">
+        <v>48</v>
+      </c>
+      <c r="N19" t="s">
+        <v>58</v>
+      </c>
+      <c r="O19" t="s">
+        <v>51</v>
+      </c>
+      <c r="P19" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q19" t="s">
         <v>47</v>
       </c>
-      <c r="F19" t="s">
-        <v>52</v>
-      </c>
-      <c r="G19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H19" t="s">
-        <v>52</v>
-      </c>
-      <c r="I19" t="s">
-        <v>52</v>
-      </c>
-      <c r="J19" t="s">
-        <v>40</v>
-      </c>
-      <c r="K19" t="s">
-        <v>47</v>
-      </c>
-      <c r="L19" t="s">
-        <v>44</v>
-      </c>
-      <c r="M19" t="s">
-        <v>40</v>
-      </c>
-      <c r="N19" t="s">
-        <v>38</v>
-      </c>
-      <c r="O19" t="s">
-        <v>35</v>
-      </c>
-      <c r="P19" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>36</v>
-      </c>
       <c r="R19" t="s">
         <v>48</v>
       </c>
       <c r="S19" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="T19" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="U19" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1929,64 +1934,64 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" t="s">
+        <v>45</v>
+      </c>
+      <c r="I20" t="s">
+        <v>50</v>
+      </c>
+      <c r="J20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K20" t="s">
+        <v>50</v>
+      </c>
+      <c r="L20" t="s">
+        <v>60</v>
+      </c>
+      <c r="M20" t="s">
+        <v>45</v>
+      </c>
+      <c r="N20" t="s">
+        <v>45</v>
+      </c>
+      <c r="O20" t="s">
+        <v>47</v>
+      </c>
+      <c r="P20" t="s">
         <v>51</v>
-      </c>
-      <c r="E20" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" t="s">
-        <v>51</v>
-      </c>
-      <c r="G20" t="s">
-        <v>51</v>
-      </c>
-      <c r="H20" t="s">
-        <v>37</v>
-      </c>
-      <c r="I20" t="s">
-        <v>51</v>
-      </c>
-      <c r="J20" t="s">
-        <v>40</v>
-      </c>
-      <c r="K20" t="s">
-        <v>37</v>
-      </c>
-      <c r="L20" t="s">
-        <v>51</v>
-      </c>
-      <c r="M20" t="s">
-        <v>37</v>
-      </c>
-      <c r="N20" t="s">
-        <v>51</v>
-      </c>
-      <c r="O20" t="s">
-        <v>40</v>
-      </c>
-      <c r="P20" t="s">
-        <v>40</v>
       </c>
       <c r="Q20" t="s">
         <v>51</v>
       </c>
       <c r="R20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="S20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="T20" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="U20" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -1994,64 +1999,64 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="J21" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="K21" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="L21" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="M21" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="N21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O21" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="P21" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="Q21" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="R21" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="S21" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="T21" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="U21" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -2059,64 +2064,64 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E22" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G22" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="H22" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I22" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J22" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="K22" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="L22" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="M22" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="N22" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="O22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P22" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="Q22" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="R22" t="s">
         <v>44</v>
       </c>
       <c r="S22" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="T22" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="U22" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -2124,64 +2129,64 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E23" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G23" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>48</v>
+      </c>
+      <c r="J23" t="s">
+        <v>45</v>
+      </c>
+      <c r="K23" t="s">
         <v>47</v>
       </c>
-      <c r="I23" t="s">
-        <v>40</v>
-      </c>
-      <c r="J23" t="s">
-        <v>45</v>
-      </c>
-      <c r="K23" t="s">
-        <v>35</v>
-      </c>
       <c r="L23" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N23" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="O23" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="P23" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Q23" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="R23" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="S23" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="T23" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="U23" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -2189,64 +2194,64 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="K24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L24" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P24" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q24" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="R24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S24" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="T24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U24" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -2254,52 +2259,52 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D25" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="E25" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G25" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="H25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K25" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="L25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M25" t="s">
         <v>43</v>
       </c>
       <c r="N25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O25" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="P25" t="s">
         <v>43</v>
       </c>
       <c r="Q25" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="R25" t="s">
         <v>43</v>
@@ -2308,10 +2313,10 @@
         <v>43</v>
       </c>
       <c r="T25" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="U25" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2319,64 +2324,64 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D26" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E26" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="I26" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="J26" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="K26" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="L26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M26" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="N26" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="O26" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="P26" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="Q26" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="R26" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="S26" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="T26" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="U26" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2384,64 +2389,64 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D27" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="G27" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H27" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="I27" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J27" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K27" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="L27" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="M27" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="N27" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="O27" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="P27" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="Q27" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="R27" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="S27" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="T27" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="U27" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2449,64 +2454,64 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D28" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="E28" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F28" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H28" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="I28" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J28" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="K28" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="L28" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="M28" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="N28" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="O28" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="P28" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="Q28" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="R28" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="S28" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="T28" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="U28" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2514,64 +2519,64 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D29" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E29" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G29" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="J29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K29" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="L29" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M29" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="N29" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="O29" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="P29" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="Q29" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="R29" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="S29" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="T29" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="U29" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2579,64 +2584,64 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D30" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="E30" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="F30" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="G30" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="H30" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="I30" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="J30" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="K30" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="L30" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="M30" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="N30" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="O30" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="P30" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="Q30" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="R30" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="S30" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="T30" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="U30" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2644,64 +2649,64 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D31" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E31" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G31" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="H31" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="I31" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="J31" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="K31" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="L31" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="M31" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N31" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O31" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="P31" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="Q31" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="R31" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="S31" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="T31" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="U31" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2709,64 +2714,64 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D32" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E32" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G32" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="J32" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="K32" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="L32" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="M32" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="N32" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="O32" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="P32" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="Q32" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="R32" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="S32" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="T32" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="U32" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2774,64 +2779,64 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C33" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D33" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="E33" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="F33" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="G33" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="H33" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="I33" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="J33" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="K33" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="L33" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="M33" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="N33" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="O33" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="P33" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="Q33" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="R33" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="S33" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="T33" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="U33" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2839,52 +2844,52 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D34" t="s">
         <v>51</v>
       </c>
       <c r="E34" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F34" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G34" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H34" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="I34" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="J34" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="K34" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="L34" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="M34" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="N34" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="O34" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P34" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Q34" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="R34" t="s">
         <v>45</v>
@@ -2893,10 +2898,10 @@
         <v>45</v>
       </c>
       <c r="T34" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="U34" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2904,64 +2909,584 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" t="s">
+        <v>59</v>
+      </c>
+      <c r="F35" t="s">
+        <v>48</v>
+      </c>
+      <c r="G35" t="s">
+        <v>59</v>
+      </c>
+      <c r="H35" t="s">
+        <v>52</v>
+      </c>
+      <c r="I35" t="s">
+        <v>59</v>
+      </c>
+      <c r="J35" t="s">
+        <v>59</v>
+      </c>
+      <c r="K35" t="s">
+        <v>52</v>
+      </c>
+      <c r="L35" t="s">
+        <v>59</v>
+      </c>
+      <c r="M35" t="s">
+        <v>50</v>
+      </c>
+      <c r="N35" t="s">
+        <v>52</v>
+      </c>
+      <c r="O35" t="s">
+        <v>42</v>
+      </c>
+      <c r="P35" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>59</v>
+      </c>
+      <c r="R35" t="s">
+        <v>56</v>
+      </c>
+      <c r="S35" t="s">
+        <v>59</v>
+      </c>
+      <c r="T35" t="s">
+        <v>48</v>
+      </c>
+      <c r="U35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" t="s">
+        <v>53</v>
+      </c>
+      <c r="F36" t="s">
+        <v>50</v>
+      </c>
+      <c r="G36" t="s">
+        <v>43</v>
+      </c>
+      <c r="H36" t="s">
+        <v>58</v>
+      </c>
+      <c r="I36" t="s">
+        <v>50</v>
+      </c>
+      <c r="J36" t="s">
+        <v>55</v>
+      </c>
+      <c r="K36" t="s">
         <v>49</v>
       </c>
-      <c r="C35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D35" t="s">
-        <v>49</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="L36" t="s">
+        <v>47</v>
+      </c>
+      <c r="M36" t="s">
+        <v>55</v>
+      </c>
+      <c r="N36" t="s">
+        <v>48</v>
+      </c>
+      <c r="O36" t="s">
+        <v>55</v>
+      </c>
+      <c r="P36" t="s">
         <v>42</v>
       </c>
-      <c r="F35" t="s">
+      <c r="Q36" t="s">
+        <v>47</v>
+      </c>
+      <c r="R36" t="s">
+        <v>50</v>
+      </c>
+      <c r="S36" t="s">
+        <v>51</v>
+      </c>
+      <c r="T36" t="s">
+        <v>55</v>
+      </c>
+      <c r="U36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G35" t="s">
+      <c r="B37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" t="s">
+        <v>56</v>
+      </c>
+      <c r="G37" t="s">
+        <v>51</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>47</v>
+      </c>
+      <c r="J37" t="s">
+        <v>47</v>
+      </c>
+      <c r="K37" t="s">
+        <v>56</v>
+      </c>
+      <c r="L37" t="s">
+        <v>51</v>
+      </c>
+      <c r="M37" t="s">
+        <v>51</v>
+      </c>
+      <c r="N37" t="s">
+        <v>47</v>
+      </c>
+      <c r="O37" t="s">
+        <v>47</v>
+      </c>
+      <c r="P37" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>42</v>
+      </c>
+      <c r="R37" t="s">
+        <v>51</v>
+      </c>
+      <c r="S37" t="s">
+        <v>47</v>
+      </c>
+      <c r="T37" t="s">
+        <v>47</v>
+      </c>
+      <c r="U37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" t="s">
+        <v>56</v>
+      </c>
+      <c r="F38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G38" t="s">
+        <v>56</v>
+      </c>
+      <c r="H38" t="s">
+        <v>43</v>
+      </c>
+      <c r="I38" t="s">
+        <v>43</v>
+      </c>
+      <c r="J38" t="s">
+        <v>43</v>
+      </c>
+      <c r="K38" t="s">
+        <v>43</v>
+      </c>
+      <c r="L38" t="s">
+        <v>48</v>
+      </c>
+      <c r="M38" t="s">
+        <v>43</v>
+      </c>
+      <c r="N38" t="s">
+        <v>48</v>
+      </c>
+      <c r="O38" t="s">
+        <v>45</v>
+      </c>
+      <c r="P38" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>48</v>
+      </c>
+      <c r="R38" t="s">
+        <v>42</v>
+      </c>
+      <c r="S38" t="s">
+        <v>45</v>
+      </c>
+      <c r="T38" t="s">
+        <v>50</v>
+      </c>
+      <c r="U38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" t="s">
+        <v>45</v>
+      </c>
+      <c r="F39" t="s">
+        <v>45</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>45</v>
+      </c>
+      <c r="I39" t="s">
+        <v>45</v>
+      </c>
+      <c r="J39" t="s">
+        <v>45</v>
+      </c>
+      <c r="K39" t="s">
+        <v>50</v>
+      </c>
+      <c r="L39" t="s">
+        <v>46</v>
+      </c>
+      <c r="M39" t="s">
+        <v>45</v>
+      </c>
+      <c r="N39" t="s">
+        <v>45</v>
+      </c>
+      <c r="O39" t="s">
+        <v>45</v>
+      </c>
+      <c r="P39" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>60</v>
+      </c>
+      <c r="R39" t="s">
+        <v>45</v>
+      </c>
+      <c r="S39" t="s">
+        <v>42</v>
+      </c>
+      <c r="T39" t="s">
+        <v>43</v>
+      </c>
+      <c r="U39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40" t="s">
+        <v>47</v>
+      </c>
+      <c r="F40" t="s">
+        <v>50</v>
+      </c>
+      <c r="G40" t="s">
+        <v>51</v>
+      </c>
+      <c r="H40" t="s">
+        <v>45</v>
+      </c>
+      <c r="I40" t="s">
+        <v>45</v>
+      </c>
+      <c r="J40" t="s">
+        <v>47</v>
+      </c>
+      <c r="K40" t="s">
+        <v>51</v>
+      </c>
+      <c r="L40" t="s">
+        <v>51</v>
+      </c>
+      <c r="M40" t="s">
+        <v>47</v>
+      </c>
+      <c r="N40" t="s">
+        <v>56</v>
+      </c>
+      <c r="O40" t="s">
+        <v>47</v>
+      </c>
+      <c r="P40" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>51</v>
+      </c>
+      <c r="R40" t="s">
+        <v>47</v>
+      </c>
+      <c r="S40" t="s">
+        <v>47</v>
+      </c>
+      <c r="T40" t="s">
+        <v>42</v>
+      </c>
+      <c r="U40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
+      <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H35" t="s">
+      <c r="B41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>43</v>
+      </c>
+      <c r="G41" t="s">
+        <v>48</v>
+      </c>
+      <c r="H41" t="s">
+        <v>43</v>
+      </c>
+      <c r="I41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J41" t="s">
+        <v>57</v>
+      </c>
+      <c r="K41" t="s">
+        <v>57</v>
+      </c>
+      <c r="L41" t="s">
+        <v>46</v>
+      </c>
+      <c r="M41" t="s">
+        <v>46</v>
+      </c>
+      <c r="N41" t="s">
+        <v>50</v>
+      </c>
+      <c r="O41" t="s">
+        <v>45</v>
+      </c>
+      <c r="P41" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>46</v>
+      </c>
+      <c r="R41" t="s">
+        <v>46</v>
+      </c>
+      <c r="S41" t="s">
+        <v>45</v>
+      </c>
+      <c r="T41" t="s">
+        <v>45</v>
+      </c>
+      <c r="U41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
+      <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I35" t="s">
-        <v>40</v>
-      </c>
-      <c r="J35" t="s">
-        <v>49</v>
-      </c>
-      <c r="K35" t="s">
-        <v>49</v>
-      </c>
-      <c r="L35" t="s">
-        <v>49</v>
-      </c>
-      <c r="M35" t="s">
-        <v>49</v>
-      </c>
-      <c r="N35" t="s">
-        <v>49</v>
-      </c>
-      <c r="O35" t="s">
-        <v>34</v>
-      </c>
-      <c r="P35" t="s">
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42" t="s">
+        <v>50</v>
+      </c>
+      <c r="F42" t="s">
+        <v>45</v>
+      </c>
+      <c r="G42" t="s">
+        <v>60</v>
+      </c>
+      <c r="H42" t="s">
+        <v>45</v>
+      </c>
+      <c r="I42" t="s">
+        <v>46</v>
+      </c>
+      <c r="J42" t="s">
+        <v>48</v>
+      </c>
+      <c r="K42" t="s">
+        <v>43</v>
+      </c>
+      <c r="L42" t="s">
+        <v>46</v>
+      </c>
+      <c r="M42" t="s">
+        <v>43</v>
+      </c>
+      <c r="N42" t="s">
         <v>47</v>
       </c>
-      <c r="Q35" t="s">
+      <c r="O42" t="s">
+        <v>43</v>
+      </c>
+      <c r="P42" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>58</v>
+      </c>
+      <c r="R42" t="s">
+        <v>43</v>
+      </c>
+      <c r="S42" t="s">
+        <v>43</v>
+      </c>
+      <c r="T42" t="s">
+        <v>45</v>
+      </c>
+      <c r="U42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" t="s">
+        <v>57</v>
+      </c>
+      <c r="E43" t="s">
         <v>51</v>
       </c>
-      <c r="R35" t="s">
+      <c r="F43" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" t="s">
         <v>51</v>
       </c>
-      <c r="S35" t="s">
+      <c r="H43" t="s">
         <v>51</v>
       </c>
-      <c r="T35" t="s">
+      <c r="I43" t="s">
+        <v>51</v>
+      </c>
+      <c r="J43" t="s">
+        <v>51</v>
+      </c>
+      <c r="K43" t="s">
+        <v>51</v>
+      </c>
+      <c r="L43" t="s">
+        <v>51</v>
+      </c>
+      <c r="M43" t="s">
+        <v>51</v>
+      </c>
+      <c r="N43" t="s">
+        <v>50</v>
+      </c>
+      <c r="O43" t="s">
         <v>47</v>
       </c>
-      <c r="U35" t="s">
-        <v>36</v>
+      <c r="P43" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>50</v>
+      </c>
+      <c r="R43" t="s">
+        <v>51</v>
+      </c>
+      <c r="S43" t="s">
+        <v>54</v>
+      </c>
+      <c r="T43" t="s">
+        <v>51</v>
+      </c>
+      <c r="U43" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2971,7 +3496,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2979,7 +3504,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2987,7 +3512,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2995,7 +3520,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3003,7 +3528,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3011,7 +3536,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3019,7 +3544,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3027,7 +3552,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3035,7 +3560,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3043,7 +3568,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3051,7 +3576,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3059,7 +3584,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3067,7 +3592,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3075,7 +3600,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3083,7 +3608,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3091,7 +3616,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3099,7 +3624,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3107,7 +3632,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3115,7 +3640,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3131,7 +3656,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3139,7 +3664,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3155,7 +3680,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3163,7 +3688,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3171,7 +3696,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -3187,7 +3712,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3211,7 +3736,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3219,7 +3744,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -3227,7 +3752,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -3235,7 +3760,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3243,7 +3768,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3251,7 +3776,71 @@
         <v>33</v>
       </c>
       <c r="B35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39">
         <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -3269,92 +3858,92 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B2">
-        <v>0.06682027649769585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B3">
-        <v>0.01023017902813299</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B4">
-        <v>0.02137767220902613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B5">
-        <v>0.009569377990430622</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B6">
-        <v>0.009732360097323601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B7">
-        <v>0.07556675062972293</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B8">
-        <v>0.1152416356877323</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B9">
-        <v>0.01209677419354839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B10">
-        <v>0.00353356890459364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B11">
-        <v>0.01626016260162602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -3362,7 +3951,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -3370,7 +3959,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3378,7 +3967,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3386,7 +3975,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3394,15 +3983,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B17">
-        <v>0.02735562310030395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3410,7 +3999,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3418,7 +4007,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3426,7 +4015,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3434,31 +4023,31 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B22">
-        <v>0.006622516556291391</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B23">
-        <v>0.04054054054054054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B24">
-        <v>0.04605263157894737</v>
+        <v>0.006578947368421052</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3479,7 +4068,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3487,7 +4076,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.0665083135391924</v>
+        <v>0.002375296912114014</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3503,7 +4092,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.0084985835694051</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3511,7 +4100,7 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0.06888361045130641</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3527,7 +4116,7 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.0056657223796034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3551,7 +4140,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.06413301662707839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3559,7 +4148,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.005555555555555556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3567,7 +4156,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.0084985835694051</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3591,7 +4180,7 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>0.0665083135391924</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3607,7 +4196,7 @@
         <v>24</v>
       </c>
       <c r="B17">
-        <v>0.0028328611898017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3631,7 +4220,7 @@
         <v>29</v>
       </c>
       <c r="B20">
-        <v>0.0498812351543943</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3649,7 +4238,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3657,7 +4246,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3665,7 +4254,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3673,7 +4262,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3697,7 +4286,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3713,7 +4302,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3729,7 +4318,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3737,7 +4326,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3745,7 +4334,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3761,7 +4350,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3769,7 +4358,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3777,7 +4366,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3801,7 +4390,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3809,7 +4398,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3817,7 +4406,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3825,7 +4414,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3833,7 +4422,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3857,7 +4446,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -3865,7 +4454,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3873,7 +4462,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3889,7 +4478,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3905,7 +4494,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -3913,7 +4502,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3921,7 +4510,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3929,7 +4518,71 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -3947,79 +4600,79 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:26">
@@ -4027,34 +4680,34 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -4072,7 +4725,7 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -4099,7 +4752,7 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -4250,16 +4903,16 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -4267,34 +4920,34 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -4312,7 +4965,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -4333,13 +4986,13 @@
         <v>0</v>
       </c>
       <c r="X5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -4442,7 +5095,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -4490,7 +5143,7 @@
         <v>0</v>
       </c>
       <c r="W7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7">
         <v>0</v>
@@ -4499,7 +5152,7 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -4667,34 +5320,34 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -4712,7 +5365,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -4733,13 +5386,13 @@
         <v>0</v>
       </c>
       <c r="X10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -4765,7 +5418,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -4807,7 +5460,7 @@
         <v>0</v>
       </c>
       <c r="V11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W11">
         <v>0</v>
@@ -4819,7 +5472,7 @@
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -4890,16 +5543,16 @@
         <v>0</v>
       </c>
       <c r="W12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -5067,25 +5720,25 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -5094,7 +5747,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -5112,7 +5765,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -5133,13 +5786,13 @@
         <v>0</v>
       </c>
       <c r="X15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -5290,7 +5943,7 @@
         <v>0</v>
       </c>
       <c r="W17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X17">
         <v>0</v>
@@ -5299,7 +5952,7 @@
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -5467,13 +6120,13 @@
         <v>29</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -5482,13 +6135,13 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -5512,7 +6165,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -5533,13 +6186,13 @@
         <v>0</v>
       </c>
       <c r="X20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -5624,82 +6277,82 @@
     </row>
     <row r="22" spans="1:26">
       <c r="A22" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B22">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
         <v>1</v>
       </c>
-      <c r="K22">
-        <v>6</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>9</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
         <v>1</v>
-      </c>
-      <c r="W22">
-        <v>6</v>
-      </c>
-      <c r="X22">
-        <v>7</v>
-      </c>
-      <c r="Y22">
-        <v>0</v>
-      </c>
-      <c r="Z22">
-        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -5709,7 +6362,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5737,19 +6390,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="F2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5757,19 +6410,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="F3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5777,19 +6430,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E4" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F4" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5797,19 +6450,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5817,19 +6470,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E6" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5837,16 +6490,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="F7" t="s">
         <v>90</v>
@@ -5857,19 +6510,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="D8" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E8" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5877,19 +6530,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D9" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E9" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5897,19 +6550,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D10" t="s">
         <v>90</v>
       </c>
       <c r="E10" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F10" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5917,19 +6570,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="D11" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E11" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F11" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5937,19 +6590,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" t="s">
         <v>96</v>
-      </c>
-      <c r="E12" t="s">
-        <v>89</v>
-      </c>
-      <c r="F12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5957,16 +6610,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
         <v>90</v>
       </c>
       <c r="D13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F13" t="s">
         <v>90</v>
@@ -5977,19 +6630,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D14" t="s">
         <v>92</v>
       </c>
       <c r="E14" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5997,19 +6650,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" t="s">
         <v>90</v>
       </c>
-      <c r="C15" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" t="s">
-        <v>88</v>
-      </c>
       <c r="E15" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F15" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -6017,19 +6670,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D16" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E16" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F16" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6037,19 +6690,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D17" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E17" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="F17" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6057,19 +6710,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C18" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E18" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F18" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6077,19 +6730,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" t="s">
         <v>91</v>
       </c>
-      <c r="C19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D19" t="s">
-        <v>98</v>
-      </c>
       <c r="E19" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="F19" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6097,19 +6750,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" t="s">
         <v>90</v>
-      </c>
-      <c r="C20" t="s">
-        <v>90</v>
-      </c>
-      <c r="D20" t="s">
-        <v>90</v>
-      </c>
-      <c r="E20" t="s">
-        <v>90</v>
-      </c>
-      <c r="F20" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6117,19 +6770,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="D21" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E21" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="F21" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -6137,19 +6790,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D22" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F22" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6157,19 +6810,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D23" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="E23" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F23" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6177,19 +6830,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C24" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D24" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E24" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F24" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6197,19 +6850,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C25" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D25" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E25" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F25" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6217,19 +6870,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C26" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D26" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E26" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="F26" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6237,19 +6890,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C27" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D27" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E27" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F27" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -6257,19 +6910,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D28" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E28" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="F28" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -6277,19 +6930,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C29" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D29" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E29" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="F29" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -6297,19 +6950,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C30" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="D30" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E30" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F30" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -6317,19 +6970,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" t="s">
         <v>92</v>
-      </c>
-      <c r="C31" t="s">
-        <v>84</v>
       </c>
       <c r="D31" t="s">
         <v>91</v>
       </c>
       <c r="E31" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="F31" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -6337,19 +6990,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C32" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D32" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E32" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="F32" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -6357,19 +7010,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="C33" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D33" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="E33" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F33" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -6377,19 +7030,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C34" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D34" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E34" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="F34" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -6397,19 +7050,179 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C35" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" t="s">
+        <v>99</v>
+      </c>
+      <c r="E35" t="s">
+        <v>99</v>
+      </c>
+      <c r="F35" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
         <v>93</v>
       </c>
-      <c r="D35" t="s">
-        <v>90</v>
-      </c>
-      <c r="E35" t="s">
-        <v>101</v>
-      </c>
-      <c r="F35" t="s">
-        <v>83</v>
+      <c r="C36" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" t="s">
+        <v>95</v>
+      </c>
+      <c r="E36" t="s">
+        <v>93</v>
+      </c>
+      <c r="F36" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" t="s">
+        <v>93</v>
+      </c>
+      <c r="D37" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" t="s">
+        <v>93</v>
+      </c>
+      <c r="F37" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" t="s">
+        <v>100</v>
+      </c>
+      <c r="D38" t="s">
+        <v>91</v>
+      </c>
+      <c r="E38" t="s">
+        <v>92</v>
+      </c>
+      <c r="F38" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" t="s">
+        <v>92</v>
+      </c>
+      <c r="F39" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" t="s">
+        <v>102</v>
+      </c>
+      <c r="D40" t="s">
+        <v>93</v>
+      </c>
+      <c r="E40" t="s">
+        <v>93</v>
+      </c>
+      <c r="F40" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" t="s">
+        <v>96</v>
+      </c>
+      <c r="E41" t="s">
+        <v>92</v>
+      </c>
+      <c r="F41" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" t="s">
+        <v>103</v>
+      </c>
+      <c r="E42" t="s">
+        <v>91</v>
+      </c>
+      <c r="F42" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43" t="s">
+        <v>93</v>
+      </c>
+      <c r="E43" t="s">
+        <v>93</v>
+      </c>
+      <c r="F43" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/alg_schedule_data_2019_4.xlsx
+++ b/alg_schedule_data_2019_4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="100">
   <si>
     <t>Abe</t>
   </si>
@@ -37,7 +37,10 @@
     <t>Crystal</t>
   </si>
   <si>
-    <t>Elaine</t>
+    <t>Cynthia</t>
+  </si>
+  <si>
+    <t>Daphne</t>
   </si>
   <si>
     <t>Ellen</t>
@@ -55,10 +58,7 @@
     <t>Ginny</t>
   </si>
   <si>
-    <t>Jamie</t>
-  </si>
-  <si>
-    <t>Jane</t>
+    <t>Irene</t>
   </si>
   <si>
     <t>Janet</t>
@@ -76,9 +76,6 @@
     <t>Karen</t>
   </si>
   <si>
-    <t>Lance</t>
-  </si>
-  <si>
     <t>Mandy</t>
   </si>
   <si>
@@ -100,9 +97,6 @@
     <t>Oscar</t>
   </si>
   <si>
-    <t>Patty</t>
-  </si>
-  <si>
     <t>Sabina</t>
   </si>
   <si>
@@ -115,98 +109,78 @@
     <t>Sandy</t>
   </si>
   <si>
+    <t>Sharon</t>
+  </si>
+  <si>
     <t>Sony</t>
   </si>
   <si>
-    <t>Stacy</t>
-  </si>
-  <si>
-    <t>Summer</t>
-  </si>
-  <si>
-    <t>Vivian
-Huang</t>
-  </si>
-  <si>
-    <t>Vivian
-Kuang</t>
+    <t xml:space="preserve">Summer </t>
+  </si>
+  <si>
+    <t>Vivian</t>
   </si>
   <si>
     <t>Yvette</t>
   </si>
   <si>
-    <t>Anita</t>
-  </si>
-  <si>
-    <t>Catherine</t>
-  </si>
-  <si>
-    <t>Lisa</t>
-  </si>
-  <si>
-    <t>Penny</t>
-  </si>
-  <si>
-    <t>Soraya</t>
-  </si>
-  <si>
     <t>O</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>N1</t>
+  </si>
+  <si>
     <t>A4</t>
   </si>
   <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>OB</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>W6</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
     <t>C3</t>
   </si>
   <si>
-    <t>A3</t>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>C2</t>
   </si>
   <si>
     <t>MS</t>
   </si>
   <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>W6</t>
-  </si>
-  <si>
-    <t>OB</t>
-  </si>
-  <si>
-    <t>N1</t>
-  </si>
-  <si>
-    <t>P2</t>
-  </si>
-  <si>
-    <t>P5</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>CD</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
     <t>AS</t>
   </si>
   <si>
-    <t>P4</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>P3</t>
-  </si>
-  <si>
     <t>NightWork_count</t>
   </si>
   <si>
@@ -294,46 +268,58 @@
     <t>SUM_per_time</t>
   </si>
   <si>
+    <t>['12:30']</t>
+  </si>
+  <si>
+    <t>['11:30']</t>
+  </si>
+  <si>
+    <t>['12:00']</t>
+  </si>
+  <si>
+    <t>['11:30', '13:00']</t>
+  </si>
+  <si>
+    <t>['13:00', '13:30']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:30']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:00', '13:30']</t>
+  </si>
+  <si>
+    <t>['13:00']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:00']</t>
+  </si>
+  <si>
+    <t>['13:30']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:00', '12:30']</t>
+  </si>
+  <si>
     <t>[]</t>
   </si>
   <si>
-    <t>['13:00']</t>
-  </si>
-  <si>
-    <t>['12:30']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:00']</t>
+    <t>['12:00', '12:30']</t>
+  </si>
+  <si>
+    <t>['12:00', '13:00']</t>
   </si>
   <si>
     <t>['12:30', '13:00']</t>
   </si>
   <si>
-    <t>['12:00', '12:30']</t>
-  </si>
-  <si>
-    <t>['11:30']</t>
-  </si>
-  <si>
-    <t>['12:00']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:30']</t>
-  </si>
-  <si>
     <t>['11:30', '13:30']</t>
   </si>
   <si>
-    <t>['11:30', '13:00']</t>
-  </si>
-  <si>
-    <t>['13:30']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:00', '12:30']</t>
-  </si>
-  <si>
-    <t>['12:00', '13:00']</t>
+    <t>['11:30', '12:30', '13:00']</t>
+  </si>
+  <si>
+    <t>['12:30', '13:30']</t>
   </si>
 </sst>
 </file>
@@ -691,7 +677,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U43"/>
+  <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -764,64 +750,64 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
         <v>42</v>
       </c>
-      <c r="C2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="P2" t="s">
         <v>51</v>
       </c>
-      <c r="F2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="Q2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="R2" t="s">
         <v>51</v>
       </c>
-      <c r="I2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J2" t="s">
-        <v>52</v>
-      </c>
-      <c r="K2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L2" t="s">
-        <v>59</v>
-      </c>
-      <c r="M2" t="s">
-        <v>48</v>
-      </c>
-      <c r="N2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>52</v>
-      </c>
-      <c r="P2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>59</v>
-      </c>
-      <c r="R2" t="s">
-        <v>50</v>
-      </c>
       <c r="S2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="T2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -829,64 +815,64 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" t="s">
         <v>42</v>
       </c>
-      <c r="D3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L3" t="s">
-        <v>56</v>
-      </c>
-      <c r="M3" t="s">
-        <v>43</v>
-      </c>
-      <c r="N3" t="s">
-        <v>43</v>
-      </c>
-      <c r="O3" t="s">
-        <v>43</v>
-      </c>
       <c r="P3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Q3" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="R3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="S3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="T3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="U3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -894,64 +880,64 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" t="s">
         <v>46</v>
       </c>
-      <c r="I4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K4" t="s">
-        <v>43</v>
-      </c>
       <c r="L4" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="M4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="N4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="O4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="Q4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="R4" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="S4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="T4" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="U4" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -959,64 +945,64 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="G5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H5" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="J5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K5" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="L5" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M5" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="N5" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="O5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P5" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="Q5" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="R5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="S5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="T5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="U5" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -1024,64 +1010,64 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" t="s">
         <v>46</v>
       </c>
-      <c r="D6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H6" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="J6" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="K6" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="L6" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="M6" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="N6" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="O6" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="P6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="Q6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="R6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="S6" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="T6" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="U6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -1089,64 +1075,64 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="I7" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="K7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="L7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M7" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="N7" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="O7" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="P7" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="Q7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="R7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S7" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="T7" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="U7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1154,64 +1140,64 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N8" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>41</v>
+      </c>
+      <c r="R8" t="s">
         <v>51</v>
       </c>
-      <c r="E8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J8" t="s">
-        <v>50</v>
-      </c>
-      <c r="K8" t="s">
-        <v>43</v>
-      </c>
-      <c r="L8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M8" t="s">
-        <v>56</v>
-      </c>
-      <c r="N8" t="s">
-        <v>43</v>
-      </c>
-      <c r="O8" t="s">
-        <v>48</v>
-      </c>
-      <c r="P8" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>48</v>
-      </c>
-      <c r="R8" t="s">
-        <v>45</v>
-      </c>
       <c r="S8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="T8" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="U8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1219,64 +1205,64 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I9" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="J9" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="K9" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="L9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M9" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="N9" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="O9" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="P9" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="Q9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="R9" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="S9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="U9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1284,64 +1270,64 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I10" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="J10" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="K10" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="L10" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="M10" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N10" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="O10" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="P10" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="Q10" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="R10" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="S10" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="T10" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="U10" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1349,64 +1335,64 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M11" t="s">
+        <v>47</v>
+      </c>
+      <c r="N11" t="s">
+        <v>35</v>
+      </c>
+      <c r="O11" t="s">
+        <v>47</v>
+      </c>
+      <c r="P11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>39</v>
+      </c>
+      <c r="R11" t="s">
         <v>45</v>
       </c>
-      <c r="C11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="S11" t="s">
+        <v>38</v>
+      </c>
+      <c r="T11" t="s">
+        <v>42</v>
+      </c>
+      <c r="U11" t="s">
         <v>46</v>
-      </c>
-      <c r="G11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" t="s">
-        <v>56</v>
-      </c>
-      <c r="I11" t="s">
-        <v>46</v>
-      </c>
-      <c r="J11" t="s">
-        <v>45</v>
-      </c>
-      <c r="K11" t="s">
-        <v>42</v>
-      </c>
-      <c r="L11" t="s">
-        <v>45</v>
-      </c>
-      <c r="M11" t="s">
-        <v>45</v>
-      </c>
-      <c r="N11" t="s">
-        <v>45</v>
-      </c>
-      <c r="O11" t="s">
-        <v>48</v>
-      </c>
-      <c r="P11" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>57</v>
-      </c>
-      <c r="R11" t="s">
-        <v>46</v>
-      </c>
-      <c r="S11" t="s">
-        <v>46</v>
-      </c>
-      <c r="T11" t="s">
-        <v>45</v>
-      </c>
-      <c r="U11" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1414,64 +1400,64 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" t="s">
         <v>50</v>
       </c>
-      <c r="F12" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="L12" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N12" t="s">
+        <v>43</v>
+      </c>
+      <c r="O12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P12" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>43</v>
+      </c>
+      <c r="R12" t="s">
+        <v>43</v>
+      </c>
+      <c r="S12" t="s">
+        <v>43</v>
+      </c>
+      <c r="T12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U12" t="s">
         <v>50</v>
-      </c>
-      <c r="H12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" t="s">
-        <v>57</v>
-      </c>
-      <c r="J12" t="s">
-        <v>46</v>
-      </c>
-      <c r="K12" t="s">
-        <v>48</v>
-      </c>
-      <c r="L12" t="s">
-        <v>42</v>
-      </c>
-      <c r="M12" t="s">
-        <v>48</v>
-      </c>
-      <c r="N12" t="s">
-        <v>46</v>
-      </c>
-      <c r="O12" t="s">
-        <v>46</v>
-      </c>
-      <c r="P12" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>48</v>
-      </c>
-      <c r="R12" t="s">
-        <v>46</v>
-      </c>
-      <c r="S12" t="s">
-        <v>46</v>
-      </c>
-      <c r="T12" t="s">
-        <v>50</v>
-      </c>
-      <c r="U12" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1479,64 +1465,64 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M13" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="N13" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="O13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P13" t="s">
         <v>48</v>
       </c>
       <c r="Q13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="R13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="S13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="T13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1544,64 +1530,64 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G14" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H14" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I14" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J14" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="K14" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="L14" t="s">
         <v>46</v>
       </c>
       <c r="M14" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="N14" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="O14" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="P14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Q14" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="R14" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="S14" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="T14" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="U14" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1609,64 +1595,64 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F15" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="J15" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="K15" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="L15" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="M15" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="N15" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="O15" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="P15" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="Q15" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="R15" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="S15" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="T15" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="U15" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1674,64 +1660,64 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G16" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H16" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="I16" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J16" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="K16" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="L16" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="M16" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="N16" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="O16" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="P16" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="Q16" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="R16" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="S16" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="T16" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="U16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1739,64 +1725,64 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E17" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F17" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H17" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="I17" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J17" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K17" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="L17" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="M17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N17" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="O17" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="P17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q17" t="s">
+        <v>34</v>
+      </c>
+      <c r="R17" t="s">
+        <v>46</v>
+      </c>
+      <c r="S17" t="s">
         <v>42</v>
       </c>
-      <c r="R17" t="s">
-        <v>53</v>
-      </c>
-      <c r="S17" t="s">
-        <v>53</v>
-      </c>
       <c r="T17" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="U17" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1804,61 +1790,61 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E18" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F18" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G18" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I18" t="s">
         <v>46</v>
       </c>
       <c r="J18" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="K18" t="s">
+        <v>45</v>
+      </c>
+      <c r="L18" t="s">
+        <v>39</v>
+      </c>
+      <c r="M18" t="s">
+        <v>38</v>
+      </c>
+      <c r="N18" t="s">
+        <v>45</v>
+      </c>
+      <c r="O18" t="s">
         <v>46</v>
       </c>
-      <c r="L18" t="s">
-        <v>50</v>
-      </c>
-      <c r="M18" t="s">
-        <v>46</v>
-      </c>
-      <c r="N18" t="s">
-        <v>57</v>
-      </c>
-      <c r="O18" t="s">
-        <v>48</v>
-      </c>
       <c r="P18" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q18" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="R18" t="s">
+        <v>34</v>
+      </c>
+      <c r="S18" t="s">
+        <v>49</v>
+      </c>
+      <c r="T18" t="s">
         <v>42</v>
-      </c>
-      <c r="S18" t="s">
-        <v>48</v>
-      </c>
-      <c r="T18" t="s">
-        <v>46</v>
       </c>
       <c r="U18" t="s">
         <v>46</v>
@@ -1869,64 +1855,64 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E19" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="F19" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H19" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="I19" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="J19" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="K19" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="L19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M19" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="N19" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="O19" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="P19" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="Q19" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="R19" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="S19" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="T19" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="U19" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1934,64 +1920,64 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20" t="s">
+        <v>36</v>
+      </c>
+      <c r="K20" t="s">
+        <v>38</v>
+      </c>
+      <c r="L20" t="s">
+        <v>49</v>
+      </c>
+      <c r="M20" t="s">
+        <v>36</v>
+      </c>
+      <c r="N20" t="s">
+        <v>36</v>
+      </c>
+      <c r="O20" t="s">
+        <v>36</v>
+      </c>
+      <c r="P20" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>49</v>
+      </c>
+      <c r="R20" t="s">
+        <v>36</v>
+      </c>
+      <c r="S20" t="s">
+        <v>36</v>
+      </c>
+      <c r="T20" t="s">
+        <v>34</v>
+      </c>
+      <c r="U20" t="s">
         <v>51</v>
-      </c>
-      <c r="D20" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" t="s">
-        <v>60</v>
-      </c>
-      <c r="G20" t="s">
-        <v>60</v>
-      </c>
-      <c r="H20" t="s">
-        <v>45</v>
-      </c>
-      <c r="I20" t="s">
-        <v>50</v>
-      </c>
-      <c r="J20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K20" t="s">
-        <v>50</v>
-      </c>
-      <c r="L20" t="s">
-        <v>60</v>
-      </c>
-      <c r="M20" t="s">
-        <v>45</v>
-      </c>
-      <c r="N20" t="s">
-        <v>45</v>
-      </c>
-      <c r="O20" t="s">
-        <v>47</v>
-      </c>
-      <c r="P20" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>51</v>
-      </c>
-      <c r="R20" t="s">
-        <v>42</v>
-      </c>
-      <c r="S20" t="s">
-        <v>48</v>
-      </c>
-      <c r="T20" t="s">
-        <v>42</v>
-      </c>
-      <c r="U20" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -1999,64 +1985,64 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" t="s">
+        <v>51</v>
+      </c>
+      <c r="I21" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" t="s">
+        <v>40</v>
+      </c>
+      <c r="K21" t="s">
+        <v>40</v>
+      </c>
+      <c r="L21" t="s">
         <v>46</v>
       </c>
-      <c r="H21" t="s">
+      <c r="M21" t="s">
+        <v>51</v>
+      </c>
+      <c r="N21" t="s">
         <v>46</v>
       </c>
-      <c r="I21" t="s">
-        <v>50</v>
-      </c>
-      <c r="J21" t="s">
-        <v>45</v>
-      </c>
-      <c r="K21" t="s">
-        <v>57</v>
-      </c>
-      <c r="L21" t="s">
-        <v>48</v>
-      </c>
-      <c r="M21" t="s">
-        <v>46</v>
-      </c>
-      <c r="N21" t="s">
-        <v>45</v>
-      </c>
       <c r="O21" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="P21" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Q21" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="R21" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="S21" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="T21" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="U21" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -2064,64 +2050,64 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" t="s">
         <v>42</v>
       </c>
-      <c r="C22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" t="s">
-        <v>48</v>
-      </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F22" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G22" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="H22" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="I22" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="J22" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="K22" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="L22" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="M22" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="N22" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="O22" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P22" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="Q22" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="R22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="S22" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="T22" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="U22" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -2129,64 +2115,64 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" t="s">
+        <v>35</v>
+      </c>
+      <c r="I23" t="s">
+        <v>39</v>
+      </c>
+      <c r="J23" t="s">
         <v>42</v>
       </c>
-      <c r="D23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" t="s">
-        <v>46</v>
-      </c>
-      <c r="I23" t="s">
-        <v>48</v>
-      </c>
-      <c r="J23" t="s">
-        <v>45</v>
-      </c>
       <c r="K23" t="s">
+        <v>37</v>
+      </c>
+      <c r="L23" t="s">
+        <v>35</v>
+      </c>
+      <c r="M23" t="s">
+        <v>52</v>
+      </c>
+      <c r="N23" t="s">
+        <v>42</v>
+      </c>
+      <c r="O23" t="s">
+        <v>50</v>
+      </c>
+      <c r="P23" t="s">
         <v>47</v>
       </c>
-      <c r="L23" t="s">
-        <v>48</v>
-      </c>
-      <c r="M23" t="s">
-        <v>46</v>
-      </c>
-      <c r="N23" t="s">
+      <c r="Q23" t="s">
+        <v>42</v>
+      </c>
+      <c r="R23" t="s">
+        <v>39</v>
+      </c>
+      <c r="S23" t="s">
+        <v>42</v>
+      </c>
+      <c r="T23" t="s">
         <v>47</v>
       </c>
-      <c r="O23" t="s">
-        <v>56</v>
-      </c>
-      <c r="P23" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>46</v>
-      </c>
-      <c r="R23" t="s">
-        <v>46</v>
-      </c>
-      <c r="S23" t="s">
-        <v>45</v>
-      </c>
-      <c r="T23" t="s">
-        <v>59</v>
-      </c>
       <c r="U23" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -2194,64 +2180,64 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
         <v>50</v>
       </c>
       <c r="D24" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" t="s">
+        <v>43</v>
+      </c>
+      <c r="J24" t="s">
+        <v>44</v>
+      </c>
+      <c r="K24" t="s">
+        <v>43</v>
+      </c>
+      <c r="L24" t="s">
+        <v>43</v>
+      </c>
+      <c r="M24" t="s">
         <v>48</v>
       </c>
-      <c r="I24" t="s">
-        <v>47</v>
-      </c>
-      <c r="J24" t="s">
-        <v>56</v>
-      </c>
-      <c r="K24" t="s">
-        <v>45</v>
-      </c>
-      <c r="L24" t="s">
+      <c r="N24" t="s">
         <v>50</v>
       </c>
-      <c r="M24" t="s">
-        <v>45</v>
-      </c>
-      <c r="N24" t="s">
-        <v>45</v>
-      </c>
       <c r="O24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R24" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S24" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="U24" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -2259,64 +2245,64 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D25" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="E25" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F25" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G25" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H25" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J25" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K25" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="L25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O25" t="s">
         <v>48</v>
       </c>
       <c r="P25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q25" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="R25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U25" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2324,64 +2310,64 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="D26" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E26" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" t="s">
+        <v>49</v>
+      </c>
+      <c r="H26" t="s">
+        <v>36</v>
+      </c>
+      <c r="I26" t="s">
+        <v>36</v>
+      </c>
+      <c r="J26" t="s">
         <v>42</v>
       </c>
-      <c r="G26" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26" t="s">
-        <v>50</v>
-      </c>
-      <c r="I26" t="s">
-        <v>47</v>
-      </c>
-      <c r="J26" t="s">
-        <v>47</v>
-      </c>
       <c r="K26" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="L26" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="M26" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="N26" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="O26" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="P26" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="Q26" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="R26" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="S26" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="T26" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="U26" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2389,64 +2375,64 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D27" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="E27" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F27" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G27" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H27" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="I27" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="J27" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K27" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="L27" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="M27" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="N27" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="O27" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="P27" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="Q27" t="s">
         <v>46</v>
       </c>
       <c r="R27" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="S27" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="T27" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="U27" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2454,64 +2440,64 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="E28" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F28" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G28" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H28" t="s">
+        <v>34</v>
+      </c>
+      <c r="I28" t="s">
         <v>42</v>
       </c>
-      <c r="I28" t="s">
-        <v>51</v>
-      </c>
       <c r="J28" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="K28" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="L28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M28" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="N28" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="O28" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="P28" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="Q28" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="R28" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="S28" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="T28" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="U28" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2519,64 +2505,64 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" t="s">
         <v>45</v>
       </c>
-      <c r="C29" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" t="s">
-        <v>46</v>
-      </c>
-      <c r="E29" t="s">
-        <v>46</v>
-      </c>
-      <c r="F29" t="s">
-        <v>48</v>
-      </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I29" t="s">
+        <v>34</v>
+      </c>
+      <c r="J29" t="s">
+        <v>38</v>
+      </c>
+      <c r="K29" t="s">
+        <v>37</v>
+      </c>
+      <c r="L29" t="s">
         <v>42</v>
       </c>
-      <c r="J29" t="s">
-        <v>48</v>
-      </c>
-      <c r="K29" t="s">
-        <v>46</v>
-      </c>
-      <c r="L29" t="s">
-        <v>46</v>
-      </c>
       <c r="M29" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N29" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="O29" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="P29" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="Q29" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="R29" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="S29" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="T29" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="U29" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2584,64 +2570,64 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" t="s">
+        <v>51</v>
+      </c>
+      <c r="H30" t="s">
+        <v>39</v>
+      </c>
+      <c r="I30" t="s">
         <v>46</v>
       </c>
-      <c r="C30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" t="s">
-        <v>56</v>
-      </c>
-      <c r="E30" t="s">
-        <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>59</v>
-      </c>
-      <c r="G30" t="s">
-        <v>59</v>
-      </c>
-      <c r="H30" t="s">
-        <v>59</v>
-      </c>
-      <c r="I30" t="s">
-        <v>59</v>
-      </c>
       <c r="J30" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="K30" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="L30" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="M30" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="N30" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="O30" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="P30" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="Q30" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="R30" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="S30" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="T30" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="U30" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2649,64 +2635,64 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D31" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F31" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G31" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H31" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I31" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J31" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="K31" t="s">
+        <v>34</v>
+      </c>
+      <c r="L31" t="s">
         <v>42</v>
       </c>
-      <c r="L31" t="s">
-        <v>53</v>
-      </c>
       <c r="M31" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="N31" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="P31" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="Q31" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R31" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="S31" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="T31" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="U31" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2714,64 +2700,64 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D32" t="s">
         <v>45</v>
       </c>
       <c r="E32" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I32" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="J32" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K32" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="L32" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="M32" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="N32" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="O32" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="P32" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="Q32" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="R32" t="s">
         <v>46</v>
       </c>
       <c r="S32" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="T32" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="U32" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2779,64 +2765,64 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="D33" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E33" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="F33" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G33" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="H33" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="I33" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="J33" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="K33" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="L33" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M33" t="s">
+        <v>34</v>
+      </c>
+      <c r="N33" t="s">
+        <v>46</v>
+      </c>
+      <c r="O33" t="s">
+        <v>36</v>
+      </c>
+      <c r="P33" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>38</v>
+      </c>
+      <c r="R33" t="s">
+        <v>36</v>
+      </c>
+      <c r="S33" t="s">
+        <v>46</v>
+      </c>
+      <c r="T33" t="s">
         <v>42</v>
       </c>
-      <c r="N33" t="s">
-        <v>54</v>
-      </c>
-      <c r="O33" t="s">
-        <v>54</v>
-      </c>
-      <c r="P33" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>54</v>
-      </c>
-      <c r="R33" t="s">
-        <v>54</v>
-      </c>
-      <c r="S33" t="s">
-        <v>54</v>
-      </c>
-      <c r="T33" t="s">
-        <v>54</v>
-      </c>
       <c r="U33" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2844,64 +2830,64 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D34" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E34" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F34" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G34" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H34" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="I34" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J34" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="K34" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L34" t="s">
         <v>51</v>
       </c>
       <c r="M34" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="N34" t="s">
+        <v>34</v>
+      </c>
+      <c r="O34" t="s">
+        <v>38</v>
+      </c>
+      <c r="P34" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>37</v>
+      </c>
+      <c r="R34" t="s">
+        <v>38</v>
+      </c>
+      <c r="S34" t="s">
+        <v>37</v>
+      </c>
+      <c r="T34" t="s">
         <v>42</v>
       </c>
-      <c r="O34" t="s">
-        <v>47</v>
-      </c>
-      <c r="P34" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>51</v>
-      </c>
-      <c r="R34" t="s">
-        <v>45</v>
-      </c>
-      <c r="S34" t="s">
-        <v>45</v>
-      </c>
-      <c r="T34" t="s">
-        <v>47</v>
-      </c>
       <c r="U34" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2909,584 +2895,64 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" t="s">
         <v>47</v>
       </c>
-      <c r="C35" t="s">
-        <v>51</v>
-      </c>
       <c r="D35" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E35" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F35" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G35" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I35" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J35" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="K35" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="L35" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="M35" t="s">
         <v>50</v>
       </c>
       <c r="N35" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="O35" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="P35" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="Q35" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="R35" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="S35" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="T35" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21">
-      <c r="A36" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>55</v>
-      </c>
-      <c r="C36" t="s">
-        <v>50</v>
-      </c>
-      <c r="D36" t="s">
-        <v>47</v>
-      </c>
-      <c r="E36" t="s">
-        <v>53</v>
-      </c>
-      <c r="F36" t="s">
-        <v>50</v>
-      </c>
-      <c r="G36" t="s">
-        <v>43</v>
-      </c>
-      <c r="H36" t="s">
-        <v>58</v>
-      </c>
-      <c r="I36" t="s">
-        <v>50</v>
-      </c>
-      <c r="J36" t="s">
-        <v>55</v>
-      </c>
-      <c r="K36" t="s">
-        <v>49</v>
-      </c>
-      <c r="L36" t="s">
-        <v>47</v>
-      </c>
-      <c r="M36" t="s">
-        <v>55</v>
-      </c>
-      <c r="N36" t="s">
-        <v>48</v>
-      </c>
-      <c r="O36" t="s">
-        <v>55</v>
-      </c>
-      <c r="P36" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>47</v>
-      </c>
-      <c r="R36" t="s">
-        <v>50</v>
-      </c>
-      <c r="S36" t="s">
-        <v>51</v>
-      </c>
-      <c r="T36" t="s">
-        <v>55</v>
-      </c>
-      <c r="U36" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21">
-      <c r="A37" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" t="s">
-        <v>48</v>
-      </c>
-      <c r="D37" t="s">
-        <v>47</v>
-      </c>
-      <c r="E37" t="s">
-        <v>47</v>
-      </c>
-      <c r="F37" t="s">
-        <v>56</v>
-      </c>
-      <c r="G37" t="s">
-        <v>51</v>
-      </c>
-      <c r="H37" t="s">
-        <v>47</v>
-      </c>
-      <c r="I37" t="s">
-        <v>47</v>
-      </c>
-      <c r="J37" t="s">
-        <v>47</v>
-      </c>
-      <c r="K37" t="s">
-        <v>56</v>
-      </c>
-      <c r="L37" t="s">
-        <v>51</v>
-      </c>
-      <c r="M37" t="s">
-        <v>51</v>
-      </c>
-      <c r="N37" t="s">
-        <v>47</v>
-      </c>
-      <c r="O37" t="s">
-        <v>47</v>
-      </c>
-      <c r="P37" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>42</v>
-      </c>
-      <c r="R37" t="s">
-        <v>51</v>
-      </c>
-      <c r="S37" t="s">
-        <v>47</v>
-      </c>
-      <c r="T37" t="s">
-        <v>47</v>
-      </c>
-      <c r="U37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21">
-      <c r="A38" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" t="s">
-        <v>45</v>
-      </c>
-      <c r="D38" t="s">
-        <v>60</v>
-      </c>
-      <c r="E38" t="s">
-        <v>56</v>
-      </c>
-      <c r="F38" t="s">
-        <v>57</v>
-      </c>
-      <c r="G38" t="s">
-        <v>56</v>
-      </c>
-      <c r="H38" t="s">
-        <v>43</v>
-      </c>
-      <c r="I38" t="s">
-        <v>43</v>
-      </c>
-      <c r="J38" t="s">
-        <v>43</v>
-      </c>
-      <c r="K38" t="s">
-        <v>43</v>
-      </c>
-      <c r="L38" t="s">
-        <v>48</v>
-      </c>
-      <c r="M38" t="s">
-        <v>43</v>
-      </c>
-      <c r="N38" t="s">
-        <v>48</v>
-      </c>
-      <c r="O38" t="s">
-        <v>45</v>
-      </c>
-      <c r="P38" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>48</v>
-      </c>
-      <c r="R38" t="s">
-        <v>42</v>
-      </c>
-      <c r="S38" t="s">
-        <v>45</v>
-      </c>
-      <c r="T38" t="s">
-        <v>50</v>
-      </c>
-      <c r="U38" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21">
-      <c r="A39" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>56</v>
-      </c>
-      <c r="C39" t="s">
-        <v>45</v>
-      </c>
-      <c r="D39" t="s">
-        <v>45</v>
-      </c>
-      <c r="E39" t="s">
-        <v>45</v>
-      </c>
-      <c r="F39" t="s">
-        <v>45</v>
-      </c>
-      <c r="G39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H39" t="s">
-        <v>45</v>
-      </c>
-      <c r="I39" t="s">
-        <v>45</v>
-      </c>
-      <c r="J39" t="s">
-        <v>45</v>
-      </c>
-      <c r="K39" t="s">
-        <v>50</v>
-      </c>
-      <c r="L39" t="s">
-        <v>46</v>
-      </c>
-      <c r="M39" t="s">
-        <v>45</v>
-      </c>
-      <c r="N39" t="s">
-        <v>45</v>
-      </c>
-      <c r="O39" t="s">
-        <v>45</v>
-      </c>
-      <c r="P39" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>60</v>
-      </c>
-      <c r="R39" t="s">
-        <v>45</v>
-      </c>
-      <c r="S39" t="s">
-        <v>42</v>
-      </c>
-      <c r="T39" t="s">
-        <v>43</v>
-      </c>
-      <c r="U39" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21">
-      <c r="A40" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>50</v>
-      </c>
-      <c r="C40" t="s">
-        <v>51</v>
-      </c>
-      <c r="D40" t="s">
-        <v>51</v>
-      </c>
-      <c r="E40" t="s">
-        <v>47</v>
-      </c>
-      <c r="F40" t="s">
-        <v>50</v>
-      </c>
-      <c r="G40" t="s">
-        <v>51</v>
-      </c>
-      <c r="H40" t="s">
-        <v>45</v>
-      </c>
-      <c r="I40" t="s">
-        <v>45</v>
-      </c>
-      <c r="J40" t="s">
-        <v>47</v>
-      </c>
-      <c r="K40" t="s">
-        <v>51</v>
-      </c>
-      <c r="L40" t="s">
-        <v>51</v>
-      </c>
-      <c r="M40" t="s">
-        <v>47</v>
-      </c>
-      <c r="N40" t="s">
-        <v>56</v>
-      </c>
-      <c r="O40" t="s">
-        <v>47</v>
-      </c>
-      <c r="P40" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>51</v>
-      </c>
-      <c r="R40" t="s">
-        <v>47</v>
-      </c>
-      <c r="S40" t="s">
-        <v>47</v>
-      </c>
-      <c r="T40" t="s">
-        <v>42</v>
-      </c>
-      <c r="U40" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21">
-      <c r="A41" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" t="s">
-        <v>43</v>
-      </c>
-      <c r="D41" t="s">
-        <v>43</v>
-      </c>
-      <c r="E41" t="s">
-        <v>43</v>
-      </c>
-      <c r="F41" t="s">
-        <v>43</v>
-      </c>
-      <c r="G41" t="s">
-        <v>48</v>
-      </c>
-      <c r="H41" t="s">
-        <v>43</v>
-      </c>
-      <c r="I41" t="s">
-        <v>43</v>
-      </c>
-      <c r="J41" t="s">
-        <v>57</v>
-      </c>
-      <c r="K41" t="s">
-        <v>57</v>
-      </c>
-      <c r="L41" t="s">
-        <v>46</v>
-      </c>
-      <c r="M41" t="s">
-        <v>46</v>
-      </c>
-      <c r="N41" t="s">
-        <v>50</v>
-      </c>
-      <c r="O41" t="s">
-        <v>45</v>
-      </c>
-      <c r="P41" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>46</v>
-      </c>
-      <c r="R41" t="s">
-        <v>46</v>
-      </c>
-      <c r="S41" t="s">
-        <v>45</v>
-      </c>
-      <c r="T41" t="s">
-        <v>45</v>
-      </c>
-      <c r="U41" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21">
-      <c r="A42" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>42</v>
-      </c>
-      <c r="C42" t="s">
-        <v>45</v>
-      </c>
-      <c r="D42" t="s">
-        <v>45</v>
-      </c>
-      <c r="E42" t="s">
-        <v>50</v>
-      </c>
-      <c r="F42" t="s">
-        <v>45</v>
-      </c>
-      <c r="G42" t="s">
-        <v>60</v>
-      </c>
-      <c r="H42" t="s">
-        <v>45</v>
-      </c>
-      <c r="I42" t="s">
-        <v>46</v>
-      </c>
-      <c r="J42" t="s">
-        <v>48</v>
-      </c>
-      <c r="K42" t="s">
-        <v>43</v>
-      </c>
-      <c r="L42" t="s">
-        <v>46</v>
-      </c>
-      <c r="M42" t="s">
-        <v>43</v>
-      </c>
-      <c r="N42" t="s">
-        <v>47</v>
-      </c>
-      <c r="O42" t="s">
-        <v>43</v>
-      </c>
-      <c r="P42" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>58</v>
-      </c>
-      <c r="R42" t="s">
-        <v>43</v>
-      </c>
-      <c r="S42" t="s">
-        <v>43</v>
-      </c>
-      <c r="T42" t="s">
-        <v>45</v>
-      </c>
-      <c r="U42" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21">
-      <c r="A43" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>50</v>
-      </c>
-      <c r="C43" t="s">
-        <v>42</v>
-      </c>
-      <c r="D43" t="s">
-        <v>57</v>
-      </c>
-      <c r="E43" t="s">
-        <v>51</v>
-      </c>
-      <c r="F43" t="s">
-        <v>50</v>
-      </c>
-      <c r="G43" t="s">
-        <v>51</v>
-      </c>
-      <c r="H43" t="s">
-        <v>51</v>
-      </c>
-      <c r="I43" t="s">
-        <v>51</v>
-      </c>
-      <c r="J43" t="s">
-        <v>51</v>
-      </c>
-      <c r="K43" t="s">
-        <v>51</v>
-      </c>
-      <c r="L43" t="s">
-        <v>51</v>
-      </c>
-      <c r="M43" t="s">
-        <v>51</v>
-      </c>
-      <c r="N43" t="s">
-        <v>50</v>
-      </c>
-      <c r="O43" t="s">
-        <v>47</v>
-      </c>
-      <c r="P43" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>50</v>
-      </c>
-      <c r="R43" t="s">
-        <v>51</v>
-      </c>
-      <c r="S43" t="s">
-        <v>54</v>
-      </c>
-      <c r="T43" t="s">
-        <v>51</v>
-      </c>
-      <c r="U43" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3496,7 +2962,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3504,7 +2970,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3512,7 +2978,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3520,7 +2986,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3528,7 +2994,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3536,7 +3002,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3560,7 +3026,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3568,7 +3034,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3576,7 +3042,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3584,7 +3050,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3592,7 +3058,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3600,7 +3066,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3616,7 +3082,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3624,7 +3090,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3632,7 +3098,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3640,7 +3106,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3656,7 +3122,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3664,7 +3130,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3672,7 +3138,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3688,7 +3154,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3696,7 +3162,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -3712,7 +3178,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3720,7 +3186,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3736,7 +3202,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3744,7 +3210,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -3760,7 +3226,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3768,7 +3234,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3776,71 +3242,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39">
         <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -3858,20 +3260,20 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.04377880184331797</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3879,15 +3281,15 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.002375296912114014</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3895,7 +3297,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3903,23 +3305,23 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.07304785894206549</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.1003717472118959</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -3927,7 +3329,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3935,15 +3337,15 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.02710027100271003</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -3951,7 +3353,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -3959,7 +3361,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3967,7 +3369,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3975,7 +3377,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3983,15 +3385,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.02735562310030395</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3999,7 +3401,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -4007,7 +3409,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -4015,7 +3417,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -4023,31 +3425,31 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.006622516556291391</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.03378378378378379</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B24">
-        <v>0.006578947368421052</v>
+        <v>0.03947368421052631</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -4068,7 +3470,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4076,7 +3478,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.002375296912114014</v>
+        <v>0.04750593824228028</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4092,7 +3494,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.0084985835694051</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4100,7 +3502,7 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.05463182897862233</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4116,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.0028328611898017</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4140,7 +3542,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.04750593824228028</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4148,7 +3550,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.002777777777777778</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4156,7 +3558,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>0.0028328611898017</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4180,7 +3582,7 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.0498812351543943</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4196,7 +3598,7 @@
         <v>24</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.0028328611898017</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4220,7 +3622,7 @@
         <v>29</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>0.03800475059382423</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4238,7 +3640,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4246,7 +3648,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4254,7 +3656,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4262,7 +3664,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4270,7 +3672,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4278,7 +3680,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4294,7 +3696,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4302,7 +3704,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4318,7 +3720,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4326,7 +3728,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4350,7 +3752,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4358,7 +3760,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4382,7 +3784,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4390,7 +3792,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4398,7 +3800,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4414,7 +3816,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4422,7 +3824,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -4446,7 +3848,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -4454,7 +3856,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -4462,7 +3864,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4470,7 +3872,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -4494,7 +3896,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -4502,7 +3904,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -4510,7 +3912,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -4518,71 +3920,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4600,79 +3938,79 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:26">
@@ -4680,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -4695,10 +4033,10 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -4707,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -4725,7 +4063,7 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -4752,7 +4090,7 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -4903,16 +4241,16 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -4920,13 +4258,13 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4935,10 +4273,10 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -4947,7 +4285,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -4965,7 +4303,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -4986,13 +4324,13 @@
         <v>0</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -5143,7 +4481,7 @@
         <v>0</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7">
         <v>0</v>
@@ -5152,7 +4490,7 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -5320,7 +4658,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -5335,10 +4673,10 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -5347,7 +4685,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -5365,7 +4703,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -5386,13 +4724,13 @@
         <v>0</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -5460,7 +4798,7 @@
         <v>0</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11">
         <v>0</v>
@@ -5472,7 +4810,7 @@
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -5543,7 +4881,7 @@
         <v>0</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12">
         <v>0</v>
@@ -5552,7 +4890,7 @@
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -5720,7 +5058,7 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -5735,10 +5073,10 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -5747,7 +5085,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -5765,7 +5103,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -5786,13 +5124,13 @@
         <v>0</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -5943,7 +5281,7 @@
         <v>0</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X17">
         <v>0</v>
@@ -5952,7 +5290,7 @@
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -6120,7 +5458,7 @@
         <v>29</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -6135,10 +5473,10 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -6147,7 +5485,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -6165,7 +5503,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -6186,13 +5524,13 @@
         <v>0</v>
       </c>
       <c r="X20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -6277,16 +5615,16 @@
     </row>
     <row r="22" spans="1:26">
       <c r="A22" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -6295,10 +5633,10 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -6307,7 +5645,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -6325,7 +5663,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="R22">
         <v>0</v>
@@ -6340,19 +5678,19 @@
         <v>0</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X22">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>1</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -6362,7 +5700,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6390,19 +5728,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="F2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -6410,19 +5748,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="E3" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="F3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -6430,19 +5768,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E4" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="F4" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -6450,19 +5788,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6470,19 +5808,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F6" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6490,19 +5828,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6510,19 +5848,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E8" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -6530,19 +5868,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="E9" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="F9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -6550,16 +5888,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D10" t="s">
         <v>90</v>
       </c>
       <c r="E10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F10" t="s">
         <v>90</v>
@@ -6570,19 +5908,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E11" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F11" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -6590,19 +5928,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
         <v>96</v>
       </c>
       <c r="D12" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E12" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F12" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -6610,19 +5948,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D13" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F13" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -6630,19 +5968,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E14" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="F14" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -6650,19 +5988,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F15" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -6670,19 +6008,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C16" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D16" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E16" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6690,19 +6028,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E17" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F17" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6710,19 +6048,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C18" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D18" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E18" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F18" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6730,19 +6068,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" t="s">
         <v>97</v>
       </c>
-      <c r="C19" t="s">
-        <v>100</v>
-      </c>
       <c r="D19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E19" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F19" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6750,19 +6088,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C20" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D20" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="E20" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="F20" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6770,19 +6108,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C21" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="D21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F21" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -6790,19 +6128,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" t="s">
         <v>90</v>
       </c>
-      <c r="C22" t="s">
-        <v>91</v>
-      </c>
-      <c r="D22" t="s">
-        <v>92</v>
-      </c>
       <c r="E22" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F22" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6810,19 +6148,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" t="s">
         <v>90</v>
       </c>
-      <c r="C23" t="s">
-        <v>91</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>95</v>
       </c>
-      <c r="E23" t="s">
-        <v>98</v>
-      </c>
       <c r="F23" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6830,19 +6168,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C24" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D24" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E24" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F24" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6850,19 +6188,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C25" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D25" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E25" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F25" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6870,19 +6208,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C26" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E26" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="F26" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6890,19 +6228,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C27" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D27" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E27" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F27" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -6910,19 +6248,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C28" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D28" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E28" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -6930,10 +6268,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C29" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D29" t="s">
         <v>90</v>
@@ -6942,7 +6280,7 @@
         <v>90</v>
       </c>
       <c r="F29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -6950,19 +6288,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C30" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D30" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E30" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="F30" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -6970,19 +6308,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C31" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D31" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E31" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="F31" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -6990,19 +6328,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C32" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D32" t="s">
         <v>90</v>
       </c>
       <c r="E32" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7010,19 +6348,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C33" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D33" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E33" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="F33" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7030,19 +6368,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C34" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D34" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E34" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F34" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7050,179 +6388,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C35" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="D35" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E35" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="F35" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>93</v>
-      </c>
-      <c r="C36" t="s">
-        <v>100</v>
-      </c>
-      <c r="D36" t="s">
-        <v>95</v>
-      </c>
-      <c r="E36" t="s">
-        <v>93</v>
-      </c>
-      <c r="F36" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>97</v>
-      </c>
-      <c r="C37" t="s">
-        <v>93</v>
-      </c>
-      <c r="D37" t="s">
-        <v>93</v>
-      </c>
-      <c r="E37" t="s">
-        <v>93</v>
-      </c>
-      <c r="F37" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>92</v>
-      </c>
-      <c r="C38" t="s">
-        <v>100</v>
-      </c>
-      <c r="D38" t="s">
-        <v>91</v>
-      </c>
-      <c r="E38" t="s">
-        <v>92</v>
-      </c>
-      <c r="F38" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>98</v>
-      </c>
-      <c r="C39" t="s">
-        <v>92</v>
-      </c>
-      <c r="D39" t="s">
-        <v>98</v>
-      </c>
-      <c r="E39" t="s">
-        <v>92</v>
-      </c>
-      <c r="F39" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>93</v>
-      </c>
-      <c r="C40" t="s">
-        <v>102</v>
-      </c>
-      <c r="D40" t="s">
-        <v>93</v>
-      </c>
-      <c r="E40" t="s">
-        <v>93</v>
-      </c>
-      <c r="F40" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>91</v>
-      </c>
-      <c r="C41" t="s">
-        <v>91</v>
-      </c>
-      <c r="D41" t="s">
-        <v>96</v>
-      </c>
-      <c r="E41" t="s">
-        <v>92</v>
-      </c>
-      <c r="F41" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>92</v>
-      </c>
-      <c r="C42" t="s">
-        <v>98</v>
-      </c>
-      <c r="D42" t="s">
-        <v>103</v>
-      </c>
-      <c r="E42" t="s">
-        <v>91</v>
-      </c>
-      <c r="F42" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>96</v>
-      </c>
-      <c r="C43" t="s">
-        <v>93</v>
-      </c>
-      <c r="D43" t="s">
-        <v>93</v>
-      </c>
-      <c r="E43" t="s">
-        <v>93</v>
-      </c>
-      <c r="F43" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/alg_schedule_data_2019_4.xlsx
+++ b/alg_schedule_data_2019_4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2063" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2063" uniqueCount="188">
   <si>
     <t>Name</t>
   </si>
@@ -373,34 +373,37 @@
     <t>O</t>
   </si>
   <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>N1</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>W6</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
     <t>P2</t>
   </si>
   <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>N1</t>
-  </si>
-  <si>
-    <t>W6</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
     <t>OB</t>
   </si>
   <si>
-    <t>A4</t>
+    <t>A5</t>
   </si>
   <si>
     <t>P5</t>
@@ -415,18 +418,15 @@
     <t>C4</t>
   </si>
   <si>
+    <t>P4</t>
+  </si>
+  <si>
     <t>AS</t>
   </si>
   <si>
     <t>P3</t>
   </si>
   <si>
-    <t>P4</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -520,64 +520,70 @@
     <t>晚班次數</t>
   </si>
   <si>
+    <t>['11.5', '12.0']</t>
+  </si>
+  <si>
+    <t>['12.0']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['12.5', '13.0']</t>
+  </si>
+  <si>
+    <t>['11.5']</t>
+  </si>
+  <si>
+    <t>['13.0']</t>
+  </si>
+  <si>
+    <t>['12.5']</t>
+  </si>
+  <si>
+    <t>['12.5', '13.5']</t>
+  </si>
+  <si>
+    <t>['11.5', '12.5']</t>
+  </si>
+  <si>
+    <t>['11.5', '13.5']</t>
+  </si>
+  <si>
     <t>['11.5', '13.0']</t>
   </si>
   <si>
-    <t>['12.0']</t>
-  </si>
-  <si>
-    <t>[]</t>
+    <t>['13.0', '13.5']</t>
   </si>
   <si>
     <t>['12.0', '12.5']</t>
   </si>
   <si>
-    <t>['11.5', '12.0']</t>
-  </si>
-  <si>
-    <t>['11.5', '12.5']</t>
-  </si>
-  <si>
-    <t>['12.5']</t>
+    <t>['11.5', '12.5', '13.5']</t>
   </si>
   <si>
     <t>['12.0', '13.0']</t>
   </si>
   <si>
-    <t>['13.0']</t>
+    <t>['11.5', '12.5', '13.0']</t>
+  </si>
+  <si>
+    <t>['11.5', '12.0', '13.0']</t>
+  </si>
+  <si>
+    <t>['11.5', '12.5', '13.0', '13.5']</t>
   </si>
   <si>
     <t>['13.5']</t>
   </si>
   <si>
-    <t>['11.5', '13.5']</t>
-  </si>
-  <si>
-    <t>['12.5', '13.0']</t>
-  </si>
-  <si>
-    <t>['11.5']</t>
-  </si>
-  <si>
-    <t>['13.0', '13.5']</t>
+    <t>['11.5', '13.0', '13.5']</t>
   </si>
   <si>
     <t>['11.5', '12.0', '12.5']</t>
   </si>
   <si>
-    <t>['12.5', '13.0', '13.5']</t>
-  </si>
-  <si>
-    <t>['11.5', '12.5', '13.0']</t>
-  </si>
-  <si>
     <t>['11.5', '12.0', '12.5', '13.0']</t>
-  </si>
-  <si>
-    <t>['11.5', '12.0', '13.0']</t>
-  </si>
-  <si>
-    <t>['12.5', '13.5']</t>
   </si>
 </sst>
 </file>
@@ -1050,10 +1056,10 @@
         <v>116</v>
       </c>
       <c r="D2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="F2" t="s">
         <v>135</v>
@@ -1068,19 +1074,19 @@
         <v>135</v>
       </c>
       <c r="J2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K2" t="s">
+        <v>125</v>
+      </c>
+      <c r="L2" t="s">
         <v>133</v>
-      </c>
-      <c r="L2" t="s">
-        <v>126</v>
       </c>
       <c r="M2" t="s">
         <v>123</v>
       </c>
       <c r="N2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O2" t="s">
         <v>135</v>
@@ -1089,19 +1095,19 @@
         <v>135</v>
       </c>
       <c r="Q2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="R2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="S2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="T2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="U2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="V2" t="s">
         <v>135</v>
@@ -1110,31 +1116,31 @@
         <v>135</v>
       </c>
       <c r="X2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="Y2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Z2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="AA2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AB2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE2" t="s">
         <v>123</v>
       </c>
-      <c r="AC2" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>135</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>124</v>
-      </c>
       <c r="AF2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:32">
@@ -1151,31 +1157,31 @@
         <v>116</v>
       </c>
       <c r="E3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H3" t="s">
+        <v>135</v>
+      </c>
+      <c r="I3" t="s">
+        <v>135</v>
+      </c>
+      <c r="J3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L3" t="s">
         <v>123</v>
       </c>
-      <c r="F3" t="s">
-        <v>135</v>
-      </c>
-      <c r="G3" t="s">
-        <v>135</v>
-      </c>
-      <c r="H3" t="s">
-        <v>135</v>
-      </c>
-      <c r="I3" t="s">
-        <v>135</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="M3" t="s">
         <v>117</v>
-      </c>
-      <c r="K3" t="s">
-        <v>122</v>
-      </c>
-      <c r="L3" t="s">
-        <v>117</v>
-      </c>
-      <c r="M3" t="s">
-        <v>122</v>
       </c>
       <c r="N3" t="s">
         <v>117</v>
@@ -1187,19 +1193,19 @@
         <v>135</v>
       </c>
       <c r="Q3" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="R3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="S3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="T3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="U3" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="V3" t="s">
         <v>135</v>
@@ -1208,20 +1214,20 @@
         <v>135</v>
       </c>
       <c r="X3" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB3" t="s">
         <v>123</v>
       </c>
-      <c r="Y3" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>123</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>118</v>
-      </c>
       <c r="AC3" t="s">
         <v>135</v>
       </c>
@@ -1229,10 +1235,10 @@
         <v>135</v>
       </c>
       <c r="AE3" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="AF3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:32">
@@ -1270,13 +1276,13 @@
         <v>118</v>
       </c>
       <c r="L4" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="M4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="N4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O4" t="s">
         <v>135</v>
@@ -1285,19 +1291,19 @@
         <v>135</v>
       </c>
       <c r="Q4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="R4" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="S4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="T4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="U4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="V4" t="s">
         <v>135</v>
@@ -1306,19 +1312,19 @@
         <v>135</v>
       </c>
       <c r="X4" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="Y4" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="Z4" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="AA4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AB4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AC4" t="s">
         <v>135</v>
@@ -1327,10 +1333,10 @@
         <v>135</v>
       </c>
       <c r="AE4" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="AF4" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:32">
@@ -1344,10 +1350,10 @@
         <v>119</v>
       </c>
       <c r="D5" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E5" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="F5" t="s">
         <v>135</v>
@@ -1365,37 +1371,37 @@
         <v>116</v>
       </c>
       <c r="K5" t="s">
+        <v>129</v>
+      </c>
+      <c r="L5" t="s">
+        <v>129</v>
+      </c>
+      <c r="M5" t="s">
+        <v>129</v>
+      </c>
+      <c r="N5" t="s">
+        <v>129</v>
+      </c>
+      <c r="O5" t="s">
+        <v>135</v>
+      </c>
+      <c r="P5" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q5" t="s">
         <v>130</v>
       </c>
-      <c r="L5" t="s">
+      <c r="R5" t="s">
         <v>130</v>
       </c>
-      <c r="M5" t="s">
+      <c r="S5" t="s">
         <v>130</v>
       </c>
-      <c r="N5" t="s">
+      <c r="T5" t="s">
         <v>130</v>
       </c>
-      <c r="O5" t="s">
-        <v>135</v>
-      </c>
-      <c r="P5" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>119</v>
-      </c>
-      <c r="R5" t="s">
-        <v>119</v>
-      </c>
-      <c r="S5" t="s">
-        <v>119</v>
-      </c>
-      <c r="T5" t="s">
-        <v>119</v>
-      </c>
       <c r="U5" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="V5" t="s">
         <v>135</v>
@@ -1428,7 +1434,7 @@
         <v>119</v>
       </c>
       <c r="AF5" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:32">
@@ -1442,10 +1448,10 @@
         <v>120</v>
       </c>
       <c r="D6" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F6" t="s">
         <v>135</v>
@@ -1460,19 +1466,19 @@
         <v>135</v>
       </c>
       <c r="J6" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="K6" t="s">
         <v>116</v>
       </c>
       <c r="L6" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M6" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="N6" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="O6" t="s">
         <v>135</v>
@@ -1481,19 +1487,19 @@
         <v>135</v>
       </c>
       <c r="Q6" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="R6" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="S6" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="T6" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="U6" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="V6" t="s">
         <v>135</v>
@@ -1502,19 +1508,19 @@
         <v>135</v>
       </c>
       <c r="X6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Y6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Z6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AA6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AB6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AC6" t="s">
         <v>135</v>
@@ -1523,10 +1529,10 @@
         <v>135</v>
       </c>
       <c r="AE6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AF6" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:32">
@@ -1537,13 +1543,13 @@
         <v>79</v>
       </c>
       <c r="C7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F7" t="s">
         <v>135</v>
@@ -1558,19 +1564,19 @@
         <v>135</v>
       </c>
       <c r="J7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="L7" t="s">
         <v>116</v>
       </c>
       <c r="M7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="N7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O7" t="s">
         <v>135</v>
@@ -1579,19 +1585,19 @@
         <v>135</v>
       </c>
       <c r="Q7" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="R7" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="S7" t="s">
         <v>123</v>
       </c>
       <c r="T7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="U7" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="V7" t="s">
         <v>135</v>
@@ -1600,16 +1606,16 @@
         <v>135</v>
       </c>
       <c r="X7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y7" t="s">
         <v>124</v>
       </c>
-      <c r="Y7" t="s">
-        <v>122</v>
-      </c>
       <c r="Z7" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="AA7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="AB7" t="s">
         <v>124</v>
@@ -1635,13 +1641,13 @@
         <v>80</v>
       </c>
       <c r="C8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D8" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F8" t="s">
         <v>135</v>
@@ -1656,19 +1662,19 @@
         <v>135</v>
       </c>
       <c r="J8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="K8" t="s">
         <v>118</v>
       </c>
       <c r="L8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M8" t="s">
         <v>116</v>
       </c>
       <c r="N8" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="O8" t="s">
         <v>135</v>
@@ -1686,7 +1692,7 @@
         <v>118</v>
       </c>
       <c r="T8" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="U8" t="s">
         <v>118</v>
@@ -1698,20 +1704,20 @@
         <v>135</v>
       </c>
       <c r="X8" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z8" t="s">
         <v>123</v>
       </c>
-      <c r="Y8" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>117</v>
-      </c>
       <c r="AA8" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB8" t="s">
         <v>123</v>
       </c>
-      <c r="AB8" t="s">
-        <v>120</v>
-      </c>
       <c r="AC8" t="s">
         <v>135</v>
       </c>
@@ -1719,10 +1725,10 @@
         <v>135</v>
       </c>
       <c r="AE8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AF8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:32">
@@ -1733,37 +1739,37 @@
         <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" t="s">
+        <v>135</v>
+      </c>
+      <c r="G9" t="s">
+        <v>135</v>
+      </c>
+      <c r="H9" t="s">
+        <v>135</v>
+      </c>
+      <c r="I9" t="s">
+        <v>135</v>
+      </c>
+      <c r="J9" t="s">
+        <v>125</v>
+      </c>
+      <c r="K9" t="s">
         <v>120</v>
       </c>
-      <c r="E9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F9" t="s">
-        <v>135</v>
-      </c>
-      <c r="G9" t="s">
-        <v>135</v>
-      </c>
-      <c r="H9" t="s">
-        <v>135</v>
-      </c>
-      <c r="I9" t="s">
-        <v>135</v>
-      </c>
-      <c r="J9" t="s">
-        <v>124</v>
-      </c>
-      <c r="K9" t="s">
-        <v>124</v>
-      </c>
       <c r="L9" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M9" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="N9" t="s">
         <v>116</v>
@@ -1778,16 +1784,16 @@
         <v>122</v>
       </c>
       <c r="R9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="S9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="T9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="U9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="V9" t="s">
         <v>135</v>
@@ -1796,19 +1802,19 @@
         <v>135</v>
       </c>
       <c r="X9" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Y9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Z9" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AA9" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="AB9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="AC9" t="s">
         <v>135</v>
@@ -1817,10 +1823,10 @@
         <v>135</v>
       </c>
       <c r="AE9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="AF9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:32">
@@ -1831,13 +1837,13 @@
         <v>82</v>
       </c>
       <c r="C10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F10" t="s">
         <v>135</v>
@@ -1852,16 +1858,16 @@
         <v>135</v>
       </c>
       <c r="J10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K10" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="L10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M10" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="N10" t="s">
         <v>121</v>
@@ -1876,16 +1882,16 @@
         <v>116</v>
       </c>
       <c r="R10" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="S10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="T10" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="U10" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="V10" t="s">
         <v>135</v>
@@ -1894,19 +1900,19 @@
         <v>135</v>
       </c>
       <c r="X10" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="Y10" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="Z10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AA10" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AB10" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AC10" t="s">
         <v>135</v>
@@ -1915,10 +1921,10 @@
         <v>135</v>
       </c>
       <c r="AE10" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="AF10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:32">
@@ -1932,79 +1938,79 @@
         <v>123</v>
       </c>
       <c r="D11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F11" t="s">
+        <v>135</v>
+      </c>
+      <c r="G11" t="s">
+        <v>135</v>
+      </c>
+      <c r="H11" t="s">
+        <v>135</v>
+      </c>
+      <c r="I11" t="s">
+        <v>135</v>
+      </c>
+      <c r="J11" t="s">
+        <v>127</v>
+      </c>
+      <c r="K11" t="s">
+        <v>127</v>
+      </c>
+      <c r="L11" t="s">
+        <v>127</v>
+      </c>
+      <c r="M11" t="s">
+        <v>118</v>
+      </c>
+      <c r="N11" t="s">
+        <v>120</v>
+      </c>
+      <c r="O11" t="s">
+        <v>135</v>
+      </c>
+      <c r="P11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q11" t="s">
         <v>117</v>
-      </c>
-      <c r="E11" t="s">
-        <v>131</v>
-      </c>
-      <c r="F11" t="s">
-        <v>135</v>
-      </c>
-      <c r="G11" t="s">
-        <v>135</v>
-      </c>
-      <c r="H11" t="s">
-        <v>135</v>
-      </c>
-      <c r="I11" t="s">
-        <v>135</v>
-      </c>
-      <c r="J11" t="s">
-        <v>120</v>
-      </c>
-      <c r="K11" t="s">
-        <v>117</v>
-      </c>
-      <c r="L11" t="s">
-        <v>120</v>
-      </c>
-      <c r="M11" t="s">
-        <v>120</v>
-      </c>
-      <c r="N11" t="s">
-        <v>123</v>
-      </c>
-      <c r="O11" t="s">
-        <v>135</v>
-      </c>
-      <c r="P11" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>127</v>
       </c>
       <c r="R11" t="s">
         <v>116</v>
       </c>
       <c r="S11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="T11" t="s">
+        <v>118</v>
+      </c>
+      <c r="U11" t="s">
+        <v>120</v>
+      </c>
+      <c r="V11" t="s">
+        <v>135</v>
+      </c>
+      <c r="W11" t="s">
+        <v>135</v>
+      </c>
+      <c r="X11" t="s">
         <v>127</v>
       </c>
-      <c r="U11" t="s">
-        <v>122</v>
-      </c>
-      <c r="V11" t="s">
-        <v>135</v>
-      </c>
-      <c r="W11" t="s">
-        <v>135</v>
-      </c>
-      <c r="X11" t="s">
-        <v>118</v>
-      </c>
       <c r="Y11" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="Z11" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="AA11" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AB11" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AC11" t="s">
         <v>135</v>
@@ -2013,10 +2019,10 @@
         <v>135</v>
       </c>
       <c r="AE11" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AF11" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:32">
@@ -2027,40 +2033,40 @@
         <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D12" t="s">
         <v>124</v>
       </c>
       <c r="E12" t="s">
+        <v>124</v>
+      </c>
+      <c r="F12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G12" t="s">
+        <v>135</v>
+      </c>
+      <c r="H12" t="s">
+        <v>135</v>
+      </c>
+      <c r="I12" t="s">
+        <v>135</v>
+      </c>
+      <c r="J12" t="s">
         <v>121</v>
       </c>
-      <c r="F12" t="s">
-        <v>135</v>
-      </c>
-      <c r="G12" t="s">
-        <v>135</v>
-      </c>
-      <c r="H12" t="s">
-        <v>135</v>
-      </c>
-      <c r="I12" t="s">
-        <v>135</v>
-      </c>
-      <c r="J12" t="s">
-        <v>126</v>
-      </c>
       <c r="K12" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M12" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="N12" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="O12" t="s">
         <v>135</v>
@@ -2072,7 +2078,7 @@
         <v>120</v>
       </c>
       <c r="R12" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="S12" t="s">
         <v>116</v>
@@ -2081,40 +2087,40 @@
         <v>122</v>
       </c>
       <c r="U12" t="s">
+        <v>118</v>
+      </c>
+      <c r="V12" t="s">
+        <v>135</v>
+      </c>
+      <c r="W12" t="s">
+        <v>135</v>
+      </c>
+      <c r="X12" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE12" t="s">
         <v>120</v>
       </c>
-      <c r="V12" t="s">
-        <v>135</v>
-      </c>
-      <c r="W12" t="s">
-        <v>135</v>
-      </c>
-      <c r="X12" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>135</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>124</v>
-      </c>
       <c r="AF12" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:32">
@@ -2125,13 +2131,13 @@
         <v>85</v>
       </c>
       <c r="C13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D13" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F13" t="s">
         <v>135</v>
@@ -2146,19 +2152,19 @@
         <v>135</v>
       </c>
       <c r="J13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K13" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="L13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O13" t="s">
         <v>135</v>
@@ -2167,19 +2173,19 @@
         <v>135</v>
       </c>
       <c r="Q13" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="R13" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="S13" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="T13" t="s">
         <v>116</v>
       </c>
       <c r="U13" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="V13" t="s">
         <v>135</v>
@@ -2188,19 +2194,19 @@
         <v>135</v>
       </c>
       <c r="X13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Y13" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="Z13" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="AA13" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="AB13" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="AC13" t="s">
         <v>135</v>
@@ -2209,10 +2215,10 @@
         <v>135</v>
       </c>
       <c r="AE13" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="AF13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:32">
@@ -2223,13 +2229,13 @@
         <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D14" t="s">
         <v>124</v>
       </c>
       <c r="E14" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F14" t="s">
         <v>135</v>
@@ -2244,19 +2250,19 @@
         <v>135</v>
       </c>
       <c r="J14" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="K14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O14" t="s">
         <v>135</v>
@@ -2265,16 +2271,16 @@
         <v>135</v>
       </c>
       <c r="Q14" t="s">
+        <v>127</v>
+      </c>
+      <c r="R14" t="s">
         <v>124</v>
       </c>
-      <c r="R14" t="s">
-        <v>122</v>
-      </c>
       <c r="S14" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="T14" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="U14" t="s">
         <v>116</v>
@@ -2286,19 +2292,19 @@
         <v>135</v>
       </c>
       <c r="X14" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="Y14" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="Z14" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="AA14" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="AB14" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="AC14" t="s">
         <v>135</v>
@@ -2307,10 +2313,10 @@
         <v>135</v>
       </c>
       <c r="AE14" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="AF14" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:32">
@@ -2321,13 +2327,13 @@
         <v>87</v>
       </c>
       <c r="C15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D15" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E15" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="F15" t="s">
         <v>135</v>
@@ -2345,37 +2351,37 @@
         <v>123</v>
       </c>
       <c r="K15" t="s">
+        <v>132</v>
+      </c>
+      <c r="L15" t="s">
+        <v>124</v>
+      </c>
+      <c r="M15" t="s">
+        <v>132</v>
+      </c>
+      <c r="N15" t="s">
+        <v>132</v>
+      </c>
+      <c r="O15" t="s">
+        <v>135</v>
+      </c>
+      <c r="P15" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q15" t="s">
         <v>134</v>
       </c>
-      <c r="L15" t="s">
+      <c r="R15" t="s">
         <v>134</v>
       </c>
-      <c r="M15" t="s">
+      <c r="S15" t="s">
+        <v>121</v>
+      </c>
+      <c r="T15" t="s">
         <v>134</v>
       </c>
-      <c r="N15" t="s">
-        <v>131</v>
-      </c>
-      <c r="O15" t="s">
-        <v>135</v>
-      </c>
-      <c r="P15" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>121</v>
-      </c>
-      <c r="R15" t="s">
-        <v>126</v>
-      </c>
-      <c r="S15" t="s">
-        <v>126</v>
-      </c>
-      <c r="T15" t="s">
-        <v>126</v>
-      </c>
       <c r="U15" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="V15" t="s">
         <v>135</v>
@@ -2387,28 +2393,28 @@
         <v>116</v>
       </c>
       <c r="Y15" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z15" t="s">
         <v>117</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF15" t="s">
         <v>120</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>135</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>117</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:32">
@@ -2419,13 +2425,13 @@
         <v>88</v>
       </c>
       <c r="C16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F16" t="s">
         <v>135</v>
@@ -2440,19 +2446,19 @@
         <v>135</v>
       </c>
       <c r="J16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O16" t="s">
         <v>135</v>
@@ -2461,19 +2467,19 @@
         <v>135</v>
       </c>
       <c r="Q16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="S16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="T16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="U16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="V16" t="s">
         <v>135</v>
@@ -2482,19 +2488,19 @@
         <v>135</v>
       </c>
       <c r="X16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Y16" t="s">
         <v>116</v>
       </c>
       <c r="Z16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AA16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AB16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AC16" t="s">
         <v>135</v>
@@ -2503,10 +2509,10 @@
         <v>135</v>
       </c>
       <c r="AE16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AF16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:32">
@@ -2517,40 +2523,40 @@
         <v>89</v>
       </c>
       <c r="C17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D17" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17" t="s">
+        <v>129</v>
+      </c>
+      <c r="F17" t="s">
+        <v>135</v>
+      </c>
+      <c r="G17" t="s">
+        <v>135</v>
+      </c>
+      <c r="H17" t="s">
+        <v>135</v>
+      </c>
+      <c r="I17" t="s">
+        <v>135</v>
+      </c>
+      <c r="J17" t="s">
+        <v>126</v>
+      </c>
+      <c r="K17" t="s">
         <v>119</v>
       </c>
-      <c r="E17" t="s">
+      <c r="L17" t="s">
         <v>119</v>
       </c>
-      <c r="F17" t="s">
-        <v>135</v>
-      </c>
-      <c r="G17" t="s">
-        <v>135</v>
-      </c>
-      <c r="H17" t="s">
-        <v>135</v>
-      </c>
-      <c r="I17" t="s">
-        <v>135</v>
-      </c>
-      <c r="J17" t="s">
-        <v>125</v>
-      </c>
-      <c r="K17" t="s">
-        <v>128</v>
-      </c>
-      <c r="L17" t="s">
-        <v>128</v>
-      </c>
       <c r="M17" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="N17" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="O17" t="s">
         <v>135</v>
@@ -2559,19 +2565,19 @@
         <v>135</v>
       </c>
       <c r="Q17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R17" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="S17" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="T17" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="U17" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="V17" t="s">
         <v>135</v>
@@ -2580,19 +2586,19 @@
         <v>135</v>
       </c>
       <c r="X17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Y17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Z17" t="s">
         <v>116</v>
       </c>
       <c r="AA17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AB17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AC17" t="s">
         <v>135</v>
@@ -2601,10 +2607,10 @@
         <v>135</v>
       </c>
       <c r="AE17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AF17" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:32">
@@ -2615,10 +2621,10 @@
         <v>90</v>
       </c>
       <c r="C18" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E18" t="s">
         <v>123</v>
@@ -2636,19 +2642,19 @@
         <v>135</v>
       </c>
       <c r="J18" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="K18" t="s">
+        <v>118</v>
+      </c>
+      <c r="L18" t="s">
+        <v>118</v>
+      </c>
+      <c r="M18" t="s">
         <v>120</v>
       </c>
-      <c r="L18" t="s">
-        <v>118</v>
-      </c>
-      <c r="M18" t="s">
-        <v>118</v>
-      </c>
       <c r="N18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="O18" t="s">
         <v>135</v>
@@ -2657,19 +2663,19 @@
         <v>135</v>
       </c>
       <c r="Q18" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="R18" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="S18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T18" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="U18" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="V18" t="s">
         <v>135</v>
@@ -2678,19 +2684,19 @@
         <v>135</v>
       </c>
       <c r="X18" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z18" t="s">
         <v>123</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>117</v>
       </c>
       <c r="AA18" t="s">
         <v>116</v>
       </c>
       <c r="AB18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AC18" t="s">
         <v>135</v>
@@ -2699,10 +2705,10 @@
         <v>135</v>
       </c>
       <c r="AE18" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AF18" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:32">
@@ -2713,40 +2719,40 @@
         <v>91</v>
       </c>
       <c r="C19" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D19" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19" t="s">
+        <v>135</v>
+      </c>
+      <c r="G19" t="s">
+        <v>135</v>
+      </c>
+      <c r="H19" t="s">
+        <v>135</v>
+      </c>
+      <c r="I19" t="s">
+        <v>135</v>
+      </c>
+      <c r="J19" t="s">
+        <v>124</v>
+      </c>
+      <c r="K19" t="s">
+        <v>124</v>
+      </c>
+      <c r="L19" t="s">
         <v>120</v>
       </c>
-      <c r="E19" t="s">
-        <v>120</v>
-      </c>
-      <c r="F19" t="s">
-        <v>135</v>
-      </c>
-      <c r="G19" t="s">
-        <v>135</v>
-      </c>
-      <c r="H19" t="s">
-        <v>135</v>
-      </c>
-      <c r="I19" t="s">
-        <v>135</v>
-      </c>
-      <c r="J19" t="s">
-        <v>118</v>
-      </c>
-      <c r="K19" t="s">
-        <v>118</v>
-      </c>
-      <c r="L19" t="s">
-        <v>122</v>
-      </c>
       <c r="M19" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="N19" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="O19" t="s">
         <v>135</v>
@@ -2758,13 +2764,13 @@
         <v>124</v>
       </c>
       <c r="R19" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="S19" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="T19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U19" t="s">
         <v>124</v>
@@ -2776,13 +2782,13 @@
         <v>135</v>
       </c>
       <c r="X19" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="Y19" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="Z19" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="AA19" t="s">
         <v>122</v>
@@ -2797,10 +2803,10 @@
         <v>135</v>
       </c>
       <c r="AE19" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF19" t="s">
         <v>124</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:32">
@@ -2811,13 +2817,13 @@
         <v>92</v>
       </c>
       <c r="C20" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D20" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E20" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="F20" t="s">
         <v>135</v>
@@ -2832,19 +2838,19 @@
         <v>135</v>
       </c>
       <c r="J20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K20" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="L20" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M20" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N20" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="O20" t="s">
         <v>135</v>
@@ -2853,16 +2859,16 @@
         <v>135</v>
       </c>
       <c r="Q20" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="R20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S20" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="T20" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="U20" t="s">
         <v>124</v>
@@ -2874,19 +2880,19 @@
         <v>135</v>
       </c>
       <c r="X20" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="Y20" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="Z20" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="AA20" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AB20" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="AC20" t="s">
         <v>135</v>
@@ -2898,7 +2904,7 @@
         <v>116</v>
       </c>
       <c r="AF20" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:32">
@@ -2909,13 +2915,13 @@
         <v>93</v>
       </c>
       <c r="C21" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D21" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E21" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="F21" t="s">
         <v>135</v>
@@ -2930,61 +2936,61 @@
         <v>135</v>
       </c>
       <c r="J21" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="K21" t="s">
         <v>124</v>
       </c>
       <c r="L21" t="s">
+        <v>117</v>
+      </c>
+      <c r="M21" t="s">
+        <v>124</v>
+      </c>
+      <c r="N21" t="s">
+        <v>123</v>
+      </c>
+      <c r="O21" t="s">
+        <v>135</v>
+      </c>
+      <c r="P21" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q21" t="s">
         <v>127</v>
       </c>
-      <c r="M21" t="s">
-        <v>126</v>
-      </c>
-      <c r="N21" t="s">
+      <c r="R21" t="s">
+        <v>127</v>
+      </c>
+      <c r="S21" t="s">
+        <v>127</v>
+      </c>
+      <c r="T21" t="s">
+        <v>127</v>
+      </c>
+      <c r="U21" t="s">
+        <v>127</v>
+      </c>
+      <c r="V21" t="s">
+        <v>135</v>
+      </c>
+      <c r="W21" t="s">
+        <v>135</v>
+      </c>
+      <c r="X21" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y21" t="s">
         <v>124</v>
       </c>
-      <c r="O21" t="s">
-        <v>135</v>
-      </c>
-      <c r="P21" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>118</v>
-      </c>
-      <c r="R21" t="s">
-        <v>118</v>
-      </c>
-      <c r="S21" t="s">
-        <v>131</v>
-      </c>
-      <c r="T21" t="s">
-        <v>118</v>
-      </c>
-      <c r="U21" t="s">
-        <v>123</v>
-      </c>
-      <c r="V21" t="s">
-        <v>135</v>
-      </c>
-      <c r="W21" t="s">
-        <v>135</v>
-      </c>
-      <c r="X21" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>122</v>
-      </c>
       <c r="Z21" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AA21" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AB21" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AC21" t="s">
         <v>135</v>
@@ -2993,7 +2999,7 @@
         <v>135</v>
       </c>
       <c r="AE21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AF21" t="s">
         <v>116</v>
@@ -3013,7 +3019,7 @@
         <v>124</v>
       </c>
       <c r="E22" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="F22" t="s">
         <v>135</v>
@@ -3028,16 +3034,16 @@
         <v>135</v>
       </c>
       <c r="J22" t="s">
+        <v>121</v>
+      </c>
+      <c r="K22" t="s">
+        <v>121</v>
+      </c>
+      <c r="L22" t="s">
+        <v>120</v>
+      </c>
+      <c r="M22" t="s">
         <v>124</v>
-      </c>
-      <c r="K22" t="s">
-        <v>122</v>
-      </c>
-      <c r="L22" t="s">
-        <v>132</v>
-      </c>
-      <c r="M22" t="s">
-        <v>126</v>
       </c>
       <c r="N22" t="s">
         <v>124</v>
@@ -3049,19 +3055,19 @@
         <v>135</v>
       </c>
       <c r="Q22" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="R22" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="S22" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="T22" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="U22" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="V22" t="s">
         <v>135</v>
@@ -3070,19 +3076,19 @@
         <v>135</v>
       </c>
       <c r="X22" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y22" t="s">
         <v>117</v>
       </c>
-      <c r="Y22" t="s">
-        <v>122</v>
-      </c>
       <c r="Z22" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="AA22" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="AB22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AC22" t="s">
         <v>135</v>
@@ -3091,10 +3097,10 @@
         <v>135</v>
       </c>
       <c r="AE22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AF22" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:32">
@@ -3111,88 +3117,88 @@
         <v>116</v>
       </c>
       <c r="E23" t="s">
+        <v>124</v>
+      </c>
+      <c r="F23" t="s">
+        <v>135</v>
+      </c>
+      <c r="G23" t="s">
+        <v>135</v>
+      </c>
+      <c r="H23" t="s">
+        <v>135</v>
+      </c>
+      <c r="I23" t="s">
+        <v>135</v>
+      </c>
+      <c r="J23" t="s">
+        <v>120</v>
+      </c>
+      <c r="K23" t="s">
+        <v>118</v>
+      </c>
+      <c r="L23" t="s">
+        <v>118</v>
+      </c>
+      <c r="M23" t="s">
+        <v>118</v>
+      </c>
+      <c r="N23" t="s">
+        <v>118</v>
+      </c>
+      <c r="O23" t="s">
+        <v>135</v>
+      </c>
+      <c r="P23" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>120</v>
+      </c>
+      <c r="R23" t="s">
+        <v>127</v>
+      </c>
+      <c r="S23" t="s">
+        <v>127</v>
+      </c>
+      <c r="T23" t="s">
+        <v>127</v>
+      </c>
+      <c r="U23" t="s">
+        <v>127</v>
+      </c>
+      <c r="V23" t="s">
+        <v>135</v>
+      </c>
+      <c r="W23" t="s">
+        <v>135</v>
+      </c>
+      <c r="X23" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y23" t="s">
         <v>123</v>
       </c>
-      <c r="F23" t="s">
-        <v>135</v>
-      </c>
-      <c r="G23" t="s">
-        <v>135</v>
-      </c>
-      <c r="H23" t="s">
-        <v>135</v>
-      </c>
-      <c r="I23" t="s">
-        <v>135</v>
-      </c>
-      <c r="J23" t="s">
+      <c r="Z23" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE23" t="s">
         <v>124</v>
       </c>
-      <c r="K23" t="s">
-        <v>124</v>
-      </c>
-      <c r="L23" t="s">
+      <c r="AF23" t="s">
         <v>123</v>
-      </c>
-      <c r="M23" t="s">
-        <v>118</v>
-      </c>
-      <c r="N23" t="s">
-        <v>118</v>
-      </c>
-      <c r="O23" t="s">
-        <v>135</v>
-      </c>
-      <c r="P23" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>122</v>
-      </c>
-      <c r="R23" t="s">
-        <v>124</v>
-      </c>
-      <c r="S23" t="s">
-        <v>131</v>
-      </c>
-      <c r="T23" t="s">
-        <v>124</v>
-      </c>
-      <c r="U23" t="s">
-        <v>126</v>
-      </c>
-      <c r="V23" t="s">
-        <v>135</v>
-      </c>
-      <c r="W23" t="s">
-        <v>135</v>
-      </c>
-      <c r="X23" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>135</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>126</v>
-      </c>
-      <c r="AF23" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:32">
@@ -3206,7 +3212,7 @@
         <v>117</v>
       </c>
       <c r="D24" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E24" t="s">
         <v>116</v>
@@ -3224,19 +3230,19 @@
         <v>135</v>
       </c>
       <c r="J24" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K24" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L24" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M24" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="N24" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="O24" t="s">
         <v>135</v>
@@ -3245,19 +3251,19 @@
         <v>135</v>
       </c>
       <c r="Q24" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="R24" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="S24" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="T24" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="U24" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="V24" t="s">
         <v>135</v>
@@ -3266,19 +3272,19 @@
         <v>135</v>
       </c>
       <c r="X24" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="Y24" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Z24" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="AA24" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AB24" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="AC24" t="s">
         <v>135</v>
@@ -3287,10 +3293,10 @@
         <v>135</v>
       </c>
       <c r="AE24" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF24" t="s">
         <v>117</v>
-      </c>
-      <c r="AF24" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:32">
@@ -3304,10 +3310,10 @@
         <v>123</v>
       </c>
       <c r="D25" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E25" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="F25" t="s">
         <v>135</v>
@@ -3325,34 +3331,34 @@
         <v>116</v>
       </c>
       <c r="K25" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="L25" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="M25" t="s">
+        <v>127</v>
+      </c>
+      <c r="N25" t="s">
+        <v>122</v>
+      </c>
+      <c r="O25" t="s">
+        <v>135</v>
+      </c>
+      <c r="P25" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>127</v>
+      </c>
+      <c r="R25" t="s">
         <v>124</v>
       </c>
-      <c r="N25" t="s">
-        <v>123</v>
-      </c>
-      <c r="O25" t="s">
-        <v>135</v>
-      </c>
-      <c r="P25" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q25" t="s">
+      <c r="S25" t="s">
         <v>124</v>
       </c>
-      <c r="R25" t="s">
-        <v>126</v>
-      </c>
-      <c r="S25" t="s">
-        <v>120</v>
-      </c>
       <c r="T25" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="U25" t="s">
         <v>122</v>
@@ -3364,19 +3370,19 @@
         <v>135</v>
       </c>
       <c r="X25" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Y25" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="Z25" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="AA25" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="AB25" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AC25" t="s">
         <v>135</v>
@@ -3385,10 +3391,10 @@
         <v>135</v>
       </c>
       <c r="AE25" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AF25" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:32">
@@ -3399,13 +3405,13 @@
         <v>98</v>
       </c>
       <c r="C26" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D26" t="s">
         <v>120</v>
       </c>
       <c r="E26" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F26" t="s">
         <v>135</v>
@@ -3426,67 +3432,67 @@
         <v>116</v>
       </c>
       <c r="L26" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M26" t="s">
+        <v>125</v>
+      </c>
+      <c r="N26" t="s">
+        <v>125</v>
+      </c>
+      <c r="O26" t="s">
+        <v>135</v>
+      </c>
+      <c r="P26" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>125</v>
+      </c>
+      <c r="R26" t="s">
+        <v>125</v>
+      </c>
+      <c r="S26" t="s">
+        <v>120</v>
+      </c>
+      <c r="T26" t="s">
+        <v>125</v>
+      </c>
+      <c r="U26" t="s">
+        <v>125</v>
+      </c>
+      <c r="V26" t="s">
+        <v>135</v>
+      </c>
+      <c r="W26" t="s">
+        <v>135</v>
+      </c>
+      <c r="X26" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE26" t="s">
         <v>123</v>
       </c>
-      <c r="N26" t="s">
-        <v>120</v>
-      </c>
-      <c r="O26" t="s">
-        <v>135</v>
-      </c>
-      <c r="P26" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>124</v>
-      </c>
-      <c r="R26" t="s">
-        <v>120</v>
-      </c>
-      <c r="S26" t="s">
-        <v>123</v>
-      </c>
-      <c r="T26" t="s">
-        <v>118</v>
-      </c>
-      <c r="U26" t="s">
-        <v>120</v>
-      </c>
-      <c r="V26" t="s">
-        <v>135</v>
-      </c>
-      <c r="W26" t="s">
-        <v>135</v>
-      </c>
-      <c r="X26" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD26" t="s">
-        <v>135</v>
-      </c>
-      <c r="AE26" t="s">
-        <v>120</v>
-      </c>
       <c r="AF26" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:32">
@@ -3497,13 +3503,13 @@
         <v>99</v>
       </c>
       <c r="C27" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D27" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E27" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="F27" t="s">
         <v>135</v>
@@ -3521,13 +3527,13 @@
         <v>117</v>
       </c>
       <c r="K27" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="L27" t="s">
         <v>116</v>
       </c>
       <c r="M27" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="N27" t="s">
         <v>117</v>
@@ -3542,16 +3548,16 @@
         <v>120</v>
       </c>
       <c r="R27" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="S27" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="T27" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="U27" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="V27" t="s">
         <v>135</v>
@@ -3563,16 +3569,16 @@
         <v>121</v>
       </c>
       <c r="Y27" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Z27" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="AA27" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="AB27" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="AC27" t="s">
         <v>135</v>
@@ -3581,7 +3587,7 @@
         <v>135</v>
       </c>
       <c r="AE27" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AF27" t="s">
         <v>120</v>
@@ -3595,13 +3601,13 @@
         <v>100</v>
       </c>
       <c r="C28" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D28" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E28" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F28" t="s">
         <v>135</v>
@@ -3622,13 +3628,13 @@
         <v>122</v>
       </c>
       <c r="L28" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="M28" t="s">
         <v>116</v>
       </c>
       <c r="N28" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="O28" t="s">
         <v>135</v>
@@ -3637,19 +3643,19 @@
         <v>135</v>
       </c>
       <c r="Q28" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="R28" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="S28" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="T28" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="U28" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="V28" t="s">
         <v>135</v>
@@ -3661,10 +3667,10 @@
         <v>118</v>
       </c>
       <c r="Y28" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z28" t="s">
         <v>123</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>118</v>
       </c>
       <c r="AA28" t="s">
         <v>118</v>
@@ -3693,13 +3699,13 @@
         <v>101</v>
       </c>
       <c r="C29" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D29" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E29" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="F29" t="s">
         <v>135</v>
@@ -3714,16 +3720,16 @@
         <v>135</v>
       </c>
       <c r="J29" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="K29" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L29" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="M29" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="N29" t="s">
         <v>116</v>
@@ -3735,19 +3741,19 @@
         <v>135</v>
       </c>
       <c r="Q29" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="R29" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="S29" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="T29" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="U29" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="V29" t="s">
         <v>135</v>
@@ -3756,13 +3762,13 @@
         <v>135</v>
       </c>
       <c r="X29" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Y29" t="s">
         <v>118</v>
       </c>
       <c r="Z29" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AA29" t="s">
         <v>118</v>
@@ -3791,13 +3797,13 @@
         <v>102</v>
       </c>
       <c r="C30" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D30" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E30" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F30" t="s">
         <v>135</v>
@@ -3812,19 +3818,19 @@
         <v>135</v>
       </c>
       <c r="J30" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="K30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L30" t="s">
         <v>118</v>
       </c>
       <c r="M30" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="N30" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O30" t="s">
         <v>135</v>
@@ -3836,13 +3842,13 @@
         <v>116</v>
       </c>
       <c r="R30" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="S30" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="T30" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="U30" t="s">
         <v>124</v>
@@ -3854,16 +3860,16 @@
         <v>135</v>
       </c>
       <c r="X30" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="Y30" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="Z30" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AA30" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AB30" t="s">
         <v>122</v>
@@ -3875,10 +3881,10 @@
         <v>135</v>
       </c>
       <c r="AE30" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AF30" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:32">
@@ -3889,13 +3895,13 @@
         <v>103</v>
       </c>
       <c r="C31" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D31" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E31" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F31" t="s">
         <v>135</v>
@@ -3913,58 +3919,58 @@
         <v>119</v>
       </c>
       <c r="K31" t="s">
+        <v>131</v>
+      </c>
+      <c r="L31" t="s">
+        <v>131</v>
+      </c>
+      <c r="M31" t="s">
+        <v>131</v>
+      </c>
+      <c r="N31" t="s">
+        <v>131</v>
+      </c>
+      <c r="O31" t="s">
+        <v>135</v>
+      </c>
+      <c r="P31" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q31" t="s">
         <v>119</v>
-      </c>
-      <c r="L31" t="s">
-        <v>119</v>
-      </c>
-      <c r="M31" t="s">
-        <v>119</v>
-      </c>
-      <c r="N31" t="s">
-        <v>119</v>
-      </c>
-      <c r="O31" t="s">
-        <v>135</v>
-      </c>
-      <c r="P31" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>128</v>
       </c>
       <c r="R31" t="s">
         <v>116</v>
       </c>
       <c r="S31" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="T31" t="s">
+        <v>124</v>
+      </c>
+      <c r="U31" t="s">
+        <v>120</v>
+      </c>
+      <c r="V31" t="s">
+        <v>135</v>
+      </c>
+      <c r="W31" t="s">
+        <v>135</v>
+      </c>
+      <c r="X31" t="s">
         <v>129</v>
       </c>
-      <c r="U31" t="s">
-        <v>125</v>
-      </c>
-      <c r="V31" t="s">
-        <v>135</v>
-      </c>
-      <c r="W31" t="s">
-        <v>135</v>
-      </c>
-      <c r="X31" t="s">
-        <v>128</v>
-      </c>
       <c r="Y31" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Z31" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AA31" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="AB31" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AC31" t="s">
         <v>135</v>
@@ -3973,10 +3979,10 @@
         <v>135</v>
       </c>
       <c r="AE31" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AF31" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:32">
@@ -3987,40 +3993,40 @@
         <v>104</v>
       </c>
       <c r="C32" t="s">
+        <v>123</v>
+      </c>
+      <c r="D32" t="s">
+        <v>118</v>
+      </c>
+      <c r="E32" t="s">
+        <v>118</v>
+      </c>
+      <c r="F32" t="s">
+        <v>135</v>
+      </c>
+      <c r="G32" t="s">
+        <v>135</v>
+      </c>
+      <c r="H32" t="s">
+        <v>135</v>
+      </c>
+      <c r="I32" t="s">
+        <v>135</v>
+      </c>
+      <c r="J32" t="s">
+        <v>118</v>
+      </c>
+      <c r="K32" t="s">
         <v>117</v>
       </c>
-      <c r="D32" t="s">
-        <v>122</v>
-      </c>
-      <c r="E32" t="s">
-        <v>118</v>
-      </c>
-      <c r="F32" t="s">
-        <v>135</v>
-      </c>
-      <c r="G32" t="s">
-        <v>135</v>
-      </c>
-      <c r="H32" t="s">
-        <v>135</v>
-      </c>
-      <c r="I32" t="s">
-        <v>135</v>
-      </c>
-      <c r="J32" t="s">
-        <v>127</v>
-      </c>
-      <c r="K32" t="s">
-        <v>127</v>
-      </c>
       <c r="L32" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="M32" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="N32" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="O32" t="s">
         <v>135</v>
@@ -4029,19 +4035,19 @@
         <v>135</v>
       </c>
       <c r="Q32" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="R32" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="S32" t="s">
         <v>116</v>
       </c>
       <c r="T32" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="U32" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="V32" t="s">
         <v>135</v>
@@ -4050,19 +4056,19 @@
         <v>135</v>
       </c>
       <c r="X32" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Y32" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Z32" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AA32" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="AB32" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="AC32" t="s">
         <v>135</v>
@@ -4071,10 +4077,10 @@
         <v>135</v>
       </c>
       <c r="AE32" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="AF32" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:32">
@@ -4085,13 +4091,13 @@
         <v>105</v>
       </c>
       <c r="C33" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D33" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E33" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F33" t="s">
         <v>135</v>
@@ -4106,19 +4112,19 @@
         <v>135</v>
       </c>
       <c r="J33" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K33" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L33" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M33" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N33" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O33" t="s">
         <v>135</v>
@@ -4127,19 +4133,19 @@
         <v>135</v>
       </c>
       <c r="Q33" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="R33" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="S33" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="T33" t="s">
         <v>116</v>
       </c>
       <c r="U33" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="V33" t="s">
         <v>135</v>
@@ -4148,19 +4154,19 @@
         <v>135</v>
       </c>
       <c r="X33" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Y33" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Z33" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AA33" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AB33" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AC33" t="s">
         <v>135</v>
@@ -4169,10 +4175,10 @@
         <v>135</v>
       </c>
       <c r="AE33" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AF33" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:32">
@@ -4183,13 +4189,13 @@
         <v>106</v>
       </c>
       <c r="C34" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D34" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E34" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="F34" t="s">
         <v>135</v>
@@ -4207,7 +4213,7 @@
         <v>124</v>
       </c>
       <c r="K34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L34" t="s">
         <v>132</v>
@@ -4225,16 +4231,16 @@
         <v>135</v>
       </c>
       <c r="Q34" t="s">
+        <v>124</v>
+      </c>
+      <c r="R34" t="s">
         <v>120</v>
       </c>
-      <c r="R34" t="s">
-        <v>122</v>
-      </c>
       <c r="S34" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="T34" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="U34" t="s">
         <v>116</v>
@@ -4246,19 +4252,19 @@
         <v>135</v>
       </c>
       <c r="X34" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Y34" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="Z34" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="AA34" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AB34" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="AC34" t="s">
         <v>135</v>
@@ -4267,10 +4273,10 @@
         <v>135</v>
       </c>
       <c r="AE34" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AF34" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:32">
@@ -4281,13 +4287,13 @@
         <v>107</v>
       </c>
       <c r="C35" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D35" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E35" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F35" t="s">
         <v>135</v>
@@ -4302,20 +4308,20 @@
         <v>135</v>
       </c>
       <c r="J35" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K35" t="s">
+        <v>125</v>
+      </c>
+      <c r="L35" t="s">
+        <v>118</v>
+      </c>
+      <c r="M35" t="s">
+        <v>123</v>
+      </c>
+      <c r="N35" t="s">
         <v>117</v>
       </c>
-      <c r="L35" t="s">
-        <v>118</v>
-      </c>
-      <c r="M35" t="s">
-        <v>122</v>
-      </c>
-      <c r="N35" t="s">
-        <v>120</v>
-      </c>
       <c r="O35" t="s">
         <v>135</v>
       </c>
@@ -4323,19 +4329,19 @@
         <v>135</v>
       </c>
       <c r="Q35" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="R35" t="s">
+        <v>125</v>
+      </c>
+      <c r="S35" t="s">
+        <v>123</v>
+      </c>
+      <c r="T35" t="s">
         <v>117</v>
       </c>
-      <c r="S35" t="s">
-        <v>118</v>
-      </c>
-      <c r="T35" t="s">
-        <v>123</v>
-      </c>
       <c r="U35" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="V35" t="s">
         <v>135</v>
@@ -4347,17 +4353,17 @@
         <v>116</v>
       </c>
       <c r="Y35" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="Z35" t="s">
         <v>124</v>
       </c>
       <c r="AA35" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB35" t="s">
         <v>124</v>
       </c>
-      <c r="AB35" t="s">
-        <v>122</v>
-      </c>
       <c r="AC35" t="s">
         <v>135</v>
       </c>
@@ -4365,10 +4371,10 @@
         <v>135</v>
       </c>
       <c r="AE35" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AF35" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:32">
@@ -4379,14 +4385,14 @@
         <v>108</v>
       </c>
       <c r="C36" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D36" t="s">
+        <v>132</v>
+      </c>
+      <c r="E36" t="s">
         <v>122</v>
       </c>
-      <c r="E36" t="s">
-        <v>126</v>
-      </c>
       <c r="F36" t="s">
         <v>135</v>
       </c>
@@ -4400,19 +4406,19 @@
         <v>135</v>
       </c>
       <c r="J36" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K36" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L36" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M36" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="N36" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="O36" t="s">
         <v>135</v>
@@ -4421,40 +4427,40 @@
         <v>135</v>
       </c>
       <c r="Q36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R36" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="S36" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="T36" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="U36" t="s">
+        <v>129</v>
+      </c>
+      <c r="V36" t="s">
+        <v>135</v>
+      </c>
+      <c r="W36" t="s">
+        <v>135</v>
+      </c>
+      <c r="X36" t="s">
         <v>131</v>
-      </c>
-      <c r="V36" t="s">
-        <v>135</v>
-      </c>
-      <c r="W36" t="s">
-        <v>135</v>
-      </c>
-      <c r="X36" t="s">
-        <v>124</v>
       </c>
       <c r="Y36" t="s">
         <v>116</v>
       </c>
       <c r="Z36" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="AA36" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="AB36" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="AC36" t="s">
         <v>135</v>
@@ -4463,10 +4469,10 @@
         <v>135</v>
       </c>
       <c r="AE36" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF36" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:32">
@@ -4477,13 +4483,13 @@
         <v>109</v>
       </c>
       <c r="C37" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D37" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E37" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F37" t="s">
         <v>135</v>
@@ -4498,19 +4504,19 @@
         <v>135</v>
       </c>
       <c r="J37" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="K37" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="L37" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="M37" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="N37" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O37" t="s">
         <v>135</v>
@@ -4519,19 +4525,19 @@
         <v>135</v>
       </c>
       <c r="Q37" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="R37" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="S37" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="T37" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="U37" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="V37" t="s">
         <v>135</v>
@@ -4540,19 +4546,19 @@
         <v>135</v>
       </c>
       <c r="X37" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="Y37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Z37" t="s">
         <v>116</v>
       </c>
       <c r="AA37" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="AB37" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="AC37" t="s">
         <v>135</v>
@@ -4561,10 +4567,10 @@
         <v>135</v>
       </c>
       <c r="AE37" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="AF37" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:32">
@@ -4575,13 +4581,13 @@
         <v>110</v>
       </c>
       <c r="C38" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D38" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E38" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F38" t="s">
         <v>135</v>
@@ -4596,19 +4602,19 @@
         <v>135</v>
       </c>
       <c r="J38" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K38" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L38" t="s">
         <v>123</v>
       </c>
       <c r="M38" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="N38" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="O38" t="s">
         <v>135</v>
@@ -4617,19 +4623,19 @@
         <v>135</v>
       </c>
       <c r="Q38" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="R38" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="S38" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="T38" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="U38" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="V38" t="s">
         <v>135</v>
@@ -4641,16 +4647,16 @@
         <v>122</v>
       </c>
       <c r="Y38" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Z38" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA38" t="s">
         <v>116</v>
       </c>
       <c r="AB38" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AC38" t="s">
         <v>135</v>
@@ -4659,10 +4665,10 @@
         <v>135</v>
       </c>
       <c r="AE38" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AF38" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:32">
@@ -4673,13 +4679,13 @@
         <v>111</v>
       </c>
       <c r="C39" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E39" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="F39" t="s">
         <v>135</v>
@@ -4694,19 +4700,19 @@
         <v>135</v>
       </c>
       <c r="J39" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K39" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L39" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="M39" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="N39" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O39" t="s">
         <v>135</v>
@@ -4715,19 +4721,19 @@
         <v>135</v>
       </c>
       <c r="Q39" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="R39" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="S39" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="T39" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="U39" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="V39" t="s">
         <v>135</v>
@@ -4736,16 +4742,16 @@
         <v>135</v>
       </c>
       <c r="X39" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="Y39" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="Z39" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="AA39" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="AB39" t="s">
         <v>116</v>
@@ -4757,10 +4763,10 @@
         <v>135</v>
       </c>
       <c r="AE39" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="AF39" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:32">
@@ -4792,7 +4798,7 @@
         <v>135</v>
       </c>
       <c r="J40" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K40" t="s">
         <v>118</v>
@@ -4804,7 +4810,7 @@
         <v>118</v>
       </c>
       <c r="N40" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="O40" t="s">
         <v>135</v>
@@ -4813,31 +4819,31 @@
         <v>135</v>
       </c>
       <c r="Q40" t="s">
+        <v>118</v>
+      </c>
+      <c r="R40" t="s">
+        <v>118</v>
+      </c>
+      <c r="S40" t="s">
+        <v>118</v>
+      </c>
+      <c r="T40" t="s">
+        <v>118</v>
+      </c>
+      <c r="U40" t="s">
+        <v>118</v>
+      </c>
+      <c r="V40" t="s">
+        <v>135</v>
+      </c>
+      <c r="W40" t="s">
+        <v>135</v>
+      </c>
+      <c r="X40" t="s">
         <v>123</v>
       </c>
-      <c r="R40" t="s">
-        <v>118</v>
-      </c>
-      <c r="S40" t="s">
-        <v>118</v>
-      </c>
-      <c r="T40" t="s">
-        <v>118</v>
-      </c>
-      <c r="U40" t="s">
-        <v>118</v>
-      </c>
-      <c r="V40" t="s">
-        <v>135</v>
-      </c>
-      <c r="W40" t="s">
-        <v>135</v>
-      </c>
-      <c r="X40" t="s">
-        <v>118</v>
-      </c>
       <c r="Y40" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="Z40" t="s">
         <v>118</v>
@@ -4869,13 +4875,13 @@
         <v>113</v>
       </c>
       <c r="C41" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D41" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E41" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="F41" t="s">
         <v>135</v>
@@ -4890,19 +4896,19 @@
         <v>135</v>
       </c>
       <c r="J41" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="K41" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L41" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="M41" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="N41" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O41" t="s">
         <v>135</v>
@@ -4911,49 +4917,49 @@
         <v>135</v>
       </c>
       <c r="Q41" t="s">
+        <v>117</v>
+      </c>
+      <c r="R41" t="s">
+        <v>120</v>
+      </c>
+      <c r="S41" t="s">
+        <v>125</v>
+      </c>
+      <c r="T41" t="s">
+        <v>117</v>
+      </c>
+      <c r="U41" t="s">
+        <v>117</v>
+      </c>
+      <c r="V41" t="s">
+        <v>135</v>
+      </c>
+      <c r="W41" t="s">
+        <v>135</v>
+      </c>
+      <c r="X41" t="s">
         <v>123</v>
       </c>
-      <c r="R41" t="s">
-        <v>126</v>
-      </c>
-      <c r="S41" t="s">
-        <v>133</v>
-      </c>
-      <c r="T41" t="s">
-        <v>126</v>
-      </c>
-      <c r="U41" t="s">
-        <v>134</v>
-      </c>
-      <c r="V41" t="s">
-        <v>135</v>
-      </c>
-      <c r="W41" t="s">
-        <v>135</v>
-      </c>
-      <c r="X41" t="s">
+      <c r="Y41" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE41" t="s">
         <v>120</v>
-      </c>
-      <c r="Y41" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z41" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA41" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB41" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC41" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD41" t="s">
-        <v>135</v>
-      </c>
-      <c r="AE41" t="s">
-        <v>123</v>
       </c>
       <c r="AF41" t="s">
         <v>116</v>
@@ -4970,7 +4976,7 @@
         <v>116</v>
       </c>
       <c r="D42" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="E42" t="s">
         <v>118</v>
@@ -4988,19 +4994,19 @@
         <v>135</v>
       </c>
       <c r="J42" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="K42" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L42" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="M42" t="s">
         <v>118</v>
       </c>
       <c r="N42" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="O42" t="s">
         <v>135</v>
@@ -5009,19 +5015,19 @@
         <v>135</v>
       </c>
       <c r="Q42" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="R42" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="S42" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="T42" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="U42" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="V42" t="s">
         <v>135</v>
@@ -5042,7 +5048,7 @@
         <v>118</v>
       </c>
       <c r="AB42" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AC42" t="s">
         <v>135</v>
@@ -5051,7 +5057,7 @@
         <v>135</v>
       </c>
       <c r="AE42" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AF42" t="s">
         <v>118</v>
@@ -5065,13 +5071,13 @@
         <v>115</v>
       </c>
       <c r="C43" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D43" t="s">
         <v>116</v>
       </c>
       <c r="E43" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="F43" t="s">
         <v>135</v>
@@ -5086,19 +5092,19 @@
         <v>135</v>
       </c>
       <c r="J43" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K43" t="s">
+        <v>121</v>
+      </c>
+      <c r="L43" t="s">
+        <v>134</v>
+      </c>
+      <c r="M43" t="s">
         <v>124</v>
       </c>
-      <c r="L43" t="s">
-        <v>118</v>
-      </c>
-      <c r="M43" t="s">
-        <v>118</v>
-      </c>
       <c r="N43" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="O43" t="s">
         <v>135</v>
@@ -5107,19 +5113,19 @@
         <v>135</v>
       </c>
       <c r="Q43" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="R43" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="S43" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="T43" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="U43" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="V43" t="s">
         <v>135</v>
@@ -5128,19 +5134,19 @@
         <v>135</v>
       </c>
       <c r="X43" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Y43" t="s">
         <v>120</v>
       </c>
       <c r="Z43" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="AA43" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AB43" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AC43" t="s">
         <v>135</v>
@@ -5149,10 +5155,10 @@
         <v>135</v>
       </c>
       <c r="AE43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AF43" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -5268,7 +5274,7 @@
         <v>137</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>13</v>
@@ -5292,16 +5298,16 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L2">
         <v>14</v>
       </c>
       <c r="M2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N2" t="s">
         <v>135</v>
@@ -5313,16 +5319,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
+        <v>13</v>
+      </c>
+      <c r="R2">
+        <v>7</v>
+      </c>
+      <c r="S2">
         <v>14</v>
       </c>
-      <c r="R2">
-        <v>8</v>
-      </c>
-      <c r="S2">
-        <v>15</v>
-      </c>
       <c r="T2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U2" t="s">
         <v>135</v>
@@ -5334,7 +5340,7 @@
         <v>1</v>
       </c>
       <c r="X2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y2">
         <v>8</v>
@@ -5343,7 +5349,7 @@
         <v>15</v>
       </c>
       <c r="AA2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB2" t="s">
         <v>135</v>
@@ -5363,7 +5369,7 @@
         <v>138</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>13</v>
@@ -5387,16 +5393,16 @@
         <v>6</v>
       </c>
       <c r="J3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L3">
         <v>13</v>
       </c>
       <c r="M3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N3" t="s">
         <v>135</v>
@@ -5408,16 +5414,16 @@
         <v>6</v>
       </c>
       <c r="Q3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U3" t="s">
         <v>135</v>
@@ -5429,7 +5435,7 @@
         <v>6</v>
       </c>
       <c r="X3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y3">
         <v>11</v>
@@ -5438,7 +5444,7 @@
         <v>14</v>
       </c>
       <c r="AA3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AB3" t="s">
         <v>135</v>
@@ -5458,7 +5464,7 @@
         <v>139</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>12</v>
@@ -5482,16 +5488,16 @@
         <v>5</v>
       </c>
       <c r="J4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L4">
         <v>14</v>
       </c>
       <c r="M4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N4" t="s">
         <v>135</v>
@@ -5503,16 +5509,16 @@
         <v>5</v>
       </c>
       <c r="Q4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U4" t="s">
         <v>135</v>
@@ -5524,7 +5530,7 @@
         <v>5</v>
       </c>
       <c r="X4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y4">
         <v>9</v>
@@ -5533,7 +5539,7 @@
         <v>15</v>
       </c>
       <c r="AA4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB4" t="s">
         <v>135</v>
@@ -5553,7 +5559,7 @@
         <v>140</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>11</v>
@@ -5577,16 +5583,16 @@
         <v>6</v>
       </c>
       <c r="J5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L5">
         <v>13</v>
       </c>
       <c r="M5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N5" t="s">
         <v>135</v>
@@ -5598,16 +5604,16 @@
         <v>6</v>
       </c>
       <c r="Q5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U5" t="s">
         <v>135</v>
@@ -5619,7 +5625,7 @@
         <v>6</v>
       </c>
       <c r="X5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y5">
         <v>9</v>
@@ -5628,7 +5634,7 @@
         <v>14</v>
       </c>
       <c r="AA5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB5" t="s">
         <v>135</v>
@@ -5648,7 +5654,7 @@
         <v>141</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>14</v>
@@ -5672,16 +5678,16 @@
         <v>6</v>
       </c>
       <c r="J6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L6">
         <v>11</v>
       </c>
       <c r="M6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N6" t="s">
         <v>135</v>
@@ -5693,16 +5699,16 @@
         <v>6</v>
       </c>
       <c r="Q6">
+        <v>14</v>
+      </c>
+      <c r="R6">
+        <v>6</v>
+      </c>
+      <c r="S6">
+        <v>11</v>
+      </c>
+      <c r="T6">
         <v>15</v>
-      </c>
-      <c r="R6">
-        <v>7</v>
-      </c>
-      <c r="S6">
-        <v>12</v>
-      </c>
-      <c r="T6">
-        <v>14</v>
       </c>
       <c r="U6" t="s">
         <v>135</v>
@@ -5714,7 +5720,7 @@
         <v>6</v>
       </c>
       <c r="X6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y6">
         <v>7</v>
@@ -5723,7 +5729,7 @@
         <v>12</v>
       </c>
       <c r="AA6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AB6" t="s">
         <v>135</v>
@@ -5767,16 +5773,16 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K7">
         <v>6</v>
       </c>
       <c r="L7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N7" t="s">
         <v>135</v>
@@ -5788,7 +5794,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R7">
         <v>6</v>
@@ -5809,7 +5815,7 @@
         <v>1</v>
       </c>
       <c r="X7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y7">
         <v>6</v>
@@ -5818,7 +5824,7 @@
         <v>10</v>
       </c>
       <c r="AA7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB7" t="s">
         <v>135</v>
@@ -5859,16 +5865,16 @@
         <v>135</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M8">
         <v>7</v>
@@ -5883,17 +5889,17 @@
         <v>1</v>
       </c>
       <c r="Q8">
+        <v>5</v>
+      </c>
+      <c r="R8">
+        <v>6</v>
+      </c>
+      <c r="S8">
         <v>9</v>
       </c>
-      <c r="R8">
+      <c r="T8">
         <v>7</v>
       </c>
-      <c r="S8">
-        <v>10</v>
-      </c>
-      <c r="T8">
-        <v>8</v>
-      </c>
       <c r="U8" t="s">
         <v>135</v>
       </c>
@@ -5901,19 +5907,19 @@
         <v>135</v>
       </c>
       <c r="W8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Y8">
         <v>5</v>
       </c>
       <c r="Z8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AB8" t="s">
         <v>135</v>
@@ -5936,10 +5942,10 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E9" t="s">
         <v>135</v>
@@ -5957,17 +5963,17 @@
         <v>1</v>
       </c>
       <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>5</v>
+      </c>
+      <c r="M9">
         <v>2</v>
       </c>
-      <c r="K9">
-        <v>4</v>
-      </c>
-      <c r="L9">
-        <v>4</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
       <c r="N9" t="s">
         <v>135</v>
       </c>
@@ -5975,19 +5981,19 @@
         <v>135</v>
       </c>
       <c r="P9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q9">
         <v>2</v>
       </c>
       <c r="R9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="T9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U9" t="s">
         <v>135</v>
@@ -5999,16 +6005,16 @@
         <v>1</v>
       </c>
       <c r="X9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z9">
         <v>2</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB9" t="s">
         <v>135</v>
@@ -6028,10 +6034,10 @@
         <v>145</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -6049,16 +6055,16 @@
         <v>135</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10">
+        <v>4</v>
+      </c>
+      <c r="K10">
         <v>2</v>
       </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
       <c r="L10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -6073,16 +6079,16 @@
         <v>2</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U10" t="s">
         <v>135</v>
@@ -6094,16 +6100,16 @@
         <v>1</v>
       </c>
       <c r="X10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Y10">
         <v>3</v>
       </c>
       <c r="Z10">
+        <v>3</v>
+      </c>
+      <c r="AA10">
         <v>1</v>
-      </c>
-      <c r="AA10">
-        <v>3</v>
       </c>
       <c r="AB10" t="s">
         <v>135</v>
@@ -6126,11 +6132,11 @@
         <v>0</v>
       </c>
       <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>4</v>
       </c>
-      <c r="D11">
-        <v>3</v>
-      </c>
       <c r="E11" t="s">
         <v>135</v>
       </c>
@@ -6144,19 +6150,19 @@
         <v>135</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>3</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
         <v>135</v>
@@ -6168,16 +6174,16 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U11" t="s">
         <v>135</v>
@@ -6189,7 +6195,7 @@
         <v>1</v>
       </c>
       <c r="X11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Y11">
         <v>4</v>
@@ -6198,7 +6204,7 @@
         <v>4</v>
       </c>
       <c r="AA11">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AB11" t="s">
         <v>135</v>
@@ -6218,13 +6224,13 @@
         <v>147</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12">
         <v>7</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E12" t="s">
         <v>135</v>
@@ -6239,40 +6245,40 @@
         <v>135</v>
       </c>
       <c r="I12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K12">
         <v>3</v>
       </c>
       <c r="L12">
+        <v>7</v>
+      </c>
+      <c r="M12">
+        <v>12</v>
+      </c>
+      <c r="N12" t="s">
+        <v>135</v>
+      </c>
+      <c r="O12" t="s">
+        <v>135</v>
+      </c>
+      <c r="P12">
         <v>6</v>
       </c>
-      <c r="M12">
+      <c r="Q12">
+        <v>6</v>
+      </c>
+      <c r="R12">
+        <v>6</v>
+      </c>
+      <c r="S12">
         <v>8</v>
       </c>
-      <c r="N12" t="s">
-        <v>135</v>
-      </c>
-      <c r="O12" t="s">
-        <v>135</v>
-      </c>
-      <c r="P12">
-        <v>5</v>
-      </c>
-      <c r="Q12">
-        <v>5</v>
-      </c>
-      <c r="R12">
-        <v>2</v>
-      </c>
-      <c r="S12">
-        <v>5</v>
-      </c>
       <c r="T12">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="U12" t="s">
         <v>135</v>
@@ -6281,19 +6287,19 @@
         <v>135</v>
       </c>
       <c r="W12">
+        <v>4</v>
+      </c>
+      <c r="X12">
         <v>6</v>
       </c>
-      <c r="X12">
-        <v>9</v>
-      </c>
       <c r="Y12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AA12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB12" t="s">
         <v>135</v>
@@ -6316,10 +6322,10 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E13" t="s">
         <v>135</v>
@@ -6334,37 +6340,37 @@
         <v>135</v>
       </c>
       <c r="I13">
+        <v>6</v>
+      </c>
+      <c r="J13">
         <v>7</v>
-      </c>
-      <c r="J13">
-        <v>8</v>
       </c>
       <c r="K13">
         <v>5</v>
       </c>
       <c r="L13">
+        <v>10</v>
+      </c>
+      <c r="M13">
+        <v>11</v>
+      </c>
+      <c r="N13" t="s">
+        <v>135</v>
+      </c>
+      <c r="O13" t="s">
+        <v>135</v>
+      </c>
+      <c r="P13">
+        <v>7</v>
+      </c>
+      <c r="Q13">
         <v>8</v>
       </c>
-      <c r="M13">
+      <c r="R13">
         <v>8</v>
       </c>
-      <c r="N13" t="s">
-        <v>135</v>
-      </c>
-      <c r="O13" t="s">
-        <v>135</v>
-      </c>
-      <c r="P13">
-        <v>6</v>
-      </c>
-      <c r="Q13">
-        <v>7</v>
-      </c>
-      <c r="R13">
-        <v>4</v>
-      </c>
       <c r="S13">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="T13">
         <v>11</v>
@@ -6379,10 +6385,10 @@
         <v>6</v>
       </c>
       <c r="X13">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="Y13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Z13">
         <v>8</v>
@@ -6411,11 +6417,11 @@
         <v>7</v>
       </c>
       <c r="C14">
+        <v>9</v>
+      </c>
+      <c r="D14">
         <v>10</v>
       </c>
-      <c r="D14">
-        <v>7</v>
-      </c>
       <c r="E14" t="s">
         <v>135</v>
       </c>
@@ -6429,37 +6435,37 @@
         <v>135</v>
       </c>
       <c r="I14">
+        <v>8</v>
+      </c>
+      <c r="J14">
         <v>9</v>
-      </c>
-      <c r="J14">
-        <v>10</v>
       </c>
       <c r="K14">
         <v>8</v>
       </c>
       <c r="L14">
+        <v>11</v>
+      </c>
+      <c r="M14">
+        <v>13</v>
+      </c>
+      <c r="N14" t="s">
+        <v>135</v>
+      </c>
+      <c r="O14" t="s">
+        <v>135</v>
+      </c>
+      <c r="P14">
         <v>9</v>
       </c>
-      <c r="M14">
+      <c r="Q14">
         <v>10</v>
       </c>
-      <c r="N14" t="s">
-        <v>135</v>
-      </c>
-      <c r="O14" t="s">
-        <v>135</v>
-      </c>
-      <c r="P14">
-        <v>8</v>
-      </c>
-      <c r="Q14">
-        <v>9</v>
-      </c>
       <c r="R14">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="S14">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="T14">
         <v>13</v>
@@ -6474,10 +6480,10 @@
         <v>8</v>
       </c>
       <c r="X14">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="Y14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z14">
         <v>9</v>
@@ -6506,55 +6512,55 @@
         <v>10</v>
       </c>
       <c r="C15">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>135</v>
+      </c>
+      <c r="F15" t="s">
+        <v>135</v>
+      </c>
+      <c r="G15" t="s">
+        <v>135</v>
+      </c>
+      <c r="H15" t="s">
+        <v>135</v>
+      </c>
+      <c r="I15">
+        <v>11</v>
+      </c>
+      <c r="J15">
         <v>7</v>
-      </c>
-      <c r="E15" t="s">
-        <v>135</v>
-      </c>
-      <c r="F15" t="s">
-        <v>135</v>
-      </c>
-      <c r="G15" t="s">
-        <v>135</v>
-      </c>
-      <c r="H15" t="s">
-        <v>135</v>
-      </c>
-      <c r="I15">
-        <v>12</v>
-      </c>
-      <c r="J15">
-        <v>8</v>
       </c>
       <c r="K15">
         <v>8</v>
       </c>
       <c r="L15">
+        <v>10</v>
+      </c>
+      <c r="M15">
+        <v>11</v>
+      </c>
+      <c r="N15" t="s">
+        <v>135</v>
+      </c>
+      <c r="O15" t="s">
+        <v>135</v>
+      </c>
+      <c r="P15">
+        <v>12</v>
+      </c>
+      <c r="Q15">
         <v>8</v>
       </c>
-      <c r="M15">
-        <v>8</v>
-      </c>
-      <c r="N15" t="s">
-        <v>135</v>
-      </c>
-      <c r="O15" t="s">
-        <v>135</v>
-      </c>
-      <c r="P15">
+      <c r="R15">
         <v>11</v>
       </c>
-      <c r="Q15">
-        <v>7</v>
-      </c>
-      <c r="R15">
-        <v>7</v>
-      </c>
       <c r="S15">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="T15">
         <v>11</v>
@@ -6569,10 +6575,10 @@
         <v>11</v>
       </c>
       <c r="X15">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="Y15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z15">
         <v>8</v>
@@ -6601,11 +6607,11 @@
         <v>8</v>
       </c>
       <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16">
         <v>11</v>
       </c>
-      <c r="D16">
-        <v>8</v>
-      </c>
       <c r="E16" t="s">
         <v>135</v>
       </c>
@@ -6619,37 +6625,37 @@
         <v>135</v>
       </c>
       <c r="I16">
+        <v>9</v>
+      </c>
+      <c r="J16">
         <v>10</v>
-      </c>
-      <c r="J16">
-        <v>11</v>
       </c>
       <c r="K16">
         <v>9</v>
       </c>
       <c r="L16">
+        <v>13</v>
+      </c>
+      <c r="M16">
+        <v>12</v>
+      </c>
+      <c r="N16" t="s">
+        <v>135</v>
+      </c>
+      <c r="O16" t="s">
+        <v>135</v>
+      </c>
+      <c r="P16">
+        <v>10</v>
+      </c>
+      <c r="Q16">
         <v>11</v>
       </c>
-      <c r="M16">
-        <v>9</v>
-      </c>
-      <c r="N16" t="s">
-        <v>135</v>
-      </c>
-      <c r="O16" t="s">
-        <v>135</v>
-      </c>
-      <c r="P16">
-        <v>9</v>
-      </c>
-      <c r="Q16">
-        <v>10</v>
-      </c>
       <c r="R16">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="S16">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="T16">
         <v>12</v>
@@ -6664,10 +6670,10 @@
         <v>9</v>
       </c>
       <c r="X16">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="Y16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z16">
         <v>11</v>
@@ -6696,10 +6702,10 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E17" t="s">
         <v>135</v>
@@ -6714,37 +6720,37 @@
         <v>135</v>
       </c>
       <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
         <v>1</v>
-      </c>
-      <c r="J17">
-        <v>2</v>
       </c>
       <c r="K17">
         <v>3</v>
       </c>
       <c r="L17">
+        <v>4</v>
+      </c>
+      <c r="M17">
+        <v>10</v>
+      </c>
+      <c r="N17" t="s">
+        <v>135</v>
+      </c>
+      <c r="O17" t="s">
+        <v>135</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
         <v>2</v>
       </c>
-      <c r="M17">
-        <v>7</v>
-      </c>
-      <c r="N17" t="s">
-        <v>135</v>
-      </c>
-      <c r="O17" t="s">
-        <v>135</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>1</v>
-      </c>
       <c r="R17">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T17">
         <v>10</v>
@@ -6759,10 +6765,10 @@
         <v>0</v>
       </c>
       <c r="X17">
+        <v>1</v>
+      </c>
+      <c r="Y17">
         <v>5</v>
-      </c>
-      <c r="Y17">
-        <v>4</v>
       </c>
       <c r="Z17">
         <v>2</v>
@@ -6791,10 +6797,10 @@
         <v>4</v>
       </c>
       <c r="C18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E18" t="s">
         <v>135</v>
@@ -6809,37 +6815,37 @@
         <v>135</v>
       </c>
       <c r="I18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K18">
         <v>3</v>
       </c>
       <c r="L18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M18">
+        <v>9</v>
+      </c>
+      <c r="N18" t="s">
+        <v>135</v>
+      </c>
+      <c r="O18" t="s">
+        <v>135</v>
+      </c>
+      <c r="P18">
+        <v>5</v>
+      </c>
+      <c r="Q18">
+        <v>8</v>
+      </c>
+      <c r="R18">
         <v>6</v>
       </c>
-      <c r="N18" t="s">
-        <v>135</v>
-      </c>
-      <c r="O18" t="s">
-        <v>135</v>
-      </c>
-      <c r="P18">
-        <v>4</v>
-      </c>
-      <c r="Q18">
+      <c r="S18">
         <v>7</v>
-      </c>
-      <c r="R18">
-        <v>2</v>
-      </c>
-      <c r="S18">
-        <v>4</v>
       </c>
       <c r="T18">
         <v>9</v>
@@ -6854,10 +6860,10 @@
         <v>4</v>
       </c>
       <c r="X18">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="Y18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z18">
         <v>4</v>
@@ -6883,10 +6889,10 @@
         <v>154</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -6904,17 +6910,17 @@
         <v>135</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19">
+        <v>4</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
         <v>3</v>
       </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
       <c r="M19">
         <v>0</v>
       </c>
@@ -6925,16 +6931,16 @@
         <v>135</v>
       </c>
       <c r="P19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q19">
         <v>6</v>
       </c>
       <c r="R19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T19">
         <v>1</v>
@@ -6946,16 +6952,16 @@
         <v>135</v>
       </c>
       <c r="W19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X19">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Y19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA19">
         <v>1</v>
@@ -6967,7 +6973,7 @@
         <v>135</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE19">
         <v>1</v>
@@ -6978,10 +6984,10 @@
         <v>155</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20">
         <v>7</v>
@@ -6999,16 +7005,16 @@
         <v>135</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M20">
         <v>4</v>
@@ -7020,16 +7026,16 @@
         <v>135</v>
       </c>
       <c r="P20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q20">
         <v>9</v>
       </c>
       <c r="R20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T20">
         <v>5</v>
@@ -7041,16 +7047,16 @@
         <v>135</v>
       </c>
       <c r="W20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X20">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Y20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AA20">
         <v>5</v>
@@ -7062,7 +7068,7 @@
         <v>135</v>
       </c>
       <c r="AD20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE20">
         <v>4</v>
@@ -9736,10 +9742,10 @@
         <v>74</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -9764,7 +9770,7 @@
         <v>76</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -9792,10 +9798,10 @@
         <v>78</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -9806,10 +9812,10 @@
         <v>79</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -9820,10 +9826,10 @@
         <v>80</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -9834,10 +9840,10 @@
         <v>81</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -9851,7 +9857,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -9862,7 +9868,7 @@
         <v>83</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -9879,7 +9885,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -9890,10 +9896,10 @@
         <v>85</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -9904,10 +9910,10 @@
         <v>86</v>
       </c>
       <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
         <v>4</v>
-      </c>
-      <c r="D14">
-        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -9918,7 +9924,7 @@
         <v>87</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D15">
         <v>5</v>
@@ -9960,7 +9966,7 @@
         <v>90</v>
       </c>
       <c r="C18">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>6</v>
@@ -9974,10 +9980,10 @@
         <v>91</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -9988,10 +9994,10 @@
         <v>92</v>
       </c>
       <c r="C20">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D20">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -10002,10 +10008,10 @@
         <v>93</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -10016,7 +10022,7 @@
         <v>94</v>
       </c>
       <c r="C22">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D22">
         <v>3</v>
@@ -10044,10 +10050,10 @@
         <v>96</v>
       </c>
       <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
         <v>4</v>
-      </c>
-      <c r="D24">
-        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -10058,10 +10064,10 @@
         <v>97</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -10072,10 +10078,10 @@
         <v>98</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D26">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -10086,10 +10092,10 @@
         <v>99</v>
       </c>
       <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27">
         <v>5</v>
-      </c>
-      <c r="D27">
-        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -10100,10 +10106,10 @@
         <v>100</v>
       </c>
       <c r="C28">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -10114,10 +10120,10 @@
         <v>101</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -10128,10 +10134,10 @@
         <v>102</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -10145,7 +10151,7 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -10156,10 +10162,10 @@
         <v>104</v>
       </c>
       <c r="C32">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -10170,10 +10176,10 @@
         <v>105</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -10187,7 +10193,7 @@
         <v>4</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -10198,7 +10204,7 @@
         <v>107</v>
       </c>
       <c r="C35">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35">
         <v>5</v>
@@ -10212,7 +10218,7 @@
         <v>108</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D36">
         <v>3</v>
@@ -10226,7 +10232,7 @@
         <v>109</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D37">
         <v>5</v>
@@ -10240,7 +10246,7 @@
         <v>110</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D38">
         <v>8</v>
@@ -10254,7 +10260,7 @@
         <v>111</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D39">
         <v>4</v>
@@ -10271,7 +10277,7 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -10282,10 +10288,10 @@
         <v>113</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D41">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -10296,10 +10302,10 @@
         <v>114</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -10310,10 +10316,10 @@
         <v>115</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D43">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -10354,16 +10360,16 @@
         <v>166</v>
       </c>
       <c r="C2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D2" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="E2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -10374,16 +10380,16 @@
         <v>167</v>
       </c>
       <c r="C3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D3" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E3" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F3" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -10394,16 +10400,16 @@
         <v>168</v>
       </c>
       <c r="C4" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E4" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -10411,10 +10417,10 @@
         <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D5" t="s">
         <v>167</v>
@@ -10423,7 +10429,7 @@
         <v>167</v>
       </c>
       <c r="F5" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10431,19 +10437,19 @@
         <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D6" t="s">
         <v>174</v>
       </c>
       <c r="E6" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="F6" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10451,19 +10457,19 @@
         <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E7" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="F7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10471,19 +10477,19 @@
         <v>80</v>
       </c>
       <c r="B8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C8" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="D8" t="s">
         <v>168</v>
       </c>
       <c r="E8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -10491,19 +10497,19 @@
         <v>81</v>
       </c>
       <c r="B9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C9" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D9" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E9" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F9" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -10511,19 +10517,19 @@
         <v>82</v>
       </c>
       <c r="B10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D10" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="E10" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="F10" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -10531,19 +10537,19 @@
         <v>83</v>
       </c>
       <c r="B11" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C11" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="D11" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E11" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="F11" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -10554,16 +10560,16 @@
         <v>171</v>
       </c>
       <c r="C12" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="D12" t="s">
         <v>170</v>
       </c>
       <c r="E12" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="F12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -10571,19 +10577,19 @@
         <v>85</v>
       </c>
       <c r="B13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D13" t="s">
         <v>168</v>
       </c>
       <c r="E13" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -10591,19 +10597,19 @@
         <v>86</v>
       </c>
       <c r="B14" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C14" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D14" t="s">
+        <v>177</v>
+      </c>
+      <c r="E14" t="s">
+        <v>177</v>
+      </c>
+      <c r="F14" t="s">
         <v>171</v>
-      </c>
-      <c r="E14" t="s">
-        <v>170</v>
-      </c>
-      <c r="F14" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -10611,19 +10617,19 @@
         <v>87</v>
       </c>
       <c r="B15" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" t="s">
+        <v>171</v>
+      </c>
+      <c r="D15" t="s">
         <v>172</v>
       </c>
-      <c r="C15" t="s">
-        <v>175</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>166</v>
       </c>
-      <c r="E15" t="s">
-        <v>170</v>
-      </c>
       <c r="F15" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -10651,19 +10657,19 @@
         <v>89</v>
       </c>
       <c r="B17" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C17" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D17" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E17" t="s">
         <v>172</v>
       </c>
       <c r="F17" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -10671,19 +10677,19 @@
         <v>90</v>
       </c>
       <c r="B18" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C18" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D18" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E18" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="F18" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -10694,16 +10700,16 @@
         <v>173</v>
       </c>
       <c r="C19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D19" t="s">
         <v>171</v>
       </c>
       <c r="E19" t="s">
+        <v>174</v>
+      </c>
+      <c r="F19" t="s">
         <v>176</v>
-      </c>
-      <c r="F19" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -10714,16 +10720,16 @@
         <v>172</v>
       </c>
       <c r="C20" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D20" t="s">
+        <v>183</v>
+      </c>
+      <c r="E20" t="s">
+        <v>181</v>
+      </c>
+      <c r="F20" t="s">
         <v>171</v>
-      </c>
-      <c r="E20" t="s">
-        <v>170</v>
-      </c>
-      <c r="F20" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -10734,16 +10740,16 @@
         <v>174</v>
       </c>
       <c r="C21" t="s">
+        <v>180</v>
+      </c>
+      <c r="D21" t="s">
+        <v>184</v>
+      </c>
+      <c r="E21" t="s">
         <v>181</v>
       </c>
-      <c r="D21" t="s">
-        <v>168</v>
-      </c>
-      <c r="E21" t="s">
-        <v>171</v>
-      </c>
       <c r="F21" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -10751,19 +10757,19 @@
         <v>94</v>
       </c>
       <c r="B22" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D22" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E22" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="F22" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -10771,19 +10777,19 @@
         <v>95</v>
       </c>
       <c r="B23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C23" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D23" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="E23" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="F23" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -10791,19 +10797,19 @@
         <v>96</v>
       </c>
       <c r="B24" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C24" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="D24" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E24" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="F24" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -10811,19 +10817,19 @@
         <v>97</v>
       </c>
       <c r="B25" t="s">
+        <v>171</v>
+      </c>
+      <c r="C25" t="s">
         <v>175</v>
       </c>
-      <c r="C25" t="s">
-        <v>169</v>
-      </c>
       <c r="D25" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E25" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="F25" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -10831,16 +10837,16 @@
         <v>98</v>
       </c>
       <c r="B26" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D26" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E26" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="F26" t="s">
         <v>167</v>
@@ -10851,19 +10857,19 @@
         <v>99</v>
       </c>
       <c r="B27" t="s">
+        <v>174</v>
+      </c>
+      <c r="C27" t="s">
+        <v>166</v>
+      </c>
+      <c r="D27" t="s">
         <v>176</v>
       </c>
-      <c r="C27" t="s">
-        <v>170</v>
-      </c>
-      <c r="D27" t="s">
-        <v>184</v>
-      </c>
       <c r="E27" t="s">
+        <v>174</v>
+      </c>
+      <c r="F27" t="s">
         <v>166</v>
-      </c>
-      <c r="F27" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -10871,13 +10877,13 @@
         <v>100</v>
       </c>
       <c r="B28" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C28" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D28" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E28" t="s">
         <v>168</v>
@@ -10891,16 +10897,16 @@
         <v>101</v>
       </c>
       <c r="B29" t="s">
+        <v>170</v>
+      </c>
+      <c r="C29" t="s">
         <v>172</v>
       </c>
-      <c r="C29" t="s">
-        <v>166</v>
-      </c>
       <c r="D29" t="s">
+        <v>172</v>
+      </c>
+      <c r="E29" t="s">
         <v>170</v>
-      </c>
-      <c r="E29" t="s">
-        <v>168</v>
       </c>
       <c r="F29" t="s">
         <v>168</v>
@@ -10917,13 +10923,13 @@
         <v>178</v>
       </c>
       <c r="D30" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="E30" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="F30" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -10931,16 +10937,16 @@
         <v>103</v>
       </c>
       <c r="B31" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C31" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="D31" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="E31" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F31" t="s">
         <v>172</v>
@@ -10951,19 +10957,19 @@
         <v>104</v>
       </c>
       <c r="B32" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C32" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="D32" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E32" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="F32" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -10977,7 +10983,7 @@
         <v>167</v>
       </c>
       <c r="D33" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="E33" t="s">
         <v>167</v>
@@ -10991,19 +10997,19 @@
         <v>106</v>
       </c>
       <c r="B34" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C34" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D34" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="E34" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="F34" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -11011,19 +11017,19 @@
         <v>107</v>
       </c>
       <c r="B35" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C35" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D35" t="s">
         <v>167</v>
       </c>
       <c r="E35" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F35" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -11031,19 +11037,19 @@
         <v>108</v>
       </c>
       <c r="B36" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="C36" t="s">
+        <v>174</v>
+      </c>
+      <c r="D36" t="s">
+        <v>172</v>
+      </c>
+      <c r="E36" t="s">
         <v>171</v>
       </c>
-      <c r="D36" t="s">
-        <v>177</v>
-      </c>
-      <c r="E36" t="s">
-        <v>172</v>
-      </c>
       <c r="F36" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -11051,19 +11057,19 @@
         <v>109</v>
       </c>
       <c r="B37" t="s">
+        <v>166</v>
+      </c>
+      <c r="C37" t="s">
         <v>174</v>
       </c>
-      <c r="C37" t="s">
-        <v>172</v>
-      </c>
       <c r="D37" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E37" t="s">
         <v>166</v>
       </c>
       <c r="F37" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -11074,13 +11080,13 @@
         <v>166</v>
       </c>
       <c r="C38" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D38" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E38" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F38" t="s">
         <v>166</v>
@@ -11091,19 +11097,19 @@
         <v>111</v>
       </c>
       <c r="B39" t="s">
+        <v>167</v>
+      </c>
+      <c r="C39" t="s">
         <v>174</v>
       </c>
-      <c r="C39" t="s">
-        <v>168</v>
-      </c>
       <c r="D39" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="E39" t="s">
+        <v>186</v>
+      </c>
+      <c r="F39" t="s">
         <v>166</v>
-      </c>
-      <c r="F39" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -11114,7 +11120,7 @@
         <v>168</v>
       </c>
       <c r="C40" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="D40" t="s">
         <v>168</v>
@@ -11131,19 +11137,19 @@
         <v>113</v>
       </c>
       <c r="B41" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C41" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="D41" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="E41" t="s">
         <v>167</v>
       </c>
       <c r="F41" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -11151,19 +11157,19 @@
         <v>114</v>
       </c>
       <c r="B42" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C42" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D42" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E42" t="s">
         <v>168</v>
       </c>
       <c r="F42" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -11171,19 +11177,19 @@
         <v>115</v>
       </c>
       <c r="B43" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C43" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="D43" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E43" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="F43" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
